--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangxh12/lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangxh12/lab/irony_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3600" yWindow="-16340" windowWidth="31200" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="1960" yWindow="-15720" windowWidth="24500" windowHeight="12700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="442">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1299,21 +1299,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A_gru_naive_1540912745</t>
-  </si>
-  <si>
-    <t>A_gru_ek_1540912707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A_gru_ek_1540912707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A_gru_naive_1540912745, A_gru_ek_1540912707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,9 +1311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B_gru_ek_1540913409</t>
-  </si>
-  <si>
     <t>A_gru_ek_1540912707, B_gru_ek_1540913409</t>
   </si>
   <si>
@@ -1332,13 +1318,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B_gru_naive_1540913413</t>
-  </si>
-  <si>
     <t>A_gru_naive_1540912745, B_gru_naive_1540913413</t>
   </si>
   <si>
     <t>A_gru_naive_1540912745, B_gru_naive_1540913413, A_gru_ek_1540912707, B_gru_ek_1540913409</t>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ek, CountVectorizer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ek, CountVectorizer(ngram_range=(1, 3))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ek, CountVectorizer(ngram_range=(1, 3), min_df=0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve, CountVectorizer(ngram_range=(1, 3), min_df=0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ek, TfidfVectorizer(ngram_range=(1, 3), min_df=0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_lstm_ek_1541078091</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim=(100,), epoch=5, embedding_trainable=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_lstm_ek_1541078223</t>
+  </si>
+  <si>
+    <t>dim=(100,), epoch=5, embedding_trainable=False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_lstm_ek_1541078223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_lstm_ek_1541078091, A_lstm_ek_1541078223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1541081331</t>
+  </si>
+  <si>
+    <t>A_gru_naive_1541081642</t>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_gru_naive_1541081919</t>
+  </si>
+  <si>
+    <t>B_gru_ek_1541081942</t>
   </si>
 </sst>
 </file>
@@ -1452,8 +1513,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1502,7 +1567,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1519,6 +1584,8 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1534,6 +1601,8 @@
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1810,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2451,31 +2520,31 @@
         <v>401</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="D12" s="6">
-        <v>0.69770474700100005</v>
+        <v>0.69561815336499999</v>
       </c>
       <c r="E12" s="6">
-        <v>0.67990430621999998</v>
+        <v>0.67206290471800001</v>
       </c>
       <c r="F12" s="6">
-        <v>0.74358974358999996</v>
+        <v>0.76033490319200003</v>
       </c>
       <c r="G12" s="6">
-        <v>0.71032241939499996</v>
+        <v>0.71347900810200005</v>
       </c>
       <c r="H12" s="6">
-        <v>0.64668367346900002</v>
+        <v>0.63775510204100005</v>
       </c>
       <c r="I12" s="6">
-        <v>0.54166666666700003</v>
+        <v>0.53206650831400004</v>
       </c>
       <c r="J12" s="6">
-        <v>0.71061093247600005</v>
+        <v>0.72025723472699998</v>
       </c>
       <c r="K12" s="6">
-        <v>0.614742698192</v>
+        <v>0.61202185792300001</v>
       </c>
       <c r="M12" s="5">
         <v>11</v>
@@ -2510,31 +2579,31 @@
         <v>393</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="D13" s="6">
-        <v>0.73343766301500002</v>
+        <v>0.73735002608199995</v>
       </c>
       <c r="E13" s="6">
-        <v>0.73605947955399997</v>
+        <v>0.74171122994700001</v>
       </c>
       <c r="F13" s="6">
-        <v>0.72527472527500003</v>
+        <v>0.72579801151199996</v>
       </c>
       <c r="G13" s="6">
-        <v>0.73062730627299999</v>
+        <v>0.73366834170899997</v>
       </c>
       <c r="H13" s="6">
-        <v>0.66071428571400004</v>
+        <v>0.661989795918</v>
       </c>
       <c r="I13" s="6">
-        <v>0.56198347107400004</v>
+        <v>0.56318681318700003</v>
       </c>
       <c r="J13" s="6">
-        <v>0.65594855305499999</v>
+        <v>0.65916398713799995</v>
       </c>
       <c r="K13" s="6">
-        <v>0.60534124629099995</v>
+        <v>0.60740740740700006</v>
       </c>
       <c r="M13" s="5">
         <v>12</v>
@@ -2601,31 +2670,31 @@
         <v>401</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D15" s="6">
-        <v>0.69457485654700002</v>
+        <v>0.71961398017699996</v>
       </c>
       <c r="E15" s="6">
-        <v>0.678916827853</v>
+        <v>0.71884816753900005</v>
       </c>
       <c r="F15" s="6">
-        <v>0.73469387755100002</v>
+        <v>0.71847200418599999</v>
       </c>
       <c r="G15" s="6">
-        <v>0.70570495099300001</v>
+        <v>0.71866003664</v>
       </c>
       <c r="H15" s="6">
-        <v>0.650510204082</v>
+        <v>0.661989795918</v>
       </c>
       <c r="I15" s="6">
-        <v>0.54523227383899997</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0.71704180064300005</v>
+        <v>0.56020942408399999</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.68810289389099999</v>
       </c>
       <c r="K15" s="6">
-        <v>0.61944444444400004</v>
+        <v>0.61760461760499996</v>
       </c>
       <c r="M15" s="5">
         <v>14</v>
@@ -2655,34 +2724,34 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="D16" s="6">
-        <v>0.73891497130899997</v>
+        <v>0.75769431403200005</v>
       </c>
       <c r="E16" s="6">
-        <v>0.74890590809599999</v>
+        <v>0.76684782608699997</v>
       </c>
       <c r="F16" s="6">
-        <v>0.71637885923599998</v>
+        <v>0.738356881214</v>
       </c>
       <c r="G16" s="6">
-        <v>0.73228135865199995</v>
+        <v>0.75233271127699997</v>
       </c>
       <c r="H16" s="6">
-        <v>0.67091836734700006</v>
+        <v>0.679846938776</v>
       </c>
       <c r="I16" s="6">
-        <v>0.57507082153</v>
+        <v>0.58522727272700004</v>
       </c>
       <c r="J16" s="6">
-        <v>0.65273311897099995</v>
+        <v>0.662379421222</v>
       </c>
       <c r="K16" s="6">
-        <v>0.61144578313300002</v>
+        <v>0.621417797888</v>
       </c>
       <c r="M16" s="5">
         <v>15</v>
@@ -2773,7 +2842,7 @@
         <v>393</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D19" s="6">
         <v>0.75873761085000002</v>
@@ -2829,10 +2898,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D20" s="6">
         <v>0.75847678664600005</v>
@@ -2888,10 +2957,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D21" s="6">
         <v>0.77856025039099996</v>
@@ -2950,7 +3019,7 @@
         <v>393</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D22" s="10">
         <v>0.79499217527400001</v>
@@ -3032,6 +3101,39 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.680490349504</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.68560606060600005</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.66300366300400004</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.67411545623799995</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.63520408163300002</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.53541076487299999</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.60771704180099995</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.56927710843400003</v>
+      </c>
       <c r="M24" s="5">
         <v>23</v>
       </c>
@@ -3061,6 +3163,36 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.69874804381800004</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.70388349514600002</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.68288854003099997</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.693227091633</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.64158163265299994</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.54098360655699995</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.63665594855300001</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.58493353028100004</v>
+      </c>
       <c r="M25" s="5">
         <v>24</v>
       </c>
@@ -3090,6 +3222,39 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.64397496087600004</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.61441743503799995</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.76713762427999999</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.682336513847</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.60969387755100002</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.50535331905799996</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.75884244372999998</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.606683804627</v>
+      </c>
       <c r="M26" s="5">
         <v>25</v>
       </c>
@@ -3119,6 +3284,36 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.66197183098599999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.63540290620899997</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.75510204081599996</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.690100430416</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.61479591836699998</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.50989010989000005</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.745980707395</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.60574412532599997</v>
+      </c>
       <c r="M27" s="5">
         <v>26</v>
       </c>
@@ -3148,6 +3343,37 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>0.70500782472599999</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.71381578947400004</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.68131868131899997</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.69718875501999999</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.64030612244899998</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.54016620498599999</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.62700964630199996</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.58035714285700002</v>
+      </c>
       <c r="M28" s="5">
         <v>27</v>
       </c>
@@ -3290,7 +3516,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M33" s="5">
         <v>32</v>
       </c>
@@ -3317,7 +3543,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M34" s="5">
         <v>33</v>
       </c>
@@ -3346,7 +3572,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M35" s="5">
         <v>34</v>
       </c>
@@ -3373,7 +3599,37 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.57720396452800005</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.554758308157</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.76870748299299996</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.64443957008099995</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.55229591836699998</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.45884773662599998</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.71704180064300005</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.559598494354</v>
+      </c>
       <c r="M36" s="5">
         <v>35</v>
       </c>
@@ -3402,7 +3658,37 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.54486176317199997</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.52359295053999999</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.96389324960800005</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.67857800699899995</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.48596938775499998</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.43409742120299999</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.97427652733100001</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.60059464816700003</v>
+      </c>
       <c r="M37" s="5">
         <v>36</v>
       </c>
@@ -3431,7 +3717,34 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.50860719874799998</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.50356482704000005</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.99790685504999999</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.66935766935800001</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.411989795918</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.402597402597</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.99678456591599995</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.57354301572599997</v>
+      </c>
       <c r="M38" s="5">
         <v>37</v>
       </c>
@@ -3460,7 +3773,34 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.64866979655699997</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.62645739910300002</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.73103087388800003</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.67471625211300001</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.64413265306099998</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.53703703703700001</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.745980707395</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.62449528936700005</v>
+      </c>
       <c r="M39" s="5">
         <v>38</v>
       </c>
@@ -3489,7 +3829,34 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.64241001564900002</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.62010676156599998</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.72946101517499995</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.67035345034899996</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.617346938776</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.51219512195100003</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.74276527331200004</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0.60629921259800001</v>
+      </c>
       <c r="M40" s="5">
         <v>39</v>
       </c>
@@ -3516,7 +3883,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M41" s="5">
         <v>40</v>
       </c>
@@ -3545,7 +3912,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M42" s="5">
         <v>41</v>
       </c>
@@ -3574,7 +3941,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M43" s="5">
         <v>42</v>
       </c>
@@ -3603,7 +3970,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="13:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M44" s="5">
         <v>43</v>
       </c>
@@ -3647,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4272,39 +4639,16 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.46374543557600001</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.43718424100300002</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.52736223565899998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.40991007286499997</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.41326530612200002</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.40088171326599997</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.462706916784</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.37535841250399998</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="M12" s="5">
         <v>11</v>
       </c>
@@ -4392,39 +4736,16 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.46974439227999998</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.438303231342</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.55002544835599998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.42119859462699999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.395408163265</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.41074986685499998</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.467407006392</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.36715786839999998</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="M15" s="5">
         <v>14</v>
       </c>
@@ -4482,7 +4803,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="M17" s="5">
         <v>16</v>
       </c>
@@ -4511,7 +4834,40 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18">
+        <v>0.45774647887300002</v>
+      </c>
+      <c r="E18">
+        <v>0.44925060690500002</v>
+      </c>
+      <c r="F18">
+        <v>0.52735873814199996</v>
+      </c>
+      <c r="G18">
+        <v>0.40971357194899999</v>
+      </c>
+      <c r="H18">
+        <v>0.42346938775499998</v>
+      </c>
+      <c r="I18">
+        <v>0.42259566497200002</v>
+      </c>
+      <c r="J18">
+        <v>0.47269410772499998</v>
+      </c>
+      <c r="K18">
+        <v>0.38892547583999998</v>
+      </c>
       <c r="M18" s="5">
         <v>17</v>
       </c>
@@ -4540,7 +4896,40 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19">
+        <v>0.498695878978</v>
+      </c>
+      <c r="E19">
+        <v>0.452754459572</v>
+      </c>
+      <c r="F19">
+        <v>0.55471397111599996</v>
+      </c>
+      <c r="G19">
+        <v>0.44132001700200002</v>
+      </c>
+      <c r="H19">
+        <v>0.41836734693900002</v>
+      </c>
+      <c r="I19">
+        <v>0.39638396670800002</v>
+      </c>
+      <c r="J19">
+        <v>0.45250869829099999</v>
+      </c>
+      <c r="K19">
+        <v>0.37430153945599998</v>
+      </c>
       <c r="M19" s="5">
         <v>18</v>
       </c>
@@ -4569,7 +4958,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4606,7 +4995,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4641,7 +5030,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4678,7 +5067,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4715,7 +5104,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M24" s="5">
         <v>23</v>
       </c>
@@ -4744,7 +5133,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4781,7 +5170,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4818,7 +5207,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -4853,7 +5242,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4888,7 +5277,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4925,7 +5314,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4962,7 +5351,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -4999,7 +5388,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -4015,7 +4015,7 @@
   <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="-15720" windowWidth="24500" windowHeight="12700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5880" yWindow="-19160" windowWidth="24500" windowHeight="12700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4014,7 +4014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="444">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,6 +1400,14 @@
   </si>
   <si>
     <t>B_gru_ek_1541081942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF + inc_emb_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1880,7 +1888,7 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3432,6 +3440,36 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.65858111632799998</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.64541062801899995</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.699110413396</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.67118814368199997</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.661989795918</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.55637254902</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.72990353697699994</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.63143254520199998</v>
+      </c>
       <c r="M30" s="5">
         <v>29</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="-19160" windowWidth="24500" windowHeight="12700" tabRatio="500"/>
+    <workbookView xWindow="5880" yWindow="-15640" windowWidth="24500" windowHeight="12700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="476">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,8 +1406,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TF + inc_emb_w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>tf_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_naive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.google_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weka_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, weka_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.glove_25_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.glove_25_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inc_emb_w.google_ek</t>
+  </si>
+  <si>
+    <t>inc_emb_w.glove_200_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inc_emb.google_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inc_emb.glove_200_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.google_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.google_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.glove_25_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.glove_50_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.glove_200_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.google_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.glove_25_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.glove_50_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.glove_100_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.glove_200_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.glove_100_ek_dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.google_ek_dot, inc_emb_w.google_ek</t>
   </si>
 </sst>
 </file>
@@ -1885,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3440,36 +3566,6 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.65858111632799998</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.64541062801899995</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.699110413396</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.67118814368199997</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.661989795918</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.55637254902</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.72990353697699994</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0.63143254520199998</v>
-      </c>
       <c r="M30" s="5">
         <v>29</v>
       </c>
@@ -3815,29 +3911,32 @@
       <c r="B39" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C39" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="D39" s="6">
-        <v>0.64866979655699997</v>
+        <v>0.65675534689600001</v>
       </c>
       <c r="E39" s="6">
-        <v>0.62645739910300002</v>
+        <v>0.64533463605300001</v>
       </c>
       <c r="F39" s="6">
-        <v>0.73103087388800003</v>
+        <v>0.69126111983299998</v>
       </c>
       <c r="G39" s="6">
-        <v>0.67471625211300001</v>
+        <v>0.66750884285000001</v>
       </c>
       <c r="H39" s="6">
-        <v>0.64413265306099998</v>
+        <v>0.658163265306</v>
       </c>
       <c r="I39" s="6">
-        <v>0.53703703703700001</v>
+        <v>0.55388471177900001</v>
       </c>
       <c r="J39" s="6">
-        <v>0.745980707395</v>
+        <v>0.71061093247600005</v>
       </c>
       <c r="K39" s="6">
-        <v>0.62449528936700005</v>
+        <v>0.62253521126800004</v>
       </c>
       <c r="M39" s="5">
         <v>38</v>
@@ -3871,29 +3970,32 @@
       <c r="B40" s="3" t="s">
         <v>426</v>
       </c>
+      <c r="C40" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="D40" s="6">
-        <v>0.64241001564900002</v>
+        <v>0.64110589462699996</v>
       </c>
       <c r="E40" s="6">
-        <v>0.62010676156599998</v>
+        <v>0.62186788154899997</v>
       </c>
       <c r="F40" s="6">
-        <v>0.72946101517499995</v>
+        <v>0.71428571428599996</v>
       </c>
       <c r="G40" s="6">
-        <v>0.67035345034899996</v>
+        <v>0.66488066244499999</v>
       </c>
       <c r="H40" s="6">
-        <v>0.617346938776</v>
+        <v>0.628826530612</v>
       </c>
       <c r="I40" s="6">
-        <v>0.51219512195100003</v>
+        <v>0.52272727272700004</v>
       </c>
       <c r="J40" s="6">
-        <v>0.74276527331200004</v>
+        <v>0.73954983922799999</v>
       </c>
       <c r="K40" s="6">
-        <v>0.60629921259800001</v>
+        <v>0.612516644474</v>
       </c>
       <c r="M40" s="5">
         <v>39</v>
@@ -3951,6 +4053,36 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.70892018779300003</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.74193548387099995</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.63788592359999996</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.68598761958400001</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.60969387755100002</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.50814332247600003</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.50160771704200002</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.50485436893199997</v>
+      </c>
       <c r="M42" s="5">
         <v>41</v>
       </c>
@@ -3980,6 +4112,36 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.76369327073600002</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.778393351801</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.73521716378900004</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.75618945102299995</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.52664576802499996</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.54019292604500002</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.53333333333300004</v>
+      </c>
       <c r="M43" s="5">
         <v>42</v>
       </c>
@@ -4009,6 +4171,36 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.52712571726699997</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.52285447761199999</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.58660387231800004</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.55289765721299999</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.47193877551000002</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.37649880095900001</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.50482315112499998</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.43131868131899997</v>
+      </c>
       <c r="M44" s="5">
         <v>43</v>
       </c>
@@ -4035,6 +4227,624 @@
       </c>
       <c r="U44" s="5" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.79603547209199998</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.78070611635999998</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.82155939298799996</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.80061193268700004</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.51658163265299994</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.41282051282100002</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.51768488745999997</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0.45934379457899999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.53677621283300003</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.524324324324</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.76138147566699999</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.62099871958999997</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.47831632653099998</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.41403508771899999</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.75884244372999998</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.53575482406399999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.74360980699000001</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.742677824268</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.74306645735200005</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.74287208998200005</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.52295918367299998</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.41902313624699999</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.52411575562699997</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.46571428571399998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.72561293688100004</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.74361883153700004</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.68602825745700002</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.71366358192699997</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.64668367346900002</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.55029585798799996</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.59807073955000001</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.57318952234200005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.65701617110099997</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.64508276533599995</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.693354264783</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.66834804539699999</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.65943877550999996</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.713826366559</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.62447257383999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.65858111632799998</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.64668615984400002</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.69440083725799995</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.66969467575099995</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.661989795918</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.55721393034800004</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.72025723472699998</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.62833099579200002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.65805946791900005</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.64591439688700003</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.69492412349599997</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.66952356944799996</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.658163265306</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.55334987593100005</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.71704180064300005</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.62464985994400002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.65779864371399999</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.64531780688999996</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.69597069597100003</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.66968781470299998</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.65943877550999996</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.55472636815900001</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0.71704180064300005</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0.62552594670399997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.65858111632799998</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.64541062801899995</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.699110413396</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.67118814368199997</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.661989795918</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.55637254902</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0.72990353697699994</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0.63143254520199998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.68440271257200003</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.66619250829800003</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.73521716378900004</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.69900497512399995</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.61862244897999996</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.514925373134</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0.66559485530499995</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.58064516128999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.68518518518500005</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.66541353383500002</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.74097331240200004</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.70116365436999994</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.62627551020399996</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.52216748768499999</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.68167202572300001</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0.59135285913500002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.68753260302600006</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.664665127021</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.75300889586599995</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.70608439646700005</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0.62755102040800004</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.52311435523100003</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.69131832797399995</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.59556786703599995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.68753260302600006</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.66065795403299998</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.76713762427999999</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.70992736077499996</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.632653061224</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.52811735941299998</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.69453376205799999</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.65282472235599998</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.70748299319700003</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.67905575087900005</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0.65178571428599996</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.54679802955699996</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0.713826366559</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.619246861925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.694835680751</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.66787494336200004</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.77132391418099999</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.71588149587200001</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.52038369304599996</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0.69774919614099995</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.59615384615400002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.69353155972900005</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.66126205083300005</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.78963893249600003</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.71977104698299998</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0.71061093247600005</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.60054347826099996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.69327073552399998</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.66268260292199999</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.78335949764500001</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.71798561151100004</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.62627551020399996</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.521531100478</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0.700964630225</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0.59807956104299997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.68570683359399998</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.64944961896700004</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.80272108843500001</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.71799672361300004</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.62372448979600004</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.51793721973100004</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.74276527331200004</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.61030383091100004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.65779864371399999</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0.64405964406000005</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0.70068027210899997</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.671177944862</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0.661989795918</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.55609756097600005</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.73311897106099999</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0.63245492371699996</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="-15640" windowWidth="24500" windowHeight="12700" tabRatio="500"/>
+    <workbookView xWindow="6460" yWindow="-13960" windowWidth="24500" windowHeight="12700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="-13960" windowWidth="24500" windowHeight="12700" tabRatio="500"/>
+    <workbookView xWindow="4340" yWindow="-17280" windowWidth="26980" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="499">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1359,17 +1359,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dim=(100,), epoch=5, embedding_trainable=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A_lstm_ek_1541078223</t>
   </si>
   <si>
-    <t>dim=(100,), epoch=5, embedding_trainable=False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1534,6 +1526,103 @@
   </si>
   <si>
     <t>tf_ek, inc_emb_w.google_ek_dot, inc_emb_w.google_ek</t>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TfidfVectorizer(ngram_range=(1, 6), analyzer='char', lowercase=False, smooth_idf=True, max_features=20000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogisticRegression(C=2., random_state=0, class_weight='balanced'),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbow_google_ek_max</t>
+  </si>
+  <si>
+    <t>nbow_google_ek_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbow_google_ek_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbow_google_ek_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GRU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1542446159</t>
+  </si>
+  <si>
+    <t>A_gru_ek_1542446279</t>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=False, w2v_version=ntua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=ntua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=False, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim=(100,), epoch=5, embedding_trainable=True, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim=(100,), epoch=5, embedding_trainable=False, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb.ntua_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1647,8 +1736,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1701,7 +1792,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1720,6 +1811,7 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1737,6 +1829,7 @@
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2011,16 +2104,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K33" sqref="H33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="90.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="10.83203125" style="3"/>
     <col min="12" max="12" width="4.83203125" style="3" customWidth="1"/>
@@ -2138,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>491</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>398</v>
@@ -2259,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>401</v>
+        <v>492</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>404</v>
@@ -2651,10 +2744,10 @@
         <v>413</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D12" s="6">
         <v>0.69561815336499999</v>
@@ -2713,7 +2806,7 @@
         <v>393</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D13" s="6">
         <v>0.73735002608199995</v>
@@ -2801,10 +2894,10 @@
         <v>413</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D15" s="6">
         <v>0.71961398017699996</v>
@@ -2861,7 +2954,7 @@
         <v>414</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D16" s="6">
         <v>0.75769431403200005</v>
@@ -3239,7 +3332,7 @@
         <v>429</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>428</v>
@@ -3298,7 +3391,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>428</v>
@@ -3357,13 +3450,13 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26" s="6">
         <v>0.64397496087600004</v>
@@ -3422,7 +3515,7 @@
         <v>421</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D27" s="6">
         <v>0.66197183098599999</v>
@@ -3481,7 +3574,7 @@
         <v>393</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
@@ -3566,6 +3659,39 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.61241523213399995</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.58523866827100002</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.763474620617</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.66257947320599997</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.61352040816300002</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.50865800865800004</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.75562700964600005</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.60802069857700003</v>
+      </c>
       <c r="M30" s="5">
         <v>29</v>
       </c>
@@ -3595,6 +3721,36 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.62493479394899998</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.58975332068300002</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.81318681318700003</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.68367795864500003</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.60204081632700002</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.49898989899000001</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.79421221865000002</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.61290322580599998</v>
+      </c>
       <c r="M31" s="5">
         <v>30</v>
       </c>
@@ -3622,6 +3778,39 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.680490349504</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.64913043478300003</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.781266352695</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.70909522678699999</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.628826530612</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.52304147465399997</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.72990353697699994</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.60939597315399996</v>
+      </c>
       <c r="M32" s="5">
         <v>31</v>
       </c>
@@ -3651,6 +3840,36 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.72613458528999997</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.71280276816599997</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.75457875457900003</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.73309608540899995</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.67346938775499998</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.57493188010899998</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.67845659164000005</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.62241887905600002</v>
+      </c>
       <c r="M33" s="5">
         <v>32</v>
       </c>
@@ -3912,7 +4131,7 @@
         <v>425</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D39" s="6">
         <v>0.65675534689600001</v>
@@ -3971,7 +4190,7 @@
         <v>426</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D40" s="6">
         <v>0.64110589462699996</v>
@@ -4054,10 +4273,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D42" s="6">
         <v>0.70892018779300003</v>
@@ -4113,10 +4332,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D43" s="6">
         <v>0.76369327073600002</v>
@@ -4175,7 +4394,7 @@
         <v>393</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D44" s="6">
         <v>0.52712571726699997</v>
@@ -4231,10 +4450,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="D45" s="6">
         <v>0.79603547209199998</v>
@@ -4263,10 +4482,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D46" s="6">
         <v>0.53677621283300003</v>
@@ -4295,10 +4514,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D47" s="6">
         <v>0.74360980699000001</v>
@@ -4327,10 +4546,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D49" s="6">
         <v>0.72561293688100004</v>
@@ -4359,10 +4578,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D51" s="6">
         <v>0.65701617110099997</v>
@@ -4391,10 +4610,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D52" s="6">
         <v>0.65858111632799998</v>
@@ -4433,10 +4652,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D54" s="6">
         <v>0.65805946791900005</v>
@@ -4465,10 +4684,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D55" s="6">
         <v>0.65779864371399999</v>
@@ -4497,10 +4716,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D57" s="6">
         <v>0.65858111632799998</v>
@@ -4529,10 +4748,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D58" s="6">
         <v>0.68440271257200003</v>
@@ -4561,10 +4780,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D59" s="6">
         <v>0.68518518518500005</v>
@@ -4593,10 +4812,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D60" s="6">
         <v>0.68753260302600006</v>
@@ -4625,10 +4844,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D61" s="6">
         <v>0.68753260302600006</v>
@@ -4657,10 +4876,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D63" s="6">
         <v>0.66666666666700003</v>
@@ -4689,10 +4908,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D64" s="6">
         <v>0.694835680751</v>
@@ -4721,10 +4940,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D65" s="6">
         <v>0.69353155972900005</v>
@@ -4753,10 +4972,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D66" s="6">
         <v>0.69327073552399998</v>
@@ -4785,10 +5004,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D67" s="6">
         <v>0.68570683359399998</v>
@@ -4820,7 +5039,7 @@
         <v>393</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D69" s="6">
         <v>0.65779864371399999</v>
@@ -4845,6 +5064,229 @@
       </c>
       <c r="K69" s="6">
         <v>0.63245492371699996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.94783515910299998</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.95432819968100002</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.94034536891700005</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.94728518713800003</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0.67091836734700006</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.56955380577400005</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0.69774919614099995</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0.62716763005800003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.67449139280100001</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.68224299065399996</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0.64939822082700005</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0.66541554959799998</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0.57270408163300002</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0.467741935484</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0.55948553054700001</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0.50951683748200005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0.55112154407900005</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0.52887537993900002</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.91051805337500002</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0.66910209575099999</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0.46428571428600002</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0.42158273381299999</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0.94212218649500001</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0.58250497017900005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0.50130412102199995</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0.49986907567400002</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0.99895342752500005</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0.666317626527</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0.40178571428600002</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0.39871794871799998</v>
+      </c>
+      <c r="J78" s="6">
+        <v>1</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0.57011915673699998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0.74439227960400001</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0.75175770686900001</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0.72736787022500005</v>
+      </c>
+      <c r="G79" s="6">
+        <v>0.73936170212800001</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0.632653061224</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0.53050397878</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0.64308681672000001</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0.58139534883699995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.65675534689600001</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.64462809917399999</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.69387755102000004</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.66834677419400002</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.658163265306</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0.55361596010000003</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0.713826366559</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0.62359550561800003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D82" s="3">
+        <v>0.65701617110099997</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.64494163424100004</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.69387755102000004</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.66851525081899998</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.658163265306</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0.55361596010000003</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0.713826366559</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0.62359550561800003</v>
       </c>
     </row>
   </sheetData>
@@ -5687,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" t="s">
         <v>439</v>
-      </c>
-      <c r="C18" t="s">
-        <v>441</v>
       </c>
       <c r="D18">
         <v>0.45774647887300002</v>
@@ -5749,10 +6191,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D19">
         <v>0.498695878978</v>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="-17280" windowWidth="26980" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="5580" yWindow="-16560" windowWidth="26980" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="509">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -1248,10 +1244,6 @@
     <t>A_gru_1539353088</t>
   </si>
   <si>
-    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B_gru_1539353092</t>
   </si>
   <si>
@@ -1384,10 +1376,6 @@
     <t>A_gru_naive_1541081642</t>
   </si>
   <si>
-    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B_gru_naive_1541081919</t>
   </si>
   <si>
@@ -1623,6 +1611,55 @@
   <si>
     <t>tf_ek, inc_emb.ntua_ek</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GRU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_gru_ek_1542448031</t>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=ntua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_gru_ek_1542448224</t>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=False, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542454066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_ek, inc_emb_w.ntua_ek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542454995</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1773,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1792,7 +1835,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1812,6 +1855,9 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1830,6 +1876,9 @@
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2104,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K33" sqref="H33:K33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2143,31 +2192,31 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -2196,34 +2245,34 @@
         <v>3</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2231,10 +2280,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D3" s="6">
         <v>0.69509650495599995</v>
@@ -2264,36 +2313,36 @@
         <v>2</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="5">
         <v>2</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" s="6">
         <v>0.73317683881100004</v>
@@ -2323,28 +2372,28 @@
         <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="5">
         <v>1</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -2352,10 +2401,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D5" s="6">
         <v>0.70839853938399999</v>
@@ -2385,34 +2434,34 @@
         <v>4</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="5">
         <v>4</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D6" s="6">
         <v>0.75639019300999999</v>
@@ -2442,36 +2491,36 @@
         <v>5</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="5">
         <v>2</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D7" s="6">
         <v>0.76030255607700004</v>
@@ -2501,36 +2550,36 @@
         <v>6</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O7" s="5">
         <v>2</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D8" s="6">
         <v>0.76499739175799997</v>
@@ -2560,36 +2609,36 @@
         <v>7</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O8" s="5">
         <v>3</v>
       </c>
       <c r="P8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D9" s="6">
         <v>0.76499739175799997</v>
@@ -2619,34 +2668,34 @@
         <v>8</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D10" s="6">
         <v>0.77334376630199997</v>
@@ -2676,28 +2725,28 @@
         <v>9</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O10" s="5">
         <v>2</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -2715,39 +2764,39 @@
         <v>10</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D12" s="6">
         <v>0.69561815336499999</v>
@@ -2777,36 +2826,36 @@
         <v>11</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O12" s="5">
         <v>1</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D13" s="6">
         <v>0.73735002608199995</v>
@@ -2836,28 +2885,28 @@
         <v>12</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O13" s="5">
         <v>2</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2865,39 +2914,39 @@
         <v>13</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O14" s="5">
         <v>3</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D15" s="6">
         <v>0.71961398017699996</v>
@@ -2927,34 +2976,34 @@
         <v>14</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O15" s="5">
         <v>1</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="S15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="T15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D16" s="6">
         <v>0.75769431403200005</v>
@@ -2984,26 +3033,26 @@
         <v>15</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O16" s="5">
         <v>1</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="T16" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="U16" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -3011,28 +3060,28 @@
         <v>16</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O17" s="5">
         <v>5</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -3040,36 +3089,36 @@
         <v>17</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O18" s="5">
         <v>3</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D19" s="6">
         <v>0.75873761085000002</v>
@@ -3099,36 +3148,36 @@
         <v>18</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O19" s="5">
         <v>3</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D20" s="6">
         <v>0.75847678664600005</v>
@@ -3158,36 +3207,36 @@
         <v>19</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O20" s="5">
         <v>1</v>
       </c>
       <c r="P20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q20" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="U20" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D21" s="6">
         <v>0.77856025039099996</v>
@@ -3217,36 +3266,36 @@
         <v>20</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O21" s="5">
         <v>3</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="S21" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="U21" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D22" s="10">
         <v>0.79499217527400001</v>
@@ -3276,28 +3325,28 @@
         <v>21</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O22" s="5">
         <v>7</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="T22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="U22" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -3305,37 +3354,37 @@
         <v>22</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O23" s="5">
         <v>4</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D24" s="6">
         <v>0.680490349504</v>
@@ -3365,36 +3414,36 @@
         <v>23</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O24" s="5">
         <v>3</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="S24" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="T24" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="U24" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D25" s="6">
         <v>0.69874804381800004</v>
@@ -3424,39 +3473,39 @@
         <v>24</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O25" s="5">
         <v>2</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S25" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="T25" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="U25" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D26" s="6">
         <v>0.64397496087600004</v>
@@ -3486,36 +3535,36 @@
         <v>25</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O26" s="5">
         <v>4</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S26" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="R26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="S26" s="5" t="s">
+      <c r="T26" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="U26" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D27" s="6">
         <v>0.66197183098599999</v>
@@ -3545,36 +3594,36 @@
         <v>26</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O27" s="5">
         <v>3</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="S27" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="U27" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
@@ -3605,28 +3654,28 @@
         <v>27</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O28" s="5">
         <v>3</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="S28" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="T28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3634,28 +3683,28 @@
         <v>28</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O29" s="5">
         <v>3</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S29" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="U29" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3663,10 +3712,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D30" s="6">
         <v>0.61241523213399995</v>
@@ -3696,36 +3745,36 @@
         <v>29</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O30" s="5">
         <v>3</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="R30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="S30" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="T30" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="U30" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D31" s="6">
         <v>0.62493479394899998</v>
@@ -3755,37 +3804,37 @@
         <v>30</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O31" s="5">
         <v>4</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="S31" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="T31" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="U31" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D32" s="6">
         <v>0.680490349504</v>
@@ -3815,36 +3864,36 @@
         <v>31</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O32" s="5">
         <v>1</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="S32" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="T32" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="U32" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D33" s="6">
         <v>0.72613458528999997</v>
@@ -3874,26 +3923,26 @@
         <v>32</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O33" s="5">
         <v>1</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="S33" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="T33" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="U33" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3901,28 +3950,28 @@
         <v>33</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O34" s="5">
         <v>1</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="S34" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="T34" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="U34" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -3930,34 +3979,34 @@
         <v>34</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O35" s="5">
         <v>3</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="S35" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="U35" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D36" s="6">
         <v>0.57720396452800005</v>
@@ -3987,36 +4036,36 @@
         <v>35</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O36" s="5">
         <v>9</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q36" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="S36" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="T36" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="U36" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D37" s="6">
         <v>0.54486176317199997</v>
@@ -4046,33 +4095,33 @@
         <v>36</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O37" s="5">
         <v>1</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q37" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="S37" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="T37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="U37" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D38" s="6">
         <v>0.50860719874799998</v>
@@ -4102,36 +4151,36 @@
         <v>37</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O38" s="5">
         <v>1</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="S38" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="T38" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="U38" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D39" s="6">
         <v>0.65675534689600001</v>
@@ -4161,36 +4210,36 @@
         <v>38</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O39" s="5">
         <v>2</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="S39" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="T39" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="U39" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D40" s="6">
         <v>0.64110589462699996</v>
@@ -4220,26 +4269,26 @@
         <v>39</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O40" s="5">
         <v>6</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S40" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="T40" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="U40" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -4247,36 +4296,36 @@
         <v>40</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O41" s="5">
         <v>4</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q41" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="S41" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="T41" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="U41" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="D42" s="6">
         <v>0.70892018779300003</v>
@@ -4306,36 +4355,36 @@
         <v>41</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O42" s="5">
         <v>4</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q42" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="R42" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="S42" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="T42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="U42" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D43" s="6">
         <v>0.76369327073600002</v>
@@ -4365,36 +4414,36 @@
         <v>42</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O43" s="5">
         <v>2</v>
       </c>
       <c r="P43" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q43" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="R43" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="S43" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="T43" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="U43" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D44" s="6">
         <v>0.52712571726699997</v>
@@ -4424,36 +4473,36 @@
         <v>43</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O44" s="5">
         <v>6</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S44" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="T44" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="U44" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D45" s="6">
         <v>0.79603547209199998</v>
@@ -4482,10 +4531,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D46" s="6">
         <v>0.53677621283300003</v>
@@ -4514,10 +4563,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D47" s="6">
         <v>0.74360980699000001</v>
@@ -4546,10 +4595,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D49" s="6">
         <v>0.72561293688100004</v>
@@ -4578,10 +4627,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D51" s="6">
         <v>0.65701617110099997</v>
@@ -4610,10 +4659,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D52" s="6">
         <v>0.65858111632799998</v>
@@ -4652,10 +4701,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D54" s="6">
         <v>0.65805946791900005</v>
@@ -4684,10 +4733,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D55" s="6">
         <v>0.65779864371399999</v>
@@ -4716,10 +4765,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D57" s="6">
         <v>0.65858111632799998</v>
@@ -4748,10 +4797,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D58" s="6">
         <v>0.68440271257200003</v>
@@ -4780,10 +4829,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D59" s="6">
         <v>0.68518518518500005</v>
@@ -4812,10 +4861,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D60" s="6">
         <v>0.68753260302600006</v>
@@ -4844,10 +4893,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D61" s="6">
         <v>0.68753260302600006</v>
@@ -4876,10 +4925,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D63" s="6">
         <v>0.66666666666700003</v>
@@ -4908,10 +4957,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D64" s="6">
         <v>0.694835680751</v>
@@ -4940,10 +4989,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D65" s="6">
         <v>0.69353155972900005</v>
@@ -4972,10 +5021,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D66" s="6">
         <v>0.69327073552399998</v>
@@ -5004,10 +5053,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D67" s="6">
         <v>0.68570683359399998</v>
@@ -5036,10 +5085,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D69" s="6">
         <v>0.65779864371399999</v>
@@ -5068,15 +5117,15 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D73" s="6">
         <v>0.94783515910299998</v>
@@ -5105,10 +5154,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D76" s="6">
         <v>0.67449139280100001</v>
@@ -5137,10 +5186,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D77" s="6">
         <v>0.55112154407900005</v>
@@ -5169,10 +5218,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D78" s="6">
         <v>0.50130412102199995</v>
@@ -5201,10 +5250,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D79" s="6">
         <v>0.74439227960400001</v>
@@ -5233,60 +5282,140 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D81" s="3">
+        <v>495</v>
+      </c>
+      <c r="D81" s="6">
         <v>0.65675534689600001</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="6">
         <v>0.64462809917399999</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="6">
         <v>0.69387755102000004</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="6">
         <v>0.66834677419400002</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="6">
         <v>0.658163265306</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="6">
         <v>0.55361596010000003</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="6">
         <v>0.713826366559</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="6">
         <v>0.62359550561800003</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D82" s="3">
+      <c r="A82" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82" s="6">
         <v>0.65701617110099997</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="6">
         <v>0.64494163424100004</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="6">
         <v>0.69387755102000004</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="6">
         <v>0.66851525081899998</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="6">
         <v>0.658163265306</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="6">
         <v>0.55361596010000003</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="6">
         <v>0.713826366559</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="6">
         <v>0.62359550561800003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0.64971309337500005</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.612609040444</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.80847723704899999</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0.69704489059300001</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0.55357142857099995</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0.47004608294900002</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0.98392282958199995</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0.63617463617500003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.75247782994300005</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0.74122367101300002</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0.77341705913100001</v>
+      </c>
+      <c r="G87" s="6">
+        <v>0.756978233035</v>
+      </c>
+      <c r="H87" s="6">
+        <v>0.67857142857099995</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0.57356608478799997</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0.73954983922799999</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0.64606741573000004</v>
       </c>
     </row>
   </sheetData>
@@ -5304,14 +5433,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="86.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
     <col min="13" max="13" width="4.83203125" bestFit="1" customWidth="1"/>
@@ -5339,31 +5468,31 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="M1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -5398,26 +5527,26 @@
         <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="5">
         <v>5</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -5425,10 +5554,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D3" s="1">
         <v>0.46791862284800001</v>
@@ -5458,36 +5587,36 @@
         <v>2</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="5">
         <v>2</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" s="1">
         <v>0.547209181012</v>
@@ -5517,28 +5646,28 @@
         <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5">
         <v>1</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -5546,10 +5675,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>401</v>
+        <v>502</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1">
         <v>0.49556598852400002</v>
@@ -5579,34 +5708,34 @@
         <v>4</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="5">
         <v>3</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1">
         <v>0.57381324987000004</v>
@@ -5636,36 +5765,36 @@
         <v>5</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="5">
         <v>3</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="1">
@@ -5696,36 +5825,36 @@
         <v>6</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O7" s="5">
         <v>1</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -5756,36 +5885,36 @@
         <v>7</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="10">
@@ -5816,36 +5945,36 @@
         <v>8</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
       </c>
       <c r="P9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="D10" s="1">
         <v>0.57172665623399999</v>
@@ -5875,57 +6004,65 @@
         <v>9</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O10" s="5">
         <v>1</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="M11" s="5">
         <v>10</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -5943,86 +6080,102 @@
         <v>11</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O12" s="5">
         <v>1</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="M13" s="5">
         <v>12</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O13" s="5">
         <v>1</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="U13" s="5" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="M14" s="5">
         <v>13</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O14" s="5">
         <v>1</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R14" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -6040,88 +6193,104 @@
         <v>14</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" s="5">
         <v>1</v>
       </c>
       <c r="P15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="5" t="s">
+      <c r="T15" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="M16" s="5">
         <v>15</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O16" s="5">
         <v>1</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R16" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="M17" s="5">
         <v>16</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O17" s="5">
         <v>1</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R17" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="S17" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -6129,61 +6298,61 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="C18" t="s">
-        <v>439</v>
-      </c>
-      <c r="D18">
+        <v>436</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.45774647887300002</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.44925060690500002</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.52735873814199996</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.40971357194899999</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.42346938775499998</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.42259566497200002</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>0.47269410772499998</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>0.38892547583999998</v>
       </c>
       <c r="M18" s="5">
         <v>17</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O18" s="5">
         <v>2</v>
       </c>
       <c r="P18" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -6191,61 +6360,61 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19">
+        <v>435</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.498695878978</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.452754459572</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.55471397111599996</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.44132001700200002</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.41836734693900002</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>0.39638396670800002</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>0.45250869829099999</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>0.37430153945599998</v>
       </c>
       <c r="M19" s="5">
         <v>18</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O19" s="5">
         <v>6</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R19" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -6261,28 +6430,28 @@
         <v>19</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O20" s="5">
         <v>2</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="U20" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -6298,66 +6467,94 @@
         <v>20</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O21" s="5">
         <v>1</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="S21" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="U21" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="U21" s="5" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="A22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" t="s">
+        <v>497</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.468440271257</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.39913558064100002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.44932072540599999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.380265668424</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.433673469388</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.38486855783099999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.43517154559299998</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.36524538920299998</v>
+      </c>
       <c r="M22" s="5">
         <v>21</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O22" s="5">
         <v>1</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R22" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="T22" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="U22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="U22" s="5" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>497</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -6370,60 +6567,96 @@
         <v>22</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O23" s="5">
         <v>1</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R23" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="U23" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="U23" s="5" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.43140323421999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.41885550452300002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.47702378770100001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.357283408749</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.35714285714299998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.39401242071999998</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.450755934794</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.31882954482100001</v>
+      </c>
       <c r="M24" s="5">
         <v>23</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" s="5">
         <v>1</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R24" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="S24" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="T24" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="U24" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="U24" s="5" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>500</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6436,28 +6669,28 @@
         <v>24</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O25" s="5">
         <v>1</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R25" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="S25" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="T25" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="U25" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -6473,28 +6706,28 @@
         <v>25</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O26" s="5">
         <v>1</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R26" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="S26" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="T26" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="U26" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -6510,26 +6743,26 @@
         <v>26</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O27" s="5">
         <v>1</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="S27" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="U27" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -6545,26 +6778,26 @@
         <v>27</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O28" s="5">
         <v>1</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="S28" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="T28" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="U28" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -6580,28 +6813,28 @@
         <v>28</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O29" s="5">
         <v>1</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R29" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="S29" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="T29" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="U29" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -6617,28 +6850,28 @@
         <v>29</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O30" s="5">
         <v>1</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R30" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="S30" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="T30" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="U30" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -6654,28 +6887,28 @@
         <v>30</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O31" s="5">
         <v>10</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R31" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="S31" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="T31" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="U31" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -6691,28 +6924,28 @@
         <v>31</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O32" s="5">
         <v>2</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R32" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="S32" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="T32" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="U32" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.2">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="-16560" windowWidth="26980" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="-18340" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="512">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1660,6 +1660,17 @@
   </si>
   <si>
     <t>A_ntua_ek_1542454995</t>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542468547</t>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1773,8 +1784,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1835,7 +1848,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1858,6 +1871,7 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1879,9 +1893,15 @@
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF666666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2153,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2184,8 @@
     <col min="1" max="1" width="7.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="100" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.83203125" style="3"/>
+    <col min="4" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="3" bestFit="1" customWidth="1"/>
@@ -2327,7 +2348,7 @@
       <c r="R3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="T3" s="5" t="s">
@@ -5369,7 +5390,7 @@
       <c r="I85" s="6">
         <v>0.47004608294900002</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="10">
         <v>0.98392282958199995</v>
       </c>
       <c r="K85" s="6">
@@ -5416,6 +5437,80 @@
       </c>
       <c r="K87" s="6">
         <v>0.64606741573000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.95122587376099998</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.95948827292100003</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0.94191522763000002</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0.95062054396600004</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0.67219387755100002</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0.55973451327400003</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0.81350482315100003</v>
+      </c>
+      <c r="K89" s="10">
+        <v>0.66317169069500004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0.982263954095</v>
+      </c>
+      <c r="E90" s="10">
+        <v>0.98321971683300002</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0.98116169544700005</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0.98218962807800003</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.69770408163300002</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0.59635416666700003</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0.73633440514500004</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.65899280575499997</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="510">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1643,7 +1643,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A_ntua_ek_1542454066</t>
+    <t>tf_ek, inc_emb_w.ntua_ek</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1651,25 +1651,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tf_ek, inc_emb_w.ntua_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A_ntua_ek_1542454995</t>
-  </si>
-  <si>
-    <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A_ntua_ek_1542468547</t>
   </si>
   <si>
     <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542619872</t>
+  </si>
+  <si>
+    <t>early stop, 並取train最好的一輪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1680,7 +1672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1766,6 +1758,14 @@
       <color rgb="FF00B0F0"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1831,7 +1831,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1847,6 +1847,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2173,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3330,10 +3331,10 @@
       <c r="G22" s="10">
         <v>0.79228329809700004</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="13">
         <v>0.69642857142900005</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="13">
         <v>0.60055096418700005</v>
       </c>
       <c r="J22" s="6">
@@ -5338,7 +5339,7 @@
         <v>494</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D82" s="6">
         <v>0.65701617110099997</v>
@@ -5370,73 +5371,98 @@
         <v>505</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D85" s="6">
-        <v>0.64971309337500005</v>
+        <v>0.95122587376099998</v>
       </c>
       <c r="E85" s="6">
-        <v>0.612609040444</v>
+        <v>0.95948827292100003</v>
       </c>
       <c r="F85" s="6">
-        <v>0.80847723704899999</v>
+        <v>0.94191522763000002</v>
       </c>
       <c r="G85" s="6">
-        <v>0.69704489059300001</v>
+        <v>0.95062054396600004</v>
       </c>
       <c r="H85" s="6">
-        <v>0.55357142857099995</v>
+        <v>0.67219387755100002</v>
       </c>
       <c r="I85" s="6">
-        <v>0.47004608294900002</v>
-      </c>
-      <c r="J85" s="10">
-        <v>0.98392282958199995</v>
-      </c>
-      <c r="K85" s="6">
-        <v>0.63617463617500003</v>
+        <v>0.55973451327400003</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0.81350482315100003</v>
+      </c>
+      <c r="K85" s="10">
+        <v>0.66317169069500004</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="A86" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D86" s="13">
+        <v>0.982263954095</v>
+      </c>
+      <c r="E86" s="13">
+        <v>0.98321971683300002</v>
+      </c>
+      <c r="F86" s="13">
+        <v>0.98116169544700005</v>
+      </c>
+      <c r="G86" s="13">
+        <v>0.98218962807800003</v>
+      </c>
+      <c r="H86" s="6">
+        <v>0.69770408163300002</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0.59635416666700003</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0.73633440514500004</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0.65899280575499997</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D87" s="6">
-        <v>0.75247782994300005</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0.74122367101300002</v>
-      </c>
-      <c r="F87" s="6">
-        <v>0.77341705913100001</v>
-      </c>
-      <c r="G87" s="6">
-        <v>0.756978233035</v>
-      </c>
-      <c r="H87" s="6">
-        <v>0.67857142857099995</v>
-      </c>
-      <c r="I87" s="6">
-        <v>0.57356608478799997</v>
+      <c r="D87" s="10">
+        <v>0.98904538341199999</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0.98901098901100004</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0.98901098901100004</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0.98901098901100004</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0.70408163265299994</v>
+      </c>
+      <c r="I87" s="10">
+        <v>0.61189801699699997</v>
       </c>
       <c r="J87" s="6">
-        <v>0.73954983922799999</v>
+        <v>0.69453376205799999</v>
       </c>
       <c r="K87" s="6">
-        <v>0.64606741573000004</v>
+        <v>0.65060240963899996</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -5448,70 +5474,6 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0.95122587376099998</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0.95948827292100003</v>
-      </c>
-      <c r="F89" s="6">
-        <v>0.94191522763000002</v>
-      </c>
-      <c r="G89" s="6">
-        <v>0.95062054396600004</v>
-      </c>
-      <c r="H89" s="6">
-        <v>0.67219387755100002</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0.55973451327400003</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0.81350482315100003</v>
-      </c>
-      <c r="K89" s="10">
-        <v>0.66317169069500004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D90" s="10">
-        <v>0.982263954095</v>
-      </c>
-      <c r="E90" s="10">
-        <v>0.98321971683300002</v>
-      </c>
-      <c r="F90" s="10">
-        <v>0.98116169544700005</v>
-      </c>
-      <c r="G90" s="10">
-        <v>0.98218962807800003</v>
-      </c>
-      <c r="H90" s="6">
-        <v>0.69770408163300002</v>
-      </c>
-      <c r="I90" s="6">
-        <v>0.59635416666700003</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0.73633440514500004</v>
-      </c>
-      <c r="K90" s="6">
-        <v>0.65899280575499997</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5536,7 +5498,7 @@
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
     <col min="13" max="13" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="-18340" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="512">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1663,6 +1663,13 @@
   <si>
     <t>early stop, 並取train最好的一輪</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char, early stop, 並取train最好的一輪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_raw_1542625610</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1791,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1849,7 +1858,7 @@
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1873,6 +1882,7 @@
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1895,6 +1905,7 @@
     <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2176,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5466,14 +5477,39 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="A88" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.64449660928499997</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0.61975524475499999</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0.74201988487699999</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0.67539890450100004</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0.65943877550999996</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0.58029197080299999</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.51125401929299996</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.54358974359000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="3440" yWindow="-18920" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="520">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1661,15 +1661,46 @@
     <t>A_ntua_ek_1542619872</t>
   </si>
   <si>
+    <t>char, early stop, 並取train最好的一輪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_raw_1542625610</t>
+  </si>
+  <si>
     <t>early stop, 並取train最好的一輪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char, early stop, 並取train最好的一輪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A_ntua_raw_1542625610</t>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542708338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_raw_1542715848</t>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_raw_1542715848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542708338, A_ntua_raw_1542715848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1791,8 +1822,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1853,12 +1886,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1883,6 +1916,7 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1906,6 +1940,7 @@
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2185,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87:C88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2212,18 +2247,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3342,10 +3377,10 @@
       <c r="G22" s="10">
         <v>0.79228329809700004</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>0.69642857142900005</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>0.60055096418700005</v>
       </c>
       <c r="J22" s="6">
@@ -5313,7 +5348,7 @@
         <v>0.58139534883699995</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>494</v>
       </c>
@@ -5345,7 +5380,7 @@
         <v>0.62359550561800003</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>494</v>
       </c>
@@ -5377,7 +5412,7 @@
         <v>0.62359550561800003</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>505</v>
       </c>
@@ -5409,23 +5444,23 @@
         <v>0.66317169069500004</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="12">
         <v>0.982263954095</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="12">
         <v>0.98321971683300002</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="12">
         <v>0.98116169544700005</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G86" s="12">
         <v>0.98218962807800003</v>
       </c>
       <c r="H86" s="6">
@@ -5441,12 +5476,12 @@
         <v>0.65899280575499997</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>508</v>
@@ -5476,15 +5511,15 @@
         <v>0.65060240963899996</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="D88" s="6">
         <v>0.64449660928499997</v>
@@ -5510,6 +5545,182 @@
       <c r="K88" s="6">
         <v>0.54358974359000001</v>
       </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.97574334898299997</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.97492163009400001</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.976452119309</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0.97568627451000001</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0.58128078817700002</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0.75884244372999998</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.65829846582999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0.99556598852400002</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0.99322916666700001</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0.99790685504999999</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0.99556251631399995</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0.68877551020399996</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0.58438287153699997</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0.745980707395</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0.65536723163800004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0.73213354199299996</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.71027592768799996</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.781266352695</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.74408173436299996</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.63392857142900005</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0.53076923076899996</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0.66559485530499995</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0.59058487874499999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0.76160667709999996</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.74281539210900005</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.79801151229699996</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0.76942482341100005</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0.632653061224</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0.52825552825599997</v>
+      </c>
+      <c r="J93" s="6">
+        <v>0.69131832797399995</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0.59888579387200003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0.99530516431899996</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.99322563835300004</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.99738356881199997</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0.99530026109699998</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0.58291457286399995</v>
+      </c>
+      <c r="J94" s="6">
+        <v>0.745980707395</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0.65444287729200001</v>
+      </c>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5548,18 +5759,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="-18920" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="528">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1701,6 +1701,34 @@
   <si>
     <t>A_ntua_ek_1542708338, A_ntua_raw_1542715848</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542786703</t>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542786701</t>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542792708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542792711</t>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542786701, A_ntua_ek_1542792711, A_ntua_ek_1542708338</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1738,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1804,6 +1832,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF629755"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1822,7 +1861,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1872,8 +1911,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1890,8 +1933,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1917,6 +1963,8 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1941,6 +1989,8 @@
     <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2220,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA94"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5721,6 +5771,242 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0.97305128948099995</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.97269029633899995</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.97325581395299998</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0.97297297297300001</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0.60076530612199996</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0.49822695035499998</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0.90353697749200002</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0.64228571428600001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D97" s="6">
+        <v>0.61096605744099997</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0.57291666666700003</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0.86387434554999998</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0.68893528183700004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0.97478991596599995</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0.97278517660700003</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.97674418604699997</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.97476066144499995</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.61096938775499998</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0.50539568345300001</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0.90353697749200002</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0.64821222606700002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D99" s="6">
+        <v>0.63185378590100005</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.58802816901400001</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.87434554973800005</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0.70315789473699997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0.97102289191500002</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0.96766743648999998</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0.97441860465100005</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0.97103128621099999</v>
+      </c>
+      <c r="H100" s="6">
+        <v>0.55994897959199996</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0.47249190938500002</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0.93890675241199995</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0.62863293864400005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D101" s="6">
+        <v>0.60313315926900002</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0.56230031948899994</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.92146596858600005</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0.69841269841300002</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0.97565922920899995</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0.97392815758999995</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.97732558139500003</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0.97562391178200003</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0.66326530612199996</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0.555555555556</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0.75562700964600005</v>
+      </c>
+      <c r="K102" s="6">
+        <v>0.64032697547700002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D103" s="6">
+        <v>0.67885117493500002</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0.65740740740699999</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.74345549738200001</v>
+      </c>
+      <c r="G103" s="6">
+        <v>0.69778869778899999</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0.96244131455399995</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0.94241362043099997</v>
+      </c>
+      <c r="F104" s="6">
+        <v>0.98482469911000003</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0.963152507677</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0.67857142857099995</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0.56316916488199997</v>
+      </c>
+      <c r="J104" s="6">
+        <v>0.84565916398700003</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0.676092544987</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="15"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -2272,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="2980" windowWidth="23480" windowHeight="13700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="530">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1724,11 +1724,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A_ntua_ek_1542806971</t>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542806977</t>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542786701, A_ntua_ek_1542792711, A_ntua_ek_1542708338, A_ntua_ek_1542806971</t>
+  </si>
+  <si>
     <t>ensemble</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A_ntua_ek_1542786701, A_ntua_ek_1542792711, A_ntua_ek_1542708338</t>
   </si>
 </sst>
 </file>
@@ -1838,10 +1844,12 @@
       <name val="Menlo"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF629755"/>
-      <name val="Menlo"/>
+      <sz val="12"/>
+      <color rgb="FF101010"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1861,7 +1869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1915,8 +1923,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1930,14 +1940,13 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1965,6 +1974,7 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1991,11 +2001,13 @@
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF101010"/>
       <color rgb="FF666666"/>
     </mruColors>
   </colors>
@@ -2270,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2297,18 +2309,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
       <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
@@ -5490,7 +5502,7 @@
       <c r="J85" s="6">
         <v>0.81350482315100003</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85" s="15">
         <v>0.66317169069500004</v>
       </c>
     </row>
@@ -5548,7 +5560,7 @@
       <c r="G87" s="10">
         <v>0.98901098901100004</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="15">
         <v>0.70408163265299994</v>
       </c>
       <c r="I87" s="10">
@@ -5966,47 +5978,137 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="D104" s="6">
+        <v>0.97594900028999998</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0.98289085545699995</v>
+      </c>
+      <c r="F104" s="6">
+        <v>0.96860465116299999</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0.97569546120100004</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0.68239795918400004</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0.57311320754700001</v>
+      </c>
+      <c r="J104" s="6">
+        <v>0.78135048231500004</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0.66122448979600001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="13"/>
+      <c r="D105" s="6">
+        <v>0.66840731070500004</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0.65384615384599998</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0.71204188481700004</v>
+      </c>
+      <c r="G105" s="6">
+        <v>0.68170426065199996</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D104" s="6">
-        <v>0.96244131455399995</v>
-      </c>
-      <c r="E104" s="6">
-        <v>0.94241362043099997</v>
-      </c>
-      <c r="F104" s="6">
-        <v>0.98482469911000003</v>
-      </c>
-      <c r="G104" s="6">
-        <v>0.963152507677</v>
-      </c>
-      <c r="H104" s="6">
-        <v>0.67857142857099995</v>
-      </c>
-      <c r="I104" s="6">
-        <v>0.56316916488199997</v>
-      </c>
-      <c r="J104" s="6">
-        <v>0.84565916398700003</v>
-      </c>
-      <c r="K104" s="6">
-        <v>0.676092544987</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="15"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="14"/>
+      <c r="D106" s="6">
+        <v>0.97739785569399995</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0.974566473988</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.98023255813999999</v>
+      </c>
+      <c r="G106" s="6">
+        <v>0.97739130434800003</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0.55994897959199996</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0.47258064516100001</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0.94212218649500001</v>
+      </c>
+      <c r="K106" s="6">
+        <v>0.62943071965599995</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="14"/>
+      <c r="D107" s="6">
+        <v>0.59530026109699996</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.93193717277499999</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0.69667318982399995</v>
+      </c>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0.97209181012000001</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0.97373949579800001</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.97017268445799998</v>
+      </c>
+      <c r="G111" s="6">
+        <v>0.971952817824</v>
+      </c>
+      <c r="H111" s="10">
+        <v>0.70918367346900002</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0.60196560196600002</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0.78778135048200004</v>
+      </c>
+      <c r="K111" s="10">
+        <v>0.68245125348199998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6045,18 +6147,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2980" windowWidth="23480" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="534">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1730,10 +1730,25 @@
     <t>A_ntua_ek_1542806977</t>
   </si>
   <si>
+    <t>A_ntua_ek_1542858077</t>
+  </si>
+  <si>
+    <t>使用Google词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1542868460</t>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A_ntua_ek_1542786701, A_ntua_ek_1542792711, A_ntua_ek_1542708338, A_ntua_ek_1542806971</t>
-  </si>
-  <si>
-    <t>ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,7 +1759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1839,11 +1854,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF101010"/>
       <name val="DengXian"/>
@@ -1869,7 +1879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1925,8 +1935,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1940,13 +1952,12 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1975,6 +1986,7 @@
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2002,6 +2014,7 @@
     <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2282,30 +2295,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="100" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" customWidth="1"/>
+    <col min="12" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2316,40 +2333,46 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2363,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1</v>
@@ -2374,38 +2397,50 @@
       <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="4">
+      <c r="Q2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5">
+      <c r="S2" s="5">
         <v>1</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2427,47 +2462,51 @@
       <c r="G3" s="6">
         <v>0.70017953321399995</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
         <v>0.63775510204100005</v>
       </c>
-      <c r="I3" s="6">
+      <c r="M3" s="6">
         <v>0.53383458646600002</v>
       </c>
-      <c r="J3" s="6">
+      <c r="N3" s="6">
         <v>0.68488745980700005</v>
       </c>
-      <c r="K3" s="6">
+      <c r="O3" s="6">
         <v>0.6</v>
       </c>
-      <c r="M3" s="4">
+      <c r="Q3" s="4">
         <v>2</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="5">
+      <c r="S3" s="5">
         <v>2</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>398</v>
       </c>
@@ -2486,47 +2525,51 @@
       <c r="G4" s="6">
         <v>0.72799787290600004</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>0.64285714285700002</v>
       </c>
-      <c r="I4" s="6">
+      <c r="M4" s="6">
         <v>0.54089709762500005</v>
       </c>
-      <c r="J4" s="6">
+      <c r="N4" s="6">
         <v>0.65916398713799995</v>
       </c>
-      <c r="K4" s="6">
+      <c r="O4" s="6">
         <v>0.59420289855099995</v>
       </c>
-      <c r="M4" s="4">
+      <c r="Q4" s="4">
         <v>3</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="5">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2548,45 +2591,49 @@
       <c r="G5" s="6">
         <v>0.70656167978999995</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>0.64158163265299994</v>
       </c>
-      <c r="I5" s="6">
+      <c r="M5" s="6">
         <v>0.53947368421099995</v>
       </c>
-      <c r="J5" s="6">
+      <c r="N5" s="6">
         <v>0.65916398713799995</v>
       </c>
-      <c r="K5" s="6">
+      <c r="O5" s="6">
         <v>0.59334298118700002</v>
       </c>
-      <c r="M5" s="5">
+      <c r="Q5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="5">
+      <c r="S5" s="5">
         <v>4</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>398</v>
       </c>
@@ -2605,47 +2652,51 @@
       <c r="G6" s="6">
         <v>0.74878967186699996</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>0.66326530612199996</v>
       </c>
-      <c r="I6" s="6">
+      <c r="M6" s="6">
         <v>0.56473829201100001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="N6" s="6">
         <v>0.65916398713799995</v>
       </c>
-      <c r="K6" s="6">
+      <c r="O6" s="6">
         <v>0.60830860534099995</v>
       </c>
-      <c r="M6" s="5">
+      <c r="Q6" s="5">
         <v>5</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="5">
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="X6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="Y6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>391</v>
       </c>
@@ -2664,47 +2715,51 @@
       <c r="G7" s="6">
         <v>0.75434375835300005</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>0.67091836734700006</v>
       </c>
-      <c r="I7" s="6">
+      <c r="M7" s="6">
         <v>0.57422969187700001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="N7" s="6">
         <v>0.65916398713799995</v>
       </c>
-      <c r="K7" s="6">
+      <c r="O7" s="6">
         <v>0.61377245509</v>
       </c>
-      <c r="M7" s="5">
+      <c r="Q7" s="5">
         <v>6</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="5">
+      <c r="S7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="X7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>392</v>
       </c>
@@ -2723,47 +2778,51 @@
       <c r="G8" s="6">
         <v>0.75850978290000004</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>0.66964285714299998</v>
       </c>
-      <c r="I8" s="6">
+      <c r="M8" s="6">
         <v>0.57344632768399995</v>
       </c>
-      <c r="J8" s="6">
+      <c r="N8" s="6">
         <v>0.65273311897099995</v>
       </c>
-      <c r="K8" s="6">
+      <c r="O8" s="6">
         <v>0.61052631578899996</v>
       </c>
-      <c r="M8" s="5">
+      <c r="Q8" s="5">
         <v>7</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="5">
+      <c r="S8" s="5">
         <v>3</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>393</v>
       </c>
@@ -2782,45 +2841,49 @@
       <c r="G9" s="6">
         <v>0.75966924513199996</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>0.66454081632700002</v>
       </c>
-      <c r="I9" s="6">
+      <c r="M9" s="6">
         <v>0.56741573033699999</v>
       </c>
-      <c r="J9" s="6">
+      <c r="N9" s="6">
         <v>0.64951768488700001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="O9" s="6">
         <v>0.60569715142400005</v>
       </c>
-      <c r="M9" s="5">
+      <c r="Q9" s="5">
         <v>8</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="O9" s="5">
+      <c r="S9" s="5">
         <v>2</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="11" t="s">
+      <c r="U9" s="5"/>
+      <c r="V9" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>406</v>
       </c>
@@ -2839,47 +2902,51 @@
       <c r="G10" s="6">
         <v>0.76894442967300003</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>0.6875</v>
       </c>
-      <c r="I10" s="6">
+      <c r="M10" s="6">
         <v>0.59065934065900005</v>
       </c>
-      <c r="J10" s="6">
+      <c r="N10" s="6">
         <v>0.69131832797399995</v>
       </c>
-      <c r="K10" s="6">
+      <c r="O10" s="6">
         <v>0.63703703703699999</v>
       </c>
-      <c r="M10" s="5">
+      <c r="Q10" s="5">
         <v>9</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="5">
+      <c r="S10" s="5">
         <v>2</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" s="6"/>
@@ -2890,35 +2957,39 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="M11" s="5">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="5">
         <v>10</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="R11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="5">
+      <c r="S11" s="5">
         <v>4</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="V11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="X11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="Y11" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>411</v>
       </c>
@@ -2940,47 +3011,51 @@
       <c r="G12" s="6">
         <v>0.71347900810200005</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>0.63775510204100005</v>
       </c>
-      <c r="I12" s="6">
+      <c r="M12" s="6">
         <v>0.53206650831400004</v>
       </c>
-      <c r="J12" s="6">
+      <c r="N12" s="6">
         <v>0.72025723472699998</v>
       </c>
-      <c r="K12" s="6">
+      <c r="O12" s="6">
         <v>0.61202185792300001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="Q12" s="5">
         <v>11</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="5">
+      <c r="S12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="V12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="X12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="Y12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>392</v>
       </c>
@@ -2999,76 +3074,80 @@
       <c r="G13" s="6">
         <v>0.73366834170899997</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>0.661989795918</v>
       </c>
-      <c r="I13" s="6">
+      <c r="M13" s="6">
         <v>0.56318681318700003</v>
       </c>
-      <c r="J13" s="6">
+      <c r="N13" s="6">
         <v>0.65916398713799995</v>
       </c>
-      <c r="K13" s="6">
+      <c r="O13" s="6">
         <v>0.60740740740700006</v>
       </c>
-      <c r="M13" s="5">
+      <c r="Q13" s="5">
         <v>12</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="O13" s="5">
+      <c r="S13" s="5">
         <v>2</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="V13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="X13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="Y13" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M14" s="5">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5">
         <v>13</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="5">
+      <c r="S14" s="5">
         <v>3</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="V14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="W14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="X14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="Y14" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>411</v>
       </c>
@@ -3090,45 +3169,49 @@
       <c r="G15" s="6">
         <v>0.71866003664</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>0.661989795918</v>
       </c>
-      <c r="I15" s="6">
+      <c r="M15" s="6">
         <v>0.56020942408399999</v>
       </c>
-      <c r="J15" s="6">
+      <c r="N15" s="6">
         <v>0.68810289389099999</v>
       </c>
-      <c r="K15" s="6">
+      <c r="O15" s="6">
         <v>0.61760461760499996</v>
       </c>
-      <c r="M15" s="5">
+      <c r="Q15" s="5">
         <v>14</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="O15" s="5">
+      <c r="S15" s="5">
         <v>1</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="T15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5" t="s">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="W15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="X15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="Y15" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>412</v>
       </c>
@@ -3147,103 +3230,107 @@
       <c r="G16" s="6">
         <v>0.75233271127699997</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>0.679846938776</v>
       </c>
-      <c r="I16" s="6">
+      <c r="M16" s="6">
         <v>0.58522727272700004</v>
       </c>
-      <c r="J16" s="6">
+      <c r="N16" s="6">
         <v>0.662379421222</v>
       </c>
-      <c r="K16" s="6">
+      <c r="O16" s="6">
         <v>0.621417797888</v>
       </c>
-      <c r="M16" s="5">
+      <c r="Q16" s="5">
         <v>15</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="R16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="O16" s="5">
+      <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5" t="s">
+      <c r="U16" s="5"/>
+      <c r="V16" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="W16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="X16" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="Y16" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="5">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5">
         <v>16</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O17" s="5">
+      <c r="S17" s="5">
         <v>5</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="W17" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="X17" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="Y17" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M18" s="5">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5">
         <v>17</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O18" s="5">
+      <c r="S18" s="5">
         <v>3</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="V18" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="W18" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="X18" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="Y18" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>392</v>
       </c>
@@ -3262,47 +3349,51 @@
       <c r="G19" s="6">
         <v>0.75574333245299996</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>0.66581632653099998</v>
       </c>
-      <c r="I19" s="6">
+      <c r="M19" s="6">
         <v>0.56533333333299995</v>
       </c>
-      <c r="J19" s="6">
+      <c r="N19" s="6">
         <v>0.68167202572300001</v>
       </c>
-      <c r="K19" s="6">
+      <c r="O19" s="6">
         <v>0.61807580174900001</v>
       </c>
-      <c r="M19" s="5">
+      <c r="Q19" s="5">
         <v>18</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="O19" s="5">
+      <c r="S19" s="5">
         <v>3</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="W19" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="X19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="Y19" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>416</v>
       </c>
@@ -3321,47 +3412,51 @@
       <c r="G20" s="6">
         <v>0.75200856989800002</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>0.683673469388</v>
       </c>
-      <c r="I20" s="6">
+      <c r="M20" s="6">
         <v>0.588732394366</v>
       </c>
-      <c r="J20" s="6">
+      <c r="N20" s="6">
         <v>0.67202572347300005</v>
       </c>
-      <c r="K20" s="6">
+      <c r="O20" s="6">
         <v>0.62762762762799995</v>
       </c>
-      <c r="M20" s="5">
+      <c r="Q20" s="5">
         <v>19</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="R20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O20" s="5">
+      <c r="S20" s="5">
         <v>1</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="U20" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="V20" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="W20" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="X20" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="Y20" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>414</v>
       </c>
@@ -3380,47 +3475,51 @@
       <c r="G21" s="6">
         <v>0.77474131069200003</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>0.6875</v>
       </c>
-      <c r="I21" s="6">
+      <c r="M21" s="6">
         <v>0.58967391304299999</v>
       </c>
-      <c r="J21" s="6">
+      <c r="N21" s="6">
         <v>0.69774919614099995</v>
       </c>
-      <c r="K21" s="6">
+      <c r="O21" s="6">
         <v>0.63917525773200001</v>
       </c>
-      <c r="M21" s="5">
+      <c r="Q21" s="5">
         <v>20</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="R21" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O21" s="5">
+      <c r="S21" s="5">
         <v>3</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="U21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="V21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="W21" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="X21" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="Y21" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>392</v>
       </c>
@@ -3439,74 +3538,78 @@
       <c r="G22" s="10">
         <v>0.79228329809700004</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="12">
         <v>0.69642857142900005</v>
       </c>
-      <c r="I22" s="12">
+      <c r="M22" s="12">
         <v>0.60055096418700005</v>
       </c>
-      <c r="J22" s="6">
+      <c r="N22" s="6">
         <v>0.700964630225</v>
       </c>
-      <c r="K22" s="10">
+      <c r="O22" s="13">
         <v>0.64688427299700002</v>
       </c>
-      <c r="M22" s="5">
+      <c r="Q22" s="5">
         <v>21</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="R22" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O22" s="5">
+      <c r="S22" s="5">
         <v>7</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="T22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="U22" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="V22" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="W22" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="X22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="Y22" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M23" s="5">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5">
         <v>22</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="R23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="O23" s="5">
+      <c r="S23" s="5">
         <v>4</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5" t="s">
+      <c r="U23" s="5"/>
+      <c r="V23" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="W23" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="X23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="Y23" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>427</v>
       </c>
@@ -3528,47 +3631,51 @@
       <c r="G24" s="6">
         <v>0.67411545623799995</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>0.63520408163300002</v>
       </c>
-      <c r="I24" s="6">
+      <c r="M24" s="6">
         <v>0.53541076487299999</v>
       </c>
-      <c r="J24" s="6">
+      <c r="N24" s="6">
         <v>0.60771704180099995</v>
       </c>
-      <c r="K24" s="6">
+      <c r="O24" s="6">
         <v>0.56927710843400003</v>
       </c>
-      <c r="M24" s="5">
+      <c r="Q24" s="5">
         <v>23</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="R24" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O24" s="5">
+      <c r="S24" s="5">
         <v>3</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="T24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="U24" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="V24" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="W24" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="X24" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="Y24" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>430</v>
       </c>
@@ -3587,47 +3694,51 @@
       <c r="G25" s="6">
         <v>0.693227091633</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>0.64158163265299994</v>
       </c>
-      <c r="I25" s="6">
+      <c r="M25" s="6">
         <v>0.54098360655699995</v>
       </c>
-      <c r="J25" s="6">
+      <c r="N25" s="6">
         <v>0.63665594855300001</v>
       </c>
-      <c r="K25" s="6">
+      <c r="O25" s="6">
         <v>0.58493353028100004</v>
       </c>
-      <c r="M25" s="5">
+      <c r="Q25" s="5">
         <v>24</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="R25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="5">
+      <c r="S25" s="5">
         <v>2</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="T25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="U25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="V25" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="W25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="X25" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="Y25" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>429</v>
       </c>
@@ -3649,47 +3760,51 @@
       <c r="G26" s="6">
         <v>0.682336513847</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>0.60969387755100002</v>
       </c>
-      <c r="I26" s="6">
+      <c r="M26" s="6">
         <v>0.50535331905799996</v>
       </c>
-      <c r="J26" s="10">
+      <c r="N26" s="10">
         <v>0.75884244372999998</v>
       </c>
-      <c r="K26" s="6">
+      <c r="O26" s="6">
         <v>0.606683804627</v>
       </c>
-      <c r="M26" s="5">
+      <c r="Q26" s="5">
         <v>25</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="R26" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="O26" s="5">
+      <c r="S26" s="5">
         <v>4</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="T26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="U26" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="V26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="W26" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="X26" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="Y26" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>419</v>
       </c>
@@ -3708,47 +3823,51 @@
       <c r="G27" s="6">
         <v>0.690100430416</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
         <v>0.61479591836699998</v>
       </c>
-      <c r="I27" s="6">
+      <c r="M27" s="6">
         <v>0.50989010989000005</v>
       </c>
-      <c r="J27" s="6">
+      <c r="N27" s="6">
         <v>0.745980707395</v>
       </c>
-      <c r="K27" s="6">
+      <c r="O27" s="6">
         <v>0.60574412532599997</v>
       </c>
-      <c r="M27" s="5">
+      <c r="Q27" s="5">
         <v>26</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="R27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="O27" s="5">
+      <c r="S27" s="5">
         <v>3</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="U27" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="V27" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="W27" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="X27" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="Y27" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>392</v>
       </c>
@@ -3768,76 +3887,80 @@
       <c r="G28" s="6">
         <v>0.69718875501999999</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>0.64030612244899998</v>
       </c>
-      <c r="I28" s="6">
+      <c r="M28" s="6">
         <v>0.54016620498599999</v>
       </c>
-      <c r="J28" s="6">
+      <c r="N28" s="6">
         <v>0.62700964630199996</v>
       </c>
-      <c r="K28" s="6">
+      <c r="O28" s="6">
         <v>0.58035714285700002</v>
       </c>
-      <c r="M28" s="5">
+      <c r="Q28" s="5">
         <v>27</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="R28" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O28" s="5">
+      <c r="S28" s="5">
         <v>3</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="T28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="U28" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="W28" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="X28" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="Y28" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M29" s="5">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
         <v>28</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="R29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O29" s="5">
+      <c r="S29" s="5">
         <v>3</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="T29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="U29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="V29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="W29" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="X29" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="Y29" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -3859,47 +3982,51 @@
       <c r="G30" s="6">
         <v>0.66257947320599997</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
         <v>0.61352040816300002</v>
       </c>
-      <c r="I30" s="6">
+      <c r="M30" s="6">
         <v>0.50865800865800004</v>
       </c>
-      <c r="J30" s="6">
+      <c r="N30" s="6">
         <v>0.75562700964600005</v>
       </c>
-      <c r="K30" s="6">
+      <c r="O30" s="6">
         <v>0.60802069857700003</v>
       </c>
-      <c r="M30" s="5">
+      <c r="Q30" s="5">
         <v>29</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="R30" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="O30" s="5">
+      <c r="S30" s="5">
         <v>3</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="T30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="U30" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="V30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="W30" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="X30" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="Y30" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>392</v>
       </c>
@@ -3918,45 +4045,49 @@
       <c r="G31" s="6">
         <v>0.68367795864500003</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>0.60204081632700002</v>
       </c>
-      <c r="I31" s="6">
+      <c r="M31" s="6">
         <v>0.49898989899000001</v>
       </c>
-      <c r="J31" s="6">
+      <c r="N31" s="6">
         <v>0.79421221865000002</v>
       </c>
-      <c r="K31" s="6">
+      <c r="O31" s="6">
         <v>0.61290322580599998</v>
       </c>
-      <c r="M31" s="5">
+      <c r="Q31" s="5">
         <v>30</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="R31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="5">
+      <c r="S31" s="5">
         <v>4</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="T31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5" t="s">
+      <c r="U31" s="5"/>
+      <c r="V31" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="W31" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="X31" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="Y31" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>482</v>
       </c>
@@ -3978,47 +4109,51 @@
       <c r="G32" s="6">
         <v>0.70909522678699999</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
         <v>0.628826530612</v>
       </c>
-      <c r="I32" s="6">
+      <c r="M32" s="6">
         <v>0.52304147465399997</v>
       </c>
-      <c r="J32" s="6">
+      <c r="N32" s="6">
         <v>0.72990353697699994</v>
       </c>
-      <c r="K32" s="6">
+      <c r="O32" s="6">
         <v>0.60939597315399996</v>
       </c>
-      <c r="M32" s="5">
+      <c r="Q32" s="5">
         <v>31</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="R32" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="O32" s="5">
+      <c r="S32" s="5">
         <v>1</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="T32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="U32" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="V32" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="W32" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="X32" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="Y32" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>487</v>
       </c>
@@ -4037,101 +4172,105 @@
       <c r="G33" s="6">
         <v>0.73309608540899995</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
         <v>0.67346938775499998</v>
       </c>
-      <c r="I33" s="6">
+      <c r="M33" s="6">
         <v>0.57493188010899998</v>
       </c>
-      <c r="J33" s="6">
+      <c r="N33" s="6">
         <v>0.67845659164000005</v>
       </c>
-      <c r="K33" s="6">
+      <c r="O33" s="6">
         <v>0.62241887905600002</v>
       </c>
-      <c r="M33" s="5">
+      <c r="Q33" s="5">
         <v>32</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="R33" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="O33" s="5">
+      <c r="S33" s="5">
         <v>1</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="T33" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5" t="s">
+      <c r="U33" s="5"/>
+      <c r="V33" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="W33" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="X33" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="Y33" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M34" s="5">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q34" s="5">
         <v>33</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="R34" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="O34" s="5">
+      <c r="S34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="T34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="U34" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="V34" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="W34" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="X34" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="Y34" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M35" s="5">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q35" s="5">
         <v>34</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="R35" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="O35" s="5">
+      <c r="S35" s="5">
         <v>3</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5" t="s">
+      <c r="U35" s="5"/>
+      <c r="V35" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="W35" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="X35" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="Y35" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>419</v>
       </c>
@@ -4150,47 +4289,51 @@
       <c r="G36" s="6">
         <v>0.64443957008099995</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
         <v>0.55229591836699998</v>
       </c>
-      <c r="I36" s="6">
+      <c r="M36" s="6">
         <v>0.45884773662599998</v>
       </c>
-      <c r="J36" s="6">
+      <c r="N36" s="6">
         <v>0.71704180064300005</v>
       </c>
-      <c r="K36" s="6">
+      <c r="O36" s="6">
         <v>0.559598494354</v>
       </c>
-      <c r="M36" s="5">
+      <c r="Q36" s="5">
         <v>35</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="R36" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="O36" s="5">
+      <c r="S36" s="5">
         <v>9</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="T36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="U36" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="V36" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="W36" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="X36" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="U36" s="5" t="s">
+      <c r="Y36" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>421</v>
       </c>
@@ -4209,47 +4352,51 @@
       <c r="G37" s="6">
         <v>0.67857800699899995</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <v>0.48596938775499998</v>
       </c>
-      <c r="I37" s="6">
+      <c r="M37" s="6">
         <v>0.43409742120299999</v>
       </c>
-      <c r="J37" s="6">
+      <c r="N37" s="6">
         <v>0.97427652733100001</v>
       </c>
-      <c r="K37" s="6">
+      <c r="O37" s="6">
         <v>0.60059464816700003</v>
       </c>
-      <c r="M37" s="5">
+      <c r="Q37" s="5">
         <v>36</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="R37" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="O37" s="5">
+      <c r="S37" s="5">
         <v>1</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="T37" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="U37" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="V37" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="W37" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="X37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="5" t="s">
+      <c r="Y37" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>422</v>
       </c>
@@ -4265,47 +4412,51 @@
       <c r="G38" s="6">
         <v>0.66935766935800001</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <v>0.411989795918</v>
       </c>
-      <c r="I38" s="6">
+      <c r="M38" s="6">
         <v>0.402597402597</v>
       </c>
-      <c r="J38" s="6">
+      <c r="N38" s="6">
         <v>0.99678456591599995</v>
       </c>
-      <c r="K38" s="6">
+      <c r="O38" s="6">
         <v>0.57354301572599997</v>
       </c>
-      <c r="M38" s="5">
+      <c r="Q38" s="5">
         <v>37</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="R38" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="O38" s="5">
+      <c r="S38" s="5">
         <v>1</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="T38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="U38" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="V38" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="W38" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="X38" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="U38" s="5" t="s">
+      <c r="Y38" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>423</v>
       </c>
@@ -4324,47 +4475,51 @@
       <c r="G39" s="6">
         <v>0.66750884285000001</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>0.658163265306</v>
       </c>
-      <c r="I39" s="6">
+      <c r="M39" s="6">
         <v>0.55388471177900001</v>
       </c>
-      <c r="J39" s="6">
+      <c r="N39" s="6">
         <v>0.71061093247600005</v>
       </c>
-      <c r="K39" s="6">
+      <c r="O39" s="6">
         <v>0.62253521126800004</v>
       </c>
-      <c r="M39" s="5">
+      <c r="Q39" s="5">
         <v>38</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="R39" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="O39" s="5">
+      <c r="S39" s="5">
         <v>2</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="T39" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="U39" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="V39" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="W39" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="X39" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="U39" s="5" t="s">
+      <c r="Y39" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>424</v>
       </c>
@@ -4383,74 +4538,78 @@
       <c r="G40" s="6">
         <v>0.66488066244499999</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>0.628826530612</v>
       </c>
-      <c r="I40" s="6">
+      <c r="M40" s="6">
         <v>0.52272727272700004</v>
       </c>
-      <c r="J40" s="6">
+      <c r="N40" s="6">
         <v>0.73954983922799999</v>
       </c>
-      <c r="K40" s="6">
+      <c r="O40" s="6">
         <v>0.612516644474</v>
       </c>
-      <c r="M40" s="5">
+      <c r="Q40" s="5">
         <v>39</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="R40" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="O40" s="5">
+      <c r="S40" s="5">
         <v>6</v>
       </c>
-      <c r="P40" s="5" t="s">
+      <c r="T40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5" t="s">
+      <c r="U40" s="5"/>
+      <c r="V40" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="W40" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="X40" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="U40" s="5" t="s">
+      <c r="Y40" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M41" s="5">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q41" s="5">
         <v>40</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="R41" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="O41" s="5">
+      <c r="S41" s="5">
         <v>4</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="T41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="U41" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="V41" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="W41" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="X41" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="U41" s="5" t="s">
+      <c r="Y41" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>441</v>
       </c>
@@ -4469,47 +4628,51 @@
       <c r="G42" s="6">
         <v>0.68598761958400001</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
         <v>0.60969387755100002</v>
       </c>
-      <c r="I42" s="6">
+      <c r="M42" s="6">
         <v>0.50814332247600003</v>
       </c>
-      <c r="J42" s="6">
+      <c r="N42" s="6">
         <v>0.50160771704200002</v>
       </c>
-      <c r="K42" s="6">
+      <c r="O42" s="6">
         <v>0.50485436893199997</v>
       </c>
-      <c r="M42" s="5">
+      <c r="Q42" s="5">
         <v>41</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="R42" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="O42" s="5">
+      <c r="S42" s="5">
         <v>4</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="T42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="U42" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="V42" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="W42" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="X42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="U42" s="5" t="s">
+      <c r="Y42" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>442</v>
       </c>
@@ -4528,47 +4691,51 @@
       <c r="G43" s="6">
         <v>0.75618945102299995</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
         <v>0.625</v>
       </c>
-      <c r="I43" s="6">
+      <c r="M43" s="6">
         <v>0.52664576802499996</v>
       </c>
-      <c r="J43" s="6">
+      <c r="N43" s="6">
         <v>0.54019292604500002</v>
       </c>
-      <c r="K43" s="6">
+      <c r="O43" s="6">
         <v>0.53333333333300004</v>
       </c>
-      <c r="M43" s="5">
+      <c r="Q43" s="5">
         <v>42</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="R43" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="O43" s="5">
+      <c r="S43" s="5">
         <v>2</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="T43" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="U43" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="V43" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="W43" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="X43" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="U43" s="5" t="s">
+      <c r="Y43" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>392</v>
       </c>
@@ -4587,47 +4754,51 @@
       <c r="G44" s="6">
         <v>0.55289765721299999</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6">
         <v>0.47193877551000002</v>
       </c>
-      <c r="I44" s="6">
+      <c r="M44" s="6">
         <v>0.37649880095900001</v>
       </c>
-      <c r="J44" s="6">
+      <c r="N44" s="6">
         <v>0.50482315112499998</v>
       </c>
-      <c r="K44" s="6">
+      <c r="O44" s="6">
         <v>0.43131868131899997</v>
       </c>
-      <c r="M44" s="5">
+      <c r="Q44" s="5">
         <v>43</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="R44" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O44" s="5">
+      <c r="S44" s="5">
         <v>6</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="T44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="U44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="V44" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S44" s="8" t="s">
+      <c r="W44" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="X44" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="U44" s="5" t="s">
+      <c r="Y44" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>454</v>
       </c>
@@ -4646,20 +4817,24 @@
       <c r="G45" s="6">
         <v>0.80061193268700004</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
         <v>0.51658163265299994</v>
       </c>
-      <c r="I45" s="6">
+      <c r="M45" s="6">
         <v>0.41282051282100002</v>
       </c>
-      <c r="J45" s="6">
+      <c r="N45" s="6">
         <v>0.51768488745999997</v>
       </c>
-      <c r="K45" s="6">
+      <c r="O45" s="6">
         <v>0.45934379457899999</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>453</v>
       </c>
@@ -4678,20 +4853,24 @@
       <c r="G46" s="6">
         <v>0.62099871958999997</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <v>0.47831632653099998</v>
       </c>
-      <c r="I46" s="6">
+      <c r="M46" s="6">
         <v>0.41403508771899999</v>
       </c>
-      <c r="J46" s="6">
+      <c r="N46" s="6">
         <v>0.75884244372999998</v>
       </c>
-      <c r="K46" s="6">
+      <c r="O46" s="6">
         <v>0.53575482406399999</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>454</v>
       </c>
@@ -4710,20 +4889,24 @@
       <c r="G47" s="6">
         <v>0.74287208998200005</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <v>0.52295918367299998</v>
       </c>
-      <c r="I47" s="6">
+      <c r="M47" s="6">
         <v>0.41902313624699999</v>
       </c>
-      <c r="J47" s="6">
+      <c r="N47" s="6">
         <v>0.52411575562699997</v>
       </c>
-      <c r="K47" s="6">
+      <c r="O47" s="6">
         <v>0.46571428571399998</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>446</v>
       </c>
@@ -4742,20 +4925,24 @@
       <c r="G49" s="6">
         <v>0.71366358192699997</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6">
         <v>0.64668367346900002</v>
       </c>
-      <c r="I49" s="6">
+      <c r="M49" s="6">
         <v>0.55029585798799996</v>
       </c>
-      <c r="J49" s="6">
+      <c r="N49" s="6">
         <v>0.59807073955000001</v>
       </c>
-      <c r="K49" s="6">
+      <c r="O49" s="6">
         <v>0.57318952234200005</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>468</v>
       </c>
@@ -4774,20 +4961,24 @@
       <c r="G51" s="6">
         <v>0.66834804539699999</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6">
         <v>0.65943877550999996</v>
       </c>
-      <c r="I51" s="6">
+      <c r="M51" s="6">
         <v>0.55500000000000005</v>
       </c>
-      <c r="J51" s="6">
+      <c r="N51" s="6">
         <v>0.713826366559</v>
       </c>
-      <c r="K51" s="6">
+      <c r="O51" s="6">
         <v>0.62447257383999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>437</v>
       </c>
@@ -4806,20 +4997,24 @@
       <c r="G52" s="6">
         <v>0.66969467575099995</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6">
         <v>0.661989795918</v>
       </c>
-      <c r="I52" s="6">
+      <c r="M52" s="6">
         <v>0.55721393034800004</v>
       </c>
-      <c r="J52" s="6">
+      <c r="N52" s="6">
         <v>0.72025723472699998</v>
       </c>
-      <c r="K52" s="6">
+      <c r="O52" s="6">
         <v>0.62833099579200002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -4828,8 +5023,12 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>448</v>
       </c>
@@ -4848,20 +5047,24 @@
       <c r="G54" s="6">
         <v>0.66952356944799996</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6">
         <v>0.658163265306</v>
       </c>
-      <c r="I54" s="6">
+      <c r="M54" s="6">
         <v>0.55334987593100005</v>
       </c>
-      <c r="J54" s="6">
+      <c r="N54" s="6">
         <v>0.71704180064300005</v>
       </c>
-      <c r="K54" s="6">
+      <c r="O54" s="6">
         <v>0.62464985994400002</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>449</v>
       </c>
@@ -4880,20 +5083,24 @@
       <c r="G55" s="6">
         <v>0.66968781470299998</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6">
         <v>0.65943877550999996</v>
       </c>
-      <c r="I55" s="6">
+      <c r="M55" s="6">
         <v>0.55472636815900001</v>
       </c>
-      <c r="J55" s="6">
+      <c r="N55" s="6">
         <v>0.71704180064300005</v>
       </c>
-      <c r="K55" s="6">
+      <c r="O55" s="6">
         <v>0.62552594670399997</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>437</v>
       </c>
@@ -4912,20 +5119,24 @@
       <c r="G57" s="6">
         <v>0.67118814368199997</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6">
         <v>0.661989795918</v>
       </c>
-      <c r="I57" s="6">
+      <c r="M57" s="6">
         <v>0.55637254902</v>
       </c>
-      <c r="J57" s="6">
+      <c r="N57" s="6">
         <v>0.72990353697699994</v>
       </c>
-      <c r="K57" s="6">
+      <c r="O57" s="6">
         <v>0.63143254520199998</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>437</v>
       </c>
@@ -4944,20 +5155,24 @@
       <c r="G58" s="6">
         <v>0.69900497512399995</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6">
         <v>0.61862244897999996</v>
       </c>
-      <c r="I58" s="6">
+      <c r="M58" s="6">
         <v>0.514925373134</v>
       </c>
-      <c r="J58" s="6">
+      <c r="N58" s="6">
         <v>0.66559485530499995</v>
       </c>
-      <c r="K58" s="6">
+      <c r="O58" s="6">
         <v>0.58064516128999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>437</v>
       </c>
@@ -4976,20 +5191,24 @@
       <c r="G59" s="6">
         <v>0.70116365436999994</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6">
         <v>0.62627551020399996</v>
       </c>
-      <c r="I59" s="6">
+      <c r="M59" s="6">
         <v>0.52216748768499999</v>
       </c>
-      <c r="J59" s="6">
+      <c r="N59" s="6">
         <v>0.68167202572300001</v>
       </c>
-      <c r="K59" s="6">
+      <c r="O59" s="6">
         <v>0.59135285913500002</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>448</v>
       </c>
@@ -5008,20 +5227,24 @@
       <c r="G60" s="6">
         <v>0.70608439646700005</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6">
         <v>0.62755102040800004</v>
       </c>
-      <c r="I60" s="6">
+      <c r="M60" s="6">
         <v>0.52311435523100003</v>
       </c>
-      <c r="J60" s="6">
+      <c r="N60" s="6">
         <v>0.69131832797399995</v>
       </c>
-      <c r="K60" s="6">
+      <c r="O60" s="6">
         <v>0.59556786703599995</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>449</v>
       </c>
@@ -5040,20 +5263,24 @@
       <c r="G61" s="6">
         <v>0.70992736077499996</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6">
         <v>0.632653061224</v>
       </c>
-      <c r="I61" s="6">
+      <c r="M61" s="6">
         <v>0.52811735941299998</v>
       </c>
-      <c r="J61" s="6">
+      <c r="N61" s="6">
         <v>0.69453376205799999</v>
       </c>
-      <c r="K61" s="6">
+      <c r="O61" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>467</v>
       </c>
@@ -5072,20 +5299,24 @@
       <c r="G63" s="6">
         <v>0.67905575087900005</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6">
         <v>0.65178571428599996</v>
       </c>
-      <c r="I63" s="6">
+      <c r="M63" s="6">
         <v>0.54679802955699996</v>
       </c>
-      <c r="J63" s="6">
+      <c r="N63" s="6">
         <v>0.713826366559</v>
       </c>
-      <c r="K63" s="6">
+      <c r="O63" s="6">
         <v>0.619246861925</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>437</v>
       </c>
@@ -5104,20 +5335,24 @@
       <c r="G64" s="6">
         <v>0.71588149587200001</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6">
         <v>0.625</v>
       </c>
-      <c r="I64" s="6">
+      <c r="M64" s="6">
         <v>0.52038369304599996</v>
       </c>
-      <c r="J64" s="6">
+      <c r="N64" s="6">
         <v>0.69774919614099995</v>
       </c>
-      <c r="K64" s="6">
+      <c r="O64" s="6">
         <v>0.59615384615400002</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>437</v>
       </c>
@@ -5136,20 +5371,24 @@
       <c r="G65" s="6">
         <v>0.71977104698299998</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6">
         <v>0.625</v>
       </c>
-      <c r="I65" s="6">
+      <c r="M65" s="6">
         <v>0.52</v>
       </c>
-      <c r="J65" s="6">
+      <c r="N65" s="6">
         <v>0.71061093247600005</v>
       </c>
-      <c r="K65" s="6">
+      <c r="O65" s="6">
         <v>0.60054347826099996</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>448</v>
       </c>
@@ -5168,20 +5407,24 @@
       <c r="G66" s="6">
         <v>0.71798561151100004</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6">
         <v>0.62627551020399996</v>
       </c>
-      <c r="I66" s="6">
+      <c r="M66" s="6">
         <v>0.521531100478</v>
       </c>
-      <c r="J66" s="6">
+      <c r="N66" s="6">
         <v>0.700964630225</v>
       </c>
-      <c r="K66" s="6">
+      <c r="O66" s="6">
         <v>0.59807956104299997</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>449</v>
       </c>
@@ -5200,20 +5443,24 @@
       <c r="G67" s="6">
         <v>0.71799672361300004</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6">
         <v>0.62372448979600004</v>
       </c>
-      <c r="I67" s="6">
+      <c r="M67" s="6">
         <v>0.51793721973100004</v>
       </c>
-      <c r="J67" s="6">
+      <c r="N67" s="6">
         <v>0.74276527331200004</v>
       </c>
-      <c r="K67" s="6">
+      <c r="O67" s="6">
         <v>0.61030383091100004</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>392</v>
       </c>
@@ -5232,25 +5479,29 @@
       <c r="G69" s="6">
         <v>0.671177944862</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6">
         <v>0.661989795918</v>
       </c>
-      <c r="I69" s="6">
+      <c r="M69" s="6">
         <v>0.55609756097600005</v>
       </c>
-      <c r="J69" s="6">
+      <c r="N69" s="6">
         <v>0.73311897106099999</v>
       </c>
-      <c r="K69" s="6">
+      <c r="O69" s="6">
         <v>0.63245492371699996</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>471</v>
       </c>
@@ -5269,20 +5520,24 @@
       <c r="G73" s="6">
         <v>0.94728518713800003</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6">
         <v>0.67091836734700006</v>
       </c>
-      <c r="I73" s="6">
+      <c r="M73" s="6">
         <v>0.56955380577400005</v>
       </c>
-      <c r="J73" s="6">
+      <c r="N73" s="6">
         <v>0.69774919614099995</v>
       </c>
-      <c r="K73" s="6">
+      <c r="O73" s="6">
         <v>0.62716763005800003</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>474</v>
       </c>
@@ -5301,20 +5556,24 @@
       <c r="G76" s="6">
         <v>0.66541554959799998</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6">
         <v>0.57270408163300002</v>
       </c>
-      <c r="I76" s="6">
+      <c r="M76" s="6">
         <v>0.467741935484</v>
       </c>
-      <c r="J76" s="6">
+      <c r="N76" s="6">
         <v>0.55948553054700001</v>
       </c>
-      <c r="K76" s="6">
+      <c r="O76" s="6">
         <v>0.50951683748200005</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>479</v>
       </c>
@@ -5333,20 +5592,24 @@
       <c r="G77" s="6">
         <v>0.66910209575099999</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6">
         <v>0.46428571428600002</v>
       </c>
-      <c r="I77" s="6">
+      <c r="M77" s="6">
         <v>0.42158273381299999</v>
       </c>
-      <c r="J77" s="6">
+      <c r="N77" s="6">
         <v>0.94212218649500001</v>
       </c>
-      <c r="K77" s="6">
+      <c r="O77" s="6">
         <v>0.58250497017900005</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>480</v>
       </c>
@@ -5365,20 +5628,24 @@
       <c r="G78" s="6">
         <v>0.666317626527</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6">
         <v>0.40178571428600002</v>
       </c>
-      <c r="I78" s="6">
+      <c r="M78" s="6">
         <v>0.39871794871799998</v>
       </c>
-      <c r="J78" s="6">
+      <c r="N78" s="6">
         <v>1</v>
       </c>
-      <c r="K78" s="6">
+      <c r="O78" s="6">
         <v>0.57011915673699998</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>481</v>
       </c>
@@ -5397,20 +5664,24 @@
       <c r="G79" s="6">
         <v>0.73936170212800001</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6">
         <v>0.632653061224</v>
       </c>
-      <c r="I79" s="6">
+      <c r="M79" s="6">
         <v>0.53050397878</v>
       </c>
-      <c r="J79" s="6">
+      <c r="N79" s="6">
         <v>0.64308681672000001</v>
       </c>
-      <c r="K79" s="6">
+      <c r="O79" s="6">
         <v>0.58139534883699995</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>494</v>
       </c>
@@ -5429,20 +5700,24 @@
       <c r="G81" s="6">
         <v>0.66834677419400002</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6">
         <v>0.658163265306</v>
       </c>
-      <c r="I81" s="6">
+      <c r="M81" s="6">
         <v>0.55361596010000003</v>
       </c>
-      <c r="J81" s="6">
+      <c r="N81" s="6">
         <v>0.713826366559</v>
       </c>
-      <c r="K81" s="6">
+      <c r="O81" s="6">
         <v>0.62359550561800003</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>494</v>
       </c>
@@ -5461,20 +5736,24 @@
       <c r="G82" s="6">
         <v>0.66851525081899998</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6">
         <v>0.658163265306</v>
       </c>
-      <c r="I82" s="6">
+      <c r="M82" s="6">
         <v>0.55361596010000003</v>
       </c>
-      <c r="J82" s="6">
+      <c r="N82" s="6">
         <v>0.713826366559</v>
       </c>
-      <c r="K82" s="6">
+      <c r="O82" s="6">
         <v>0.62359550561800003</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>505</v>
       </c>
@@ -5493,20 +5772,24 @@
       <c r="G85" s="6">
         <v>0.95062054396600004</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6">
         <v>0.67219387755100002</v>
       </c>
-      <c r="I85" s="6">
+      <c r="M85" s="6">
         <v>0.55973451327400003</v>
       </c>
-      <c r="J85" s="6">
+      <c r="N85" s="6">
         <v>0.81350482315100003</v>
       </c>
-      <c r="K85" s="15">
+      <c r="O85" s="13">
         <v>0.66317169069500004</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>507</v>
       </c>
@@ -5525,20 +5808,24 @@
       <c r="G86" s="12">
         <v>0.98218962807800003</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="6">
         <v>0.69770408163300002</v>
       </c>
-      <c r="I86" s="6">
+      <c r="M86" s="6">
         <v>0.59635416666700003</v>
       </c>
-      <c r="J86" s="6">
+      <c r="N86" s="6">
         <v>0.73633440514500004</v>
       </c>
-      <c r="K86" s="6">
+      <c r="O86" s="6">
         <v>0.65899280575499997</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>505</v>
       </c>
@@ -5560,20 +5847,24 @@
       <c r="G87" s="10">
         <v>0.98901098901100004</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="13">
         <v>0.70408163265299994</v>
       </c>
-      <c r="I87" s="10">
+      <c r="M87" s="10">
         <v>0.61189801699699997</v>
       </c>
-      <c r="J87" s="6">
+      <c r="N87" s="6">
         <v>0.69453376205799999</v>
       </c>
-      <c r="K87" s="6">
+      <c r="O87" s="6">
         <v>0.65060240963899996</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>505</v>
       </c>
@@ -5595,20 +5886,24 @@
       <c r="G88" s="6">
         <v>0.67539890450100004</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6">
         <v>0.65943877550999996</v>
       </c>
-      <c r="I88" s="6">
+      <c r="M88" s="6">
         <v>0.58029197080299999</v>
       </c>
-      <c r="J88" s="6">
+      <c r="N88" s="6">
         <v>0.51125401929299996</v>
       </c>
-      <c r="K88" s="6">
+      <c r="O88" s="6">
         <v>0.54358974359000001</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>512</v>
       </c>
@@ -5627,20 +5922,24 @@
       <c r="G90" s="6">
         <v>0.97568627451000001</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6">
         <v>0.6875</v>
       </c>
-      <c r="I90" s="6">
+      <c r="M90" s="6">
         <v>0.58128078817700002</v>
       </c>
-      <c r="J90" s="6">
+      <c r="N90" s="6">
         <v>0.75884244372999998</v>
       </c>
-      <c r="K90" s="6">
+      <c r="O90" s="6">
         <v>0.65829846582999996</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>514</v>
       </c>
@@ -5659,20 +5958,24 @@
       <c r="G91" s="6">
         <v>0.99556251631399995</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6">
         <v>0.68877551020399996</v>
       </c>
-      <c r="I91" s="6">
+      <c r="M91" s="6">
         <v>0.58438287153699997</v>
       </c>
-      <c r="J91" s="6">
+      <c r="N91" s="6">
         <v>0.745980707395</v>
       </c>
-      <c r="K91" s="6">
+      <c r="O91" s="6">
         <v>0.65536723163800004</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>516</v>
       </c>
@@ -5691,20 +5994,24 @@
       <c r="G92" s="6">
         <v>0.74408173436299996</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6">
         <v>0.63392857142900005</v>
       </c>
-      <c r="I92" s="6">
+      <c r="M92" s="6">
         <v>0.53076923076899996</v>
       </c>
-      <c r="J92" s="6">
+      <c r="N92" s="6">
         <v>0.66559485530499995</v>
       </c>
-      <c r="K92" s="6">
+      <c r="O92" s="6">
         <v>0.59058487874499999</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>517</v>
       </c>
@@ -5723,20 +6030,24 @@
       <c r="G93" s="6">
         <v>0.76942482341100005</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6">
         <v>0.632653061224</v>
       </c>
-      <c r="I93" s="6">
+      <c r="M93" s="6">
         <v>0.52825552825599997</v>
       </c>
-      <c r="J93" s="6">
+      <c r="N93" s="6">
         <v>0.69131832797399995</v>
       </c>
-      <c r="K93" s="6">
+      <c r="O93" s="6">
         <v>0.59888579387200003</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>517</v>
       </c>
@@ -5755,22 +6066,22 @@
       <c r="G94" s="6">
         <v>0.99530026109699998</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6">
         <v>0.6875</v>
       </c>
-      <c r="I94" s="6">
+      <c r="M94" s="6">
         <v>0.58291457286399995</v>
       </c>
-      <c r="J94" s="6">
+      <c r="N94" s="6">
         <v>0.745980707395</v>
       </c>
-      <c r="K94" s="6">
+      <c r="O94" s="6">
         <v>0.65444287729200001</v>
       </c>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
@@ -5783,8 +6094,12 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>505</v>
       </c>
@@ -5804,315 +6119,410 @@
         <v>0.97297297297300001</v>
       </c>
       <c r="H96" s="6">
+        <v>0.61096605744099997</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0.57291666666700003</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0.86387434554999998</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0.68893528183700004</v>
+      </c>
+      <c r="L96" s="6">
         <v>0.60076530612199996</v>
       </c>
-      <c r="I96" s="6">
+      <c r="M96" s="6">
         <v>0.49822695035499998</v>
       </c>
-      <c r="J96" s="6">
+      <c r="N96" s="6">
         <v>0.90353697749200002</v>
       </c>
-      <c r="K96" s="6">
+      <c r="O96" s="6">
         <v>0.64228571428600001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="D97" s="6">
-        <v>0.61096605744099997</v>
+        <v>0.97478991596599995</v>
       </c>
       <c r="E97" s="6">
-        <v>0.57291666666700003</v>
+        <v>0.97278517660700003</v>
       </c>
       <c r="F97" s="6">
-        <v>0.86387434554999998</v>
+        <v>0.97674418604699997</v>
       </c>
       <c r="G97" s="6">
-        <v>0.68893528183700004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.97476066144499995</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0.63185378590100005</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0.58802816901400001</v>
+      </c>
+      <c r="J97" s="6">
+        <v>0.87434554973800005</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0.70315789473699997</v>
+      </c>
+      <c r="L97" s="6">
+        <v>0.61096938775499998</v>
+      </c>
+      <c r="M97" s="6">
+        <v>0.50539568345300001</v>
+      </c>
+      <c r="N97" s="6">
+        <v>0.90353697749200002</v>
+      </c>
+      <c r="O97" s="6">
+        <v>0.64821222606700002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D98" s="6">
-        <v>0.97478991596599995</v>
+        <v>0.97102289191500002</v>
       </c>
       <c r="E98" s="6">
-        <v>0.97278517660700003</v>
+        <v>0.96766743648999998</v>
       </c>
       <c r="F98" s="6">
-        <v>0.97674418604699997</v>
+        <v>0.97441860465100005</v>
       </c>
       <c r="G98" s="6">
-        <v>0.97476066144499995</v>
+        <v>0.97103128621099999</v>
       </c>
       <c r="H98" s="6">
-        <v>0.61096938775499998</v>
+        <v>0.60313315926900002</v>
       </c>
       <c r="I98" s="6">
-        <v>0.50539568345300001</v>
+        <v>0.56230031948899994</v>
       </c>
       <c r="J98" s="6">
-        <v>0.90353697749200002</v>
+        <v>0.92146596858600005</v>
       </c>
       <c r="K98" s="6">
-        <v>0.64821222606700002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.69841269841300002</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0.55994897959199996</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0.47249190938500002</v>
+      </c>
+      <c r="N98" s="6">
+        <v>0.93890675241199995</v>
+      </c>
+      <c r="O98" s="6">
+        <v>0.62863293864400005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="D99" s="6">
-        <v>0.63185378590100005</v>
+        <v>0.97565922920899995</v>
       </c>
       <c r="E99" s="6">
-        <v>0.58802816901400001</v>
+        <v>0.97392815758999995</v>
       </c>
       <c r="F99" s="6">
-        <v>0.87434554973800005</v>
+        <v>0.97732558139500003</v>
       </c>
       <c r="G99" s="6">
-        <v>0.70315789473699997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.97562391178200003</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0.67885117493500002</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0.65740740740699999</v>
+      </c>
+      <c r="J99" s="6">
+        <v>0.74345549738200001</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0.69778869778899999</v>
+      </c>
+      <c r="L99" s="6">
+        <v>0.66326530612199996</v>
+      </c>
+      <c r="M99" s="6">
+        <v>0.555555555556</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0.75562700964600005</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0.64032697547700002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>525</v>
       </c>
+      <c r="B100"/>
       <c r="C100" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D100" s="6">
-        <v>0.97102289191500002</v>
+        <v>0.97594900028999998</v>
       </c>
       <c r="E100" s="6">
-        <v>0.96766743648999998</v>
+        <v>0.98289085545699995</v>
       </c>
       <c r="F100" s="6">
-        <v>0.97441860465100005</v>
+        <v>0.96860465116299999</v>
       </c>
       <c r="G100" s="6">
-        <v>0.97103128621099999</v>
+        <v>0.97569546120100004</v>
       </c>
       <c r="H100" s="6">
+        <v>0.66840731070500004</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0.65384615384599998</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0.71204188481700004</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0.68170426065199996</v>
+      </c>
+      <c r="L100" s="6">
+        <v>0.68239795918400004</v>
+      </c>
+      <c r="M100" s="6">
+        <v>0.57311320754700001</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0.78135048231500004</v>
+      </c>
+      <c r="O100" s="6">
+        <v>0.66122448979600001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0.97739785569399995</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0.974566473988</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.98023255813999999</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0.97739130434800003</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0.59530026109699996</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="J101" s="6">
+        <v>0.93193717277499999</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0.69667318982399995</v>
+      </c>
+      <c r="L101" s="6">
         <v>0.55994897959199996</v>
       </c>
-      <c r="I100" s="6">
-        <v>0.47249190938500002</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0.93890675241199995</v>
-      </c>
-      <c r="K100" s="6">
-        <v>0.62863293864400005</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D101" s="6">
-        <v>0.60313315926900002</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0.56230031948899994</v>
-      </c>
-      <c r="F101" s="6">
-        <v>0.92146596858600005</v>
-      </c>
-      <c r="G101" s="6">
-        <v>0.69841269841300002</v>
-      </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D102" s="6">
-        <v>0.97565922920899995</v>
-      </c>
-      <c r="E102" s="6">
-        <v>0.97392815758999995</v>
-      </c>
-      <c r="F102" s="6">
-        <v>0.97732558139500003</v>
-      </c>
-      <c r="G102" s="6">
-        <v>0.97562391178200003</v>
-      </c>
-      <c r="H102" s="6">
-        <v>0.66326530612199996</v>
-      </c>
-      <c r="I102" s="6">
-        <v>0.555555555556</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0.75562700964600005</v>
-      </c>
-      <c r="K102" s="6">
-        <v>0.64032697547700002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="6">
+        <v>0.47258064516100001</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0.94212218649500001</v>
+      </c>
+      <c r="O101" s="6">
+        <v>0.62943071965599995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>532</v>
+      </c>
       <c r="D103" s="6">
-        <v>0.67885117493500002</v>
+        <v>0.97209181012000001</v>
       </c>
       <c r="E103" s="6">
-        <v>0.65740740740699999</v>
+        <v>0.97373949579800001</v>
       </c>
       <c r="F103" s="6">
-        <v>0.74345549738200001</v>
+        <v>0.97017268445799998</v>
       </c>
       <c r="G103" s="6">
-        <v>0.69778869778899999</v>
+        <v>0.971952817824</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B104"/>
-      <c r="C104" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D104" s="6">
-        <v>0.97594900028999998</v>
-      </c>
-      <c r="E104" s="6">
-        <v>0.98289085545699995</v>
-      </c>
-      <c r="F104" s="6">
-        <v>0.96860465116299999</v>
-      </c>
-      <c r="G104" s="6">
-        <v>0.97569546120100004</v>
-      </c>
-      <c r="H104" s="6">
-        <v>0.68239795918400004</v>
-      </c>
-      <c r="I104" s="6">
-        <v>0.57311320754700001</v>
-      </c>
-      <c r="J104" s="6">
-        <v>0.78135048231500004</v>
-      </c>
-      <c r="K104" s="6">
-        <v>0.66122448979600001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="13"/>
+      <c r="L103" s="10">
+        <v>0.70918367346900002</v>
+      </c>
+      <c r="M103" s="6">
+        <v>0.60196560196600002</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0.78778135048200004</v>
+      </c>
+      <c r="O103" s="10">
+        <v>0.68245125348199998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="D105" s="6">
-        <v>0.66840731070500004</v>
+        <v>0.95363662706499996</v>
       </c>
       <c r="E105" s="6">
-        <v>0.65384615384599998</v>
+        <v>0.94419134396399995</v>
       </c>
       <c r="F105" s="6">
-        <v>0.71204188481700004</v>
+        <v>0.96395348837200001</v>
       </c>
       <c r="G105" s="6">
-        <v>0.68170426065199996</v>
-      </c>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D106" s="6">
-        <v>0.97739785569399995</v>
-      </c>
-      <c r="E106" s="6">
-        <v>0.974566473988</v>
-      </c>
-      <c r="F106" s="6">
-        <v>0.98023255813999999</v>
-      </c>
-      <c r="G106" s="6">
-        <v>0.97739130434800003</v>
-      </c>
-      <c r="H106" s="6">
-        <v>0.55994897959199996</v>
-      </c>
-      <c r="I106" s="6">
-        <v>0.47258064516100001</v>
-      </c>
-      <c r="J106" s="6">
-        <v>0.94212218649500001</v>
-      </c>
-      <c r="K106" s="6">
-        <v>0.62943071965599995</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.95397008055200005</v>
+      </c>
+      <c r="H105" s="6">
+        <v>0.60835509138400001</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0.57454545454499995</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0.82722513089000005</v>
+      </c>
+      <c r="K105" s="6">
+        <v>0.67811158798299997</v>
+      </c>
+      <c r="L105" s="6">
+        <v>0.58545918367299998</v>
+      </c>
+      <c r="M105" s="6">
+        <v>0.48684210526299998</v>
+      </c>
+      <c r="N105" s="6">
+        <v>0.83279742765300002</v>
+      </c>
+      <c r="O105" s="6">
+        <v>0.61447212336900003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="D107" s="6">
-        <v>0.59530026109699996</v>
+        <v>0.978556940017</v>
       </c>
       <c r="E107" s="6">
-        <v>0.55625000000000002</v>
+        <v>0.97793263646899997</v>
       </c>
       <c r="F107" s="6">
-        <v>0.93193717277499999</v>
+        <v>0.97906976744200003</v>
       </c>
       <c r="G107" s="6">
-        <v>0.69667318982399995</v>
-      </c>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D111" s="6">
-        <v>0.97209181012000001</v>
-      </c>
-      <c r="E111" s="6">
-        <v>0.97373949579800001</v>
-      </c>
-      <c r="F111" s="6">
-        <v>0.97017268445799998</v>
-      </c>
-      <c r="G111" s="6">
-        <v>0.971952817824</v>
-      </c>
-      <c r="H111" s="10">
-        <v>0.70918367346900002</v>
-      </c>
-      <c r="I111" s="6">
-        <v>0.60196560196600002</v>
-      </c>
-      <c r="J111" s="6">
-        <v>0.78778135048200004</v>
-      </c>
-      <c r="K111" s="10">
-        <v>0.68245125348199998</v>
-      </c>
+        <v>0.97850087158599997</v>
+      </c>
+      <c r="H107" s="6">
+        <v>0.67885117493500002</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0.66831683168300005</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0.70680628272299995</v>
+      </c>
+      <c r="K107" s="6">
+        <v>0.68702290076299999</v>
+      </c>
+      <c r="L107" s="6">
+        <v>0.69260204081599996</v>
+      </c>
+      <c r="M107" s="6">
+        <v>0.58793969849200001</v>
+      </c>
+      <c r="N107" s="6">
+        <v>0.75241157556299998</v>
+      </c>
+      <c r="O107" s="6">
+        <v>0.66008462623399999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-2860" yWindow="-13100" windowWidth="38400" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="543">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1746,6 +1746,39 @@
   <si>
     <t>A_ntua_ek_1542786701, A_ntua_ek_1542792711, A_ntua_ek_1542708338, A_ntua_ek_1542806971</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1542869577</t>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1542870137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1542868460, A_gru_ek_1542869577, A_gru_ek_1542870137</t>
+  </si>
+  <si>
+    <t>ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ntua_ek_1542786701 ,A_ntua_ek_1542792711, A_ntua_ek_1542708338, A_ntua_ek_1542806971, A_gru_ek_1542868460, A_gru_ek_1542869577, A_gru_ek_1542870137</t>
   </si>
   <si>
     <t>MV</t>
@@ -1879,7 +1912,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1937,8 +1970,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1956,8 +1991,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1987,6 +2025,7 @@
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2015,6 +2054,7 @@
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2297,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6101,267 +6141,267 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D96" s="6">
-        <v>0.97305128948099995</v>
+        <v>0.97102289191500002</v>
       </c>
       <c r="E96" s="6">
-        <v>0.97269029633899995</v>
+        <v>0.96766743648999998</v>
       </c>
       <c r="F96" s="6">
-        <v>0.97325581395299998</v>
+        <v>0.97441860465100005</v>
       </c>
       <c r="G96" s="6">
-        <v>0.97297297297300001</v>
+        <v>0.97103128621099999</v>
       </c>
       <c r="H96" s="6">
-        <v>0.61096605744099997</v>
+        <v>0.60313315926900002</v>
       </c>
       <c r="I96" s="6">
-        <v>0.57291666666700003</v>
+        <v>0.56230031948899994</v>
       </c>
       <c r="J96" s="6">
-        <v>0.86387434554999998</v>
+        <v>0.92146596858600005</v>
       </c>
       <c r="K96" s="6">
-        <v>0.68893528183700004</v>
+        <v>0.69841269841300002</v>
       </c>
       <c r="L96" s="6">
-        <v>0.60076530612199996</v>
+        <v>0.55994897959199996</v>
       </c>
       <c r="M96" s="6">
-        <v>0.49822695035499998</v>
+        <v>0.47249190938500002</v>
       </c>
       <c r="N96" s="6">
-        <v>0.90353697749200002</v>
+        <v>0.93890675241199995</v>
       </c>
       <c r="O96" s="6">
-        <v>0.64228571428600001</v>
+        <v>0.62863293864400005</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D97" s="6">
-        <v>0.97478991596599995</v>
+        <v>0.97739785569399995</v>
       </c>
       <c r="E97" s="6">
-        <v>0.97278517660700003</v>
+        <v>0.974566473988</v>
       </c>
       <c r="F97" s="6">
-        <v>0.97674418604699997</v>
+        <v>0.98023255813999999</v>
       </c>
       <c r="G97" s="6">
-        <v>0.97476066144499995</v>
+        <v>0.97739130434800003</v>
       </c>
       <c r="H97" s="6">
-        <v>0.63185378590100005</v>
+        <v>0.59530026109699996</v>
       </c>
       <c r="I97" s="6">
-        <v>0.58802816901400001</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="J97" s="6">
-        <v>0.87434554973800005</v>
+        <v>0.93193717277499999</v>
       </c>
       <c r="K97" s="6">
-        <v>0.70315789473699997</v>
+        <v>0.69667318982399995</v>
       </c>
       <c r="L97" s="6">
-        <v>0.61096938775499998</v>
+        <v>0.55994897959199996</v>
       </c>
       <c r="M97" s="6">
-        <v>0.50539568345300001</v>
+        <v>0.47258064516100001</v>
       </c>
       <c r="N97" s="6">
-        <v>0.90353697749200002</v>
+        <v>0.94212218649500001</v>
       </c>
       <c r="O97" s="6">
-        <v>0.64821222606700002</v>
+        <v>0.62943071965599995</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D98" s="6">
-        <v>0.97102289191500002</v>
+        <v>0.97305128948099995</v>
       </c>
       <c r="E98" s="6">
-        <v>0.96766743648999998</v>
+        <v>0.97269029633899995</v>
       </c>
       <c r="F98" s="6">
-        <v>0.97441860465100005</v>
+        <v>0.97325581395299998</v>
       </c>
       <c r="G98" s="6">
-        <v>0.97103128621099999</v>
+        <v>0.97297297297300001</v>
       </c>
       <c r="H98" s="6">
-        <v>0.60313315926900002</v>
+        <v>0.61096605744099997</v>
       </c>
       <c r="I98" s="6">
-        <v>0.56230031948899994</v>
+        <v>0.57291666666700003</v>
       </c>
       <c r="J98" s="6">
-        <v>0.92146596858600005</v>
+        <v>0.86387434554999998</v>
       </c>
       <c r="K98" s="6">
-        <v>0.69841269841300002</v>
+        <v>0.68893528183700004</v>
       </c>
       <c r="L98" s="6">
-        <v>0.55994897959199996</v>
+        <v>0.60076530612199996</v>
       </c>
       <c r="M98" s="6">
-        <v>0.47249190938500002</v>
+        <v>0.49822695035499998</v>
       </c>
       <c r="N98" s="6">
-        <v>0.93890675241199995</v>
+        <v>0.90353697749200002</v>
       </c>
       <c r="O98" s="6">
-        <v>0.62863293864400005</v>
+        <v>0.64228571428600001</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D99" s="6">
-        <v>0.97565922920899995</v>
+        <v>0.97478991596599995</v>
       </c>
       <c r="E99" s="6">
-        <v>0.97392815758999995</v>
+        <v>0.97278517660700003</v>
       </c>
       <c r="F99" s="6">
-        <v>0.97732558139500003</v>
+        <v>0.97674418604699997</v>
       </c>
       <c r="G99" s="6">
-        <v>0.97562391178200003</v>
+        <v>0.97476066144499995</v>
       </c>
       <c r="H99" s="6">
-        <v>0.67885117493500002</v>
+        <v>0.63185378590100005</v>
       </c>
       <c r="I99" s="6">
-        <v>0.65740740740699999</v>
+        <v>0.58802816901400001</v>
       </c>
       <c r="J99" s="6">
-        <v>0.74345549738200001</v>
+        <v>0.87434554973800005</v>
       </c>
       <c r="K99" s="6">
-        <v>0.69778869778899999</v>
+        <v>0.70315789473699997</v>
       </c>
       <c r="L99" s="6">
-        <v>0.66326530612199996</v>
+        <v>0.61096938775499998</v>
       </c>
       <c r="M99" s="6">
-        <v>0.555555555556</v>
+        <v>0.50539568345300001</v>
       </c>
       <c r="N99" s="6">
-        <v>0.75562700964600005</v>
+        <v>0.90353697749200002</v>
       </c>
       <c r="O99" s="6">
-        <v>0.64032697547700002</v>
+        <v>0.64821222606700002</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B100"/>
       <c r="C100" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D100" s="6">
-        <v>0.97594900028999998</v>
+        <v>0.97565922920899995</v>
       </c>
       <c r="E100" s="6">
-        <v>0.98289085545699995</v>
+        <v>0.97392815758999995</v>
       </c>
       <c r="F100" s="6">
-        <v>0.96860465116299999</v>
+        <v>0.97732558139500003</v>
       </c>
       <c r="G100" s="6">
-        <v>0.97569546120100004</v>
+        <v>0.97562391178200003</v>
       </c>
       <c r="H100" s="6">
-        <v>0.66840731070500004</v>
+        <v>0.67885117493500002</v>
       </c>
       <c r="I100" s="6">
-        <v>0.65384615384599998</v>
+        <v>0.65740740740699999</v>
       </c>
       <c r="J100" s="6">
-        <v>0.71204188481700004</v>
+        <v>0.74345549738200001</v>
       </c>
       <c r="K100" s="6">
-        <v>0.68170426065199996</v>
+        <v>0.69778869778899999</v>
       </c>
       <c r="L100" s="6">
-        <v>0.68239795918400004</v>
+        <v>0.66326530612199996</v>
       </c>
       <c r="M100" s="6">
-        <v>0.57311320754700001</v>
+        <v>0.555555555556</v>
       </c>
       <c r="N100" s="6">
-        <v>0.78135048231500004</v>
+        <v>0.75562700964600005</v>
       </c>
       <c r="O100" s="6">
-        <v>0.66122448979600001</v>
+        <v>0.64032697547700002</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>525</v>
       </c>
+      <c r="B101"/>
       <c r="C101" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D101" s="6">
-        <v>0.97739785569399995</v>
+        <v>0.97594900028999998</v>
       </c>
       <c r="E101" s="6">
-        <v>0.974566473988</v>
+        <v>0.98289085545699995</v>
       </c>
       <c r="F101" s="6">
-        <v>0.98023255813999999</v>
+        <v>0.96860465116299999</v>
       </c>
       <c r="G101" s="6">
-        <v>0.97739130434800003</v>
+        <v>0.97569546120100004</v>
       </c>
       <c r="H101" s="6">
-        <v>0.59530026109699996</v>
+        <v>0.66840731070500004</v>
       </c>
       <c r="I101" s="6">
-        <v>0.55625000000000002</v>
+        <v>0.65384615384599998</v>
       </c>
       <c r="J101" s="6">
-        <v>0.93193717277499999</v>
+        <v>0.71204188481700004</v>
       </c>
       <c r="K101" s="6">
-        <v>0.69667318982399995</v>
+        <v>0.68170426065199996</v>
       </c>
       <c r="L101" s="6">
-        <v>0.55994897959199996</v>
+        <v>0.68239795918400004</v>
       </c>
       <c r="M101" s="6">
-        <v>0.47258064516100001</v>
+        <v>0.57311320754700001</v>
       </c>
       <c r="N101" s="6">
-        <v>0.94212218649500001</v>
+        <v>0.78135048231500004</v>
       </c>
       <c r="O101" s="6">
-        <v>0.62943071965599995</v>
+        <v>0.66122448979600001</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -6396,7 +6436,7 @@
       <c r="N103" s="6">
         <v>0.78778135048200004</v>
       </c>
-      <c r="O103" s="10">
+      <c r="O103" s="13">
         <v>0.68245125348199998</v>
       </c>
     </row>
@@ -6493,31 +6533,208 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0.97334106056199998</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0.97435897435899999</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0.972093023256</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0.97322467986000005</v>
+      </c>
+      <c r="H108" s="6">
+        <v>0.65274151436000005</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0.75916230366500004</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0.68557919621700003</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0.683673469388</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0.572413793103</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0.80064308681700003</v>
+      </c>
+      <c r="O108" s="6">
+        <v>0.66756032171599999</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
+      <c r="A109" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.97710808461300003</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0.97675769901200005</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.97732558139500003</v>
+      </c>
+      <c r="G109" s="6">
+        <v>0.97704155768699996</v>
+      </c>
+      <c r="H109" s="6">
+        <v>0.65274151436000005</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0.64356435643599996</v>
+      </c>
+      <c r="J109" s="6">
+        <v>0.68062827225099998</v>
+      </c>
+      <c r="K109" s="6">
+        <v>0.66157760814199995</v>
+      </c>
+      <c r="L109" s="6">
+        <v>0.695153061224</v>
+      </c>
+      <c r="M109" s="6">
+        <v>0.58910891089100004</v>
+      </c>
+      <c r="N109" s="6">
+        <v>0.76527331189699999</v>
+      </c>
+      <c r="O109" s="6">
+        <v>0.66573426573399996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0.95174752217000003</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0.94075587333999999</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.96389324960800005</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0.95218402688000003</v>
+      </c>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6">
+        <v>0.70918367346900002</v>
+      </c>
+      <c r="M110" s="6">
+        <v>0.60196560196600002</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0.78778135048200004</v>
+      </c>
+      <c r="O110" s="6">
+        <v>0.68245125348199998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0.88888888888899997</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0.86201852754800001</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.92517006802699997</v>
+      </c>
+      <c r="G111" s="6">
+        <v>0.89247854618900002</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6">
+        <v>0.70535714285700002</v>
+      </c>
+      <c r="M111" s="6">
+        <v>0.59569377990399996</v>
+      </c>
+      <c r="N111" s="6">
+        <v>0.80064308681700003</v>
+      </c>
+      <c r="O111" s="6">
+        <v>0.68312757201600005</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0.95931142410000003</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0.94475418145000001</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.97540554683400005</v>
+      </c>
+      <c r="G112" s="6">
+        <v>0.95983522142099997</v>
+      </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
+      <c r="L112" s="6">
+        <v>0.713010204082</v>
+      </c>
+      <c r="M112" s="6">
+        <v>0.59555555555600004</v>
+      </c>
+      <c r="N112" s="6">
+        <v>0.86173633440499997</v>
+      </c>
+      <c r="O112" s="6">
+        <v>0.70433639947399995</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2860" yWindow="-13100" windowWidth="38400" windowHeight="19260" tabRatio="500"/>
+    <workbookView xWindow="-1500" yWindow="-15100" windowWidth="21720" windowHeight="13280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="546">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1782,6 +1782,17 @@
   </si>
   <si>
     <t>MV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1542871351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_gru_ek_1542871378</t>
+  </si>
+  <si>
+    <t>GRU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1912,8 +1923,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1995,7 +2008,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2026,6 +2039,7 @@
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2055,6 +2069,7 @@
     <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2335,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE112"/>
+  <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3582,10 +3597,10 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="12">
+      <c r="L22" s="13">
         <v>0.69642857142900005</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="13">
         <v>0.60055096418700005</v>
       </c>
       <c r="N22" s="6">
@@ -6734,6 +6749,94 @@
       </c>
       <c r="O112" s="6">
         <v>0.70433639947399995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0.98174442190699995</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0.98421975452999999</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0.97906976744200003</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0.98163800641200005</v>
+      </c>
+      <c r="H114" s="6">
+        <v>0.65796344647500005</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0.62195121951200005</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0.80104712041899995</v>
+      </c>
+      <c r="K114" s="6">
+        <v>0.700228832952</v>
+      </c>
+      <c r="L114" s="6">
+        <v>0.65561224489799996</v>
+      </c>
+      <c r="M114" s="6">
+        <v>0.54279749478100003</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0.83601286173599998</v>
+      </c>
+      <c r="O114" s="6">
+        <v>0.65822784810099999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0.97710808461300003</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0.977312390925</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.97674418604699997</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0.97702820587399997</v>
+      </c>
+      <c r="H115" s="6">
+        <v>0.66318537859000004</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0.66489361702100003</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0.65445026177999999</v>
+      </c>
+      <c r="K115" s="6">
+        <v>0.65963060685999997</v>
+      </c>
+      <c r="L115" s="6">
+        <v>0.679846938776</v>
+      </c>
+      <c r="M115" s="6">
+        <v>0.57575757575800002</v>
+      </c>
+      <c r="N115" s="6">
+        <v>0.73311897106099999</v>
+      </c>
+      <c r="O115" s="6">
+        <v>0.64497878359299998</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1500" yWindow="-15100" windowWidth="21720" windowHeight="13280" tabRatio="500"/>
+    <workbookView xWindow="2940" yWindow="1220" windowWidth="21720" windowHeight="13280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1220" windowWidth="21720" windowHeight="13280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
     <sheet name="SemEval2018_Task3_B" sheetId="2" r:id="rId2"/>
+    <sheet name="SemEval2019_Task3" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="554">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1793,6 +1795,35 @@
   </si>
   <si>
     <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1543492158</t>
+  </si>
+  <si>
+    <t>gru_ek_1543492018</t>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntua_ek_1543563065</t>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro-f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro-score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1923,7 +1954,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1985,8 +2016,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2007,8 +2044,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="67">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2040,6 +2080,9 @@
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2070,6 +2113,9 @@
     <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2352,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2381,24 +2427,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -6877,18 +6923,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -9259,4 +9305,1828 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" customWidth="1"/>
+    <col min="12" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.90908421130200001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.88721299700400003</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.93015815002299995</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.90603738339600004</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.90013271400100003</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.87818077000500006</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.91719456416900003</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.89460052633700005</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.63020799999999999</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.90366904884699994</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.88137796249199996</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.92464431481599996</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.900255578492</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.89482415394799997</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.87279022406499995</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.90875649731700003</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.88891720722099998</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.60626599999999997</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.88432918293671203</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.85977186876447798</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.90700086350711095</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.88000226015442895</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.89017916390179097</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.87105592359372497</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.89804808925887503</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.88339564273604598</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.65573800000000004</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="13"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="6"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+    </row>
+    <row r="36" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+    </row>
+    <row r="37" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+    </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+    </row>
+    <row r="39" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+    </row>
+    <row r="40" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+    </row>
+    <row r="41" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+    </row>
+    <row r="42" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+    </row>
+    <row r="43" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+    </row>
+    <row r="44" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+    </row>
+    <row r="45" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="69" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="73" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="76" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="81" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="85" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="13"/>
+    </row>
+    <row r="86" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+    </row>
+    <row r="90" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+    </row>
+    <row r="96" spans="4:31" x14ac:dyDescent="0.2">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="13"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D111" s="15"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D114" s="15"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="557">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1802,12 +1802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gru_ek_1543492158</t>
-  </si>
-  <si>
-    <t>gru_ek_1543492018</t>
-  </si>
-  <si>
     <t>GRU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1824,6 +1818,25 @@
   </si>
   <si>
     <t>micro-score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embedding_tralnable=False, rnn_dim=300, lr=(0.01, 0.95, 0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1543579262</t>
+  </si>
+  <si>
+    <t>embedding_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1543578608</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1954,8 +1967,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2048,7 +2065,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="71">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2083,6 +2100,8 @@
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2116,6 +2135,8 @@
     <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -9312,7 +9333,7 @@
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9382,7 +9403,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1</v>
@@ -9394,10 +9415,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -9414,38 +9435,40 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="D3" s="6">
-        <v>0.90908421130200001</v>
+        <v>0.89700139983791305</v>
       </c>
       <c r="E3" s="6">
-        <v>0.88721299700400003</v>
+        <v>0.87382096868808301</v>
       </c>
       <c r="F3" s="6">
-        <v>0.93015815002299995</v>
+        <v>0.917885782692209</v>
       </c>
       <c r="G3" s="6">
-        <v>0.90603738339600004</v>
+        <v>0.89287427607326098</v>
       </c>
       <c r="H3" s="6">
-        <v>0.90013271400100003</v>
+        <v>0.894824153948241</v>
       </c>
       <c r="I3" s="6">
-        <v>0.87818077000500006</v>
+        <v>0.88007471734906395</v>
       </c>
       <c r="J3" s="6">
-        <v>0.91719456416900003</v>
+        <v>0.89782725180656497</v>
       </c>
       <c r="K3" s="6">
-        <v>0.89460052633700005</v>
+        <v>0.88845174191453802</v>
       </c>
       <c r="L3" s="6">
-        <v>0.63020799999999999</v>
+        <v>0.65915000000000001</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -9462,37 +9485,40 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D4" s="6">
-        <v>0.90366904884699994</v>
+        <v>0.894459588889707</v>
       </c>
       <c r="E4" s="6">
-        <v>0.88137796249199996</v>
+        <v>0.87110931797201896</v>
       </c>
       <c r="F4" s="6">
-        <v>0.92464431481599996</v>
+        <v>0.91640708443093799</v>
       </c>
       <c r="G4" s="6">
-        <v>0.900255578492</v>
+        <v>0.89065300247262902</v>
       </c>
       <c r="H4" s="6">
-        <v>0.89482415394799997</v>
+        <v>0.88852023888520204</v>
       </c>
       <c r="I4" s="6">
-        <v>0.87279022406499995</v>
+        <v>0.86518301141326204</v>
       </c>
       <c r="J4" s="6">
-        <v>0.90875649731700003</v>
+        <v>0.91060751759291103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.88891720722099998</v>
+        <v>0.88471169744246403</v>
       </c>
       <c r="L4" s="6">
-        <v>0.60626599999999997</v>
+        <v>0.62456999999999996</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -9509,11 +9535,11 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D5" s="6">
         <v>0.88432918293671203</v>
@@ -9572,9 +9598,6 @@
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -9589,17 +9612,6 @@
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -9616,10 +9628,6 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="584">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1806,9 +1806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ntua_ek_1543563065</t>
-  </si>
-  <si>
     <t>NTUA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1825,19 +1822,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>embedding_tralnable=False, rnn_dim=300, lr=(0.01, 0.95, 0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gru_ek_1543579262</t>
   </si>
   <si>
-    <t>embedding_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gru_ek_1543578608</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntua_ek_1543580873</t>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.95, 0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emb=google, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1543589995</t>
+  </si>
+  <si>
+    <t>gru_ek_1543590400</t>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1Score </t>
+  </si>
+  <si>
+    <t>hchenyang</t>
+  </si>
+  <si>
+    <t>11/29/18</t>
+  </si>
+  <si>
+    <t>0.7652 (1)</t>
+  </si>
+  <si>
+    <t>soujanyaporia</t>
+  </si>
+  <si>
+    <t>11/20/18</t>
+  </si>
+  <si>
+    <t>#simple_things_work</t>
+  </si>
+  <si>
+    <t>0.7568 (2)</t>
+  </si>
+  <si>
+    <t>11/21/18</t>
+  </si>
+  <si>
+    <t>0.7560 (3)</t>
+  </si>
+  <si>
+    <t>rafalposwiata</t>
+  </si>
+  <si>
+    <t>11/28/18</t>
+  </si>
+  <si>
+    <t>0.7549 (4)</t>
+  </si>
+  <si>
+    <t>mfzszgs</t>
+  </si>
+  <si>
+    <t>11/30/18</t>
+  </si>
+  <si>
+    <t>0.7539 (5)</t>
+  </si>
+  <si>
+    <t>EinAeffchen</t>
+  </si>
+  <si>
+    <t>0.7533 (6)</t>
+  </si>
+  <si>
+    <t>waylensu</t>
+  </si>
+  <si>
+    <t>parag11</t>
+  </si>
+  <si>
+    <t>10/24/18</t>
+  </si>
+  <si>
+    <t>Cereal Killers</t>
+  </si>
+  <si>
+    <t>0.7482 (7)</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1930,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1949,6 +2032,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF101010"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2040,7 +2129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2064,6 +2153,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9333,24 +9423,26 @@
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="76.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.5" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -9377,11 +9469,24 @@
         <v>4</v>
       </c>
       <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="N1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>561</v>
+      </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -9403,7 +9508,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1</v>
@@ -9415,17 +9520,28 @@
         <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>551</v>
-      </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="P2" s="5">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>564</v>
+      </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="9"/>
@@ -9435,13 +9551,13 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>555</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D3" s="6">
         <v>0.89700139983791305</v>
@@ -9471,11 +9587,24 @@
         <v>0.65915000000000001</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="5"/>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="P3" s="5">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>568</v>
+      </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -9488,10 +9617,10 @@
         <v>547</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D4" s="6">
         <v>0.894459588889707</v>
@@ -9521,11 +9650,24 @@
         <v>0.62456999999999996</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
+      <c r="N4" s="4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="5">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -9535,45 +9677,58 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
         <v>548</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="D5" s="6">
-        <v>0.88432918293671203</v>
+        <v>0.884623885655345</v>
       </c>
       <c r="E5" s="6">
-        <v>0.85977186876447798</v>
+        <v>0.86073867901298495</v>
       </c>
       <c r="F5" s="6">
-        <v>0.90700086350711095</v>
+        <v>0.90917853764331502</v>
       </c>
       <c r="G5" s="6">
-        <v>0.88000226015442895</v>
+        <v>0.88140768218314403</v>
       </c>
       <c r="H5" s="6">
-        <v>0.89017916390179097</v>
+        <v>0.88586595885865904</v>
       </c>
       <c r="I5" s="6">
-        <v>0.87105592359372497</v>
+        <v>0.871124079635619</v>
       </c>
       <c r="J5" s="6">
-        <v>0.89804808925887503</v>
+        <v>0.88791668530756895</v>
       </c>
       <c r="K5" s="6">
-        <v>0.88339564273604598</v>
+        <v>0.87880236890261099</v>
       </c>
       <c r="L5" s="6">
-        <v>0.65573800000000004</v>
+        <v>0.652416</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="Q5" s="5"/>
+      <c r="N5" s="5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="P5" s="5">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>572</v>
+      </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>573</v>
+      </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -9582,14 +9737,59 @@
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.86775215501363001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.84227492482598798</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.88945904899422201</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.86231870337179595</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.87790311877903104</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.85544210021184497</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.89193486715224601</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.87174986605357596</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.60559799999999997</v>
+      </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="5"/>
+      <c r="N6" s="5">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="P6" s="5">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>575</v>
+      </c>
       <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>576</v>
+      </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -9598,12 +9798,59 @@
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.86620496574080896</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.84037960545785995</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.88880942235261495</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.86085355880963399</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.876244193762441</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.85886663766673699</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.88149171005928195</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.86876643830693401</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.60664300000000004</v>
+      </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="5"/>
+      <c r="N7" s="5">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="P7" s="5">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>572</v>
+      </c>
       <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>578</v>
+      </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -9613,11 +9860,22 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="5"/>
+      <c r="N8" s="5">
+        <v>7</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="P8" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>569</v>
+      </c>
       <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>578</v>
+      </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -9634,11 +9892,24 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="N9" s="5">
+        <v>8</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="P9" s="5">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>583</v>
+      </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="11"/>
@@ -9648,7 +9919,6 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -9658,11 +9928,6 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="587">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1921,6 +1921,17 @@
   </si>
   <si>
     <t>0.7482 (7)</t>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1), text=ek3,ek2,ek1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1544442183</t>
   </si>
 </sst>
 </file>
@@ -2150,10 +2161,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2538,24 +2549,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7034,18 +7045,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -9423,7 +9434,7 @@
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9453,38 +9464,38 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="14"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>561</v>
       </c>
       <c r="T1" s="2"/>
@@ -9884,13 +9895,42 @@
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.93339718558903695</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.91637783961090102</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.94699125403344497</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.93045775532563602</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.88022561380225595</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.86370752458885003</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.88412573133844996</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.87329050012571796</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.624309</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="5">
         <v>8</v>
@@ -9919,9 +9959,6 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="589">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1932,6 +1932,13 @@
   </si>
   <si>
     <t>gru_ek_1544442183</t>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1), text=ek1,ek3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1544774584</t>
   </si>
 </sst>
 </file>
@@ -9434,13 +9441,13 @@
   <dimension ref="A1:AE115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
@@ -9958,12 +9965,42 @@
       <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.94172253739040701</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.92539410856570903</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.95457759387776298</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.93887480936261603</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.894824153948241</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.87722736448360406</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.90307013365634603</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.88921177109515603</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.65654599999999996</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -9975,10 +10012,6 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-3520" yWindow="-16100" windowWidth="31980" windowHeight="13600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -9440,14 +9440,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3520" yWindow="-16100" windowWidth="31980" windowHeight="13600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="25600" windowHeight="13600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -30,34 +30,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="616">
   <si>
     <t>f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>precision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>recall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
@@ -292,7 +292,7 @@
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>01/19/18</t>
@@ -1214,33 +1214,33 @@
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>liangxh16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B_gru_1539352680</t>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_1539352687</t>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_1539353088</t>
@@ -1250,66 +1250,66 @@
   </si>
   <si>
     <t>A_gru_1539353088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_1539353088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_1539353088, semeval2014_task9.gru_1539175546</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_1539353088, semeval2018_task1.love_gru_1539178720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_1539353088, semeval2014_task9.gru_1539175546, semeval2018_task1.love_gru_1539178720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B_gru_1539353092, semeval2014_task9.gru_1539175546</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B_gru_1539353092, semeval2018_task1.love_gru_1539178720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B_gru_1539353092, semeval2014_task9.gru_1539175546, semeval2018_task1.love_gru_1539178720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_1539353088, B_gru_1539353092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_naive_1540912745, A_gru_ek_1540912707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1540912707, B_gru_ek_1540913409</t>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_naive_1540912745, B_gru_naive_1540913413</t>
@@ -1319,57 +1319,57 @@
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ek, CountVectorizer()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ek, CountVectorizer(ngram_range=(1, 3))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ek, CountVectorizer(ngram_range=(1, 3), min_df=0.01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Naïve, CountVectorizer(ngram_range=(1, 3), min_df=0.01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ek, TfidfVectorizer(ngram_range=(1, 3), min_df=0.01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_lstm_ek_1541078091</t>
   </si>
   <si>
     <t>LSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_lstm_ek_1541078223</t>
   </si>
   <si>
     <t>LSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_lstm_ek_1541078223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_lstm_ek_1541078091, A_lstm_ek_1541078223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1541081331</t>
@@ -1385,184 +1385,184 @@
   </si>
   <si>
     <t xml:space="preserve">SVM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_naive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.google_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SVM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>weka_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>weka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, weka_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.glove_25_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SVM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SVM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.glove_25_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>inc_emb_w.google_ek</t>
   </si>
   <si>
     <t>inc_emb_w.glove_200_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>inc_emb.google_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>inc_emb.glove_200_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.google_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.google_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.glove_25_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.glove_50_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.glove_200_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.google_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.glove_25_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.glove_50_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.glove_100_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.glove_200_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SVM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SVM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.glove_100_ek_dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.google_ek_dot, inc_emb_w.google_ek</t>
   </si>
   <si>
     <t>LR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TfidfVectorizer(ngram_range=(1, 6), analyzer='char', lowercase=False, smooth_idf=True, max_features=20000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LogisticRegression(C=2., random_state=0, class_weight='balanced'),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>nbow_google_ek_max</t>
   </si>
   <si>
     <t>nbow_google_ek_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>nbow_google_ek_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>nbow_google_ek_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GRU </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1542446159</t>
@@ -1572,137 +1572,137 @@
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=False, w2v_version=ntua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=ntua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=False, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dim=(100,), epoch=5, embedding_trainable=True, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dim=(100,), epoch=5, embedding_trainable=False, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb.ntua_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">GRU </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B_gru_ek_1542448031</t>
   </si>
   <si>
     <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=ntua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B_gru_ek_1542448224</t>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=False, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1-layer GRU, dim=100, epoch=5, embedding_trainable=True, w2v_version=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tf_ek, inc_emb_w.ntua_ek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542468547</t>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542619872</t>
   </si>
   <si>
     <t>char, early stop, 並取train最好的一輪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_raw_1542625610</t>
   </si>
   <si>
     <t>early stop, 並取train最好的一輪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542708338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_raw_1542715848</t>
   </si>
   <si>
     <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_raw_1542715848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542708338, A_ntua_raw_1542715848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542786703</t>
@@ -1712,18 +1712,18 @@
   </si>
   <si>
     <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542792708</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542792711</t>
   </si>
   <si>
     <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542806971</t>
@@ -1736,209 +1736,313 @@
   </si>
   <si>
     <t>使用Google词向量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1542868460</t>
   </si>
   <si>
     <t>f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542786701, A_ntua_ek_1542792711, A_ntua_ek_1542708338, A_ntua_ek_1542806971</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1542869577</t>
   </si>
   <si>
     <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1542870137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1542868460, A_gru_ek_1542869577, A_gru_ek_1542870137</t>
   </si>
   <si>
     <t>ensemble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_ntua_ek_1542786701 ,A_ntua_ek_1542792711, A_ntua_ek_1542708338, A_ntua_ek_1542806971, A_gru_ek_1542868460, A_gru_ek_1542869577, A_gru_ek_1542870137</t>
   </si>
   <si>
     <t>MV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1542871351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A_gru_ek_1542871378</t>
   </si>
   <si>
     <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NTUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>macro-f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>micro-score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gru_ek_1543579262</t>
   </si>
   <si>
+    <t>ntua_ek_1543580873</t>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.95, 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emb=google, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1543589995</t>
+  </si>
+  <si>
+    <t>gru_ek_1543590400</t>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1Score </t>
+  </si>
+  <si>
+    <t>hchenyang</t>
+  </si>
+  <si>
+    <t>11/29/18</t>
+  </si>
+  <si>
+    <t>0.7652 (1)</t>
+  </si>
+  <si>
+    <t>soujanyaporia</t>
+  </si>
+  <si>
+    <t>11/20/18</t>
+  </si>
+  <si>
+    <t>#simple_things_work</t>
+  </si>
+  <si>
+    <t>0.7568 (2)</t>
+  </si>
+  <si>
+    <t>11/21/18</t>
+  </si>
+  <si>
+    <t>0.7560 (3)</t>
+  </si>
+  <si>
+    <t>rafalposwiata</t>
+  </si>
+  <si>
+    <t>11/28/18</t>
+  </si>
+  <si>
+    <t>0.7549 (4)</t>
+  </si>
+  <si>
+    <t>mfzszgs</t>
+  </si>
+  <si>
+    <t>11/30/18</t>
+  </si>
+  <si>
+    <t>0.7539 (5)</t>
+  </si>
+  <si>
+    <t>EinAeffchen</t>
+  </si>
+  <si>
+    <t>0.7533 (6)</t>
+  </si>
+  <si>
+    <t>waylensu</t>
+  </si>
+  <si>
+    <t>parag11</t>
+  </si>
+  <si>
+    <t>10/24/18</t>
+  </si>
+  <si>
+    <t>Cereal Killers</t>
+  </si>
+  <si>
+    <t>0.7482 (7)</t>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1), text=ek3,ek2,ek1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1544442183</t>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1), text=ek1,ek3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gru_ek_1544774584</t>
+  </si>
+  <si>
+    <t>ntua_ek_1545394565</t>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改evaluate后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>gru_ek_1543578608</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntua_ek_1543580873</t>
-  </si>
-  <si>
-    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.95, 0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emb=google, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gru_ek_1543589995</t>
-  </si>
-  <si>
-    <t>gru_ek_1543590400</t>
-  </si>
-  <si>
-    <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1Score </t>
-  </si>
-  <si>
-    <t>hchenyang</t>
-  </si>
-  <si>
-    <t>11/29/18</t>
-  </si>
-  <si>
-    <t>0.7652 (1)</t>
-  </si>
-  <si>
-    <t>soujanyaporia</t>
-  </si>
-  <si>
-    <t>11/20/18</t>
-  </si>
-  <si>
-    <t>#simple_things_work</t>
-  </si>
-  <si>
-    <t>0.7568 (2)</t>
-  </si>
-  <si>
-    <t>11/21/18</t>
-  </si>
-  <si>
-    <t>0.7560 (3)</t>
-  </si>
-  <si>
-    <t>rafalposwiata</t>
-  </si>
-  <si>
-    <t>11/28/18</t>
-  </si>
-  <si>
-    <t>0.7549 (4)</t>
-  </si>
-  <si>
-    <t>mfzszgs</t>
-  </si>
-  <si>
-    <t>11/30/18</t>
-  </si>
-  <si>
-    <t>0.7539 (5)</t>
-  </si>
-  <si>
-    <t>EinAeffchen</t>
-  </si>
-  <si>
-    <t>0.7533 (6)</t>
-  </si>
-  <si>
-    <t>waylensu</t>
-  </si>
-  <si>
-    <t>parag11</t>
-  </si>
-  <si>
-    <t>10/24/18</t>
-  </si>
-  <si>
-    <t>Cereal Killers</t>
-  </si>
-  <si>
-    <t>0.7482 (7)</t>
-  </si>
-  <si>
-    <t>GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1), text=ek3,ek2,ek1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gru_ek_1544442183</t>
-  </si>
-  <si>
-    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1), text=ek1,ek3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gru_ek_1544774584</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>sad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1948,7 +2052,15 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2065,7 +2177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2073,107 +2185,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="72">
+    <cellStyle name="百分比" xfId="71" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -7020,7 +7358,7 @@
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9430,7 +9768,7 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9440,8 +9778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9503,7 +9841,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -9548,17 +9886,17 @@
         <v>1</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P2" s="5">
         <v>37</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -9572,10 +9910,10 @@
         <v>551</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="D3" s="6">
         <v>0.89700139983791305</v>
@@ -9609,19 +9947,19 @@
         <v>2</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P3" s="5">
         <v>76</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -9635,7 +9973,7 @@
         <v>547</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>552</v>
@@ -9678,13 +10016,13 @@
         <v>59</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -9698,10 +10036,10 @@
         <v>548</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D5" s="6">
         <v>0.884623885655345</v>
@@ -9735,17 +10073,17 @@
         <v>4</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P5" s="5">
         <v>125</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -9759,10 +10097,10 @@
         <v>535</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="D6" s="6">
         <v>0.86775215501363001</v>
@@ -9796,17 +10134,17 @@
         <v>5</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P6" s="5">
         <v>38</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -9817,13 +10155,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D7" s="6">
         <v>0.86620496574080896</v>
@@ -9857,17 +10195,17 @@
         <v>6</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P7" s="5">
         <v>48</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -9882,17 +10220,17 @@
         <v>7</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P8" s="5">
         <v>12</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -9903,13 +10241,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="D9" s="6">
         <v>0.93339718558903695</v>
@@ -9943,19 +10281,19 @@
         <v>8</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P9" s="5">
         <v>59</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -9969,10 +10307,10 @@
         <v>411</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="D10" s="6">
         <v>0.94172253739040701</v>
@@ -10031,7 +10369,9 @@
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -10056,15 +10396,39 @@
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.89272821041774097</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.84066797642436097</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.93755477651183095</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.886471928734203</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.89648307896483004</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.86443883984867498</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.90197368421052604</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.88280746941403698</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -11455,7 +11819,7 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -11463,13 +11827,505 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="11" max="11" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0.921385941644562</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="F5" s="21">
+        <v>13426</v>
+      </c>
+      <c r="G5" s="21">
+        <v>252</v>
+      </c>
+      <c r="H5" s="21">
+        <v>63</v>
+      </c>
+      <c r="I5" s="22">
+        <v>213</v>
+      </c>
+      <c r="J5" s="19">
+        <f>SUM(F5:I5)</f>
+        <v>13954</v>
+      </c>
+      <c r="K5" s="40">
+        <f>J5/J9</f>
+        <v>0.46888440860215053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B6" s="41">
+        <v>0.94418879831711799</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="F6" s="24">
+        <v>98</v>
+      </c>
+      <c r="G6" s="24">
+        <v>3955</v>
+      </c>
+      <c r="H6" s="24">
+        <v>6</v>
+      </c>
+      <c r="I6" s="25">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
+        <f>SUM(F6:I6)</f>
+        <v>4064</v>
+      </c>
+      <c r="K6" s="40">
+        <f>J6/J9</f>
+        <v>0.13655913978494624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="B7" s="41">
+        <v>0.88627668764654999</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="F7" s="24">
+        <v>425</v>
+      </c>
+      <c r="G7" s="24">
+        <v>12</v>
+      </c>
+      <c r="H7" s="24">
+        <v>5268</v>
+      </c>
+      <c r="I7" s="25">
+        <v>148</v>
+      </c>
+      <c r="J7" s="19">
+        <f>SUM(F7:I7)</f>
+        <v>5853</v>
+      </c>
+      <c r="K7" s="40">
+        <f>J7/J9</f>
+        <v>0.1966733870967742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="41">
+        <v>0.91431663377681505</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="F8" s="27">
+        <v>599</v>
+      </c>
+      <c r="G8" s="27">
+        <v>24</v>
+      </c>
+      <c r="H8" s="27">
+        <v>126</v>
+      </c>
+      <c r="I8" s="28">
+        <v>5140</v>
+      </c>
+      <c r="J8" s="19">
+        <f>SUM(F8:I8)</f>
+        <v>5889</v>
+      </c>
+      <c r="K8" s="40">
+        <f>J8/J9</f>
+        <v>0.19788306451612903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
+        <f>SUM(F5:F8)</f>
+        <v>14548</v>
+      </c>
+      <c r="G9" s="19">
+        <f>SUM(G5:G8)</f>
+        <v>4243</v>
+      </c>
+      <c r="H9" s="19">
+        <f>SUM(H5:H8)</f>
+        <v>5463</v>
+      </c>
+      <c r="I9" s="19">
+        <f>SUM(I5:I8)</f>
+        <v>5506</v>
+      </c>
+      <c r="J9" s="19">
+        <f>SUM(J5:J8)</f>
+        <v>29760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="40">
+        <f>F9/J9</f>
+        <v>0.48884408602150536</v>
+      </c>
+      <c r="G10" s="40">
+        <f>G9/J9</f>
+        <v>0.1425739247311828</v>
+      </c>
+      <c r="H10" s="40">
+        <f>H9/J9</f>
+        <v>0.18356854838709677</v>
+      </c>
+      <c r="I10" s="40">
+        <f>I9/J9</f>
+        <v>0.18501344086021507</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="B14" s="41">
+        <v>0.87332123411978202</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2055</v>
+      </c>
+      <c r="G14" s="21">
+        <v>32</v>
+      </c>
+      <c r="H14" s="21">
+        <v>13</v>
+      </c>
+      <c r="I14" s="22">
+        <v>7</v>
+      </c>
+      <c r="J14" s="19">
+        <f>SUM(F14:I14)</f>
+        <v>2107</v>
+      </c>
+      <c r="K14" s="40">
+        <f>J14/J18</f>
+        <v>0.76479128856624323</v>
+      </c>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B15" s="41">
+        <v>0.84172661870503596</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="F15" s="24">
+        <v>75</v>
+      </c>
+      <c r="G15" s="24">
+        <v>108</v>
+      </c>
+      <c r="H15" s="24">
+        <v>2</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f>SUM(F15:I15)</f>
+        <v>185</v>
+      </c>
+      <c r="K15" s="40">
+        <f>J15/J18</f>
+        <v>6.7150635208711437E-2</v>
+      </c>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" s="41">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="F16" s="24">
+        <v>65</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24">
+        <v>104</v>
+      </c>
+      <c r="I16" s="25">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19">
+        <f>SUM(F16:I16)</f>
+        <v>174</v>
+      </c>
+      <c r="K16" s="40">
+        <f>J16/J18</f>
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="41">
+        <v>0.65915492957746402</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" s="27">
+        <v>143</v>
+      </c>
+      <c r="G17" s="27">
+        <v>1</v>
+      </c>
+      <c r="H17" s="27">
+        <v>6</v>
+      </c>
+      <c r="I17" s="28">
+        <v>139</v>
+      </c>
+      <c r="J17" s="19">
+        <f>SUM(F17:I17)</f>
+        <v>289</v>
+      </c>
+      <c r="K17" s="40">
+        <f>J17/J18</f>
+        <v>0.10490018148820326</v>
+      </c>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19">
+        <f>SUM(F14:F17)</f>
+        <v>2338</v>
+      </c>
+      <c r="G18" s="19">
+        <f>SUM(G14:G17)</f>
+        <v>142</v>
+      </c>
+      <c r="H18" s="19">
+        <f>SUM(H14:H17)</f>
+        <v>125</v>
+      </c>
+      <c r="I18" s="19">
+        <f>SUM(I14:I17)</f>
+        <v>150</v>
+      </c>
+      <c r="J18" s="19">
+        <f>SUM(J14:J17)</f>
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F19" s="40">
+        <f>F18/J18</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="G19" s="40">
+        <f>G18 / J18</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="H19" s="40">
+        <f>H18/J18</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="I19" s="40">
+        <f>I18/J18</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="F12:I12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="25600" windowHeight="13600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="76800" windowHeight="38600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="621">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2001,10 +2001,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Pred</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2042,6 +2038,30 @@
   </si>
   <si>
     <t>angry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dev</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_to_others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># of samples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(percent)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2177,7 +2197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2339,6 +2359,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2414,7 +2449,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2436,17 +2471,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2454,17 +2483,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2484,6 +2507,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2492,6 +2524,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2502,13 +2543,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="72">
     <cellStyle name="百分比" xfId="71" builtinId="5"/>
@@ -2894,24 +2959,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7390,18 +7455,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -9809,18 +9874,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
@@ -11827,496 +11892,559 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="400" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="10.83203125" style="19"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="18"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="32" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="J4" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="30">
         <v>0.921385941644562</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>13426</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>252</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>63</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <v>213</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="50">
         <f>SUM(F5:I5)</f>
         <v>13954</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="51">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="30">
         <v>0.94418879831711799</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>98</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>3955</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>6</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="50">
         <f>SUM(F6:I6)</f>
         <v>4064</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="51">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="30">
         <v>0.88627668764654999</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="30" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>425</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>12</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <v>5268</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <v>148</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="50">
         <f>SUM(F7:I7)</f>
         <v>5853</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="51">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="30">
         <v>0.91431663377681505</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="31" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="23">
         <v>599</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="23">
         <v>24</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="23">
         <v>126</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="24">
         <v>5140</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="28">
         <f>SUM(F8:I8)</f>
         <v>5889</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="52">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <f>SUM(F5:F8)</f>
         <v>14548</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f>SUM(G5:G8)</f>
         <v>4243</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <f>SUM(H5:H8)</f>
         <v>5463</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f>SUM(I5:I8)</f>
         <v>5506</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="27">
         <f>SUM(J5:J8)</f>
         <v>29760</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="40">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="29">
         <f>F9/J9</f>
         <v>0.48884408602150536</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="29">
         <f>G9/J9</f>
         <v>0.1425739247311828</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="29">
         <f>H9/J9</f>
         <v>0.18356854838709677</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="29">
         <f>I9/J9</f>
         <v>0.18501344086021507</v>
       </c>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="38" t="s">
         <v>605</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="36" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="I13" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="J13" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="30">
+        <v>0.87332123411978202</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="41">
-        <v>0.87332123411978202</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="E14" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="F14" s="19">
         <v>2055</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <v>32</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <v>13</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="20">
         <v>7</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="50">
         <f>SUM(F14:I14)</f>
         <v>2107</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="51">
         <f>J14/J18</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="L14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="B15" s="41">
+      <c r="L14" s="29"/>
+      <c r="M14" s="45">
+        <f>F14/J14</f>
+        <v>0.97532036070242045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="B15" s="30">
         <v>0.84172661870503596</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="C15" s="18"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="F15" s="21">
         <v>75</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="21">
         <v>108</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="21">
         <v>2</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="50">
         <f>SUM(F15:I15)</f>
         <v>185</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="51">
         <f>J15/J18</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="L15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="B16" s="41">
+      <c r="L15" s="29">
+        <f>F15/J15</f>
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="M15" s="46">
+        <f>G15/J15</f>
+        <v>0.58378378378378382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B16" s="30">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="30" t="s">
-        <v>609</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="C16" s="18"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="F16" s="21">
         <v>65</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="21">
         <v>1</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="21">
         <v>104</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="22">
         <v>4</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="50">
         <f>SUM(F16:I16)</f>
         <v>174</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="51">
         <f>J16/J18</f>
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="L16" s="29">
+        <f>F16/J16</f>
+        <v>0.37356321839080459</v>
+      </c>
+      <c r="M16" s="46">
+        <f>H16/J16</f>
+        <v>0.5977011494252874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="30">
         <v>0.65915492957746402</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="31" t="s">
-        <v>615</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="C17" s="18"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="F17" s="23">
         <v>143</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="23">
         <v>1</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="23">
         <v>6</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="24">
         <v>139</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="28">
         <f>SUM(F17:I17)</f>
         <v>289</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="52">
         <f>J17/J18</f>
         <v>0.10490018148820326</v>
       </c>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19">
+      <c r="L17" s="29">
+        <f>F17/J17</f>
+        <v>0.49480968858131485</v>
+      </c>
+      <c r="M17" s="47">
+        <f>I17/J17</f>
+        <v>0.48096885813148788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18">
         <f>SUM(F14:F17)</f>
         <v>2338</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f>SUM(G14:G17)</f>
         <v>142</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <f>SUM(H14:H17)</f>
         <v>125</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <f>SUM(I14:I17)</f>
         <v>150</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="27">
         <f>SUM(J14:J17)</f>
         <v>2755</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F19" s="40">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F19" s="29">
         <f>F18/J18</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="29">
         <f>G18 / J18</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="29">
         <f>H18/J18</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="29">
         <f>I18/J18</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E20" s="41" t="s">
+        <v>618</v>
+      </c>
+      <c r="F20" s="42">
+        <f>F14/F18</f>
+        <v>0.87895637296834905</v>
+      </c>
+      <c r="G20" s="43">
+        <f>G15/G18</f>
+        <v>0.76056338028169013</v>
+      </c>
+      <c r="H20" s="43">
+        <f>H16/H18</f>
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="I20" s="44">
+        <f>I17/I18</f>
+        <v>0.92666666666666664</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="76800" windowHeight="38600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-2900" yWindow="-21140" windowWidth="33160" windowHeight="19600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="622">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2062,6 +2062,10 @@
   </si>
   <si>
     <t>(percent)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2375,7 +2379,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2448,8 +2452,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2507,12 +2521,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2543,39 +2591,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="82">
     <cellStyle name="百分比" xfId="71" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2613,6 +2639,11 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2648,6 +2679,11 @@
     <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2959,24 +2995,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7455,18 +7491,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -9874,18 +9910,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
@@ -11892,10 +11928,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="400" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11932,23 +11968,22 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>592</v>
-      </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="18" t="s">
+        <v>592</v>
+      </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -11965,10 +12000,10 @@
       <c r="I4" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="40" t="s">
         <v>620</v>
       </c>
     </row>
@@ -11976,11 +12011,11 @@
       <c r="A5" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="49" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -11998,11 +12033,11 @@
       <c r="I5" s="20">
         <v>213</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="41">
         <f>SUM(F5:I5)</f>
         <v>13954</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="42">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
@@ -12011,11 +12046,11 @@
       <c r="A6" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="26" t="s">
         <v>601</v>
       </c>
@@ -12031,11 +12066,11 @@
       <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="41">
         <f>SUM(F6:I6)</f>
         <v>4064</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="42">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
@@ -12044,11 +12079,11 @@
       <c r="A7" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="26" t="s">
         <v>603</v>
       </c>
@@ -12064,11 +12099,11 @@
       <c r="I7" s="22">
         <v>148</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="41">
         <f>SUM(F7:I7)</f>
         <v>5853</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="42">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
@@ -12077,11 +12112,11 @@
       <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="27" t="s">
         <v>604</v>
       </c>
@@ -12101,7 +12136,7 @@
         <f>SUM(F8:I8)</f>
         <v>5889</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="43">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
@@ -12112,19 +12147,19 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="18">
+      <c r="F9" s="30">
         <f>SUM(F5:F8)</f>
         <v>14548</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="31">
         <f>SUM(G5:G8)</f>
         <v>4243</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="31">
         <f>SUM(H5:H8)</f>
         <v>5463</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="32">
         <f>SUM(I5:I8)</f>
         <v>5506</v>
       </c>
@@ -12138,22 +12173,24 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="29">
-        <f>F9/J9</f>
-        <v>0.48884408602150536</v>
-      </c>
-      <c r="G10" s="29">
-        <f>G9/J9</f>
-        <v>0.1425739247311828</v>
-      </c>
-      <c r="H10" s="29">
-        <f>H9/J9</f>
-        <v>0.18356854838709677</v>
-      </c>
-      <c r="I10" s="29">
-        <f>I9/J9</f>
-        <v>0.18501344086021507</v>
+      <c r="E10" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="F10" s="34">
+        <f>F5/F9</f>
+        <v>0.92287599670057741</v>
+      </c>
+      <c r="G10" s="34">
+        <f>G6/G9</f>
+        <v>0.93212349752533585</v>
+      </c>
+      <c r="H10" s="34">
+        <f>H7/H9</f>
+        <v>0.96430532674354752</v>
+      </c>
+      <c r="I10" s="35">
+        <f>I8/I9</f>
+        <v>0.93352706138757724</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -12170,23 +12207,22 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>615</v>
-      </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="52" t="s">
         <v>605</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="18" t="s">
+        <v>615</v>
+      </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -12203,16 +12239,16 @@
       <c r="I13" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="57" t="s">
         <v>617</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="44" t="s">
         <v>616</v>
       </c>
     </row>
@@ -12220,11 +12256,11 @@
       <c r="A14" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>0.87332123411978202</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="49" t="s">
         <v>611</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -12242,16 +12278,16 @@
       <c r="I14" s="20">
         <v>7</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="41">
         <f>SUM(F14:I14)</f>
         <v>2107</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="42">
         <f>J14/J18</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="45">
+      <c r="L14" s="55"/>
+      <c r="M14" s="36">
         <f>F14/J14</f>
         <v>0.97532036070242045</v>
       </c>
@@ -12260,11 +12296,11 @@
       <c r="A15" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>0.84172661870503596</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="36"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="26" t="s">
         <v>607</v>
       </c>
@@ -12280,19 +12316,19 @@
       <c r="I15" s="22">
         <v>0</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="41">
         <f>SUM(F15:I15)</f>
         <v>185</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="42">
         <f>J15/J18</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="55">
         <f>F15/J15</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="37">
         <f>G15/J15</f>
         <v>0.58378378378378382</v>
       </c>
@@ -12301,11 +12337,11 @@
       <c r="A16" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>0.54166666666666596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="26" t="s">
         <v>608</v>
       </c>
@@ -12321,19 +12357,19 @@
       <c r="I16" s="22">
         <v>4</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="41">
         <f>SUM(F16:I16)</f>
         <v>174</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="42">
         <f>J16/J18</f>
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="55">
         <f>F16/J16</f>
         <v>0.37356321839080459</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="37">
         <f>H16/J16</f>
         <v>0.5977011494252874</v>
       </c>
@@ -12342,11 +12378,11 @@
       <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>0.65915492957746402</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="27" t="s">
         <v>614</v>
       </c>
@@ -12366,15 +12402,15 @@
         <f>SUM(F17:I17)</f>
         <v>289</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="43">
         <f>J17/J18</f>
         <v>0.10490018148820326</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="56">
         <f>F17/J17</f>
         <v>0.49480968858131485</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="38">
         <f>I17/J17</f>
         <v>0.48096885813148788</v>
       </c>
@@ -12385,19 +12421,19 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="18">
+      <c r="F18" s="30">
         <f>SUM(F14:F17)</f>
         <v>2338</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="31">
         <f>SUM(G14:G17)</f>
         <v>142</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="31">
         <f>SUM(H14:H17)</f>
         <v>125</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="32">
         <f>SUM(I14:I17)</f>
         <v>150</v>
       </c>
@@ -12407,44 +12443,26 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F19" s="29">
-        <f>F18/J18</f>
-        <v>0.84863883847549915</v>
-      </c>
-      <c r="G19" s="29">
-        <f>G18 / J18</f>
-        <v>5.1542649727767696E-2</v>
-      </c>
-      <c r="H19" s="29">
-        <f>H18/J18</f>
-        <v>4.5372050816696916E-2</v>
-      </c>
-      <c r="I19" s="29">
-        <f>I18/J18</f>
-        <v>5.4446460980036297E-2</v>
-      </c>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E20" s="41" t="s">
+      <c r="E19" s="57" t="s">
         <v>618</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F19" s="33">
         <f>F14/F18</f>
         <v>0.87895637296834905</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G19" s="34">
         <f>G15/G18</f>
         <v>0.76056338028169013</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H19" s="34">
         <f>H16/H18</f>
         <v>0.83199999999999996</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I19" s="35">
         <f>I17/I18</f>
         <v>0.92666666666666664</v>
       </c>
+      <c r="J19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2900" yWindow="-21140" windowWidth="33160" windowHeight="19600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="623">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2066,6 +2066,10 @@
   </si>
   <si>
     <t>Precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2463,7 +2467,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2542,9 +2546,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2560,7 +2561,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2591,13 +2600,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2995,24 +3004,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7491,18 +7500,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -9910,18 +9919,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
@@ -11931,7 +11940,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11972,12 +11981,12 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -12000,11 +12009,14 @@
       <c r="I4" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="37" t="s">
         <v>620</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -12015,7 +12027,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -12033,14 +12045,19 @@
       <c r="I5" s="20">
         <v>213</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <f>SUM(F5:I5)</f>
         <v>13954</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="39">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
+      <c r="L5" s="41">
+        <f>F5/J5</f>
+        <v>0.96216138741579471</v>
+      </c>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
@@ -12050,7 +12067,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="50"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="26" t="s">
         <v>601</v>
       </c>
@@ -12066,14 +12083,19 @@
       <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <f>SUM(F6:I6)</f>
         <v>4064</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="39">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
+      <c r="L6" s="41">
+        <f>G6/J6</f>
+        <v>0.97317913385826771</v>
+      </c>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
@@ -12083,7 +12105,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="50"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="26" t="s">
         <v>603</v>
       </c>
@@ -12099,14 +12121,19 @@
       <c r="I7" s="22">
         <v>148</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="38">
         <f>SUM(F7:I7)</f>
         <v>5853</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="39">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
+      <c r="L7" s="41">
+        <f>H7/J7</f>
+        <v>0.90005125576627376</v>
+      </c>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
@@ -12116,7 +12143,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="51"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="27" t="s">
         <v>604</v>
       </c>
@@ -12136,10 +12163,15 @@
         <f>SUM(F8:I8)</f>
         <v>5889</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="40">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
+      <c r="L8" s="42">
+        <f>I8/J8</f>
+        <v>0.87281372049583972</v>
+      </c>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -12167,6 +12199,8 @@
         <f>SUM(J5:J8)</f>
         <v>29760</v>
       </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
@@ -12193,6 +12227,8 @@
         <v>0.93352706138757724</v>
       </c>
       <c r="J10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
@@ -12205,19 +12241,23 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>605</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
@@ -12245,10 +12285,10 @@
       <c r="K13" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="55" t="s">
         <v>616</v>
       </c>
     </row>
@@ -12260,7 +12300,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>611</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -12278,16 +12318,16 @@
       <c r="I14" s="20">
         <v>7</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="38">
         <f>SUM(F14:I14)</f>
         <v>2107</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="39">
         <f>J14/J18</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="36">
+      <c r="L14" s="41"/>
+      <c r="M14" s="56">
         <f>F14/J14</f>
         <v>0.97532036070242045</v>
       </c>
@@ -12300,7 +12340,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="26" t="s">
         <v>607</v>
       </c>
@@ -12316,19 +12356,19 @@
       <c r="I15" s="22">
         <v>0</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="38">
         <f>SUM(F15:I15)</f>
         <v>185</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="39">
         <f>J15/J18</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="41">
         <f>F15/J15</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="41">
         <f>G15/J15</f>
         <v>0.58378378378378382</v>
       </c>
@@ -12341,7 +12381,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="26" t="s">
         <v>608</v>
       </c>
@@ -12357,19 +12397,19 @@
       <c r="I16" s="22">
         <v>4</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="38">
         <f>SUM(F16:I16)</f>
         <v>174</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="39">
         <f>J16/J18</f>
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="41">
         <f>F16/J16</f>
         <v>0.37356321839080459</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="41">
         <f>H16/J16</f>
         <v>0.5977011494252874</v>
       </c>
@@ -12382,7 +12422,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="51"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="27" t="s">
         <v>614</v>
       </c>
@@ -12402,15 +12442,15 @@
         <f>SUM(F17:I17)</f>
         <v>289</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="40">
         <f>J17/J18</f>
         <v>0.10490018148820326</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="42">
         <f>F17/J17</f>
         <v>0.49480968858131485</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="42">
         <f>I17/J17</f>
         <v>0.48096885813148788</v>
       </c>
@@ -12443,7 +12483,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="43" t="s">
         <v>618</v>
       </c>
       <c r="F19" s="33">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -15,7 +15,7 @@
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
     <sheet name="SemEval2018_Task3_B" sheetId="2" r:id="rId2"/>
     <sheet name="SemEval2019_Task3" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId4"/>
+    <sheet name="SemEval2019_Task3 混淆矩阵" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="648">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2070,6 +2070,105 @@
   </si>
   <si>
     <t>Recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary_ntua_ek_1546434037</t>
+  </si>
+  <si>
+    <t>二分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRAIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用SVM合并隐藏层特征向量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2195,6 +2294,13 @@
       <sz val="12"/>
       <color rgb="FF101010"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2467,7 +2573,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2549,17 +2655,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2600,14 +2718,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -3004,24 +3204,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7500,18 +7700,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -9888,7 +10088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -9919,18 +10119,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
@@ -11937,20 +12137,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="18"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="60"/>
+    <col min="12" max="12" width="13.1640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>553</v>
       </c>
@@ -11964,7 +12165,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -11975,21 +12176,33 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>641</v>
+      </c>
+      <c r="S3" s="73" t="s">
+        <v>630</v>
+      </c>
+      <c r="T3" s="74"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>592</v>
       </c>
@@ -12012,14 +12225,26 @@
       <c r="J4" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="80" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>598</v>
       </c>
@@ -12027,7 +12252,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="52" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -12045,21 +12270,44 @@
       <c r="I5" s="20">
         <v>213</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <f>SUM(F5:I5)</f>
         <v>13954</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="65">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="81">
         <f>F5/J5</f>
         <v>0.96216138741579471</v>
       </c>
       <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="R5" s="70" t="s">
+        <v>625</v>
+      </c>
+      <c r="S5" s="41">
+        <v>12435</v>
+      </c>
+      <c r="T5" s="68">
+        <v>1019</v>
+      </c>
+      <c r="U5" s="62">
+        <f>SUM(S5:T5)</f>
+        <v>13454</v>
+      </c>
+      <c r="V5" s="63">
+        <f>S5/U5</f>
+        <v>0.92426044299093202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>600</v>
       </c>
@@ -12067,7 +12315,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="49"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="26" t="s">
         <v>601</v>
       </c>
@@ -12083,21 +12331,39 @@
       <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <f>SUM(F6:I6)</f>
         <v>4064</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="65">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="81">
         <f>G6/J6</f>
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q6" s="54"/>
+      <c r="R6" s="71" t="s">
+        <v>626</v>
+      </c>
+      <c r="S6" s="42">
+        <v>762</v>
+      </c>
+      <c r="T6" s="69">
+        <v>12929</v>
+      </c>
+      <c r="U6" s="66">
+        <f>SUM(S6:T6)</f>
+        <v>13691</v>
+      </c>
+      <c r="V6" s="67">
+        <f>T6/U6</f>
+        <v>0.94434299905047114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>602</v>
       </c>
@@ -12105,7 +12371,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="49"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="26" t="s">
         <v>603</v>
       </c>
@@ -12121,21 +12387,43 @@
       <c r="I7" s="22">
         <v>148</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <f>SUM(F7:I7)</f>
         <v>5853</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="65">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="81">
         <f>H7/J7</f>
         <v>0.90005125576627376</v>
       </c>
       <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="43">
+        <f>SUM(S5:S6)</f>
+        <v>13197</v>
+      </c>
+      <c r="T7" s="44">
+        <f>SUM(T5:T6)</f>
+        <v>13948</v>
+      </c>
+      <c r="U7" s="60">
+        <f>SUM(U5:U6)</f>
+        <v>27145</v>
+      </c>
+      <c r="V7" s="61"/>
+      <c r="W7" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="X7" s="61">
+        <f>SUM(S5,T6)/U7</f>
+        <v>0.9343893903112912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
@@ -12143,7 +12431,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="50"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="27" t="s">
         <v>604</v>
       </c>
@@ -12163,17 +12451,38 @@
         <f>SUM(F8:I8)</f>
         <v>5889</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="67">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="82">
         <f>I8/J8</f>
         <v>0.87281372049583972</v>
       </c>
       <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q8" s="60"/>
+      <c r="R8" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="S8" s="75">
+        <f>S5/S7</f>
+        <v>0.94225960445555812</v>
+      </c>
+      <c r="T8" s="76">
+        <f>T6/T7</f>
+        <v>0.92694293088614854</v>
+      </c>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="X8" s="87">
+        <f>V6</f>
+        <v>0.94434299905047114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -12199,10 +12508,28 @@
         <f>SUM(J5:J8)</f>
         <v>29760</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="60" t="s">
+        <v>645</v>
+      </c>
+      <c r="N9" s="61">
+        <f>SUM(F5,G6,H7,I8 )/J9</f>
+        <v>0.93377016129032253</v>
+      </c>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="X9" s="88">
+        <f>T8</f>
+        <v>0.92694293088614854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -12227,289 +12554,1100 @@
         <v>0.93352706138757724</v>
       </c>
       <c r="J10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="60" t="s">
+        <v>636</v>
+      </c>
+      <c r="N10" s="86">
+        <f>(G6+H7+I8)/SUM(J6:J8)</f>
+        <v>0.90870555485258764</v>
+      </c>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="X10" s="85">
+        <f>2*X8*X9/(X8+X9)</f>
+        <v>0.93556206809218867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="N11" s="61">
+        <f>(G6+H7+I8)/SUM(G9:I9)</f>
+        <v>0.94418879831711811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="51" t="s">
-        <v>605</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>615</v>
-      </c>
+      <c r="M12" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="N12" s="85">
+        <f>2*N11*N10/(N11+N10)</f>
+        <v>0.92610742149719516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="P13" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="T13" s="57"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G14" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J14" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K14" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L14" s="83" t="s">
         <v>617</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M14" s="58" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="41" t="s">
+        <v>625</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>628</v>
+      </c>
+      <c r="U14" s="62"/>
+      <c r="V14" s="63" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B15" s="29">
         <v>0.87332123411978202</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="48" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="52" t="s">
         <v>611</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E15" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F15" s="19">
         <v>2055</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G15" s="19">
         <v>32</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="19">
         <v>13</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I15" s="20">
         <v>7</v>
       </c>
-      <c r="J14" s="38">
-        <f>SUM(F14:I14)</f>
+      <c r="J15" s="37">
+        <f>SUM(F15:I15)</f>
         <v>2107</v>
       </c>
-      <c r="K14" s="39">
-        <f>J14/J18</f>
+      <c r="K15" s="65">
+        <f>J15/J19</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="56">
-        <f>F14/J14</f>
+      <c r="L15" s="81"/>
+      <c r="M15" s="59">
+        <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="Q15" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="R15" s="41" t="s">
+        <v>625</v>
+      </c>
+      <c r="S15" s="41">
+        <v>2066</v>
+      </c>
+      <c r="T15" s="68">
+        <v>272</v>
+      </c>
+      <c r="U15" s="62">
+        <f>SUM(S15:T15)</f>
+        <v>2338</v>
+      </c>
+      <c r="V15" s="63">
+        <f>S15/U15</f>
+        <v>0.88366124893070996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B16" s="29">
         <v>0.84172661870503596</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="26" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F16" s="21">
         <v>75</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G16" s="21">
         <v>108</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H16" s="21">
         <v>2</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I16" s="22">
         <v>0</v>
       </c>
-      <c r="J15" s="38">
-        <f>SUM(F15:I15)</f>
+      <c r="J16" s="37">
+        <f>SUM(F16:I16)</f>
         <v>185</v>
       </c>
-      <c r="K15" s="39">
-        <f>J15/J18</f>
+      <c r="K16" s="65">
+        <f>J16/J19</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="L15" s="41">
-        <f>F15/J15</f>
+      <c r="L16" s="81">
+        <f>F16/J16</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="M15" s="41">
-        <f>G15/J15</f>
+      <c r="M16" s="45">
+        <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="Q16" s="54"/>
+      <c r="R16" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="S16" s="42">
+        <v>52</v>
+      </c>
+      <c r="T16" s="69">
+        <v>365</v>
+      </c>
+      <c r="U16" s="66">
+        <f>SUM(S16:T16)</f>
+        <v>417</v>
+      </c>
+      <c r="V16" s="67">
+        <f>T16/U16</f>
+        <v>0.87529976019184652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B17" s="29">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="26" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F17" s="21">
         <v>65</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G17" s="21">
         <v>1</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H17" s="21">
         <v>104</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I17" s="22">
         <v>4</v>
       </c>
-      <c r="J16" s="38">
-        <f>SUM(F16:I16)</f>
+      <c r="J17" s="37">
+        <f>SUM(F17:I17)</f>
         <v>174</v>
       </c>
-      <c r="K16" s="39">
-        <f>J16/J18</f>
+      <c r="K17" s="65">
+        <f>J17/J19</f>
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L16" s="41">
-        <f>F16/J16</f>
+      <c r="L17" s="81">
+        <f>F17/J17</f>
         <v>0.37356321839080459</v>
       </c>
-      <c r="M16" s="41">
-        <f>H16/J16</f>
+      <c r="M17" s="45">
+        <f>H17/J17</f>
         <v>0.5977011494252874</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="42">
+        <f>SUM(S15:S16)</f>
+        <v>2118</v>
+      </c>
+      <c r="T17" s="69">
+        <f>SUM(T15:T16)</f>
+        <v>637</v>
+      </c>
+      <c r="U17" s="60">
+        <f>SUM(U15:U16)</f>
+        <v>2755</v>
+      </c>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="X17" s="61">
+        <f>SUM(S15,T16)/U17</f>
+        <v>0.88239564428312156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B18" s="29">
         <v>0.65915492957746402</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="27" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F18" s="23">
         <v>143</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G18" s="23">
         <v>1</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H18" s="23">
         <v>6</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I18" s="24">
         <v>139</v>
       </c>
-      <c r="J17" s="28">
-        <f>SUM(F17:I17)</f>
+      <c r="J18" s="28">
+        <f>SUM(F18:I18)</f>
         <v>289</v>
       </c>
-      <c r="K17" s="40">
-        <f>J17/J18</f>
+      <c r="K18" s="67">
+        <f>J18/J19</f>
         <v>0.10490018148820326</v>
       </c>
-      <c r="L17" s="42">
-        <f>F17/J17</f>
+      <c r="L18" s="82">
+        <f>F18/J18</f>
         <v>0.49480968858131485</v>
       </c>
-      <c r="M17" s="42">
-        <f>I17/J17</f>
+      <c r="M18" s="46">
+        <f>I18/J18</f>
         <v>0.48096885813148788</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="30">
-        <f>SUM(F14:F17)</f>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="S18" s="75">
+        <f>S15/S17</f>
+        <v>0.97544853635505191</v>
+      </c>
+      <c r="T18" s="76">
+        <f>T16/T17</f>
+        <v>0.57299843014128726</v>
+      </c>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="X18" s="87">
+        <f>V16</f>
+        <v>0.87529976019184652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="30">
+        <f>SUM(F15:F18)</f>
         <v>2338</v>
       </c>
-      <c r="G18" s="31">
-        <f>SUM(G14:G17)</f>
+      <c r="G19" s="31">
+        <f>SUM(G15:G18)</f>
         <v>142</v>
       </c>
-      <c r="H18" s="31">
-        <f>SUM(H14:H17)</f>
+      <c r="H19" s="31">
+        <f>SUM(H15:H18)</f>
         <v>125</v>
       </c>
-      <c r="I18" s="32">
-        <f>SUM(I14:I17)</f>
+      <c r="I19" s="32">
+        <f>SUM(I15:I18)</f>
         <v>150</v>
       </c>
-      <c r="J18" s="27">
-        <f>SUM(J14:J17)</f>
+      <c r="J19" s="27">
+        <f>SUM(J15:J18)</f>
         <v>2755</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E19" s="43" t="s">
+      <c r="M19" s="60" t="s">
+        <v>645</v>
+      </c>
+      <c r="N19" s="61">
+        <f>SUM(F15,G16,H17,I18 )/J19</f>
+        <v>0.87332123411978224</v>
+      </c>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="X19" s="88">
+        <f>T18</f>
+        <v>0.57299843014128726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E20" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="F19" s="33">
-        <f>F14/F18</f>
+      <c r="F20" s="33">
+        <f>F15/F19</f>
         <v>0.87895637296834905</v>
       </c>
-      <c r="G19" s="34">
-        <f>G15/G18</f>
+      <c r="G20" s="34">
+        <f>G16/G19</f>
         <v>0.76056338028169013</v>
       </c>
-      <c r="H19" s="34">
-        <f>H16/H18</f>
+      <c r="H20" s="34">
+        <f>H17/H19</f>
         <v>0.83199999999999996</v>
       </c>
-      <c r="I19" s="35">
-        <f>I17/I18</f>
+      <c r="I20" s="35">
+        <f>I18/I19</f>
         <v>0.92666666666666664</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="M20" s="60" t="s">
+        <v>636</v>
+      </c>
+      <c r="N20" s="86">
+        <f>(G16+H17+I18)/SUM(J16:J18)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="W20" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="X20" s="85">
+        <f>2*X18*X19/(X18+X19)</f>
+        <v>0.69259962049335866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M21" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="N21" s="61">
+        <f>(G16+H17+I18)/SUM(G19:I19)</f>
+        <v>0.84172661870503596</v>
+      </c>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M22" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="N22" s="85">
+        <f>2*N21*N20/(N21+N20)</f>
+        <v>0.65915492957746469</v>
+      </c>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>644</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>620</v>
+      </c>
+      <c r="L27" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="F28" s="18">
+        <v>13545</v>
+      </c>
+      <c r="G28" s="18">
+        <v>616</v>
+      </c>
+      <c r="H28" s="18">
+        <v>273</v>
+      </c>
+      <c r="I28" s="18">
+        <v>514</v>
+      </c>
+      <c r="J28" s="37">
+        <f>SUM(F28:I28)</f>
+        <v>14948</v>
+      </c>
+      <c r="K28" s="65">
+        <f>J28/J32</f>
+        <v>0.49562334217506632</v>
+      </c>
+      <c r="L28" s="81">
+        <f>F28/J28</f>
+        <v>0.90614128980465614</v>
+      </c>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="F29" s="18">
+        <v>95</v>
+      </c>
+      <c r="G29" s="18">
+        <v>4114</v>
+      </c>
+      <c r="H29" s="18">
+        <v>16</v>
+      </c>
+      <c r="I29" s="18">
+        <v>18</v>
+      </c>
+      <c r="J29" s="37">
+        <f>SUM(F29:I29)</f>
+        <v>4243</v>
+      </c>
+      <c r="K29" s="65">
+        <f>J29/J32</f>
+        <v>0.14068302387267906</v>
+      </c>
+      <c r="L29" s="81">
+        <f>G29/J29</f>
+        <v>0.96959698326655663</v>
+      </c>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="F30" s="18">
+        <v>74</v>
+      </c>
+      <c r="G30" s="18">
+        <v>10</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5212</v>
+      </c>
+      <c r="I30" s="18">
+        <v>167</v>
+      </c>
+      <c r="J30" s="37">
+        <f>SUM(F30:I30)</f>
+        <v>5463</v>
+      </c>
+      <c r="K30" s="65">
+        <f>J30/J32</f>
+        <v>0.18113395225464191</v>
+      </c>
+      <c r="L30" s="81">
+        <f>H30/J30</f>
+        <v>0.95405454878272011</v>
+      </c>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="F31" s="18">
+        <v>179</v>
+      </c>
+      <c r="G31" s="18">
+        <v>17</v>
+      </c>
+      <c r="H31" s="18">
+        <v>179</v>
+      </c>
+      <c r="I31" s="18">
+        <v>5131</v>
+      </c>
+      <c r="J31" s="28">
+        <f>SUM(F31:I31)</f>
+        <v>5506</v>
+      </c>
+      <c r="K31" s="67">
+        <f>J31/J32</f>
+        <v>0.18255968169761272</v>
+      </c>
+      <c r="L31" s="82">
+        <f>I31/J31</f>
+        <v>0.93189248092989463</v>
+      </c>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="38">
+        <f>SUM(F28:F31)</f>
+        <v>13893</v>
+      </c>
+      <c r="G32" s="39">
+        <f>SUM(G28:G31)</f>
+        <v>4757</v>
+      </c>
+      <c r="H32" s="39">
+        <f>SUM(H28:H31)</f>
+        <v>5680</v>
+      </c>
+      <c r="I32" s="40">
+        <f>SUM(I28:I31)</f>
+        <v>5830</v>
+      </c>
+      <c r="J32" s="27">
+        <f>SUM(J28:J31)</f>
+        <v>30160</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>645</v>
+      </c>
+      <c r="N32" s="61">
+        <f>SUM(F28,G29,H30,I31 )/J32</f>
+        <v>0.92844827586206902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="F33" s="34">
+        <f>F28/F32</f>
+        <v>0.97495141438134314</v>
+      </c>
+      <c r="G33" s="34">
+        <f>G29/G32</f>
+        <v>0.86483077569896993</v>
+      </c>
+      <c r="H33" s="34">
+        <f>H30/H32</f>
+        <v>0.9176056338028169</v>
+      </c>
+      <c r="I33" s="35">
+        <f>I31/I32</f>
+        <v>0.88010291595197254</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="M33" s="60" t="s">
+        <v>636</v>
+      </c>
+      <c r="N33" s="61">
+        <f>(G29+H30+I31)/SUM(J29:J31)</f>
+        <v>0.95036813042335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="M34" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="N34" s="84">
+        <f>(G29+H30+I31)/SUM(G32:I32)</f>
+        <v>0.88873178828302701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="M35" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="N35" s="85">
+        <f>2*N34*N33/(N34+N33)</f>
+        <v>0.91851710664252362</v>
+      </c>
+      <c r="R35" s="18"/>
+      <c r="AA35" s="18"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="F36" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="K37" s="76" t="s">
+        <v>620</v>
+      </c>
+      <c r="L37" s="83" t="s">
+        <v>617</v>
+      </c>
+      <c r="M37" s="58" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="F38" s="18">
+        <v>2046</v>
+      </c>
+      <c r="G38" s="18">
+        <v>118</v>
+      </c>
+      <c r="H38" s="18">
+        <v>55</v>
+      </c>
+      <c r="I38" s="18">
+        <v>119</v>
+      </c>
+      <c r="J38" s="37">
+        <f>SUM(F38:I38)</f>
+        <v>2338</v>
+      </c>
+      <c r="K38" s="65">
+        <f>J38/J42</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="L38" s="81"/>
+      <c r="M38" s="59">
+        <f>F38/J38</f>
+        <v>0.87510692899914455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="F39" s="18">
+        <v>24</v>
+      </c>
+      <c r="G39" s="18">
+        <v>117</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
+      <c r="J39" s="37">
+        <f>SUM(F39:I39)</f>
+        <v>142</v>
+      </c>
+      <c r="K39" s="65">
+        <f>J39/J42</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="L39" s="81">
+        <f>F39/J39</f>
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="M39" s="45">
+        <f>G39/J39</f>
+        <v>0.823943661971831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="F40" s="18">
+        <v>12</v>
+      </c>
+      <c r="G40" s="18">
+        <v>2</v>
+      </c>
+      <c r="H40" s="18">
+        <v>103</v>
+      </c>
+      <c r="I40" s="18">
+        <v>8</v>
+      </c>
+      <c r="J40" s="37">
+        <f>SUM(F40:I40)</f>
+        <v>125</v>
+      </c>
+      <c r="K40" s="65">
+        <f>J40/J42</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="L40" s="81">
+        <f>F40/J40</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M40" s="45">
+        <f>H40/J40</f>
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="F41" s="18">
+        <v>9</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>5</v>
+      </c>
+      <c r="I41" s="18">
+        <v>136</v>
+      </c>
+      <c r="J41" s="28">
+        <f>SUM(F41:I41)</f>
+        <v>150</v>
+      </c>
+      <c r="K41" s="67">
+        <f>J41/J42</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="L41" s="82">
+        <f>F41/J41</f>
+        <v>0.06</v>
+      </c>
+      <c r="M41" s="46">
+        <f>I41/J41</f>
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="38">
+        <f>SUM(F38:F41)</f>
+        <v>2091</v>
+      </c>
+      <c r="G42" s="39">
+        <f>SUM(G38:G41)</f>
+        <v>237</v>
+      </c>
+      <c r="H42" s="39">
+        <f>SUM(H38:H41)</f>
+        <v>163</v>
+      </c>
+      <c r="I42" s="40">
+        <f>SUM(I38:I41)</f>
+        <v>264</v>
+      </c>
+      <c r="J42" s="27">
+        <f>SUM(J38:J41)</f>
+        <v>2755</v>
+      </c>
+      <c r="M42" s="60" t="s">
+        <v>645</v>
+      </c>
+      <c r="N42" s="61">
+        <f>SUM(F38,G39,H40,I41 )/J42</f>
+        <v>0.87186932849364795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="F43" s="33">
+        <f>F38/F42</f>
+        <v>0.97847919655667148</v>
+      </c>
+      <c r="G43" s="34">
+        <f>G39/G42</f>
+        <v>0.49367088607594939</v>
+      </c>
+      <c r="H43" s="34">
+        <f>H40/H42</f>
+        <v>0.63190184049079756</v>
+      </c>
+      <c r="I43" s="35">
+        <f>I41/I42</f>
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="M43" s="60" t="s">
+        <v>636</v>
+      </c>
+      <c r="N43" s="61">
+        <f>(G39+H40+I41)/SUM(J39:J41)</f>
+        <v>0.8537170263788969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="M44" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="N44" s="86">
+        <f>(G39+H40+I41)/SUM(G42:I42)</f>
+        <v>0.53614457831325302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="M45" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="N45" s="85">
+        <f>2*N44*N43/(N44+N43)</f>
+        <v>0.65864939870490291</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F36:I36"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="660">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2170,6 +2170,50 @@
   <si>
     <t>Accuracy</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntua_ek_1546517955</t>
+  </si>
+  <si>
+    <t>NTUA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emb=uta, emb_tralnable=False, rnn_dim=300, lr=(0.01, 0.9, 0.1), class_weight=False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546524019</t>
+  </si>
+  <si>
+    <t>3-way GRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-way BLSTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>naive_ek_1546522445</t>
+  </si>
+  <si>
+    <t>3-way GRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-way BLSTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate=0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546523873</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2617,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2601,22 +2645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2637,21 +2666,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2659,12 +2673,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2692,12 +2700,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2764,23 +2766,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2807,6 +2800,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3204,24 +3236,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7700,18 +7732,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10088,20 +10120,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
@@ -10119,19 +10151,19 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="14" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="14"/>
@@ -10664,7 +10696,6 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -10691,7 +10722,6 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -10739,7 +10769,9 @@
       <c r="K13" s="6">
         <v>0.88280746941403698</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>0.65934099999999995</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -10754,6 +10786,40 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C14" t="s">
+        <v>648</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.89965372430560597</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.88139148043682602</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.89008179959100198</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.88571532395799202</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.88747731397459095</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.57966101694915195</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.82014388489208601</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>0.679245283018867</v>
+      </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -10765,17 +10831,6 @@
       <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -10790,16 +10845,18 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.68611670020120696</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -10814,6 +10871,26 @@
       <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <v>0.70600203458799604</v>
+      </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -10825,6 +10902,18 @@
       <c r="Y17" s="5"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.70193285859613397</v>
+      </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -10844,7 +10933,6 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -10868,7 +10956,6 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -10892,7 +10979,6 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -10949,7 +11035,6 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -10972,7 +11057,6 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -10995,7 +11079,6 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="10"/>
       <c r="O26" s="6"/>
@@ -11018,7 +11101,6 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -11042,7 +11124,6 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -11078,7 +11159,6 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -11101,7 +11181,6 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -11125,7 +11204,6 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -11148,7 +11226,6 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -11193,7 +11270,6 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -11216,7 +11292,6 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -11239,7 +11314,6 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -11262,7 +11336,6 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -11285,7 +11358,6 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -11319,7 +11391,6 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -11342,7 +11413,6 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -11365,7 +11435,6 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -11388,7 +11457,6 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -11402,7 +11470,6 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -11416,7 +11483,6 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -11430,7 +11496,6 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -11444,7 +11509,6 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -11458,7 +11522,6 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -11472,7 +11535,6 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -11486,7 +11548,6 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -11500,7 +11561,6 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -11514,7 +11574,6 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -11528,7 +11587,6 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
@@ -11542,7 +11600,6 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
@@ -11556,7 +11613,6 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
@@ -11570,7 +11626,6 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
@@ -11584,7 +11639,6 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -11598,7 +11652,6 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
@@ -11612,7 +11665,6 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
@@ -11626,7 +11678,6 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
@@ -11640,7 +11691,6 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
@@ -11654,7 +11704,6 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -11668,7 +11717,6 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -11682,7 +11730,6 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
@@ -11696,7 +11743,6 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -11710,7 +11756,6 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -11724,7 +11769,6 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -11738,7 +11782,6 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -11752,7 +11795,6 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -11766,7 +11808,6 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="13"/>
@@ -11780,7 +11821,6 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
@@ -11808,7 +11848,6 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
@@ -11822,7 +11861,6 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
@@ -11836,7 +11874,6 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
@@ -11850,7 +11887,6 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
@@ -11864,7 +11900,6 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
@@ -11878,7 +11913,6 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
@@ -11908,7 +11942,6 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
@@ -11922,7 +11955,6 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
@@ -11936,7 +11968,6 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
@@ -11950,7 +11981,6 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
@@ -11964,7 +11994,6 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
@@ -11979,7 +12008,6 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
@@ -12007,7 +12035,6 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
@@ -12021,7 +12048,6 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
@@ -12035,7 +12061,6 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
@@ -12049,7 +12074,6 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
@@ -12063,7 +12087,6 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
@@ -12077,7 +12100,6 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
@@ -12091,7 +12113,6 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
@@ -12105,7 +12126,6 @@
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
@@ -12119,7 +12139,6 @@
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
@@ -12137,18 +12156,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="9" width="10.83203125" style="46"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="60"/>
-    <col min="12" max="12" width="13.1640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.83203125" style="60"/>
+    <col min="11" max="11" width="10.83203125" style="46"/>
+    <col min="12" max="12" width="13.1640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.83203125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -12159,10 +12179,6 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -12171,10 +12187,6 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="P2" t="s">
         <v>642</v>
@@ -12187,12 +12199,12 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="77" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>641</v>
@@ -12210,37 +12222,37 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="40" t="s">
         <v>594</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="52" t="s">
         <v>595</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="55" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="49" t="s">
         <v>620</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="63" t="s">
         <v>622</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="43" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="T4" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60" t="s">
+      <c r="U4" s="46"/>
+      <c r="V4" s="46" t="s">
         <v>632</v>
       </c>
     </row>
@@ -12248,37 +12260,37 @@
       <c r="A5" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="75" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="48">
         <v>13426</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="48">
         <v>252</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="48">
         <v>63</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="54">
         <v>213</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="27">
         <f>SUM(F5:I5)</f>
         <v>13954</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="51">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="64">
         <f>F5/J5</f>
         <v>0.96216138741579471</v>
       </c>
@@ -12286,23 +12298,23 @@
       <c r="P5" t="s">
         <v>643</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q5" s="75" t="s">
         <v>631</v>
       </c>
-      <c r="R5" s="70" t="s">
+      <c r="R5" s="56" t="s">
         <v>625</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="29">
         <v>12435</v>
       </c>
-      <c r="T5" s="68">
+      <c r="T5" s="54">
         <v>1019</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="48">
         <f>SUM(S5:T5)</f>
         <v>13454</v>
       </c>
-      <c r="V5" s="63">
+      <c r="V5" s="49">
         <f>S5/U5</f>
         <v>0.92426044299093202</v>
       </c>
@@ -12311,54 +12323,54 @@
       <c r="A6" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="24">
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="50">
         <v>98</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="50">
         <v>3955</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="50">
         <v>6</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="81">
         <v>5</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="27">
         <f>SUM(F6:I6)</f>
         <v>4064</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="51">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="64">
         <f>G6/J6</f>
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="71" t="s">
+      <c r="Q6" s="76"/>
+      <c r="R6" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="30">
         <v>762</v>
       </c>
-      <c r="T6" s="69">
+      <c r="T6" s="55">
         <v>12929</v>
       </c>
-      <c r="U6" s="66">
+      <c r="U6" s="52">
         <f>SUM(S6:T6)</f>
         <v>13691</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="53">
         <f>T6/U6</f>
         <v>0.94434299905047114</v>
       </c>
@@ -12367,58 +12379,58 @@
       <c r="A7" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="24">
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="50">
         <v>425</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="50">
         <v>12</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="50">
         <v>5268</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="81">
         <v>148</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="27">
         <f>SUM(F7:I7)</f>
         <v>5853</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="51">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7" s="64">
         <f>H7/J7</f>
         <v>0.90005125576627376</v>
       </c>
       <c r="M7" s="18"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="43">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="31">
         <f>SUM(S5:S6)</f>
         <v>13197</v>
       </c>
-      <c r="T7" s="44">
+      <c r="T7" s="32">
         <f>SUM(T5:T6)</f>
         <v>13948</v>
       </c>
-      <c r="U7" s="60">
+      <c r="U7" s="46">
         <f>SUM(U5:U6)</f>
         <v>27145</v>
       </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="60" t="s">
+      <c r="V7" s="47"/>
+      <c r="W7" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="X7" s="61">
+      <c r="X7" s="47">
         <f>SUM(S5,T6)/U7</f>
         <v>0.9343893903112912</v>
       </c>
@@ -12427,57 +12439,57 @@
       <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="24">
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="52">
         <v>599</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="52">
         <v>24</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="52">
         <v>126</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="55">
         <v>5140</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="23">
         <f>SUM(F8:I8)</f>
         <v>5889</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="53">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L8" s="65">
         <f>I8/J8</f>
         <v>0.87281372049583972</v>
       </c>
       <c r="M8" s="18"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="43" t="s">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="31" t="s">
         <v>635</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="60">
         <f>S5/S7</f>
         <v>0.94225960445555812</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="61">
         <f>T6/T7</f>
         <v>0.92694293088614854</v>
       </c>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="60" t="s">
+      <c r="U8" s="46"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="X8" s="87">
+      <c r="X8" s="70">
         <f>V6</f>
         <v>0.94434299905047114</v>
       </c>
@@ -12488,43 +12500,43 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="30">
+      <c r="F9" s="41">
         <f>SUM(F5:F8)</f>
         <v>14548</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="42">
         <f>SUM(G5:G8)</f>
         <v>4243</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="42">
         <f>SUM(H5:H8)</f>
         <v>5463</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="43">
         <f>SUM(I5:I8)</f>
         <v>5506</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="22">
         <f>SUM(J5:J8)</f>
         <v>29760</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="47">
         <f>SUM(F5,G6,H7,I8 )/J9</f>
         <v>0.93377016129032253</v>
       </c>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="60" t="s">
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="X9" s="88">
+      <c r="X9" s="71">
         <f>T8</f>
         <v>0.92694293088614854</v>
       </c>
@@ -12534,41 +12546,41 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="60">
         <f>F5/F9</f>
         <v>0.92287599670057741</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="60">
         <f>G6/G9</f>
         <v>0.93212349752533585</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="60">
         <f>H7/H9</f>
         <v>0.96430532674354752</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="61">
         <f>I8/I9</f>
         <v>0.93352706138757724</v>
       </c>
       <c r="J10" s="18"/>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="N10" s="86">
+      <c r="N10" s="69">
         <f>(G6+H7+I8)/SUM(J6:J8)</f>
         <v>0.90870555485258764</v>
       </c>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="60" t="s">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="X10" s="85">
+      <c r="X10" s="68">
         <f>2*X8*X9/(X8+X9)</f>
         <v>0.93556206809218867</v>
       </c>
@@ -12578,16 +12590,16 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="18"/>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="47">
         <f>(G6+H7+I8)/SUM(G9:I9)</f>
         <v>0.94418879831711811</v>
       </c>
@@ -12598,15 +12610,11 @@
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="68">
         <f>2*N11*N10/(N11+N10)</f>
         <v>0.92610742149719516</v>
       </c>
@@ -12616,25 +12624,25 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="77" t="s">
         <v>605</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
         <v>646</v>
       </c>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="55" t="s">
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="77" t="s">
         <v>629</v>
       </c>
-      <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
@@ -12644,40 +12652,40 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="40" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="52" t="s">
         <v>608</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="55" t="s">
         <v>609</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="61" t="s">
         <v>620</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="66" t="s">
         <v>617</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="44" t="s">
         <v>616</v>
       </c>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="41" t="s">
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="T14" s="68" t="s">
+      <c r="T14" s="54" t="s">
         <v>628</v>
       </c>
-      <c r="U14" s="62"/>
-      <c r="V14" s="63" t="s">
+      <c r="U14" s="48"/>
+      <c r="V14" s="49" t="s">
         <v>634</v>
       </c>
     </row>
@@ -12685,58 +12693,58 @@
       <c r="A15" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="24">
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="75" t="s">
         <v>611</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="48">
         <v>2055</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="48">
         <v>32</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="48">
         <v>13</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="54">
         <v>7</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="27">
         <f>SUM(F15:I15)</f>
         <v>2107</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="51">
         <f>J15/J19</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="59">
+      <c r="L15" s="64"/>
+      <c r="M15" s="45">
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="75" t="s">
         <v>611</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="29">
         <v>2066</v>
       </c>
-      <c r="T15" s="68">
+      <c r="T15" s="54">
         <v>272</v>
       </c>
-      <c r="U15" s="62">
+      <c r="U15" s="48">
         <f>SUM(S15:T15)</f>
         <v>2338</v>
       </c>
-      <c r="V15" s="63">
+      <c r="V15" s="49">
         <f>S15/U15</f>
         <v>0.88366124893070996</v>
       </c>
@@ -12745,57 +12753,57 @@
       <c r="A16" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="24">
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="79"/>
+      <c r="E16" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="50">
         <v>75</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="50">
         <v>108</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="50">
         <v>2</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="81">
         <v>0</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="27">
         <f>SUM(F16:I16)</f>
         <v>185</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="51">
         <f>J16/J19</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="L16" s="81">
+      <c r="L16" s="64">
         <f>F16/J16</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="33">
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="42" t="s">
+      <c r="Q16" s="76"/>
+      <c r="R16" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="S16" s="42">
+      <c r="S16" s="30">
         <v>52</v>
       </c>
-      <c r="T16" s="69">
+      <c r="T16" s="55">
         <v>365</v>
       </c>
-      <c r="U16" s="66">
+      <c r="U16" s="52">
         <f>SUM(S16:T16)</f>
         <v>417</v>
       </c>
-      <c r="V16" s="67">
+      <c r="V16" s="53">
         <f>T16/U16</f>
         <v>0.87529976019184652</v>
       </c>
@@ -12804,61 +12812,61 @@
       <c r="A17" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="24">
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="79"/>
+      <c r="E17" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="50">
         <v>65</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="50">
         <v>1</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="50">
         <v>104</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="81">
         <v>4</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="27">
         <f>SUM(F17:I17)</f>
         <v>174</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="51">
         <f>J17/J19</f>
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L17" s="81">
+      <c r="L17" s="64">
         <f>F17/J17</f>
         <v>0.37356321839080459</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="33">
         <f>H17/J17</f>
         <v>0.5977011494252874</v>
       </c>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="42">
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="30">
         <f>SUM(S15:S16)</f>
         <v>2118</v>
       </c>
-      <c r="T17" s="69">
+      <c r="T17" s="55">
         <f>SUM(T15:T16)</f>
         <v>637</v>
       </c>
-      <c r="U17" s="60">
+      <c r="U17" s="46">
         <f>SUM(U15:U16)</f>
         <v>2755</v>
       </c>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60" t="s">
+      <c r="V17" s="46"/>
+      <c r="W17" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="X17" s="61">
+      <c r="X17" s="47">
         <f>SUM(S15,T16)/U17</f>
         <v>0.88239564428312156</v>
       </c>
@@ -12867,60 +12875,60 @@
       <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="24">
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="76"/>
+      <c r="E18" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="52">
         <v>143</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="52">
         <v>1</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="52">
         <v>6</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="55">
         <v>139</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="23">
         <f>SUM(F18:I18)</f>
         <v>289</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="53">
         <f>J18/J19</f>
         <v>0.10490018148820326</v>
       </c>
-      <c r="L18" s="82">
+      <c r="L18" s="65">
         <f>F18/J18</f>
         <v>0.49480968858131485</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="34">
         <f>I18/J18</f>
         <v>0.48096885813148788</v>
       </c>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="43" t="s">
+      <c r="Q18" s="46"/>
+      <c r="R18" s="31" t="s">
         <v>633</v>
       </c>
-      <c r="S18" s="75">
+      <c r="S18" s="60">
         <f>S15/S17</f>
         <v>0.97544853635505191</v>
       </c>
-      <c r="T18" s="76">
+      <c r="T18" s="61">
         <f>T16/T17</f>
         <v>0.57299843014128726</v>
       </c>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60" t="s">
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="X18" s="87">
+      <c r="X18" s="70">
         <f>V16</f>
         <v>0.87529976019184652</v>
       </c>
@@ -12931,130 +12939,130 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="30">
+      <c r="F19" s="41">
         <f>SUM(F15:F18)</f>
         <v>2338</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="42">
         <f>SUM(G15:G18)</f>
         <v>142</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="42">
         <f>SUM(H15:H18)</f>
         <v>125</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="43">
         <f>SUM(I15:I18)</f>
         <v>150</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="22">
         <f>SUM(J15:J18)</f>
         <v>2755</v>
       </c>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="N19" s="61">
+      <c r="N19" s="47">
         <f>SUM(F15,G16,H17,I18 )/J19</f>
         <v>0.87332123411978224</v>
       </c>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60" t="s">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="X19" s="88">
+      <c r="X19" s="71">
         <f>T18</f>
         <v>0.57299843014128726</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="82">
         <f>F15/F19</f>
         <v>0.87895637296834905</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="60">
         <f>G16/G19</f>
         <v>0.76056338028169013</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="60">
         <f>H17/H19</f>
         <v>0.83199999999999996</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="61">
         <f>I18/I19</f>
         <v>0.92666666666666664</v>
       </c>
       <c r="J20" s="18"/>
-      <c r="M20" s="60" t="s">
+      <c r="M20" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="N20" s="86">
+      <c r="N20" s="69">
         <f>(G16+H17+I18)/SUM(J16:J18)</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="O20" s="18"/>
-      <c r="W20" s="60" t="s">
+      <c r="W20" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="X20" s="85">
+      <c r="X20" s="68">
         <f>2*X18*X19/(X18+X19)</f>
         <v>0.69259962049335866</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="47">
         <f>(G16+H17+I18)/SUM(G19:I19)</f>
         <v>0.84172661870503596</v>
       </c>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="M22" s="60" t="s">
+      <c r="M22" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="N22" s="85">
+      <c r="N22" s="68">
         <f>2*N21*N20/(N21+N20)</f>
         <v>0.65915492957746469</v>
       </c>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>644</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="78"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
@@ -13064,12 +13072,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="77" t="s">
         <v>593</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -13081,60 +13089,60 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="40" t="s">
         <v>594</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="52" t="s">
         <v>595</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="55" t="s">
         <v>597</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="49" t="s">
         <v>620</v>
       </c>
-      <c r="L27" s="80" t="s">
+      <c r="L27" s="63" t="s">
         <v>622</v>
       </c>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="75" t="s">
         <v>599</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="46">
         <v>13545</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="46">
         <v>616</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="46">
         <v>273</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="46">
         <v>514</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="27">
         <f>SUM(F28:I28)</f>
         <v>14948</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="51">
         <f>J28/J32</f>
         <v>0.49562334217506632</v>
       </c>
-      <c r="L28" s="81">
+      <c r="L28" s="64">
         <f>F28/J28</f>
         <v>0.90614128980465614</v>
       </c>
@@ -13142,33 +13150,33 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="26" t="s">
+      <c r="D29" s="79"/>
+      <c r="E29" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="46">
         <v>95</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="46">
         <v>4114</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="46">
         <v>16</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="46">
         <v>18</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="27">
         <f>SUM(F29:I29)</f>
         <v>4243</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="51">
         <f>J29/J32</f>
         <v>0.14068302387267906</v>
       </c>
-      <c r="L29" s="81">
+      <c r="L29" s="64">
         <f>G29/J29</f>
         <v>0.96959698326655663</v>
       </c>
@@ -13176,33 +13184,33 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="79"/>
+      <c r="E30" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="46">
         <v>74</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="46">
         <v>10</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="46">
         <v>5212</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="46">
         <v>167</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="27">
         <f>SUM(F30:I30)</f>
         <v>5463</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="51">
         <f>J30/J32</f>
         <v>0.18113395225464191</v>
       </c>
-      <c r="L30" s="81">
+      <c r="L30" s="64">
         <f>H30/J30</f>
         <v>0.95405454878272011</v>
       </c>
@@ -13210,33 +13218,33 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="76"/>
+      <c r="E31" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="46">
         <v>179</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="46">
         <v>17</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="46">
         <v>179</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="46">
         <v>5131</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="23">
         <f>SUM(F31:I31)</f>
         <v>5506</v>
       </c>
-      <c r="K31" s="67">
+      <c r="K31" s="53">
         <f>J31/J32</f>
         <v>0.18255968169761272</v>
       </c>
-      <c r="L31" s="82">
+      <c r="L31" s="65">
         <f>I31/J31</f>
         <v>0.93189248092989463</v>
       </c>
@@ -13248,30 +13256,30 @@
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="38">
+      <c r="F32" s="41">
         <f>SUM(F28:F31)</f>
         <v>13893</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="42">
         <f>SUM(G28:G31)</f>
         <v>4757</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="42">
         <f>SUM(H28:H31)</f>
         <v>5680</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="43">
         <f>SUM(I28:I31)</f>
         <v>5830</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="22">
         <f>SUM(J28:J31)</f>
         <v>30160</v>
       </c>
-      <c r="M32" s="60" t="s">
+      <c r="M32" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="N32" s="61">
+      <c r="N32" s="47">
         <f>SUM(F28,G29,H30,I31 )/J32</f>
         <v>0.92844827586206902</v>
       </c>
@@ -13281,30 +13289,30 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="60">
         <f>F28/F32</f>
         <v>0.97495141438134314</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="60">
         <f>G29/G32</f>
         <v>0.86483077569896993</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="60">
         <f>H30/H32</f>
         <v>0.9176056338028169</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="61">
         <f>I31/I32</f>
         <v>0.88010291595197254</v>
       </c>
       <c r="J33" s="18"/>
-      <c r="M33" s="60" t="s">
+      <c r="M33" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="N33" s="61">
+      <c r="N33" s="47">
         <f>(G29+H30+I31)/SUM(J29:J31)</f>
         <v>0.95036813042335</v>
       </c>
@@ -13315,15 +13323,11 @@
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="M34" s="60" t="s">
+      <c r="M34" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="N34" s="84">
+      <c r="N34" s="67">
         <f>(G29+H30+I31)/SUM(G32:I32)</f>
         <v>0.88873178828302701</v>
       </c>
@@ -13332,10 +13336,10 @@
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="M35" s="60" t="s">
+      <c r="M35" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="N35" s="85">
+      <c r="N35" s="68">
         <f>2*N34*N33/(N34+N33)</f>
         <v>0.91851710664252362</v>
       </c>
@@ -13346,150 +13350,150 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="77" t="s">
         <v>593</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="78"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="40" t="s">
         <v>606</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="52" t="s">
         <v>603</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="55" t="s">
         <v>604</v>
       </c>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="K37" s="76" t="s">
+      <c r="K37" s="61" t="s">
         <v>620</v>
       </c>
-      <c r="L37" s="83" t="s">
+      <c r="L37" s="66" t="s">
         <v>617</v>
       </c>
-      <c r="M37" s="58" t="s">
+      <c r="M37" s="44" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="75" t="s">
         <v>611</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="46">
         <v>2046</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="46">
         <v>118</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="46">
         <v>55</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="46">
         <v>119</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="27">
         <f>SUM(F38:I38)</f>
         <v>2338</v>
       </c>
-      <c r="K38" s="65">
+      <c r="K38" s="51">
         <f>J38/J42</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="L38" s="81"/>
-      <c r="M38" s="59">
+      <c r="L38" s="64"/>
+      <c r="M38" s="45">
         <f>F38/J38</f>
         <v>0.87510692899914455</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="26" t="s">
+      <c r="D39" s="79"/>
+      <c r="E39" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="46">
         <v>24</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="46">
         <v>117</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="46">
         <v>0</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="46">
         <v>1</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="27">
         <f>SUM(F39:I39)</f>
         <v>142</v>
       </c>
-      <c r="K39" s="65">
+      <c r="K39" s="51">
         <f>J39/J42</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="L39" s="81">
+      <c r="L39" s="64">
         <f>F39/J39</f>
         <v>0.16901408450704225</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="33">
         <f>G39/J39</f>
         <v>0.823943661971831</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="26" t="s">
+      <c r="D40" s="79"/>
+      <c r="E40" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="46">
         <v>12</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="46">
         <v>2</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="46">
         <v>103</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="46">
         <v>8</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="27">
         <f>SUM(F40:I40)</f>
         <v>125</v>
       </c>
-      <c r="K40" s="65">
+      <c r="K40" s="51">
         <f>J40/J42</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="L40" s="81">
+      <c r="L40" s="64">
         <f>F40/J40</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="33">
         <f>H40/J40</f>
         <v>0.82399999999999995</v>
       </c>
@@ -13498,35 +13502,35 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="76"/>
+      <c r="E41" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="46">
         <v>9</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="46">
         <v>0</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="46">
         <v>5</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="46">
         <v>136</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="23">
         <f>SUM(F41:I41)</f>
         <v>150</v>
       </c>
-      <c r="K41" s="67">
+      <c r="K41" s="53">
         <f>J41/J42</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="L41" s="82">
+      <c r="L41" s="65">
         <f>F41/J41</f>
         <v>0.06</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="34">
         <f>I41/J41</f>
         <v>0.90666666666666662</v>
       </c>
@@ -13537,30 +13541,30 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="38">
+      <c r="F42" s="41">
         <f>SUM(F38:F41)</f>
         <v>2091</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="42">
         <f>SUM(G38:G41)</f>
         <v>237</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="42">
         <f>SUM(H38:H41)</f>
         <v>163</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="43">
         <f>SUM(I38:I41)</f>
         <v>264</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J42" s="22">
         <f>SUM(J38:J41)</f>
         <v>2755</v>
       </c>
-      <c r="M42" s="60" t="s">
+      <c r="M42" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="N42" s="61">
+      <c r="N42" s="47">
         <f>SUM(F38,G39,H40,I41 )/J42</f>
         <v>0.87186932849364795</v>
       </c>
@@ -13570,30 +13574,30 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="82">
         <f>F38/F42</f>
         <v>0.97847919655667148</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="60">
         <f>G39/G42</f>
         <v>0.49367088607594939</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="60">
         <f>H40/H42</f>
         <v>0.63190184049079756</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="61">
         <f>I41/I42</f>
         <v>0.51515151515151514</v>
       </c>
       <c r="J43" s="18"/>
-      <c r="M43" s="60" t="s">
+      <c r="M43" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="N43" s="61">
+      <c r="N43" s="47">
         <f>(G39+H40+I41)/SUM(J39:J41)</f>
         <v>0.8537170263788969</v>
       </c>
@@ -13604,15 +13608,11 @@
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="M44" s="60" t="s">
+      <c r="M44" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="N44" s="86">
+      <c r="N44" s="69">
         <f>(G39+H40+I41)/SUM(G42:I42)</f>
         <v>0.53614457831325302</v>
       </c>
@@ -13620,21 +13620,1566 @@
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="N45" s="85">
+      <c r="N45" s="68">
         <f>2*N44*N43/(N44+N43)</f>
         <v>0.65864939870490291</v>
       </c>
     </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="18"/>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J49" s="59" t="s">
+        <v>619</v>
+      </c>
+      <c r="K49" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="L49" s="63" t="s">
+        <v>622</v>
+      </c>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D50" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="F50" s="46">
+        <v>12235</v>
+      </c>
+      <c r="G50" s="46">
+        <v>478</v>
+      </c>
+      <c r="H50" s="46">
+        <v>299</v>
+      </c>
+      <c r="I50" s="46">
+        <v>442</v>
+      </c>
+      <c r="J50" s="27">
+        <f>SUM(F50:I50)</f>
+        <v>13454</v>
+      </c>
+      <c r="K50" s="51">
+        <f>J50/J54</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="L50" s="64">
+        <f>F50/J50</f>
+        <v>0.90939497547197856</v>
+      </c>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D51" s="79"/>
+      <c r="E51" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="F51" s="46">
+        <v>415</v>
+      </c>
+      <c r="G51" s="46">
+        <v>3379</v>
+      </c>
+      <c r="H51" s="46">
+        <v>10</v>
+      </c>
+      <c r="I51" s="46">
+        <v>15</v>
+      </c>
+      <c r="J51" s="27">
+        <f>SUM(F51:I51)</f>
+        <v>3819</v>
+      </c>
+      <c r="K51" s="51">
+        <f>J51/J54</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="L51" s="64">
+        <f>G51/J51</f>
+        <v>0.8847865933490443</v>
+      </c>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D52" s="79"/>
+      <c r="E52" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="F52" s="46">
+        <v>235</v>
+      </c>
+      <c r="G52" s="46">
+        <v>14</v>
+      </c>
+      <c r="H52" s="46">
+        <v>4484</v>
+      </c>
+      <c r="I52" s="46">
+        <v>184</v>
+      </c>
+      <c r="J52" s="27">
+        <f>SUM(F52:I52)</f>
+        <v>4917</v>
+      </c>
+      <c r="K52" s="51">
+        <f>J52/J54</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="L52" s="64">
+        <f>H52/J52</f>
+        <v>0.91193817368314012</v>
+      </c>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D53" s="76"/>
+      <c r="E53" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="F53" s="46">
+        <v>434</v>
+      </c>
+      <c r="G53" s="46">
+        <v>22</v>
+      </c>
+      <c r="H53" s="46">
+        <v>176</v>
+      </c>
+      <c r="I53" s="46">
+        <v>4324</v>
+      </c>
+      <c r="J53" s="23">
+        <f>SUM(F53:I53)</f>
+        <v>4956</v>
+      </c>
+      <c r="K53" s="53">
+        <f>J53/J54</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="L53" s="65">
+        <f>I53/J53</f>
+        <v>0.87247780468119451</v>
+      </c>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="41">
+        <f>SUM(F50:F53)</f>
+        <v>13319</v>
+      </c>
+      <c r="G54" s="42">
+        <f>SUM(G50:G53)</f>
+        <v>3893</v>
+      </c>
+      <c r="H54" s="42">
+        <f>SUM(H50:H53)</f>
+        <v>4969</v>
+      </c>
+      <c r="I54" s="43">
+        <f>SUM(I50:I53)</f>
+        <v>4965</v>
+      </c>
+      <c r="J54" s="22">
+        <f>SUM(J50:J53)</f>
+        <v>27146</v>
+      </c>
+      <c r="M54" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N54" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O54" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P54" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D55" s="18"/>
+      <c r="E55" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="F55" s="60">
+        <f>F50/F54</f>
+        <v>0.91861250844658004</v>
+      </c>
+      <c r="G55" s="60">
+        <f>G51/G54</f>
+        <v>0.86796814795787314</v>
+      </c>
+      <c r="H55" s="60">
+        <f>H52/H54</f>
+        <v>0.90239484805795933</v>
+      </c>
+      <c r="I55" s="61">
+        <f>I53/I54</f>
+        <v>0.87089627391742197</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="M55" s="47">
+        <f>SUM(F50,G51,H52,I53 )/J54</f>
+        <v>0.89965372430560675</v>
+      </c>
+      <c r="N55" s="67">
+        <f>(G51+H52+I53)/SUM(G54:I54)</f>
+        <v>0.88139148043682647</v>
+      </c>
+      <c r="O55" s="47">
+        <f>(G51+H52+I53)/SUM(J51:J53)</f>
+        <v>0.89008179959100209</v>
+      </c>
+      <c r="P55" s="68">
+        <f>2*N55*O55/(N55+O55)</f>
+        <v>0.88571532395799268</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="67"/>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="M57" s="46"/>
+      <c r="N57" s="68"/>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F58" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="78"/>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I59" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="K59" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="L59" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="M59" s="44" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D60" s="75" t="s">
+        <v>611</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="F60" s="46">
+        <v>2103</v>
+      </c>
+      <c r="G60" s="46">
+        <v>78</v>
+      </c>
+      <c r="H60" s="46">
+        <v>52</v>
+      </c>
+      <c r="I60" s="46">
+        <v>105</v>
+      </c>
+      <c r="J60" s="27">
+        <f>SUM(F60:I60)</f>
+        <v>2338</v>
+      </c>
+      <c r="K60" s="51">
+        <f>J60/J64</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="L60" s="64"/>
+      <c r="M60" s="45">
+        <f>F60/J60</f>
+        <v>0.89948674080410607</v>
+      </c>
+    </row>
+    <row r="61" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D61" s="79"/>
+      <c r="E61" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="F61" s="46">
+        <v>32</v>
+      </c>
+      <c r="G61" s="46">
+        <v>109</v>
+      </c>
+      <c r="H61" s="46">
+        <v>0</v>
+      </c>
+      <c r="I61" s="46">
+        <v>1</v>
+      </c>
+      <c r="J61" s="27">
+        <f>SUM(F61:I61)</f>
+        <v>142</v>
+      </c>
+      <c r="K61" s="51">
+        <f>J61/J64</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="L61" s="64">
+        <f>F61/J61</f>
+        <v>0.22535211267605634</v>
+      </c>
+      <c r="M61" s="33">
+        <f>G61/J61</f>
+        <v>0.76760563380281688</v>
+      </c>
+    </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D62" s="79"/>
+      <c r="E62" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="F62" s="46">
+        <v>18</v>
+      </c>
+      <c r="G62" s="46">
+        <v>1</v>
+      </c>
+      <c r="H62" s="46">
+        <v>100</v>
+      </c>
+      <c r="I62" s="46">
+        <v>6</v>
+      </c>
+      <c r="J62" s="27">
+        <f>SUM(F62:I62)</f>
+        <v>125</v>
+      </c>
+      <c r="K62" s="51">
+        <f>J62/J64</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="L62" s="64">
+        <f>F62/J62</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M62" s="33">
+        <f>H62/J62</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D63" s="76"/>
+      <c r="E63" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="F63" s="46">
+        <v>12</v>
+      </c>
+      <c r="G63" s="46">
+        <v>0</v>
+      </c>
+      <c r="H63" s="46">
+        <v>5</v>
+      </c>
+      <c r="I63" s="46">
+        <v>133</v>
+      </c>
+      <c r="J63" s="23">
+        <f>SUM(F63:I63)</f>
+        <v>150</v>
+      </c>
+      <c r="K63" s="53">
+        <f>J63/J64</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="L63" s="65">
+        <f>F63/J63</f>
+        <v>0.08</v>
+      </c>
+      <c r="M63" s="34">
+        <f>I63/J63</f>
+        <v>0.88666666666666671</v>
+      </c>
+    </row>
+    <row r="64" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="41">
+        <f>SUM(F60:F63)</f>
+        <v>2165</v>
+      </c>
+      <c r="G64" s="42">
+        <f>SUM(G60:G63)</f>
+        <v>188</v>
+      </c>
+      <c r="H64" s="42">
+        <f>SUM(H60:H63)</f>
+        <v>157</v>
+      </c>
+      <c r="I64" s="43">
+        <f>SUM(I60:I63)</f>
+        <v>245</v>
+      </c>
+      <c r="J64" s="22">
+        <f>SUM(J60:J63)</f>
+        <v>2755</v>
+      </c>
+      <c r="M64" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N64" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O64" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P64" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D65" s="18"/>
+      <c r="E65" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="F65" s="82">
+        <f>F60/F64</f>
+        <v>0.97136258660508079</v>
+      </c>
+      <c r="G65" s="60">
+        <f>G61/G64</f>
+        <v>0.57978723404255317</v>
+      </c>
+      <c r="H65" s="60">
+        <f>H62/H64</f>
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="I65" s="61">
+        <f>I63/I64</f>
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="J65" s="18"/>
+      <c r="M65" s="47">
+        <f>SUM(F60,G61,H62,I63 )/J64</f>
+        <v>0.88747731397459162</v>
+      </c>
+      <c r="N65" s="67">
+        <f>(G61+H62+I63)/SUM(G64:I64)</f>
+        <v>0.57966101694915251</v>
+      </c>
+      <c r="O65" s="47">
+        <f>(G61+H62+I63)/SUM(J61:J63)</f>
+        <v>0.82014388489208634</v>
+      </c>
+      <c r="P65" s="68">
+        <f>2*N65*O65/(N65+O65)</f>
+        <v>0.67924528301886788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="69"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="68"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D70" s="18"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="46"/>
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D71" s="18"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I71" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="K71" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="L71" s="63" t="s">
+        <v>622</v>
+      </c>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D72" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F72" s="46">
+        <v>12894</v>
+      </c>
+      <c r="G72" s="46">
+        <v>228</v>
+      </c>
+      <c r="H72" s="46">
+        <v>122</v>
+      </c>
+      <c r="I72" s="46">
+        <v>210</v>
+      </c>
+      <c r="J72" s="39">
+        <f>SUM(F72:I72)</f>
+        <v>13454</v>
+      </c>
+      <c r="K72" s="51">
+        <f>J72/J76</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="L72" s="64">
+        <f>F72/J72</f>
+        <v>0.95837669094693023</v>
+      </c>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D73" s="79"/>
+      <c r="E73" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="F73" s="46">
+        <v>190</v>
+      </c>
+      <c r="G73" s="46">
+        <v>3619</v>
+      </c>
+      <c r="H73" s="46">
+        <v>4</v>
+      </c>
+      <c r="I73" s="46">
+        <v>6</v>
+      </c>
+      <c r="J73" s="39">
+        <f>SUM(F73:I73)</f>
+        <v>3819</v>
+      </c>
+      <c r="K73" s="51">
+        <f>J73/J76</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="L73" s="64">
+        <f>G73/J73</f>
+        <v>0.94763026970411102</v>
+      </c>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D74" s="79"/>
+      <c r="E74" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="F74" s="46">
+        <v>121</v>
+      </c>
+      <c r="G74" s="46">
+        <v>8</v>
+      </c>
+      <c r="H74" s="46">
+        <v>4681</v>
+      </c>
+      <c r="I74" s="46">
+        <v>107</v>
+      </c>
+      <c r="J74" s="39">
+        <f>SUM(F74:I74)</f>
+        <v>4917</v>
+      </c>
+      <c r="K74" s="51">
+        <f>J74/J76</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="L74" s="64">
+        <f>H74/J74</f>
+        <v>0.95200325401667685</v>
+      </c>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D75" s="76"/>
+      <c r="E75" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="F75" s="46">
+        <v>233</v>
+      </c>
+      <c r="G75" s="46">
+        <v>7</v>
+      </c>
+      <c r="H75" s="46">
+        <v>116</v>
+      </c>
+      <c r="I75" s="46">
+        <v>4600</v>
+      </c>
+      <c r="J75" s="40">
+        <f>SUM(F75:I75)</f>
+        <v>4956</v>
+      </c>
+      <c r="K75" s="53">
+        <f>J75/J76</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="L75" s="65">
+        <f>I75/J75</f>
+        <v>0.92816787732041972</v>
+      </c>
+      <c r="M75" s="18"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D76" s="18"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="41">
+        <f>SUM(F72:F75)</f>
+        <v>13438</v>
+      </c>
+      <c r="G76" s="42">
+        <f>SUM(G72:G75)</f>
+        <v>3862</v>
+      </c>
+      <c r="H76" s="42">
+        <f>SUM(H72:H75)</f>
+        <v>4923</v>
+      </c>
+      <c r="I76" s="43">
+        <f>SUM(I72:I75)</f>
+        <v>4923</v>
+      </c>
+      <c r="J76" s="57">
+        <f>SUM(J72:J75)</f>
+        <v>27146</v>
+      </c>
+      <c r="M76" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N76" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O76" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P76" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D77" s="18"/>
+      <c r="E77" s="41" t="s">
+        <v>618</v>
+      </c>
+      <c r="F77" s="60">
+        <f>F72/F76</f>
+        <v>0.95951778538472987</v>
+      </c>
+      <c r="G77" s="60">
+        <f>G73/G76</f>
+        <v>0.93707923355774214</v>
+      </c>
+      <c r="H77" s="60">
+        <f>H74/H76</f>
+        <v>0.95084298192159256</v>
+      </c>
+      <c r="I77" s="61">
+        <f>I75/I76</f>
+        <v>0.93438959983749748</v>
+      </c>
+      <c r="J77" s="46"/>
+      <c r="M77" s="47">
+        <f>SUM(F72,G73,H74,I75 )/J76</f>
+        <v>0.95019524055109406</v>
+      </c>
+      <c r="N77" s="67">
+        <f>(G73+H74+I75)/SUM(G76:I76)</f>
+        <v>0.94105631747884444</v>
+      </c>
+      <c r="O77" s="47">
+        <f>(G73+H74+I75)/SUM(J73:J75)</f>
+        <v>0.94215600350569673</v>
+      </c>
+      <c r="P77" s="68">
+        <f>2*N77*O77/(N77+O77)</f>
+        <v>0.94160583941605835</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D78" s="18"/>
+      <c r="E78" s="46"/>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E79" s="46"/>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E80" s="46"/>
+      <c r="F80" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D81" s="18"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G81" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H81" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I81" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="J81" s="41" t="s">
+        <v>619</v>
+      </c>
+      <c r="K81" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="L81" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="M81" s="44" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D82" s="75" t="s">
+        <v>611</v>
+      </c>
+      <c r="E82" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F82" s="46">
+        <v>2130</v>
+      </c>
+      <c r="G82" s="46">
+        <v>89</v>
+      </c>
+      <c r="H82" s="46">
+        <v>40</v>
+      </c>
+      <c r="I82" s="46">
+        <v>79</v>
+      </c>
+      <c r="J82" s="39">
+        <f>SUM(F82:I82)</f>
+        <v>2338</v>
+      </c>
+      <c r="K82" s="51">
+        <f>J82/J86</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="L82" s="64"/>
+      <c r="M82" s="45">
+        <f>F82/J82</f>
+        <v>0.91103507271171946</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D83" s="79"/>
+      <c r="E83" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="F83" s="46">
+        <v>29</v>
+      </c>
+      <c r="G83" s="46">
+        <v>112</v>
+      </c>
+      <c r="H83" s="46">
+        <v>1</v>
+      </c>
+      <c r="I83" s="46">
+        <v>0</v>
+      </c>
+      <c r="J83" s="39">
+        <f>SUM(F83:I83)</f>
+        <v>142</v>
+      </c>
+      <c r="K83" s="51">
+        <f>J83/J86</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="L83" s="64">
+        <f>F83/J83</f>
+        <v>0.20422535211267606</v>
+      </c>
+      <c r="M83" s="33">
+        <f>G83/J83</f>
+        <v>0.78873239436619713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D84" s="79"/>
+      <c r="E84" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="F84" s="46">
+        <v>16</v>
+      </c>
+      <c r="G84" s="46">
+        <v>2</v>
+      </c>
+      <c r="H84" s="46">
+        <v>98</v>
+      </c>
+      <c r="I84" s="46">
+        <v>9</v>
+      </c>
+      <c r="J84" s="39">
+        <f>SUM(F84:I84)</f>
+        <v>125</v>
+      </c>
+      <c r="K84" s="51">
+        <f>J84/J86</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="L84" s="64">
+        <f>F84/J84</f>
+        <v>0.128</v>
+      </c>
+      <c r="M84" s="33">
+        <f>H84/J84</f>
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D85" s="76"/>
+      <c r="E85" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="F85" s="46">
+        <v>14</v>
+      </c>
+      <c r="G85" s="46">
+        <v>0</v>
+      </c>
+      <c r="H85" s="46">
+        <v>1</v>
+      </c>
+      <c r="I85" s="46">
+        <v>135</v>
+      </c>
+      <c r="J85" s="40">
+        <f>SUM(F85:I85)</f>
+        <v>150</v>
+      </c>
+      <c r="K85" s="53">
+        <f>J85/J86</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="L85" s="65">
+        <f>F85/J85</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="M85" s="34">
+        <f>I85/J85</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D86" s="18"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="41">
+        <f>SUM(F82:F85)</f>
+        <v>2189</v>
+      </c>
+      <c r="G86" s="42">
+        <f>SUM(G82:G85)</f>
+        <v>203</v>
+      </c>
+      <c r="H86" s="42">
+        <f>SUM(H82:H85)</f>
+        <v>140</v>
+      </c>
+      <c r="I86" s="43">
+        <f>SUM(I82:I85)</f>
+        <v>223</v>
+      </c>
+      <c r="J86" s="57">
+        <f>SUM(J82:J85)</f>
+        <v>2755</v>
+      </c>
+      <c r="M86" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N86" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O86" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P86" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D87" s="18"/>
+      <c r="E87" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="F87" s="82">
+        <f>F82/F86</f>
+        <v>0.9730470534490635</v>
+      </c>
+      <c r="G87" s="60">
+        <f>G83/G86</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="H87" s="60">
+        <f>H84/H86</f>
+        <v>0.7</v>
+      </c>
+      <c r="I87" s="61">
+        <f>I85/I86</f>
+        <v>0.60538116591928248</v>
+      </c>
+      <c r="J87" s="46"/>
+      <c r="M87" s="47">
+        <f>SUM(F82,G83,H84,I85 )/J86</f>
+        <v>0.89836660617059894</v>
+      </c>
+      <c r="N87" s="67">
+        <f>(G83+H84+I85)/SUM(G86:I86)</f>
+        <v>0.60954063604240283</v>
+      </c>
+      <c r="O87" s="47">
+        <f>(G83+H84+I85)/SUM(J83:J85)</f>
+        <v>0.82733812949640284</v>
+      </c>
+      <c r="P87" s="68">
+        <f>2*N87*O87/(N87+O87)</f>
+        <v>0.7019328585961343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="69"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>656</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="68"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G90" s="80"/>
+      <c r="H90" s="80"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="46"/>
+      <c r="M90" s="18"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D91" s="18"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G91" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H91" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I91" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J91" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="K91" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="L91" s="63" t="s">
+        <v>622</v>
+      </c>
+      <c r="M91" s="18"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D92" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="E92" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F92" s="18">
+        <v>12750</v>
+      </c>
+      <c r="G92" s="18">
+        <v>288</v>
+      </c>
+      <c r="H92" s="18">
+        <v>160</v>
+      </c>
+      <c r="I92" s="18">
+        <v>256</v>
+      </c>
+      <c r="J92" s="39">
+        <f>SUM(F92:I92)</f>
+        <v>13454</v>
+      </c>
+      <c r="K92" s="51">
+        <f>J92/J96</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="L92" s="64">
+        <f>F92/J92</f>
+        <v>0.94767355433328382</v>
+      </c>
+      <c r="M92" s="18"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D93" s="79"/>
+      <c r="E93" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="F93" s="18">
+        <v>355</v>
+      </c>
+      <c r="G93" s="18">
+        <v>3444</v>
+      </c>
+      <c r="H93" s="18">
+        <v>11</v>
+      </c>
+      <c r="I93" s="18">
+        <v>9</v>
+      </c>
+      <c r="J93" s="39">
+        <f>SUM(F93:I93)</f>
+        <v>3819</v>
+      </c>
+      <c r="K93" s="51">
+        <f>J93/J96</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="L93" s="64">
+        <f>G93/J93</f>
+        <v>0.90180675569520818</v>
+      </c>
+      <c r="M93" s="18"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D94" s="79"/>
+      <c r="E94" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="F94" s="18">
+        <v>200</v>
+      </c>
+      <c r="G94" s="18">
+        <v>6</v>
+      </c>
+      <c r="H94" s="18">
+        <v>4564</v>
+      </c>
+      <c r="I94" s="18">
+        <v>147</v>
+      </c>
+      <c r="J94" s="39">
+        <f>SUM(F94:I94)</f>
+        <v>4917</v>
+      </c>
+      <c r="K94" s="51">
+        <f>J94/J96</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="L94" s="64">
+        <f>H94/J94</f>
+        <v>0.92820825706731747</v>
+      </c>
+      <c r="M94" s="18"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D95" s="76"/>
+      <c r="E95" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="F95" s="18">
+        <v>373</v>
+      </c>
+      <c r="G95" s="18">
+        <v>10</v>
+      </c>
+      <c r="H95" s="18">
+        <v>138</v>
+      </c>
+      <c r="I95" s="18">
+        <v>4435</v>
+      </c>
+      <c r="J95" s="40">
+        <f>SUM(F95:I95)</f>
+        <v>4956</v>
+      </c>
+      <c r="K95" s="53">
+        <f>J95/J96</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="L95" s="65">
+        <f>I95/J95</f>
+        <v>0.89487489911218721</v>
+      </c>
+      <c r="M95" s="18"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D96" s="18"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="41">
+        <f>SUM(F92:F95)</f>
+        <v>13678</v>
+      </c>
+      <c r="G96" s="42">
+        <f>SUM(G92:G95)</f>
+        <v>3748</v>
+      </c>
+      <c r="H96" s="42">
+        <f>SUM(H92:H95)</f>
+        <v>4873</v>
+      </c>
+      <c r="I96" s="43">
+        <f>SUM(I92:I95)</f>
+        <v>4847</v>
+      </c>
+      <c r="J96" s="57">
+        <f>SUM(J92:J95)</f>
+        <v>27146</v>
+      </c>
+      <c r="M96" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N96" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O96" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P96" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D97" s="18"/>
+      <c r="E97" s="41" t="s">
+        <v>618</v>
+      </c>
+      <c r="F97" s="60">
+        <f>F92/F96</f>
+        <v>0.93215382365842958</v>
+      </c>
+      <c r="G97" s="60">
+        <f>G93/G96</f>
+        <v>0.91889007470651018</v>
+      </c>
+      <c r="H97" s="60">
+        <f>H94/H96</f>
+        <v>0.93658936999794784</v>
+      </c>
+      <c r="I97" s="61">
+        <f>I95/I96</f>
+        <v>0.9149989684340829</v>
+      </c>
+      <c r="J97" s="46"/>
+      <c r="M97" s="47">
+        <f>SUM(F92,G93,H94,I95 )/J96</f>
+        <v>0.92805569881382155</v>
+      </c>
+      <c r="N97" s="67">
+        <f>(G93+H94+I95)/SUM(G96:I96)</f>
+        <v>0.92389367389367394</v>
+      </c>
+      <c r="O97" s="47">
+        <f>(G93+H94+I95)/SUM(J93:J95)</f>
+        <v>0.90877884896289807</v>
+      </c>
+      <c r="P97" s="68">
+        <f>2*N97*O97/(N97+O97)</f>
+        <v>0.91627393225331377</v>
+      </c>
+    </row>
+    <row r="98" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D98" s="18"/>
+      <c r="E98" s="46"/>
+      <c r="J98" s="46"/>
+    </row>
+    <row r="99" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E99" s="46"/>
+      <c r="J99" s="46"/>
+    </row>
+    <row r="100" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E100" s="46"/>
+      <c r="F100" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="G100" s="80"/>
+      <c r="H100" s="80"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="46"/>
+    </row>
+    <row r="101" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D101" s="18"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="G101" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H101" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I101" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="J101" s="41" t="s">
+        <v>619</v>
+      </c>
+      <c r="K101" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="L101" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="M101" s="44" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="102" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D102" s="75" t="s">
+        <v>611</v>
+      </c>
+      <c r="E102" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F102" s="18">
+        <v>2130</v>
+      </c>
+      <c r="G102" s="18">
+        <v>79</v>
+      </c>
+      <c r="H102" s="18">
+        <v>41</v>
+      </c>
+      <c r="I102" s="18">
+        <v>88</v>
+      </c>
+      <c r="J102" s="39">
+        <f>SUM(F102:I102)</f>
+        <v>2338</v>
+      </c>
+      <c r="K102" s="51">
+        <f>J102/J106</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="L102" s="64"/>
+      <c r="M102" s="45">
+        <f>F102/J102</f>
+        <v>0.91103507271171946</v>
+      </c>
+    </row>
+    <row r="103" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D103" s="79"/>
+      <c r="E103" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="F103" s="18">
+        <v>28</v>
+      </c>
+      <c r="G103" s="18">
+        <v>113</v>
+      </c>
+      <c r="H103" s="18">
+        <v>0</v>
+      </c>
+      <c r="I103" s="18">
+        <v>1</v>
+      </c>
+      <c r="J103" s="39">
+        <f>SUM(F103:I103)</f>
+        <v>142</v>
+      </c>
+      <c r="K103" s="51">
+        <f>J103/J106</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="L103" s="64">
+        <f>F103/J103</f>
+        <v>0.19718309859154928</v>
+      </c>
+      <c r="M103" s="33">
+        <f>G103/J103</f>
+        <v>0.79577464788732399</v>
+      </c>
+    </row>
+    <row r="104" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D104" s="79"/>
+      <c r="E104" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="F104" s="18">
+        <v>16</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1</v>
+      </c>
+      <c r="H104" s="18">
+        <v>100</v>
+      </c>
+      <c r="I104" s="18">
+        <v>8</v>
+      </c>
+      <c r="J104" s="39">
+        <f>SUM(F104:I104)</f>
+        <v>125</v>
+      </c>
+      <c r="K104" s="51">
+        <f>J104/J106</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="L104" s="64">
+        <f>F104/J104</f>
+        <v>0.128</v>
+      </c>
+      <c r="M104" s="33">
+        <f>H104/J104</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="105" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D105" s="76"/>
+      <c r="E105" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="F105" s="18">
+        <v>15</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0</v>
+      </c>
+      <c r="H105" s="18">
+        <v>1</v>
+      </c>
+      <c r="I105" s="18">
+        <v>134</v>
+      </c>
+      <c r="J105" s="40">
+        <f>SUM(F105:I105)</f>
+        <v>150</v>
+      </c>
+      <c r="K105" s="53">
+        <f>J105/J106</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="L105" s="65">
+        <f>F105/J105</f>
+        <v>0.1</v>
+      </c>
+      <c r="M105" s="34">
+        <f>I105/J105</f>
+        <v>0.89333333333333331</v>
+      </c>
+    </row>
+    <row r="106" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D106" s="18"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="41">
+        <f>SUM(F102:F105)</f>
+        <v>2189</v>
+      </c>
+      <c r="G106" s="42">
+        <f>SUM(G102:G105)</f>
+        <v>193</v>
+      </c>
+      <c r="H106" s="42">
+        <f>SUM(H102:H105)</f>
+        <v>142</v>
+      </c>
+      <c r="I106" s="43">
+        <f>SUM(I102:I105)</f>
+        <v>231</v>
+      </c>
+      <c r="J106" s="57">
+        <f>SUM(J102:J105)</f>
+        <v>2755</v>
+      </c>
+      <c r="M106" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N106" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O106" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P106" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="107" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D107" s="18"/>
+      <c r="E107" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="F107" s="82">
+        <f>F102/F106</f>
+        <v>0.9730470534490635</v>
+      </c>
+      <c r="G107" s="60">
+        <f>G103/G106</f>
+        <v>0.58549222797927458</v>
+      </c>
+      <c r="H107" s="60">
+        <f>H104/H106</f>
+        <v>0.70422535211267601</v>
+      </c>
+      <c r="I107" s="61">
+        <f>I105/I106</f>
+        <v>0.58008658008658009</v>
+      </c>
+      <c r="J107" s="46"/>
+      <c r="M107" s="47">
+        <f>SUM(F102,G103,H104,I105 )/J106</f>
+        <v>0.89909255898366602</v>
+      </c>
+      <c r="N107" s="67">
+        <f>(G103+H104+I105)/SUM(G106:I106)</f>
+        <v>0.61307420494699649</v>
+      </c>
+      <c r="O107" s="47">
+        <f>(G103+H104+I105)/SUM(J103:J105)</f>
+        <v>0.83213429256594729</v>
+      </c>
+      <c r="P107" s="68">
+        <f>2*N107*O107/(N107+O107)</f>
+        <v>0.70600203458799604</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="25">
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="676">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2209,11 +2209,69 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>decay_rate=0.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main93_v2_ek_1546523873</t>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546534846</t>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=50, attention_dim=50, dropout=0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546534945</t>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546534875</t>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546572201</t>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=100, attention_dim=100, dropout=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=100, attention_dim=50, dropout=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=50, attention_dim=25, dropout=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546524019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=50, attention_dim=50, dropout=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546572256</t>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=100, attention_dim=100, dropout=0.5, min_tf=5.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546572321</t>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=50, attention_dim=50, dropout=0.5, emb_trainable=True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=50, attention_dim=50, dropout=0.5, emb_trainable=True, batch_size=50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546583873</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=100, attention_dim=100, dropout=0.5, min_tf=10., l2_reg_lambda=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2802,8 +2860,35 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2811,34 +2896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="71" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3236,24 +3294,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7732,18 +7790,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10118,136 +10176,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE115"/>
+  <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="16" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4">
+      <c r="N2" s="6"/>
+      <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>37</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="9"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="9"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>551</v>
       </c>
@@ -10258,59 +10316,59 @@
         <v>591</v>
       </c>
       <c r="D3" s="6">
+        <v>0.65915000000000001</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.89700139983791305</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>0.87382096868808301</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>0.917885782692209</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>0.89287427607326098</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>0.894824153948241</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>0.88007471734906395</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>0.89782725180656497</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>0.88845174191453802</v>
       </c>
-      <c r="L3" s="6">
-        <v>0.65915000000000001</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4">
+      <c r="N3" s="6"/>
+      <c r="O3" s="4">
         <v>2</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>76</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>547</v>
       </c>
@@ -10321,59 +10379,59 @@
         <v>552</v>
       </c>
       <c r="D4" s="6">
+        <v>0.62456999999999996</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.894459588889707</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>0.87110931797201896</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>0.91640708443093799</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>0.89065300247262902</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>0.88852023888520204</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.86518301141326204</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>0.91060751759291103</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>0.88471169744246403</v>
       </c>
-      <c r="L4" s="6">
-        <v>0.62456999999999996</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="4">
+      <c r="N4" s="6"/>
+      <c r="O4" s="4">
         <v>3</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>59</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>548</v>
       </c>
@@ -10384,57 +10442,57 @@
         <v>553</v>
       </c>
       <c r="D5" s="6">
+        <v>0.652416</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.884623885655345</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>0.86073867901298495</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>0.90917853764331502</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>0.88140768218314403</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>0.88586595885865904</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.871124079635619</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>0.88791668530756895</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>0.87880236890261099</v>
       </c>
-      <c r="L5" s="6">
-        <v>0.652416</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5">
+      <c r="N5" s="6"/>
+      <c r="O5" s="5">
         <v>4</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>125</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>535</v>
       </c>
@@ -10445,57 +10503,57 @@
         <v>557</v>
       </c>
       <c r="D6" s="6">
+        <v>0.60559799999999997</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.86775215501363001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>0.84227492482598798</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>0.88945904899422201</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>0.86231870337179595</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>0.87790311877903104</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.85544210021184497</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>0.89193486715224601</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0.87174986605357596</v>
       </c>
-      <c r="L6" s="6">
-        <v>0.60559799999999997</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5">
+      <c r="N6" s="6"/>
+      <c r="O6" s="5">
         <v>5</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>38</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>559</v>
       </c>
@@ -10506,82 +10564,82 @@
         <v>558</v>
       </c>
       <c r="D7" s="6">
+        <v>0.60664300000000004</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.86620496574080896</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>0.84037960545785995</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>0.88880942235261495</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>0.86085355880963399</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>0.876244193762441</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.85886663766673699</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>0.88149171005928195</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>0.86876643830693401</v>
       </c>
-      <c r="L7" s="6">
-        <v>0.60664300000000004</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5">
+      <c r="N7" s="6"/>
+      <c r="O7" s="5">
         <v>6</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>48</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="M8" s="6"/>
-      <c r="N8" s="5">
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="5">
         <v>7</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>12</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>583</v>
       </c>
@@ -10592,59 +10650,59 @@
         <v>585</v>
       </c>
       <c r="D9" s="6">
+        <v>0.624309</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.93339718558903695</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>0.91637783961090102</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0.94699125403344497</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>0.93045775532563602</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>0.88022561380225595</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.86370752458885003</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.88412573133844996</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.87329050012571796</v>
       </c>
-      <c r="L9" s="6">
-        <v>0.624309</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5">
+      <c r="N9" s="6"/>
+      <c r="O9" s="5">
         <v>8</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>59</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="11"/>
+      <c r="V9" s="5"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>411</v>
       </c>
@@ -10655,51 +10713,50 @@
         <v>587</v>
       </c>
       <c r="D10" s="6">
+        <v>0.65654599999999996</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.94172253739040701</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>0.92539410856570903</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>0.95457759387776298</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>0.93887480936261603</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>0.894824153948241</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.87722736448360406</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.90307013365634603</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>0.88921177109515603</v>
       </c>
-      <c r="L10" s="6">
-        <v>0.65654599999999996</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="T10" s="5"/>
+      <c r="N10" s="6"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="6"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -10708,13 +10765,13 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>590</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -10722,10 +10779,10 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="6"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -10734,8 +10791,9 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>589</v>
       </c>
@@ -10746,36 +10804,35 @@
         <v>588</v>
       </c>
       <c r="D13" s="6">
+        <v>0.65934099999999995</v>
+      </c>
+      <c r="E13" s="6">
         <v>0.89272821041774097</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>0.84066797642436097</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>0.93755477651183095</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>0.886471928734203</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>0.89648307896483004</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.86443883984867498</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>0.90197368421052604</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>0.88280746941403698</v>
       </c>
-      <c r="L13" s="6">
-        <v>0.65934099999999995</v>
-      </c>
-      <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="6"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -10784,8 +10841,9 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>649</v>
       </c>
@@ -10796,31 +10854,30 @@
         <v>648</v>
       </c>
       <c r="D14" s="6">
+        <v>0.679245283018867</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.89965372430560597</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>0.88139148043682602</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>0.89008179959100198</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>0.88571532395799202</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.88747731397459095</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.57966101694915195</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>0.82014388489208601</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
-        <v>0.679245283018867</v>
-      </c>
-      <c r="Q14" s="5"/>
+      <c r="L14" s="6"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -10829,12 +10886,12 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="M15" s="6"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="6"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -10843,44 +10900,47 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>657</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0.68611670020120696</v>
-      </c>
-      <c r="M16" s="6"/>
+        <v>654</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.70193285859613397</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="6"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X16" s="5"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>652</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6">
+        <v>0.68611670020120696</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -10888,10 +10948,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6">
-        <v>0.70600203458799604</v>
-      </c>
-      <c r="Q17" s="5"/>
+      <c r="L17" s="6"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -10900,21 +10957,21 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0.70193285859613397</v>
-      </c>
-      <c r="Q18" s="5"/>
+        <v>667</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.70600203458799604</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -10923,9 +10980,21 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D19" s="6"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.67557251908396898</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -10933,10 +11002,10 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="Q19" s="5"/>
+      <c r="P19" s="6"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -10945,10 +11014,21 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.69192422731804504</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10956,10 +11036,10 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="L20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="Q20" s="5"/>
+      <c r="P20" s="6"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -10968,10 +11048,21 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.69362992922143496</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -10979,10 +11070,10 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="Q21" s="5"/>
+      <c r="P21" s="6"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -10991,9 +11082,21 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D22" s="10"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.68699186991869898</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -11001,11 +11104,10 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="13"/>
-      <c r="Q22" s="5"/>
+      <c r="L22" s="10"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="13"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -11014,9 +11116,21 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q23" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.69906928645294697</v>
+      </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -11025,9 +11139,21 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D24" s="6"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.65373423860329705</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -11035,10 +11161,10 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="Q24" s="5"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="6"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -11047,9 +11173,21 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D25" s="6"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.66873706004140698</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -11057,10 +11195,10 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="Q25" s="5"/>
+      <c r="P25" s="6"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -11069,9 +11207,21 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D26" s="6"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.71168274383708396</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -11079,10 +11229,10 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="10"/>
+      <c r="L26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="Q26" s="5"/>
+      <c r="P26" s="6"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -11091,9 +11241,9 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D27" s="6"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -11101,10 +11251,10 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="Q27" s="5"/>
+      <c r="P27" s="6"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -11113,10 +11263,10 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11124,10 +11274,10 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="Q28" s="5"/>
+      <c r="P28" s="6"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -11136,9 +11286,9 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q29" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -11147,11 +11297,11 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -11159,10 +11309,10 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="Q30" s="5"/>
+      <c r="P30" s="6"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -11171,9 +11321,9 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D31" s="6"/>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -11181,10 +11331,10 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="Q31" s="5"/>
+      <c r="P31" s="6"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -11193,10 +11343,10 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
-      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -11204,10 +11354,10 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="Q32" s="5"/>
+      <c r="P32" s="6"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -11216,9 +11366,9 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-    </row>
-    <row r="33" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D33" s="6"/>
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -11226,10 +11376,10 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="Q33" s="5"/>
+      <c r="P33" s="6"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -11238,9 +11388,9 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-    </row>
-    <row r="34" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="Q34" s="5"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="5:26" x14ac:dyDescent="0.2">
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -11249,9 +11399,9 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-    </row>
-    <row r="35" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="Q35" s="5"/>
+      <c r="Z34" s="5"/>
+    </row>
+    <row r="35" spans="5:26" x14ac:dyDescent="0.2">
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -11260,9 +11410,9 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-    </row>
-    <row r="36" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D36" s="6"/>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -11270,10 +11420,10 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="Q36" s="5"/>
+      <c r="P36" s="6"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -11282,9 +11432,9 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-    </row>
-    <row r="37" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D37" s="6"/>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -11292,10 +11442,10 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="Q37" s="5"/>
+      <c r="P37" s="6"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -11304,9 +11454,9 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-    </row>
-    <row r="38" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D38" s="6"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11314,10 +11464,10 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="Q38" s="5"/>
+      <c r="P38" s="6"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -11326,9 +11476,9 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-    </row>
-    <row r="39" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D39" s="6"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="39" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -11336,10 +11486,10 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="Q39" s="5"/>
+      <c r="P39" s="6"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -11348,9 +11498,9 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-    </row>
-    <row r="40" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D40" s="6"/>
+      <c r="Z39" s="5"/>
+    </row>
+    <row r="40" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11358,10 +11508,10 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="Q40" s="5"/>
+      <c r="P40" s="6"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -11370,9 +11520,9 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-    </row>
-    <row r="41" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="Q41" s="5"/>
+      <c r="Z40" s="5"/>
+    </row>
+    <row r="41" spans="5:26" x14ac:dyDescent="0.2">
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -11381,9 +11531,9 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-    </row>
-    <row r="42" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D42" s="6"/>
+      <c r="Z41" s="5"/>
+    </row>
+    <row r="42" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11391,10 +11541,10 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="L42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="Q42" s="5"/>
+      <c r="P42" s="6"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -11403,9 +11553,9 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-    </row>
-    <row r="43" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D43" s="6"/>
+      <c r="Z42" s="5"/>
+    </row>
+    <row r="43" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -11413,10 +11563,10 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="L43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
-      <c r="Q43" s="5"/>
+      <c r="P43" s="6"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -11425,9 +11575,9 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-    </row>
-    <row r="44" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D44" s="6"/>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -11435,21 +11585,21 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="L44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="Q44" s="5"/>
+      <c r="P44" s="6"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="8"/>
       <c r="Y44" s="5"/>
-    </row>
-    <row r="45" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D45" s="6"/>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11457,12 +11607,12 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="L45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D46" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -11470,12 +11620,12 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="L46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D47" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="5:26" x14ac:dyDescent="0.2">
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -11483,12 +11633,12 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="L47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-    </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D49" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -11496,12 +11646,12 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="L49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-    </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D51" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -11509,12 +11659,12 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="M51" s="6"/>
+      <c r="L51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-    </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D52" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -11522,12 +11672,12 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="M52" s="6"/>
+      <c r="L52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-    </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D53" s="6"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -11535,12 +11685,12 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="M53" s="6"/>
+      <c r="L53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-    </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D54" s="6"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -11548,12 +11698,12 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="M54" s="6"/>
+      <c r="L54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-    </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D55" s="6"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -11561,12 +11711,12 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="L55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-    </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D57" s="6"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -11574,12 +11724,12 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="M57" s="6"/>
+      <c r="L57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-    </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D58" s="6"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -11587,12 +11737,12 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="M58" s="6"/>
+      <c r="L58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-    </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D59" s="6"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -11600,12 +11750,12 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="M59" s="6"/>
+      <c r="L59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-    </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D60" s="6"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -11613,12 +11763,12 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="M60" s="6"/>
+      <c r="L60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-    </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D61" s="6"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -11626,12 +11776,12 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="M61" s="6"/>
+      <c r="L61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-    </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D63" s="6"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="63" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -11639,12 +11789,12 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="M63" s="6"/>
+      <c r="L63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-    </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D64" s="6"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -11652,12 +11802,12 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="M64" s="6"/>
+      <c r="L64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
-    </row>
-    <row r="65" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D65" s="6"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -11665,12 +11815,12 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="L65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
-    </row>
-    <row r="66" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D66" s="6"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -11678,12 +11828,12 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="L66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
-    </row>
-    <row r="67" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D67" s="6"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -11691,12 +11841,12 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="M67" s="6"/>
+      <c r="L67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-    </row>
-    <row r="69" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D69" s="6"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="69" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -11704,12 +11854,12 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="L69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-    </row>
-    <row r="73" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D73" s="6"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -11717,12 +11867,12 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="M73" s="6"/>
+      <c r="L73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
-    </row>
-    <row r="76" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D76" s="6"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="76" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -11730,12 +11880,12 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="M76" s="6"/>
+      <c r="L76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
-    </row>
-    <row r="77" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D77" s="6"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -11743,12 +11893,12 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="M77" s="6"/>
+      <c r="L77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
-    </row>
-    <row r="78" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D78" s="6"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -11756,12 +11906,12 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="M78" s="6"/>
+      <c r="L78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
-    </row>
-    <row r="79" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D79" s="6"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -11769,12 +11919,12 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="M79" s="6"/>
+      <c r="L79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
-    </row>
-    <row r="81" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D81" s="6"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="81" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -11782,12 +11932,12 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="M81" s="6"/>
+      <c r="L81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-    </row>
-    <row r="82" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D82" s="6"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -11795,12 +11945,12 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="M82" s="6"/>
+      <c r="L82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-    </row>
-    <row r="85" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D85" s="6"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="85" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -11808,12 +11958,12 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="M85" s="6"/>
+      <c r="L85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="13"/>
-    </row>
-    <row r="86" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D86" s="12"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="13"/>
+    </row>
+    <row r="86" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -11821,12 +11971,13 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="M86" s="6"/>
+      <c r="L86" s="12"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
-    </row>
-    <row r="87" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D87" s="10"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D87" s="13"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -11834,13 +11985,12 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="6"/>
+      <c r="L87" s="10"/>
+      <c r="N87" s="10"/>
       <c r="O87" s="6"/>
-    </row>
-    <row r="88" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D88" s="6"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -11848,12 +11998,12 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="M88" s="6"/>
+      <c r="L88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
-    </row>
-    <row r="90" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D90" s="6"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="90" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -11861,12 +12011,12 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="M90" s="6"/>
+      <c r="L90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
-    </row>
-    <row r="91" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D91" s="6"/>
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -11874,12 +12024,12 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="M91" s="6"/>
+      <c r="L91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
-    </row>
-    <row r="92" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D92" s="6"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -11887,12 +12037,12 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="M92" s="6"/>
+      <c r="L92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
-    </row>
-    <row r="93" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D93" s="6"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -11900,12 +12050,12 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="M93" s="6"/>
+      <c r="L93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
-    </row>
-    <row r="94" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D94" s="6"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -11913,7 +12063,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="M94" s="6"/>
+      <c r="L94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
@@ -11932,9 +12082,9 @@
       <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
-    </row>
-    <row r="96" spans="4:31" x14ac:dyDescent="0.2">
-      <c r="D96" s="6"/>
+      <c r="AF94" s="6"/>
+    </row>
+    <row r="96" spans="4:32" x14ac:dyDescent="0.2">
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -11942,12 +12092,12 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="M96" s="6"/>
+      <c r="L96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D97" s="6"/>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -11955,12 +12105,12 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="M97" s="6"/>
+      <c r="L97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D98" s="6"/>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -11968,12 +12118,12 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="M98" s="6"/>
+      <c r="L98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D99" s="6"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -11981,12 +12131,12 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
-      <c r="M99" s="6"/>
+      <c r="L99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D100" s="6"/>
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -11994,13 +12144,13 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="M100" s="6"/>
+      <c r="L100" s="6"/>
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101"/>
-      <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -12008,12 +12158,13 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
-      <c r="M101" s="6"/>
+      <c r="L101" s="6"/>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D103" s="6"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D103" s="10"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -12021,13 +12172,12 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="6"/>
+      <c r="L103" s="6"/>
       <c r="N103" s="6"/>
-      <c r="O103" s="13"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D105" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="13"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -12035,12 +12185,12 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
-      <c r="M105" s="6"/>
+      <c r="L105" s="6"/>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D107" s="6"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -12048,12 +12198,12 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
-      <c r="M107" s="6"/>
+      <c r="L107" s="6"/>
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D108" s="6"/>
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -12061,12 +12211,12 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
-      <c r="M108" s="6"/>
+      <c r="L108" s="6"/>
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D109" s="6"/>
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -12074,12 +12224,12 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
-      <c r="M109" s="6"/>
+      <c r="L109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D110" s="6"/>
+      <c r="P109" s="6"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -12087,25 +12237,25 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
-      <c r="M110" s="6"/>
+      <c r="L110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D111" s="15"/>
-      <c r="E111" s="6"/>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E111" s="15"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
-      <c r="M111" s="6"/>
+      <c r="L111" s="6"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D112" s="6"/>
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -12113,25 +12263,25 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="M112" s="6"/>
+      <c r="L112" s="6"/>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
-    </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D114" s="15"/>
-      <c r="E114" s="6"/>
+      <c r="P112" s="6"/>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E114" s="15"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="M114" s="6"/>
+      <c r="L114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
-    </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D115" s="6"/>
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -12139,14 +12289,15 @@
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
-      <c r="M115" s="6"/>
+      <c r="L115" s="6"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12199,20 +12350,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="78"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>641</v>
       </c>
-      <c r="S3" s="73" t="s">
+      <c r="S3" s="82" t="s">
         <v>630</v>
       </c>
-      <c r="T3" s="74"/>
+      <c r="T3" s="83"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -12264,7 +12415,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="79" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -12298,7 +12449,7 @@
       <c r="P5" t="s">
         <v>643</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="79" t="s">
         <v>631</v>
       </c>
       <c r="R5" s="56" t="s">
@@ -12327,7 +12478,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="79"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="21" t="s">
         <v>601</v>
       </c>
@@ -12340,7 +12491,7 @@
       <c r="H6" s="50">
         <v>6</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="72">
         <v>5</v>
       </c>
       <c r="J6" s="27">
@@ -12356,7 +12507,7 @@
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="Q6" s="76"/>
+      <c r="Q6" s="81"/>
       <c r="R6" s="57" t="s">
         <v>626</v>
       </c>
@@ -12383,7 +12534,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="79"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="21" t="s">
         <v>603</v>
       </c>
@@ -12396,7 +12547,7 @@
       <c r="H7" s="50">
         <v>5268</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="72">
         <v>148</v>
       </c>
       <c r="J7" s="27">
@@ -12443,7 +12594,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="22" t="s">
         <v>604</v>
       </c>
@@ -12624,11 +12775,11 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="76" t="s">
         <v>605</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="78"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
@@ -12637,7 +12788,7 @@
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="77" t="s">
+      <c r="S13" s="76" t="s">
         <v>629</v>
       </c>
       <c r="T13" s="78"/>
@@ -12697,7 +12848,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="79" t="s">
         <v>611</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -12728,7 +12879,7 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="75" t="s">
+      <c r="Q15" s="79" t="s">
         <v>611</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -12757,7 +12908,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="21" t="s">
         <v>607</v>
       </c>
@@ -12770,7 +12921,7 @@
       <c r="H16" s="50">
         <v>2</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="72">
         <v>0</v>
       </c>
       <c r="J16" s="27">
@@ -12789,7 +12940,7 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="76"/>
+      <c r="Q16" s="81"/>
       <c r="R16" s="30" t="s">
         <v>627</v>
       </c>
@@ -12816,7 +12967,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="21" t="s">
         <v>608</v>
       </c>
@@ -12829,7 +12980,7 @@
       <c r="H17" s="50">
         <v>104</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="72">
         <v>4</v>
       </c>
       <c r="J17" s="27">
@@ -12879,7 +13030,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="76"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="22" t="s">
         <v>614</v>
       </c>
@@ -12984,7 +13135,7 @@
       <c r="E20" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="73">
         <f>F15/F19</f>
         <v>0.87895637296834905</v>
       </c>
@@ -13040,8 +13191,8 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
     </row>
@@ -13072,11 +13223,11 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="77" t="s">
+      <c r="F26" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="78"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
@@ -13116,7 +13267,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="79" t="s">
         <v>599</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -13152,7 +13303,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="79"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="21" t="s">
         <v>601</v>
       </c>
@@ -13186,7 +13337,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="79"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="21" t="s">
         <v>603</v>
       </c>
@@ -13220,7 +13371,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="76"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="22" t="s">
         <v>604</v>
       </c>
@@ -13350,11 +13501,11 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="77" t="s">
+      <c r="F36" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="78"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
@@ -13392,7 +13543,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="79" t="s">
         <v>611</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -13428,7 +13579,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="21" t="s">
         <v>607</v>
       </c>
@@ -13465,7 +13616,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="21" t="s">
         <v>603</v>
       </c>
@@ -13502,7 +13653,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="76"/>
+      <c r="D41" s="81"/>
       <c r="E41" s="22" t="s">
         <v>604</v>
       </c>
@@ -13577,7 +13728,7 @@
       <c r="E43" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="F43" s="82">
+      <c r="F43" s="73">
         <f>F38/F42</f>
         <v>0.97847919655667148</v>
       </c>
@@ -13637,11 +13788,11 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="77" t="s">
+      <c r="F48" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
       <c r="I48" s="78"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
@@ -13673,7 +13824,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="79" t="s">
         <v>599</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -13706,7 +13857,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="79"/>
+      <c r="D51" s="80"/>
       <c r="E51" s="21" t="s">
         <v>595</v>
       </c>
@@ -13737,7 +13888,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="79"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="21" t="s">
         <v>596</v>
       </c>
@@ -13768,7 +13919,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="76"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="22" t="s">
         <v>604</v>
       </c>
@@ -13885,11 +14036,11 @@
       <c r="N57" s="68"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="77" t="s">
+      <c r="F58" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
       <c r="I58" s="78"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
@@ -13921,7 +14072,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="75" t="s">
+      <c r="D60" s="79" t="s">
         <v>611</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -13954,7 +14105,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="79"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="21" t="s">
         <v>595</v>
       </c>
@@ -13988,7 +14139,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="79"/>
+      <c r="D62" s="80"/>
       <c r="E62" s="21" t="s">
         <v>596</v>
       </c>
@@ -14022,7 +14173,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="76"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="22" t="s">
         <v>604</v>
       </c>
@@ -14096,7 +14247,7 @@
       <c r="E65" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="F65" s="82">
+      <c r="F65" s="73">
         <f>F60/F64</f>
         <v>0.97136258660508079</v>
       </c>
@@ -14157,11 +14308,11 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="77" t="s">
+      <c r="F70" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
       <c r="I70" s="78"/>
       <c r="J70" s="46"/>
       <c r="M70" s="18"/>
@@ -14193,7 +14344,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="79" t="s">
         <v>599</v>
       </c>
       <c r="E72" s="56" t="s">
@@ -14226,8 +14377,8 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="79"/>
-      <c r="E73" s="84" t="s">
+      <c r="D73" s="80"/>
+      <c r="E73" s="74" t="s">
         <v>595</v>
       </c>
       <c r="F73" s="46">
@@ -14257,8 +14408,8 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="79"/>
-      <c r="E74" s="84" t="s">
+      <c r="D74" s="80"/>
+      <c r="E74" s="74" t="s">
         <v>596</v>
       </c>
       <c r="F74" s="46">
@@ -14288,7 +14439,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="76"/>
+      <c r="D75" s="81"/>
       <c r="E75" s="57" t="s">
         <v>604</v>
       </c>
@@ -14404,11 +14555,11 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="46"/>
-      <c r="F80" s="77" t="s">
+      <c r="F80" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G80" s="80"/>
-      <c r="H80" s="80"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
       <c r="I80" s="78"/>
       <c r="J80" s="46"/>
     </row>
@@ -14441,7 +14592,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="75" t="s">
+      <c r="D82" s="79" t="s">
         <v>611</v>
       </c>
       <c r="E82" s="56" t="s">
@@ -14474,8 +14625,8 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="79"/>
-      <c r="E83" s="84" t="s">
+      <c r="D83" s="80"/>
+      <c r="E83" s="74" t="s">
         <v>595</v>
       </c>
       <c r="F83" s="46">
@@ -14508,8 +14659,8 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="79"/>
-      <c r="E84" s="84" t="s">
+      <c r="D84" s="80"/>
+      <c r="E84" s="74" t="s">
         <v>596</v>
       </c>
       <c r="F84" s="46">
@@ -14542,7 +14693,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="76"/>
+      <c r="D85" s="81"/>
       <c r="E85" s="57" t="s">
         <v>604</v>
       </c>
@@ -14616,7 +14767,7 @@
       <c r="E87" s="66" t="s">
         <v>618</v>
       </c>
-      <c r="F87" s="82">
+      <c r="F87" s="73">
         <f>F82/F86</f>
         <v>0.9730470534490635</v>
       </c>
@@ -14673,11 +14824,11 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="46"/>
-      <c r="F90" s="77" t="s">
+      <c r="F90" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G90" s="80"/>
-      <c r="H90" s="80"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
       <c r="I90" s="78"/>
       <c r="J90" s="46"/>
       <c r="M90" s="18"/>
@@ -14709,7 +14860,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="75" t="s">
+      <c r="D92" s="79" t="s">
         <v>599</v>
       </c>
       <c r="E92" s="56" t="s">
@@ -14742,8 +14893,8 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="79"/>
-      <c r="E93" s="84" t="s">
+      <c r="D93" s="80"/>
+      <c r="E93" s="74" t="s">
         <v>595</v>
       </c>
       <c r="F93" s="18">
@@ -14773,8 +14924,8 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="79"/>
-      <c r="E94" s="84" t="s">
+      <c r="D94" s="80"/>
+      <c r="E94" s="74" t="s">
         <v>596</v>
       </c>
       <c r="F94" s="18">
@@ -14804,7 +14955,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="76"/>
+      <c r="D95" s="81"/>
       <c r="E95" s="57" t="s">
         <v>604</v>
       </c>
@@ -14920,11 +15071,11 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="46"/>
-      <c r="F100" s="77" t="s">
+      <c r="F100" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="G100" s="80"/>
-      <c r="H100" s="80"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
       <c r="I100" s="78"/>
       <c r="J100" s="46"/>
     </row>
@@ -14957,7 +15108,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="75" t="s">
+      <c r="D102" s="79" t="s">
         <v>611</v>
       </c>
       <c r="E102" s="56" t="s">
@@ -14990,8 +15141,8 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="79"/>
-      <c r="E103" s="84" t="s">
+      <c r="D103" s="80"/>
+      <c r="E103" s="74" t="s">
         <v>595</v>
       </c>
       <c r="F103" s="18">
@@ -15024,8 +15175,8 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="79"/>
-      <c r="E104" s="84" t="s">
+      <c r="D104" s="80"/>
+      <c r="E104" s="74" t="s">
         <v>596</v>
       </c>
       <c r="F104" s="18">
@@ -15058,7 +15209,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="76"/>
+      <c r="D105" s="81"/>
       <c r="E105" s="57" t="s">
         <v>604</v>
       </c>
@@ -15132,7 +15283,7 @@
       <c r="E107" s="66" t="s">
         <v>618</v>
       </c>
-      <c r="F107" s="82">
+      <c r="F107" s="73">
         <f>F102/F106</f>
         <v>0.9730470534490635</v>
       </c>
@@ -15168,18 +15319,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -15193,6 +15332,18 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
     <sheet name="SemEval2018_Task3_B" sheetId="2" r:id="rId2"/>
     <sheet name="SemEval2019_Task3" sheetId="4" r:id="rId3"/>
     <sheet name="SemEval2019_Task3 混淆矩阵" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="680">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2271,6 +2272,20 @@
   </si>
   <si>
     <t>decay_rate=0.95, rnn_dim=100, attention_dim=100, dropout=0.5, min_tf=10., l2_reg_lambda=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546593545</t>
+  </si>
+  <si>
+    <t>decay_rate=0.95, rnn_dim=50, attention_dim=50, dropout=0.5, emb_trainable=False, batch_size=50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546621085</t>
+  </si>
+  <si>
+    <t>seq_len=20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2675,7 +2690,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2869,9 +2884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2890,11 +2902,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3294,24 +3327,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7790,18 +7823,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10178,8 +10211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10212,18 +10245,18 @@
       <c r="D1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
       <c r="N1" s="14"/>
       <c r="O1" s="16" t="s">
         <v>7</v>
@@ -11244,6 +11277,18 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.69762641898864797</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -11266,7 +11311,18 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.70225872689938396</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -12309,8 +12365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111:P129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12350,12 +12406,12 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>641</v>
@@ -12415,7 +12471,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -12449,7 +12505,7 @@
       <c r="P5" t="s">
         <v>643</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="84" t="s">
         <v>631</v>
       </c>
       <c r="R5" s="56" t="s">
@@ -12478,7 +12534,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="80"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="21" t="s">
         <v>601</v>
       </c>
@@ -12507,7 +12563,7 @@
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="Q6" s="81"/>
+      <c r="Q6" s="85"/>
       <c r="R6" s="57" t="s">
         <v>626</v>
       </c>
@@ -12534,7 +12590,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="80"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="21" t="s">
         <v>603</v>
       </c>
@@ -12594,7 +12650,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="81"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="22" t="s">
         <v>604</v>
       </c>
@@ -12775,12 +12831,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="86" t="s">
         <v>605</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -12788,10 +12844,10 @@
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="76" t="s">
+      <c r="S13" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="T13" s="78"/>
+      <c r="T13" s="87"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
     </row>
@@ -12848,7 +12904,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -12879,7 +12935,7 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="79" t="s">
+      <c r="Q15" s="84" t="s">
         <v>611</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -12908,7 +12964,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="80"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="21" t="s">
         <v>607</v>
       </c>
@@ -12940,7 +12996,7 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="81"/>
+      <c r="Q16" s="85"/>
       <c r="R16" s="30" t="s">
         <v>627</v>
       </c>
@@ -12967,7 +13023,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="80"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="21" t="s">
         <v>608</v>
       </c>
@@ -13030,7 +13086,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="81"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="22" t="s">
         <v>614</v>
       </c>
@@ -13191,8 +13247,8 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
     </row>
@@ -13223,12 +13279,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -13267,7 +13323,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -13303,7 +13359,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="80"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="21" t="s">
         <v>601</v>
       </c>
@@ -13337,7 +13393,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="80"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="21" t="s">
         <v>603</v>
       </c>
@@ -13371,7 +13427,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="81"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="22" t="s">
         <v>604</v>
       </c>
@@ -13501,12 +13557,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="76" t="s">
+      <c r="F36" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="87"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -13543,7 +13599,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -13579,7 +13635,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="80"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="21" t="s">
         <v>607</v>
       </c>
@@ -13616,7 +13672,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="80"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="21" t="s">
         <v>603</v>
       </c>
@@ -13653,7 +13709,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="81"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="22" t="s">
         <v>604</v>
       </c>
@@ -13788,12 +13844,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="76" t="s">
+      <c r="F48" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="78"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="87"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -13824,7 +13880,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="79" t="s">
+      <c r="D50" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -13857,7 +13913,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="80"/>
+      <c r="D51" s="88"/>
       <c r="E51" s="21" t="s">
         <v>595</v>
       </c>
@@ -13888,7 +13944,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="80"/>
+      <c r="D52" s="88"/>
       <c r="E52" s="21" t="s">
         <v>596</v>
       </c>
@@ -13919,7 +13975,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="81"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="22" t="s">
         <v>604</v>
       </c>
@@ -14036,12 +14092,12 @@
       <c r="N57" s="68"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="76" t="s">
+      <c r="F58" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="78"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="87"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -14072,7 +14128,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="79" t="s">
+      <c r="D60" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -14105,7 +14161,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="80"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="21" t="s">
         <v>595</v>
       </c>
@@ -14139,7 +14195,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="80"/>
+      <c r="D62" s="88"/>
       <c r="E62" s="21" t="s">
         <v>596</v>
       </c>
@@ -14173,7 +14229,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="81"/>
+      <c r="D63" s="85"/>
       <c r="E63" s="22" t="s">
         <v>604</v>
       </c>
@@ -14308,12 +14364,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="76" t="s">
+      <c r="F70" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="78"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="87"/>
       <c r="J70" s="46"/>
       <c r="M70" s="18"/>
     </row>
@@ -14344,7 +14400,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="79" t="s">
+      <c r="D72" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E72" s="56" t="s">
@@ -14377,7 +14433,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="80"/>
+      <c r="D73" s="88"/>
       <c r="E73" s="74" t="s">
         <v>595</v>
       </c>
@@ -14408,7 +14464,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="80"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="74" t="s">
         <v>596</v>
       </c>
@@ -14439,7 +14495,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="81"/>
+      <c r="D75" s="85"/>
       <c r="E75" s="57" t="s">
         <v>604</v>
       </c>
@@ -14555,12 +14611,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="46"/>
-      <c r="F80" s="76" t="s">
+      <c r="F80" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="78"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="87"/>
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -14592,7 +14648,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="79" t="s">
+      <c r="D82" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E82" s="56" t="s">
@@ -14625,7 +14681,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="80"/>
+      <c r="D83" s="88"/>
       <c r="E83" s="74" t="s">
         <v>595</v>
       </c>
@@ -14659,7 +14715,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="80"/>
+      <c r="D84" s="88"/>
       <c r="E84" s="74" t="s">
         <v>596</v>
       </c>
@@ -14693,7 +14749,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="81"/>
+      <c r="D85" s="85"/>
       <c r="E85" s="57" t="s">
         <v>604</v>
       </c>
@@ -14824,12 +14880,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="46"/>
-      <c r="F90" s="76" t="s">
+      <c r="F90" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="78"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="87"/>
       <c r="J90" s="46"/>
       <c r="M90" s="18"/>
     </row>
@@ -14860,7 +14916,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="79" t="s">
+      <c r="D92" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E92" s="56" t="s">
@@ -14893,7 +14949,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="80"/>
+      <c r="D93" s="88"/>
       <c r="E93" s="74" t="s">
         <v>595</v>
       </c>
@@ -14924,7 +14980,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="80"/>
+      <c r="D94" s="88"/>
       <c r="E94" s="74" t="s">
         <v>596</v>
       </c>
@@ -14955,7 +15011,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="81"/>
+      <c r="D95" s="85"/>
       <c r="E95" s="57" t="s">
         <v>604</v>
       </c>
@@ -15071,12 +15127,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="46"/>
-      <c r="F100" s="76" t="s">
+      <c r="F100" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="78"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="89"/>
+      <c r="I100" s="87"/>
       <c r="J100" s="46"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -15108,7 +15164,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="79" t="s">
+      <c r="D102" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E102" s="56" t="s">
@@ -15141,7 +15197,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="80"/>
+      <c r="D103" s="88"/>
       <c r="E103" s="74" t="s">
         <v>595</v>
       </c>
@@ -15175,7 +15231,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="80"/>
+      <c r="D104" s="88"/>
       <c r="E104" s="74" t="s">
         <v>596</v>
       </c>
@@ -15209,7 +15265,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="81"/>
+      <c r="D105" s="85"/>
       <c r="E105" s="57" t="s">
         <v>604</v>
       </c>
@@ -15319,6 +15375,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -15332,18 +15400,1294 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:V48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+    </row>
+    <row r="2" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D3" s="18"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="86" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D4" s="18"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>619</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>616</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="S4">
+        <v>13126</v>
+      </c>
+      <c r="T4">
+        <v>135</v>
+      </c>
+      <c r="U4" s="46">
+        <v>78</v>
+      </c>
+      <c r="V4" s="46">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D5" s="84" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F5">
+        <v>13126</v>
+      </c>
+      <c r="G5">
+        <v>135</v>
+      </c>
+      <c r="H5" s="46">
+        <v>78</v>
+      </c>
+      <c r="I5" s="46">
+        <v>115</v>
+      </c>
+      <c r="J5" s="79">
+        <f>SUM(F5:I5)</f>
+        <v>13454</v>
+      </c>
+      <c r="K5" s="51">
+        <f>J5/J9</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="L5" s="64">
+        <f>F5/J5</f>
+        <v>0.97562063326891635</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="S5">
+        <v>144</v>
+      </c>
+      <c r="T5">
+        <v>3660</v>
+      </c>
+      <c r="U5" s="46">
+        <v>9</v>
+      </c>
+      <c r="V5" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D6" s="88"/>
+      <c r="E6" s="74" t="s">
+        <v>595</v>
+      </c>
+      <c r="F6">
+        <v>144</v>
+      </c>
+      <c r="G6">
+        <v>3660</v>
+      </c>
+      <c r="H6" s="46">
+        <v>9</v>
+      </c>
+      <c r="I6" s="46">
+        <v>6</v>
+      </c>
+      <c r="J6" s="79">
+        <f>SUM(F6:I6)</f>
+        <v>3819</v>
+      </c>
+      <c r="K6" s="51">
+        <f>J6/J9</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="L6" s="64">
+        <f>G6/J6</f>
+        <v>0.95836606441476824</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="S6">
+        <v>90</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6" s="46">
+        <v>4745</v>
+      </c>
+      <c r="V6" s="46">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D7" s="88"/>
+      <c r="E7" s="74" t="s">
+        <v>596</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="46">
+        <v>4745</v>
+      </c>
+      <c r="I7" s="46">
+        <v>78</v>
+      </c>
+      <c r="J7" s="79">
+        <f>SUM(F7:I7)</f>
+        <v>4917</v>
+      </c>
+      <c r="K7" s="51">
+        <f>J7/J9</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="L7" s="64">
+        <f>H7/J7</f>
+        <v>0.96501932072401875</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="S7">
+        <v>166</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7" s="46">
+        <v>79</v>
+      </c>
+      <c r="V7" s="46">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D8" s="85"/>
+      <c r="E8" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="F8">
+        <v>166</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="46">
+        <v>79</v>
+      </c>
+      <c r="I8" s="46">
+        <v>4704</v>
+      </c>
+      <c r="J8" s="80">
+        <f>SUM(F8:I8)</f>
+        <v>4956</v>
+      </c>
+      <c r="K8" s="53">
+        <f>J8/J9</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="L8" s="65">
+        <f>I8/J8</f>
+        <v>0.94915254237288138</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D9" s="18"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="75">
+        <f>SUM(F5:F8)</f>
+        <v>13526</v>
+      </c>
+      <c r="G9" s="76">
+        <f>SUM(G5:G8)</f>
+        <v>3806</v>
+      </c>
+      <c r="H9" s="76">
+        <f>SUM(H5:H8)</f>
+        <v>4911</v>
+      </c>
+      <c r="I9" s="77">
+        <f>SUM(I5:I8)</f>
+        <v>4903</v>
+      </c>
+      <c r="J9" s="57">
+        <f>SUM(J5:J8)</f>
+        <v>27146</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="S9">
+        <v>2107</v>
+      </c>
+      <c r="T9">
+        <v>92</v>
+      </c>
+      <c r="U9" s="46">
+        <v>50</v>
+      </c>
+      <c r="V9" s="46">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D10" s="18"/>
+      <c r="E10" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="F10" s="60">
+        <f>F5/F9</f>
+        <v>0.97042732515155994</v>
+      </c>
+      <c r="G10" s="60">
+        <f>G6/G9</f>
+        <v>0.96163951655281132</v>
+      </c>
+      <c r="H10" s="60">
+        <f>H7/H9</f>
+        <v>0.96619833027896562</v>
+      </c>
+      <c r="I10" s="61">
+        <f>I8/I9</f>
+        <v>0.95941260452784005</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47">
+        <f>SUM(F5,G6,H7,I8 )/J9</f>
+        <v>0.966440727915715</v>
+      </c>
+      <c r="N10" s="67">
+        <f>(G6+H7+I8)/SUM(G9:I9)</f>
+        <v>0.962481644640235</v>
+      </c>
+      <c r="O10" s="47">
+        <f>(G6+H7+I8)/SUM(J6:J8)</f>
+        <v>0.95742039146947122</v>
+      </c>
+      <c r="P10" s="68">
+        <f>2*N10*O10/(N10+O10)</f>
+        <v>0.95994434680726415</v>
+      </c>
+      <c r="S10">
+        <v>34</v>
+      </c>
+      <c r="T10">
+        <v>104</v>
+      </c>
+      <c r="U10" s="46">
+        <v>2</v>
+      </c>
+      <c r="V10" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D11" s="18"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="S11">
+        <v>29</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="46">
+        <v>89</v>
+      </c>
+      <c r="V11" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="S12">
+        <v>23</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="46">
+        <v>1</v>
+      </c>
+      <c r="V12" s="46">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E13" s="46"/>
+      <c r="F13" s="86" t="s">
+        <v>593</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>619</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="L14" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D15" s="84" t="s">
+        <v>599</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F15">
+        <v>2107</v>
+      </c>
+      <c r="G15">
+        <v>92</v>
+      </c>
+      <c r="H15" s="46">
+        <v>50</v>
+      </c>
+      <c r="I15" s="46">
+        <v>89</v>
+      </c>
+      <c r="J15" s="79">
+        <f>SUM(F15:I15)</f>
+        <v>2338</v>
+      </c>
+      <c r="K15" s="51">
+        <f>J15/J19</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="L15" s="64"/>
+      <c r="M15" s="45">
+        <f>F15/J15</f>
+        <v>0.90119760479041922</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D16" s="88"/>
+      <c r="E16" s="74" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>104</v>
+      </c>
+      <c r="H16" s="46">
+        <v>2</v>
+      </c>
+      <c r="I16" s="46">
+        <v>2</v>
+      </c>
+      <c r="J16" s="79">
+        <f>SUM(F16:I16)</f>
+        <v>142</v>
+      </c>
+      <c r="K16" s="51">
+        <f>J16/J19</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="L16" s="64">
+        <f>F16/J16</f>
+        <v>0.23943661971830985</v>
+      </c>
+      <c r="M16" s="33">
+        <f>G16/J16</f>
+        <v>0.73239436619718312</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D17" s="88"/>
+      <c r="E17" s="74" t="s">
+        <v>596</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="46">
+        <v>89</v>
+      </c>
+      <c r="I17" s="46">
+        <v>7</v>
+      </c>
+      <c r="J17" s="79">
+        <f>SUM(F17:I17)</f>
+        <v>125</v>
+      </c>
+      <c r="K17" s="51">
+        <f>J17/J19</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="L17" s="64">
+        <f>F17/J17</f>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="M17" s="33">
+        <f>H17/J17</f>
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D18" s="85"/>
+      <c r="E18" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="46">
+        <v>1</v>
+      </c>
+      <c r="I18" s="46">
+        <v>125</v>
+      </c>
+      <c r="J18" s="80">
+        <f>SUM(F18:I18)</f>
+        <v>150</v>
+      </c>
+      <c r="K18" s="53">
+        <f>J18/J19</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="L18" s="65">
+        <f>F18/J18</f>
+        <v>0.15333333333333332</v>
+      </c>
+      <c r="M18" s="34">
+        <f>I18/J18</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="75">
+        <f>SUM(F15:F18)</f>
+        <v>2193</v>
+      </c>
+      <c r="G19" s="76">
+        <f>SUM(G15:G18)</f>
+        <v>197</v>
+      </c>
+      <c r="H19" s="76">
+        <f>SUM(H15:H18)</f>
+        <v>142</v>
+      </c>
+      <c r="I19" s="77">
+        <f>SUM(I15:I18)</f>
+        <v>223</v>
+      </c>
+      <c r="J19" s="57">
+        <f>SUM(J15:J18)</f>
+        <v>2755</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="S19">
+        <v>13123</v>
+      </c>
+      <c r="T19">
+        <v>133</v>
+      </c>
+      <c r="U19">
+        <v>89</v>
+      </c>
+      <c r="V19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+      <c r="E20" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="F20" s="73">
+        <f>F15/F19</f>
+        <v>0.96078431372549022</v>
+      </c>
+      <c r="G20" s="60">
+        <f>G16/G19</f>
+        <v>0.52791878172588835</v>
+      </c>
+      <c r="H20" s="60">
+        <f>H17/H19</f>
+        <v>0.62676056338028174</v>
+      </c>
+      <c r="I20" s="61">
+        <f>I18/I19</f>
+        <v>0.5605381165919282</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47">
+        <f>SUM(F15,G16,H17,I18 )/J19</f>
+        <v>0.88021778584392019</v>
+      </c>
+      <c r="N20" s="67">
+        <f>(G16+H17+I18)/SUM(G19:I19)</f>
+        <v>0.5658362989323843</v>
+      </c>
+      <c r="O20" s="47">
+        <f>(G16+H17+I18)/SUM(J16:J18)</f>
+        <v>0.76258992805755399</v>
+      </c>
+      <c r="P20" s="68">
+        <f>2*N20*O20/(N20+O20)</f>
+        <v>0.64964249233912152</v>
+      </c>
+      <c r="S20">
+        <v>146</v>
+      </c>
+      <c r="T20">
+        <v>3663</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <v>99</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>4743</v>
+      </c>
+      <c r="V21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <v>171</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>80</v>
+      </c>
+      <c r="V22">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>2166</v>
+      </c>
+      <c r="T24">
+        <v>55</v>
+      </c>
+      <c r="U24">
+        <v>39</v>
+      </c>
+      <c r="V24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <v>35</v>
+      </c>
+      <c r="T25">
+        <v>106</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <v>27</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>89</v>
+      </c>
+      <c r="V26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="86" t="s">
+        <v>593</v>
+      </c>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>619</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="L32" s="63" t="s">
+        <v>616</v>
+      </c>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D33" s="84" t="s">
+        <v>599</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F33">
+        <v>13123</v>
+      </c>
+      <c r="G33">
+        <v>133</v>
+      </c>
+      <c r="H33">
+        <v>89</v>
+      </c>
+      <c r="I33">
+        <v>109</v>
+      </c>
+      <c r="J33" s="79">
+        <f>SUM(F33:I33)</f>
+        <v>13454</v>
+      </c>
+      <c r="K33" s="51">
+        <f>J33/J37</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="L33" s="64">
+        <f>F33/J33</f>
+        <v>0.97539765125613198</v>
+      </c>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D34" s="88"/>
+      <c r="E34" s="74" t="s">
+        <v>595</v>
+      </c>
+      <c r="F34">
+        <v>146</v>
+      </c>
+      <c r="G34">
+        <v>3663</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34" s="79">
+        <f>SUM(F34:I34)</f>
+        <v>3819</v>
+      </c>
+      <c r="K34" s="51">
+        <f>J34/J37</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="L34" s="64">
+        <f>G34/J34</f>
+        <v>0.9591516103692066</v>
+      </c>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D35" s="88"/>
+      <c r="E35" s="74" t="s">
+        <v>596</v>
+      </c>
+      <c r="F35">
+        <v>99</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>4743</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35" s="79">
+        <f>SUM(F35:I35)</f>
+        <v>4917</v>
+      </c>
+      <c r="K35" s="51">
+        <f>J35/J37</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="L35" s="64">
+        <f>H35/J35</f>
+        <v>0.96461256863941425</v>
+      </c>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D36" s="85"/>
+      <c r="E36" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="F36">
+        <v>171</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>4699</v>
+      </c>
+      <c r="J36" s="80">
+        <f>SUM(F36:I36)</f>
+        <v>4956</v>
+      </c>
+      <c r="K36" s="53">
+        <f>J36/J37</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="L36" s="65">
+        <f>I36/J36</f>
+        <v>0.94814366424535912</v>
+      </c>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D37" s="18"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="75">
+        <f>SUM(F33:F36)</f>
+        <v>13539</v>
+      </c>
+      <c r="G37" s="76">
+        <f>SUM(G33:G36)</f>
+        <v>3805</v>
+      </c>
+      <c r="H37" s="76">
+        <f>SUM(H33:H36)</f>
+        <v>4916</v>
+      </c>
+      <c r="I37" s="77">
+        <f>SUM(I33:I36)</f>
+        <v>4886</v>
+      </c>
+      <c r="J37" s="57">
+        <f>SUM(J33:J36)</f>
+        <v>27146</v>
+      </c>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N37" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O37" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P37" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D38" s="18"/>
+      <c r="E38" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="F38" s="60">
+        <f>F33/F37</f>
+        <v>0.96927394933156064</v>
+      </c>
+      <c r="G38" s="60">
+        <f>G34/G37</f>
+        <v>0.96268068331143231</v>
+      </c>
+      <c r="H38" s="60">
+        <f>H35/H37</f>
+        <v>0.96480878763222133</v>
+      </c>
+      <c r="I38" s="61">
+        <f>I36/I37</f>
+        <v>0.96172738436348748</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47">
+        <f>SUM(F33,G34,H35,I36 )/J37</f>
+        <v>0.96618286303691148</v>
+      </c>
+      <c r="N38" s="67">
+        <f>(G34+H35+I36)/SUM(G37:I37)</f>
+        <v>0.96310722422282646</v>
+      </c>
+      <c r="O38" s="47">
+        <f>(G34+H35+I36)/SUM(J34:J36)</f>
+        <v>0.95712825007303537</v>
+      </c>
+      <c r="P38" s="68">
+        <f>2*N38*O38/(N38+O38)</f>
+        <v>0.96010842888017867</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D39" s="18"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E41" s="46"/>
+      <c r="F41" s="86" t="s">
+        <v>593</v>
+      </c>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D42" s="18"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="H42" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="J42" s="75" t="s">
+        <v>619</v>
+      </c>
+      <c r="K42" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="L42" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D43" s="84" t="s">
+        <v>599</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F43">
+        <v>2166</v>
+      </c>
+      <c r="G43">
+        <v>55</v>
+      </c>
+      <c r="H43">
+        <v>39</v>
+      </c>
+      <c r="I43">
+        <v>78</v>
+      </c>
+      <c r="J43" s="79">
+        <f>SUM(F43:I43)</f>
+        <v>2338</v>
+      </c>
+      <c r="K43" s="51">
+        <f>J43/J47</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="L43" s="64"/>
+      <c r="M43" s="45">
+        <f>F43/J43</f>
+        <v>0.92643284858853725</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D44" s="88"/>
+      <c r="E44" s="74" t="s">
+        <v>595</v>
+      </c>
+      <c r="F44">
+        <v>35</v>
+      </c>
+      <c r="G44">
+        <v>106</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="79">
+        <f>SUM(F44:I44)</f>
+        <v>142</v>
+      </c>
+      <c r="K44" s="51">
+        <f>J44/J47</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="L44" s="64">
+        <f>F44/J44</f>
+        <v>0.24647887323943662</v>
+      </c>
+      <c r="M44" s="33">
+        <f>G44/J44</f>
+        <v>0.74647887323943662</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D45" s="88"/>
+      <c r="E45" s="74" t="s">
+        <v>596</v>
+      </c>
+      <c r="F45">
+        <v>27</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>89</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45" s="79">
+        <f>SUM(F45:I45)</f>
+        <v>125</v>
+      </c>
+      <c r="K45" s="51">
+        <f>J45/J47</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="L45" s="64">
+        <f>F45/J45</f>
+        <v>0.216</v>
+      </c>
+      <c r="M45" s="33">
+        <f>H45/J45</f>
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D46" s="85"/>
+      <c r="E46" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>137</v>
+      </c>
+      <c r="J46" s="80">
+        <f>SUM(F46:I46)</f>
+        <v>150</v>
+      </c>
+      <c r="K46" s="53">
+        <f>J46/J47</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="L46" s="65">
+        <f>F46/J46</f>
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="M46" s="34">
+        <f>I46/J46</f>
+        <v>0.91333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="18"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="75">
+        <f>SUM(F43:F46)</f>
+        <v>2239</v>
+      </c>
+      <c r="G47" s="76">
+        <f>SUM(G43:G46)</f>
+        <v>162</v>
+      </c>
+      <c r="H47" s="76">
+        <f>SUM(H43:H46)</f>
+        <v>130</v>
+      </c>
+      <c r="I47" s="77">
+        <f>SUM(I43:I46)</f>
+        <v>224</v>
+      </c>
+      <c r="J47" s="57">
+        <f>SUM(J43:J46)</f>
+        <v>2755</v>
+      </c>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="N47" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="O47" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="P47" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D48" s="18"/>
+      <c r="E48" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="F48" s="73">
+        <f>F43/F47</f>
+        <v>0.96739615899955334</v>
+      </c>
+      <c r="G48" s="60">
+        <f>G44/G47</f>
+        <v>0.65432098765432101</v>
+      </c>
+      <c r="H48" s="60">
+        <f>H45/H47</f>
+        <v>0.68461538461538463</v>
+      </c>
+      <c r="I48" s="61">
+        <f>I46/I47</f>
+        <v>0.6116071428571429</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47">
+        <f>SUM(F43,G44,H45,I46 )/J47</f>
+        <v>0.90671506352087117</v>
+      </c>
+      <c r="N48" s="67">
+        <f>(G44+H45+I46)/SUM(G47:I47)</f>
+        <v>0.64341085271317833</v>
+      </c>
+      <c r="O48" s="47">
+        <f>(G44+H45+I46)/SUM(J44:J46)</f>
+        <v>0.79616306954436455</v>
+      </c>
+      <c r="P48" s="68">
+        <f>2*N48*O48/(N48+O48)</f>
+        <v>0.71168274383708463</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="D33:D36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="23800" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="693">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2286,6 +2286,53 @@
   </si>
   <si>
     <t>seq_len=20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_onlya_ek_1546866827</t>
+  </si>
+  <si>
+    <t>ONLY A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-way GRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v3_ek_1546866416</t>
+  </si>
+  <si>
+    <t>3-way GRU</t>
+  </si>
+  <si>
+    <t>3-way GRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546866423</t>
+  </si>
+  <si>
+    <t>lr_init=0.0025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v3_ek_1546863364</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr_init=0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_v2b_ek_1546868669</t>
+  </si>
+  <si>
+    <t>3-way GRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO_VEC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2905,29 +2952,29 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10211,15 +10258,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
@@ -11345,6 +11392,18 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.69269269269269196</v>
+      </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -11356,8 +11415,18 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.70698644421272105</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -11424,7 +11493,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -11446,7 +11515,19 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.70658682634730496</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -11457,7 +11538,19 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.69183673469387696</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -11468,7 +11561,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -11490,7 +11583,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -11512,7 +11605,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11534,7 +11627,19 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.68678459937564995</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -11556,7 +11661,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11578,7 +11683,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -11589,7 +11694,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11611,7 +11716,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -11633,7 +11738,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -11655,7 +11760,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11668,7 +11773,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -11681,7 +11786,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -12365,8 +12470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111:P129"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12406,20 +12511,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="87"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>641</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="T3" s="83"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -12471,7 +12576,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -12505,7 +12610,7 @@
       <c r="P5" t="s">
         <v>643</v>
       </c>
-      <c r="Q5" s="84" t="s">
+      <c r="Q5" s="85" t="s">
         <v>631</v>
       </c>
       <c r="R5" s="56" t="s">
@@ -12534,7 +12639,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="88"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="21" t="s">
         <v>601</v>
       </c>
@@ -12563,7 +12668,7 @@
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="Q6" s="85"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="57" t="s">
         <v>626</v>
       </c>
@@ -12590,7 +12695,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="88"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="21" t="s">
         <v>603</v>
       </c>
@@ -12650,7 +12755,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="85"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="22" t="s">
         <v>604</v>
       </c>
@@ -12831,12 +12936,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -12844,10 +12949,10 @@
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="86" t="s">
+      <c r="S13" s="82" t="s">
         <v>629</v>
       </c>
-      <c r="T13" s="87"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
     </row>
@@ -12904,7 +13009,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -12935,7 +13040,7 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="84" t="s">
+      <c r="Q15" s="85" t="s">
         <v>611</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -12964,7 +13069,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="21" t="s">
         <v>607</v>
       </c>
@@ -12996,7 +13101,7 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="85"/>
+      <c r="Q16" s="87"/>
       <c r="R16" s="30" t="s">
         <v>627</v>
       </c>
@@ -13023,7 +13128,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="88"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="21" t="s">
         <v>608</v>
       </c>
@@ -13086,7 +13191,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="22" t="s">
         <v>614</v>
       </c>
@@ -13279,12 +13384,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="87"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -13323,7 +13428,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -13359,7 +13464,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="88"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="21" t="s">
         <v>601</v>
       </c>
@@ -13393,7 +13498,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="88"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="21" t="s">
         <v>603</v>
       </c>
@@ -13427,7 +13532,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="85"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="22" t="s">
         <v>604</v>
       </c>
@@ -13557,12 +13662,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="87"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -13599,7 +13704,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -13635,7 +13740,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="88"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="21" t="s">
         <v>607</v>
       </c>
@@ -13672,7 +13777,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="88"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="21" t="s">
         <v>603</v>
       </c>
@@ -13709,7 +13814,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="85"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="22" t="s">
         <v>604</v>
       </c>
@@ -13844,12 +13949,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="87"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -13880,7 +13985,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -13913,7 +14018,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="88"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="21" t="s">
         <v>595</v>
       </c>
@@ -13944,7 +14049,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="88"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="21" t="s">
         <v>596</v>
       </c>
@@ -13975,7 +14080,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="85"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="22" t="s">
         <v>604</v>
       </c>
@@ -14092,12 +14197,12 @@
       <c r="N57" s="68"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="86" t="s">
+      <c r="F58" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="87"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -14128,7 +14233,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -14161,7 +14266,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="88"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="21" t="s">
         <v>595</v>
       </c>
@@ -14195,7 +14300,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="88"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="21" t="s">
         <v>596</v>
       </c>
@@ -14229,7 +14334,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="85"/>
+      <c r="D63" s="87"/>
       <c r="E63" s="22" t="s">
         <v>604</v>
       </c>
@@ -14364,12 +14469,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="87"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="84"/>
       <c r="J70" s="46"/>
       <c r="M70" s="18"/>
     </row>
@@ -14400,7 +14505,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="84" t="s">
+      <c r="D72" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E72" s="56" t="s">
@@ -14433,7 +14538,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="88"/>
+      <c r="D73" s="86"/>
       <c r="E73" s="74" t="s">
         <v>595</v>
       </c>
@@ -14464,7 +14569,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="88"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="74" t="s">
         <v>596</v>
       </c>
@@ -14495,7 +14600,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="85"/>
+      <c r="D75" s="87"/>
       <c r="E75" s="57" t="s">
         <v>604</v>
       </c>
@@ -14611,12 +14716,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="46"/>
-      <c r="F80" s="86" t="s">
+      <c r="F80" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="87"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="84"/>
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -14648,7 +14753,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="84" t="s">
+      <c r="D82" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E82" s="56" t="s">
@@ -14681,7 +14786,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="88"/>
+      <c r="D83" s="86"/>
       <c r="E83" s="74" t="s">
         <v>595</v>
       </c>
@@ -14715,7 +14820,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="88"/>
+      <c r="D84" s="86"/>
       <c r="E84" s="74" t="s">
         <v>596</v>
       </c>
@@ -14749,7 +14854,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="85"/>
+      <c r="D85" s="87"/>
       <c r="E85" s="57" t="s">
         <v>604</v>
       </c>
@@ -14880,12 +14985,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="46"/>
-      <c r="F90" s="86" t="s">
+      <c r="F90" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="87"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="84"/>
       <c r="J90" s="46"/>
       <c r="M90" s="18"/>
     </row>
@@ -14916,7 +15021,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="84" t="s">
+      <c r="D92" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E92" s="56" t="s">
@@ -14949,7 +15054,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="88"/>
+      <c r="D93" s="86"/>
       <c r="E93" s="74" t="s">
         <v>595</v>
       </c>
@@ -14980,7 +15085,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="88"/>
+      <c r="D94" s="86"/>
       <c r="E94" s="74" t="s">
         <v>596</v>
       </c>
@@ -15011,7 +15116,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="85"/>
+      <c r="D95" s="87"/>
       <c r="E95" s="57" t="s">
         <v>604</v>
       </c>
@@ -15127,12 +15232,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="46"/>
-      <c r="F100" s="86" t="s">
+      <c r="F100" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="87"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
+      <c r="I100" s="84"/>
       <c r="J100" s="46"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -15164,7 +15269,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="84" t="s">
+      <c r="D102" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E102" s="56" t="s">
@@ -15197,7 +15302,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="88"/>
+      <c r="D103" s="86"/>
       <c r="E103" s="74" t="s">
         <v>595</v>
       </c>
@@ -15231,7 +15336,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="88"/>
+      <c r="D104" s="86"/>
       <c r="E104" s="74" t="s">
         <v>596</v>
       </c>
@@ -15265,7 +15370,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="85"/>
+      <c r="D105" s="87"/>
       <c r="E105" s="57" t="s">
         <v>604</v>
       </c>
@@ -15375,18 +15480,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -15400,6 +15493,18 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15411,7 +15516,7 @@
   <dimension ref="D1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="F15" sqref="F15:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15435,12 +15540,12 @@
     <row r="3" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D3" s="18"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="87"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
@@ -15472,36 +15577,36 @@
       </c>
       <c r="M4" s="18"/>
       <c r="S4">
-        <v>13126</v>
+        <v>2118</v>
       </c>
       <c r="T4">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U4" s="46">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="V4" s="46">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>594</v>
       </c>
       <c r="F5">
-        <v>13126</v>
+        <v>13116</v>
       </c>
       <c r="G5">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H5" s="46">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I5" s="46">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J5" s="79">
         <f>SUM(F5:I5)</f>
@@ -15513,38 +15618,38 @@
       </c>
       <c r="L5" s="64">
         <f>F5/J5</f>
-        <v>0.97562063326891635</v>
+        <v>0.97487735989296864</v>
       </c>
       <c r="M5" s="18"/>
       <c r="S5">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="T5">
-        <v>3660</v>
+        <v>114</v>
       </c>
       <c r="U5" s="46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V5" s="46">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D6" s="88"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="74" t="s">
         <v>595</v>
       </c>
       <c r="F6">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="G6">
-        <v>3660</v>
+        <v>3714</v>
       </c>
       <c r="H6" s="46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" s="46">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J6" s="79">
         <f>SUM(F6:I6)</f>
@@ -15556,38 +15661,38 @@
       </c>
       <c r="L6" s="64">
         <f>G6/J6</f>
-        <v>0.95836606441476824</v>
+        <v>0.97250589159465828</v>
       </c>
       <c r="M6" s="18"/>
       <c r="S6">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U6" s="46">
-        <v>4745</v>
+        <v>104</v>
       </c>
       <c r="V6" s="46">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D7" s="88"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="74" t="s">
         <v>596</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="46">
-        <v>4745</v>
+        <v>4755</v>
       </c>
       <c r="I7" s="46">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="J7" s="79">
         <f>SUM(F7:I7)</f>
@@ -15599,38 +15704,38 @@
       </c>
       <c r="L7" s="64">
         <f>H7/J7</f>
-        <v>0.96501932072401875</v>
+        <v>0.96705308114704092</v>
       </c>
       <c r="M7" s="18"/>
       <c r="S7">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U7" s="46">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="V7" s="46">
-        <v>4704</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D8" s="85"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="57" t="s">
         <v>597</v>
       </c>
       <c r="F8">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H8" s="46">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I8" s="46">
-        <v>4704</v>
+        <v>4739</v>
       </c>
       <c r="J8" s="80">
         <f>SUM(F8:I8)</f>
@@ -15642,7 +15747,7 @@
       </c>
       <c r="L8" s="65">
         <f>I8/J8</f>
-        <v>0.94915254237288138</v>
+        <v>0.95621468926553677</v>
       </c>
       <c r="M8" s="18"/>
       <c r="U8" s="46"/>
@@ -15653,19 +15758,19 @@
       <c r="E9" s="46"/>
       <c r="F9" s="75">
         <f>SUM(F5:F8)</f>
-        <v>13526</v>
+        <v>13344</v>
       </c>
       <c r="G9" s="76">
         <f>SUM(G5:G8)</f>
-        <v>3806</v>
+        <v>3870</v>
       </c>
       <c r="H9" s="76">
         <f>SUM(H5:H8)</f>
-        <v>4911</v>
+        <v>4945</v>
       </c>
       <c r="I9" s="77">
         <f>SUM(I5:I8)</f>
-        <v>4903</v>
+        <v>4987</v>
       </c>
       <c r="J9" s="57">
         <f>SUM(J5:J8)</f>
@@ -15686,16 +15791,16 @@
         <v>639</v>
       </c>
       <c r="S9">
-        <v>2107</v>
+        <v>13116</v>
       </c>
       <c r="T9">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="U9" s="46">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="V9" s="46">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="4:22" x14ac:dyDescent="0.2">
@@ -15705,50 +15810,50 @@
       </c>
       <c r="F10" s="60">
         <f>F5/F9</f>
-        <v>0.97042732515155994</v>
+        <v>0.9829136690647482</v>
       </c>
       <c r="G10" s="60">
         <f>G6/G9</f>
-        <v>0.96163951655281132</v>
+        <v>0.95968992248062013</v>
       </c>
       <c r="H10" s="60">
         <f>H7/H9</f>
-        <v>0.96619833027896562</v>
+        <v>0.96157735085945395</v>
       </c>
       <c r="I10" s="61">
         <f>I8/I9</f>
-        <v>0.95941260452784005</v>
+        <v>0.95027070382995793</v>
       </c>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
       <c r="M10" s="47">
         <f>SUM(F5,G6,H7,I8 )/J9</f>
-        <v>0.966440727915715</v>
+        <v>0.96971929566050252</v>
       </c>
       <c r="N10" s="67">
         <f>(G6+H7+I8)/SUM(G9:I9)</f>
-        <v>0.962481644640235</v>
+        <v>0.95696275902043182</v>
       </c>
       <c r="O10" s="47">
         <f>(G6+H7+I8)/SUM(J6:J8)</f>
-        <v>0.95742039146947122</v>
+        <v>0.96465089103125912</v>
       </c>
       <c r="P10" s="68">
         <f>2*N10*O10/(N10+O10)</f>
-        <v>0.95994434680726415</v>
+        <v>0.96079144540627048</v>
       </c>
       <c r="S10">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="T10">
-        <v>104</v>
+        <v>3714</v>
       </c>
       <c r="U10" s="46">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V10" s="46">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="4:22" x14ac:dyDescent="0.2">
@@ -15762,16 +15867,16 @@
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
       <c r="S11">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U11" s="46">
-        <v>89</v>
+        <v>4755</v>
       </c>
       <c r="V11" s="46">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="4:22" x14ac:dyDescent="0.2">
@@ -15784,26 +15889,26 @@
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
       <c r="S12">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U12" s="46">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="V12" s="46">
-        <v>125</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="13" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E13" s="46"/>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
@@ -15837,7 +15942,7 @@
       </c>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E15" s="56" t="s">
@@ -15870,7 +15975,7 @@
       </c>
     </row>
     <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="88"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="74" t="s">
         <v>595</v>
       </c>
@@ -15904,7 +16009,7 @@
       </c>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D17" s="88"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="74" t="s">
         <v>596</v>
       </c>
@@ -15938,7 +16043,7 @@
       </c>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D18" s="85"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="57" t="s">
         <v>597</v>
       </c>
@@ -16161,12 +16266,12 @@
     <row r="31" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
       <c r="E31" s="46"/>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="87"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -16199,7 +16304,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E33" s="56" t="s">
@@ -16232,7 +16337,7 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="88"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="74" t="s">
         <v>595</v>
       </c>
@@ -16263,7 +16368,7 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D35" s="88"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="74" t="s">
         <v>596</v>
       </c>
@@ -16294,7 +16399,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="85"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="57" t="s">
         <v>597</v>
       </c>
@@ -16426,12 +16531,12 @@
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E41" s="46"/>
-      <c r="F41" s="86" t="s">
+      <c r="F41" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="87"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
       <c r="L41" s="46"/>
@@ -16465,7 +16570,7 @@
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="84" t="s">
+      <c r="D43" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E43" s="56" t="s">
@@ -16498,7 +16603,7 @@
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="88"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="74" t="s">
         <v>595</v>
       </c>
@@ -16532,7 +16637,7 @@
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="88"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="74" t="s">
         <v>596</v>
       </c>
@@ -16566,7 +16671,7 @@
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="85"/>
+      <c r="D46" s="87"/>
       <c r="E46" s="57" t="s">
         <v>597</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="23800" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2280" yWindow="-19840" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="703">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2333,6 +2333,41 @@
   </si>
   <si>
     <t>ZERO_VEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_v2b_ek_1546868715</t>
+  </si>
+  <si>
+    <t>m93_v2b_ek_1546870332</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main93_v2_ek_1546869816</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546870235</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546915503</t>
+  </si>
+  <si>
+    <t>1-layer CNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546917359</t>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=4, filter=64, init=0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=3, filter=#2, init=0.005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2952,29 +2987,29 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10258,8 +10293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11416,16 +11451,13 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D30" s="6">
-        <v>0.70698644421272105</v>
+        <v>0.70304302203567604</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -11471,7 +11503,6 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -11516,18 +11547,6 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.70658682634730496</v>
-      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -11539,17 +11558,17 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>684</v>
+      <c r="A35" s="6" t="s">
+        <v>691</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D35" s="6">
-        <v>0.69183673469387696</v>
+        <v>0.70698644421272105</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -11562,6 +11581,12 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.68394815553339905</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -11584,6 +11609,10 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>694</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -11629,16 +11658,16 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>681</v>
+        <v>685</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D39" s="6">
-        <v>0.68678459937564995</v>
+        <v>0.70658682634730496</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -11662,6 +11691,18 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.69183673469387696</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -11739,6 +11780,18 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.68678459937564995</v>
+      </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -11774,6 +11827,18 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.66915191053122003</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -11787,6 +11852,18 @@
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.67109004739336398</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -11798,6 +11875,20 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.71773347324239201</v>
+      </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E49" s="6"/>
@@ -12511,20 +12602,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>641</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="82" t="s">
         <v>630</v>
       </c>
-      <c r="T3" s="89"/>
+      <c r="T3" s="83"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -12576,7 +12667,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -12610,7 +12701,7 @@
       <c r="P5" t="s">
         <v>643</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="84" t="s">
         <v>631</v>
       </c>
       <c r="R5" s="56" t="s">
@@ -12639,7 +12730,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="86"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="21" t="s">
         <v>601</v>
       </c>
@@ -12668,7 +12759,7 @@
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="Q6" s="87"/>
+      <c r="Q6" s="85"/>
       <c r="R6" s="57" t="s">
         <v>626</v>
       </c>
@@ -12695,7 +12786,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="86"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="21" t="s">
         <v>603</v>
       </c>
@@ -12755,7 +12846,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="87"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="22" t="s">
         <v>604</v>
       </c>
@@ -12936,12 +13027,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="86" t="s">
         <v>605</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -12949,10 +13040,10 @@
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="82" t="s">
+      <c r="S13" s="86" t="s">
         <v>629</v>
       </c>
-      <c r="T13" s="84"/>
+      <c r="T13" s="87"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
     </row>
@@ -13009,7 +13100,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -13040,7 +13131,7 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="85" t="s">
+      <c r="Q15" s="84" t="s">
         <v>611</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -13069,7 +13160,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="21" t="s">
         <v>607</v>
       </c>
@@ -13101,7 +13192,7 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="87"/>
+      <c r="Q16" s="85"/>
       <c r="R16" s="30" t="s">
         <v>627</v>
       </c>
@@ -13128,7 +13219,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="86"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="21" t="s">
         <v>608</v>
       </c>
@@ -13191,7 +13282,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="87"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="22" t="s">
         <v>614</v>
       </c>
@@ -13384,12 +13475,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -13428,7 +13519,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -13464,7 +13555,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="86"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="21" t="s">
         <v>601</v>
       </c>
@@ -13498,7 +13589,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="21" t="s">
         <v>603</v>
       </c>
@@ -13532,7 +13623,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="87"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="22" t="s">
         <v>604</v>
       </c>
@@ -13662,12 +13753,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="82" t="s">
+      <c r="F36" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="87"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -13704,7 +13795,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -13740,7 +13831,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="86"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="21" t="s">
         <v>607</v>
       </c>
@@ -13777,7 +13868,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="86"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="21" t="s">
         <v>603</v>
       </c>
@@ -13814,7 +13905,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="87"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="22" t="s">
         <v>604</v>
       </c>
@@ -13949,12 +14040,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="82" t="s">
+      <c r="F48" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="87"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -13985,7 +14076,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -14018,7 +14109,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="86"/>
+      <c r="D51" s="88"/>
       <c r="E51" s="21" t="s">
         <v>595</v>
       </c>
@@ -14049,7 +14140,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="86"/>
+      <c r="D52" s="88"/>
       <c r="E52" s="21" t="s">
         <v>596</v>
       </c>
@@ -14080,7 +14171,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="87"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="22" t="s">
         <v>604</v>
       </c>
@@ -14197,12 +14288,12 @@
       <c r="N57" s="68"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="82" t="s">
+      <c r="F58" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="84"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="87"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -14233,7 +14324,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -14266,7 +14357,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="86"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="21" t="s">
         <v>595</v>
       </c>
@@ -14300,7 +14391,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="86"/>
+      <c r="D62" s="88"/>
       <c r="E62" s="21" t="s">
         <v>596</v>
       </c>
@@ -14334,7 +14425,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="87"/>
+      <c r="D63" s="85"/>
       <c r="E63" s="22" t="s">
         <v>604</v>
       </c>
@@ -14469,12 +14560,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="82" t="s">
+      <c r="F70" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="84"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="87"/>
       <c r="J70" s="46"/>
       <c r="M70" s="18"/>
     </row>
@@ -14505,7 +14596,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E72" s="56" t="s">
@@ -14538,7 +14629,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="86"/>
+      <c r="D73" s="88"/>
       <c r="E73" s="74" t="s">
         <v>595</v>
       </c>
@@ -14569,7 +14660,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="86"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="74" t="s">
         <v>596</v>
       </c>
@@ -14600,7 +14691,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="87"/>
+      <c r="D75" s="85"/>
       <c r="E75" s="57" t="s">
         <v>604</v>
       </c>
@@ -14716,12 +14807,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="46"/>
-      <c r="F80" s="82" t="s">
+      <c r="F80" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="84"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="87"/>
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -14753,7 +14844,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="85" t="s">
+      <c r="D82" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E82" s="56" t="s">
@@ -14786,7 +14877,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="86"/>
+      <c r="D83" s="88"/>
       <c r="E83" s="74" t="s">
         <v>595</v>
       </c>
@@ -14820,7 +14911,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="86"/>
+      <c r="D84" s="88"/>
       <c r="E84" s="74" t="s">
         <v>596</v>
       </c>
@@ -14854,7 +14945,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="87"/>
+      <c r="D85" s="85"/>
       <c r="E85" s="57" t="s">
         <v>604</v>
       </c>
@@ -14985,12 +15076,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="46"/>
-      <c r="F90" s="82" t="s">
+      <c r="F90" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="84"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="87"/>
       <c r="J90" s="46"/>
       <c r="M90" s="18"/>
     </row>
@@ -15021,7 +15112,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="85" t="s">
+      <c r="D92" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E92" s="56" t="s">
@@ -15054,7 +15145,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="86"/>
+      <c r="D93" s="88"/>
       <c r="E93" s="74" t="s">
         <v>595</v>
       </c>
@@ -15085,7 +15176,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="86"/>
+      <c r="D94" s="88"/>
       <c r="E94" s="74" t="s">
         <v>596</v>
       </c>
@@ -15116,7 +15207,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="87"/>
+      <c r="D95" s="85"/>
       <c r="E95" s="57" t="s">
         <v>604</v>
       </c>
@@ -15232,12 +15323,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="46"/>
-      <c r="F100" s="82" t="s">
+      <c r="F100" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="84"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="89"/>
+      <c r="I100" s="87"/>
       <c r="J100" s="46"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -15269,7 +15360,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="85" t="s">
+      <c r="D102" s="84" t="s">
         <v>611</v>
       </c>
       <c r="E102" s="56" t="s">
@@ -15302,7 +15393,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="86"/>
+      <c r="D103" s="88"/>
       <c r="E103" s="74" t="s">
         <v>595</v>
       </c>
@@ -15336,7 +15427,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="86"/>
+      <c r="D104" s="88"/>
       <c r="E104" s="74" t="s">
         <v>596</v>
       </c>
@@ -15370,7 +15461,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="87"/>
+      <c r="D105" s="85"/>
       <c r="E105" s="57" t="s">
         <v>604</v>
       </c>
@@ -15480,6 +15571,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -15493,18 +15596,6 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15540,12 +15631,12 @@
     <row r="3" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D3" s="18"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
@@ -15590,7 +15681,7 @@
       </c>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="56" t="s">
@@ -15635,7 +15726,7 @@
       </c>
     </row>
     <row r="6" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D6" s="86"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="74" t="s">
         <v>595</v>
       </c>
@@ -15678,7 +15769,7 @@
       </c>
     </row>
     <row r="7" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D7" s="86"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="74" t="s">
         <v>596</v>
       </c>
@@ -15721,7 +15812,7 @@
       </c>
     </row>
     <row r="8" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D8" s="87"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="57" t="s">
         <v>597</v>
       </c>
@@ -15903,12 +15994,12 @@
     </row>
     <row r="13" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E13" s="46"/>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
@@ -15942,7 +16033,7 @@
       </c>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E15" s="56" t="s">
@@ -15975,7 +16066,7 @@
       </c>
     </row>
     <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="86"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="74" t="s">
         <v>595</v>
       </c>
@@ -16009,7 +16100,7 @@
       </c>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D17" s="86"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="74" t="s">
         <v>596</v>
       </c>
@@ -16043,7 +16134,7 @@
       </c>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D18" s="87"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="57" t="s">
         <v>597</v>
       </c>
@@ -16266,12 +16357,12 @@
     <row r="31" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
       <c r="E31" s="46"/>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="87"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -16304,7 +16395,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E33" s="56" t="s">
@@ -16337,7 +16428,7 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="86"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="74" t="s">
         <v>595</v>
       </c>
@@ -16368,7 +16459,7 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D35" s="86"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="74" t="s">
         <v>596</v>
       </c>
@@ -16399,7 +16490,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="87"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="57" t="s">
         <v>597</v>
       </c>
@@ -16531,12 +16622,12 @@
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E41" s="46"/>
-      <c r="F41" s="82" t="s">
+      <c r="F41" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="87"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
       <c r="L41" s="46"/>
@@ -16570,7 +16661,7 @@
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="84" t="s">
         <v>599</v>
       </c>
       <c r="E43" s="56" t="s">
@@ -16603,7 +16694,7 @@
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="86"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="74" t="s">
         <v>595</v>
       </c>
@@ -16637,7 +16728,7 @@
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="86"/>
+      <c r="D45" s="88"/>
       <c r="E45" s="74" t="s">
         <v>596</v>
       </c>
@@ -16671,7 +16762,7 @@
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="87"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="57" t="s">
         <v>597</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="-19840" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-360" yWindow="-14160" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="706">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2368,6 +2368,17 @@
   </si>
   <si>
     <t>kernel=3, filter=#2, init=0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn2_ek_1546933164</t>
+  </si>
+  <si>
+    <t>2-layer CNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10293,8 +10304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11890,7 +11901,19 @@
         <v>0.71773347324239201</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.71689989235737295</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -11903,7 +11926,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -11916,7 +11939,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -11929,7 +11952,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -11942,7 +11965,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -11955,7 +11978,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -11968,7 +11991,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -11981,7 +12004,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -11994,7 +12017,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -12007,7 +12030,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -12020,7 +12043,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -12033,7 +12056,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -12046,7 +12069,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-14160" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3740" yWindow="1660" windowWidth="17900" windowHeight="13920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="718">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2359,18 +2359,10 @@
     <t>m93_cnn_ek_1546917359</t>
   </si>
   <si>
-    <t>kernel=5, filter=128, init=0.005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>kernel=4, filter=64, init=0.005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>kernel=3, filter=#2, init=0.005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn2_ek_1546933164</t>
   </si>
   <si>
@@ -2378,7 +2370,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005</t>
+    <t>m93_cnn2_ek_1546935461</t>
+  </si>
+  <si>
+    <t>m93_cnn2_ek_1546932105</t>
+  </si>
+  <si>
+    <t>m93_cnn2_ek_1546937077</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546932060</t>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.01, decay=0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.005, decay=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn2_ek_1546932145</t>
+  </si>
+  <si>
+    <t>cnn=[(5, 256), (3, 128)], lr_init=0.005, decay=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.01, decay=0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=3, filter=32, init=0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546940100</t>
+  </si>
+  <si>
+    <t>kernel=5, filter=256, init=0.01, decay=0.9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10304,7 +10347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -11842,7 +11885,7 @@
         <v>698</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>696</v>
@@ -11863,11 +11906,8 @@
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>698</v>
-      </c>
       <c r="B47" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>697</v>
@@ -11888,11 +11928,8 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>698</v>
-      </c>
       <c r="B48" s="3" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>699</v>
@@ -11902,17 +11939,14 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="B49" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D49" s="6">
-        <v>0.71689989235737295</v>
+        <v>0.72607260726072598</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -11925,6 +11959,17 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.68426197458455496</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E51" s="6"/>
@@ -11953,6 +11998,18 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.71689989235737295</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -11966,6 +12023,15 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.72476089266737498</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -11979,6 +12045,15 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.72167216721672101</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -11991,7 +12066,27 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.71063829787234001</v>
+      </c>
+    </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.70920502092050197</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="722">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2422,6 +2422,20 @@
   </si>
   <si>
     <t>kernel=5, filter=256, init=0.01, decay=0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546940156</t>
+  </si>
+  <si>
+    <t>kernel=3, filter=256, init=0.01, decay=0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546949659</t>
+  </si>
+  <si>
+    <t>kernel=3, filter=128, init=0.01, decay=0.9, batch_size=50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2742,7 +2756,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2815,6 +2829,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3069,7 +3091,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="90">
     <cellStyle name="百分比" xfId="71" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -3112,6 +3134,10 @@
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3152,6 +3178,10 @@
     <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -10347,8 +10377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11972,6 +12002,15 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.71817192600652802</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -11985,6 +12024,15 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.74479737130339496</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -11998,18 +12046,6 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.71689989235737295</v>
-      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -12023,15 +12059,6 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.72476089266737498</v>
-      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -12045,15 +12072,6 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.72167216721672101</v>
-      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -12066,27 +12084,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0.71063829787234001</v>
-      </c>
-    </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.70920502092050197</v>
-      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -12113,6 +12111,18 @@
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.71689989235737295</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -12126,6 +12136,15 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.72476089266737498</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -12139,6 +12158,15 @@
       <c r="P60" s="6"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.72167216721672101</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -12151,7 +12179,27 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.71063829787234001</v>
+      </c>
+    </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.70920502092050197</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="1660" windowWidth="17900" windowHeight="13920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3740" yWindow="740" windowWidth="17900" windowHeight="13920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="730">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2359,10 +2359,6 @@
     <t>m93_cnn_ek_1546917359</t>
   </si>
   <si>
-    <t>kernel=4, filter=64, init=0.005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn2_ek_1546933164</t>
   </si>
   <si>
@@ -2383,59 +2379,90 @@
     <t>m93_cnn_ek_1546932060</t>
   </si>
   <si>
-    <t>kernel=5, filter=128, init=0.01, decay=0.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel=5, filter=128, init=0.005, decay=0.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn2_ek_1546932145</t>
   </si>
   <si>
-    <t>cnn=[(5, 256), (3, 128)], lr_init=0.005, decay=0.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cnn=[(5, 128), (3, 64)], lr_init=0.01, decay=0.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel=3, filter=32, init=0.005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn_ek_1546940100</t>
   </si>
   <si>
-    <t>kernel=5, filter=256, init=0.01, decay=0.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn_ek_1546940156</t>
   </si>
   <si>
-    <t>kernel=3, filter=256, init=0.01, decay=0.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn_ek_1546949659</t>
   </si>
   <si>
-    <t>kernel=3, filter=128, init=0.01, decay=0.9, batch_size=50</t>
+    <t>m93_cnn_ek_1546956342</t>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.01, decay=0.9, batch_size=50, dropout=0.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.01, decay=0.9, batch_size=50, dropout=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546956208</t>
+  </si>
+  <si>
+    <t>m93_cnn2_ek_1546956204</t>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.01, decay=0.9, batch_size=50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.01, decay=0.9, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 256), (3, 128)], lr_init=0.005, decay=0.95, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128), (3, 64)], lr_init=0.005, decay=0.95, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=3, filter=256, init=0.01, decay=0.9, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=5, filter=256, init=0.01, decay=0.9, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.01, decay=0.9, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.005, decay=0.95, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=4, filter=64, init=0.005, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel=3, filter=32, init=0.005, batch_size=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546956184</t>
+  </si>
+  <si>
+    <t>m93_cnn2_ek_1546956190</t>
+  </si>
+  <si>
+    <t>kernel=5, filter=128, init=0.01, decay=0.9, batch_size=50, dropout=0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2848,7 +2875,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3063,33 +3090,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="90">
     <cellStyle name="百分比" xfId="71" builtinId="5"/>
@@ -10377,8 +10405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11915,7 +11943,7 @@
         <v>698</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>696</v>
@@ -11937,7 +11965,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>697</v>
@@ -11959,7 +11987,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>699</v>
@@ -11970,10 +11998,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D49" s="6">
         <v>0.72607260726072598</v>
@@ -11992,10 +12020,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D50" s="6">
         <v>0.68426197458455496</v>
@@ -12003,10 +12031,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="D51" s="6">
         <v>0.71817192600652802</v>
@@ -12025,12 +12053,12 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="D52" s="6">
+        <v>712</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>709</v>
+      </c>
+      <c r="D52" s="10">
         <v>0.74479737130339496</v>
       </c>
       <c r="E52" s="6"/>
@@ -12046,6 +12074,15 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.72120559741657697</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -12059,6 +12096,15 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.72198275862068895</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -12072,6 +12118,15 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.72513368983957205</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -12112,13 +12167,13 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D59" s="6">
         <v>0.71689989235737295</v>
@@ -12137,10 +12192,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D60" s="6">
         <v>0.72476089266737498</v>
@@ -12159,10 +12214,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D61" s="6">
         <v>0.72167216721672101</v>
@@ -12181,10 +12236,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D62" s="6">
         <v>0.71063829787234001</v>
@@ -12192,10 +12247,10 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D63" s="6">
         <v>0.70920502092050197</v>
@@ -12213,6 +12268,15 @@
       <c r="P63" s="6"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.71445086705202299</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -12225,7 +12289,16 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.70931537598204197</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -12238,7 +12311,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -12251,7 +12324,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -12264,7 +12337,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -12277,7 +12350,7 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
     </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -12290,7 +12363,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -12303,7 +12376,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -12316,7 +12389,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -12329,7 +12402,7 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="5:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -12768,20 +12841,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="87"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>641</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="T3" s="83"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -12833,7 +12906,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -12867,7 +12940,7 @@
       <c r="P5" t="s">
         <v>643</v>
       </c>
-      <c r="Q5" s="84" t="s">
+      <c r="Q5" s="85" t="s">
         <v>631</v>
       </c>
       <c r="R5" s="56" t="s">
@@ -12896,7 +12969,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="88"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="21" t="s">
         <v>601</v>
       </c>
@@ -12925,7 +12998,7 @@
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="Q6" s="85"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="57" t="s">
         <v>626</v>
       </c>
@@ -12952,7 +13025,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="88"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="21" t="s">
         <v>603</v>
       </c>
@@ -13012,7 +13085,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="85"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="22" t="s">
         <v>604</v>
       </c>
@@ -13193,12 +13266,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -13206,10 +13279,10 @@
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="86" t="s">
+      <c r="S13" s="82" t="s">
         <v>629</v>
       </c>
-      <c r="T13" s="87"/>
+      <c r="T13" s="84"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
     </row>
@@ -13266,7 +13339,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -13297,7 +13370,7 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="84" t="s">
+      <c r="Q15" s="85" t="s">
         <v>611</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -13326,7 +13399,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="21" t="s">
         <v>607</v>
       </c>
@@ -13358,7 +13431,7 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="85"/>
+      <c r="Q16" s="87"/>
       <c r="R16" s="30" t="s">
         <v>627</v>
       </c>
@@ -13385,7 +13458,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="88"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="21" t="s">
         <v>608</v>
       </c>
@@ -13448,7 +13521,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="22" t="s">
         <v>614</v>
       </c>
@@ -13641,12 +13714,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="87"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -13685,7 +13758,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -13721,7 +13794,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="88"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="21" t="s">
         <v>601</v>
       </c>
@@ -13755,7 +13828,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="88"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="21" t="s">
         <v>603</v>
       </c>
@@ -13789,7 +13862,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="85"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="22" t="s">
         <v>604</v>
       </c>
@@ -13919,12 +13992,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="87"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -13961,7 +14034,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -13997,7 +14070,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="88"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="21" t="s">
         <v>607</v>
       </c>
@@ -14034,7 +14107,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="88"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="21" t="s">
         <v>603</v>
       </c>
@@ -14071,7 +14144,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="85"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="22" t="s">
         <v>604</v>
       </c>
@@ -14206,12 +14279,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="87"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -14242,7 +14315,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -14275,7 +14348,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="88"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="21" t="s">
         <v>595</v>
       </c>
@@ -14306,7 +14379,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="88"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="21" t="s">
         <v>596</v>
       </c>
@@ -14337,7 +14410,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="85"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="22" t="s">
         <v>604</v>
       </c>
@@ -14454,12 +14527,12 @@
       <c r="N57" s="68"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="86" t="s">
+      <c r="F58" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="87"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -14490,7 +14563,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -14523,7 +14596,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="88"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="21" t="s">
         <v>595</v>
       </c>
@@ -14557,7 +14630,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="88"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="21" t="s">
         <v>596</v>
       </c>
@@ -14591,7 +14664,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="85"/>
+      <c r="D63" s="87"/>
       <c r="E63" s="22" t="s">
         <v>604</v>
       </c>
@@ -14726,12 +14799,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="87"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="84"/>
       <c r="J70" s="46"/>
       <c r="M70" s="18"/>
     </row>
@@ -14762,7 +14835,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="84" t="s">
+      <c r="D72" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E72" s="56" t="s">
@@ -14795,7 +14868,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="88"/>
+      <c r="D73" s="86"/>
       <c r="E73" s="74" t="s">
         <v>595</v>
       </c>
@@ -14826,7 +14899,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="88"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="74" t="s">
         <v>596</v>
       </c>
@@ -14857,7 +14930,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="85"/>
+      <c r="D75" s="87"/>
       <c r="E75" s="57" t="s">
         <v>604</v>
       </c>
@@ -14973,12 +15046,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="46"/>
-      <c r="F80" s="86" t="s">
+      <c r="F80" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="87"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="84"/>
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -15010,7 +15083,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="84" t="s">
+      <c r="D82" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E82" s="56" t="s">
@@ -15043,7 +15116,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="88"/>
+      <c r="D83" s="86"/>
       <c r="E83" s="74" t="s">
         <v>595</v>
       </c>
@@ -15077,7 +15150,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="88"/>
+      <c r="D84" s="86"/>
       <c r="E84" s="74" t="s">
         <v>596</v>
       </c>
@@ -15111,7 +15184,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="85"/>
+      <c r="D85" s="87"/>
       <c r="E85" s="57" t="s">
         <v>604</v>
       </c>
@@ -15242,12 +15315,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="46"/>
-      <c r="F90" s="86" t="s">
+      <c r="F90" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="87"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="84"/>
       <c r="J90" s="46"/>
       <c r="M90" s="18"/>
     </row>
@@ -15278,7 +15351,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="84" t="s">
+      <c r="D92" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E92" s="56" t="s">
@@ -15311,7 +15384,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="88"/>
+      <c r="D93" s="86"/>
       <c r="E93" s="74" t="s">
         <v>595</v>
       </c>
@@ -15342,7 +15415,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="88"/>
+      <c r="D94" s="86"/>
       <c r="E94" s="74" t="s">
         <v>596</v>
       </c>
@@ -15373,7 +15446,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="85"/>
+      <c r="D95" s="87"/>
       <c r="E95" s="57" t="s">
         <v>604</v>
       </c>
@@ -15489,12 +15562,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="46"/>
-      <c r="F100" s="86" t="s">
+      <c r="F100" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="87"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
+      <c r="I100" s="84"/>
       <c r="J100" s="46"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -15526,7 +15599,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="84" t="s">
+      <c r="D102" s="85" t="s">
         <v>611</v>
       </c>
       <c r="E102" s="56" t="s">
@@ -15559,7 +15632,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="88"/>
+      <c r="D103" s="86"/>
       <c r="E103" s="74" t="s">
         <v>595</v>
       </c>
@@ -15593,7 +15666,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="88"/>
+      <c r="D104" s="86"/>
       <c r="E104" s="74" t="s">
         <v>596</v>
       </c>
@@ -15627,7 +15700,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="85"/>
+      <c r="D105" s="87"/>
       <c r="E105" s="57" t="s">
         <v>604</v>
       </c>
@@ -15737,18 +15810,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -15762,6 +15823,18 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15797,12 +15870,12 @@
     <row r="3" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D3" s="18"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="87"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="46"/>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
@@ -15847,7 +15920,7 @@
       </c>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E5" s="56" t="s">
@@ -15892,7 +15965,7 @@
       </c>
     </row>
     <row r="6" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D6" s="88"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="74" t="s">
         <v>595</v>
       </c>
@@ -15935,7 +16008,7 @@
       </c>
     </row>
     <row r="7" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D7" s="88"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="74" t="s">
         <v>596</v>
       </c>
@@ -15978,7 +16051,7 @@
       </c>
     </row>
     <row r="8" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D8" s="85"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="57" t="s">
         <v>597</v>
       </c>
@@ -16160,12 +16233,12 @@
     </row>
     <row r="13" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E13" s="46"/>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
@@ -16199,7 +16272,7 @@
       </c>
     </row>
     <row r="15" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E15" s="56" t="s">
@@ -16232,7 +16305,7 @@
       </c>
     </row>
     <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="88"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="74" t="s">
         <v>595</v>
       </c>
@@ -16266,7 +16339,7 @@
       </c>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D17" s="88"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="74" t="s">
         <v>596</v>
       </c>
@@ -16300,7 +16373,7 @@
       </c>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D18" s="85"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="57" t="s">
         <v>597</v>
       </c>
@@ -16523,12 +16596,12 @@
     <row r="31" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
       <c r="E31" s="46"/>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="87"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -16561,7 +16634,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E33" s="56" t="s">
@@ -16594,7 +16667,7 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="88"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="74" t="s">
         <v>595</v>
       </c>
@@ -16625,7 +16698,7 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D35" s="88"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="74" t="s">
         <v>596</v>
       </c>
@@ -16656,7 +16729,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="85"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="57" t="s">
         <v>597</v>
       </c>
@@ -16788,12 +16861,12 @@
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E41" s="46"/>
-      <c r="F41" s="86" t="s">
+      <c r="F41" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="87"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
       <c r="L41" s="46"/>
@@ -16827,7 +16900,7 @@
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="84" t="s">
+      <c r="D43" s="85" t="s">
         <v>599</v>
       </c>
       <c r="E43" s="56" t="s">
@@ -16860,7 +16933,7 @@
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="88"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="74" t="s">
         <v>595</v>
       </c>
@@ -16894,7 +16967,7 @@
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="88"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="74" t="s">
         <v>596</v>
       </c>
@@ -16928,7 +17001,7 @@
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="85"/>
+      <c r="D46" s="87"/>
       <c r="E46" s="57" t="s">
         <v>597</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="740" windowWidth="17900" windowHeight="13920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="24240" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="755">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1815,10 +1815,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>micro-score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GRU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1857,69 +1853,12 @@
     <t>hchenyang</t>
   </si>
   <si>
-    <t>11/29/18</t>
-  </si>
-  <si>
-    <t>0.7652 (1)</t>
-  </si>
-  <si>
-    <t>soujanyaporia</t>
-  </si>
-  <si>
-    <t>11/20/18</t>
-  </si>
-  <si>
-    <t>#simple_things_work</t>
-  </si>
-  <si>
-    <t>0.7568 (2)</t>
-  </si>
-  <si>
-    <t>11/21/18</t>
-  </si>
-  <si>
-    <t>0.7560 (3)</t>
-  </si>
-  <si>
     <t>rafalposwiata</t>
   </si>
   <si>
-    <t>11/28/18</t>
-  </si>
-  <si>
-    <t>0.7549 (4)</t>
-  </si>
-  <si>
     <t>mfzszgs</t>
   </si>
   <si>
-    <t>11/30/18</t>
-  </si>
-  <si>
-    <t>0.7539 (5)</t>
-  </si>
-  <si>
-    <t>EinAeffchen</t>
-  </si>
-  <si>
-    <t>0.7533 (6)</t>
-  </si>
-  <si>
-    <t>waylensu</t>
-  </si>
-  <si>
-    <t>parag11</t>
-  </si>
-  <si>
-    <t>10/24/18</t>
-  </si>
-  <si>
-    <t>Cereal Killers</t>
-  </si>
-  <si>
-    <t>0.7482 (7)</t>
-  </si>
-  <si>
     <t>GRU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2463,6 +2402,147 @@
   </si>
   <si>
     <t>kernel=5, filter=128, init=0.01, decay=0.9, batch_size=50, dropout=0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546949659</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547039955</t>
+  </si>
+  <si>
+    <t>kernel=3, filter=32, init=0.005, decay=0.95, batch_size=100, dropout=0.5, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547040124</t>
+  </si>
+  <si>
+    <t>divamgupta</t>
+  </si>
+  <si>
+    <t>12/28/18</t>
+  </si>
+  <si>
+    <t>1.0000 (1)</t>
+  </si>
+  <si>
+    <t>MeMyself&amp;I</t>
+  </si>
+  <si>
+    <t>0.7758 (2)</t>
+  </si>
+  <si>
+    <t>12/13/18</t>
+  </si>
+  <si>
+    <t>0.7723 (3)</t>
+  </si>
+  <si>
+    <t>yezhejack</t>
+  </si>
+  <si>
+    <t>12/25/18</t>
+  </si>
+  <si>
+    <t>0.7705 (4)</t>
+  </si>
+  <si>
+    <t>JunaidSuhail</t>
+  </si>
+  <si>
+    <t>FAST_ALLSTARS</t>
+  </si>
+  <si>
+    <t>0.7704 (5)</t>
+  </si>
+  <si>
+    <t>0.7679 (6)</t>
+  </si>
+  <si>
+    <t>ntuer</t>
+  </si>
+  <si>
+    <t>0.7664 (7)</t>
+  </si>
+  <si>
+    <t>0.7660 (8)</t>
+  </si>
+  <si>
+    <t>FA3L</t>
+  </si>
+  <si>
+    <t>12/17/18</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>0.7655 (9)</t>
+  </si>
+  <si>
+    <t>joeyli</t>
+  </si>
+  <si>
+    <t>0.7638 (10)</t>
+  </si>
+  <si>
+    <t>GodRevL</t>
+  </si>
+  <si>
+    <t>0.7631 (11)</t>
+  </si>
+  <si>
+    <t>LEEYOONHYUNG</t>
+  </si>
+  <si>
+    <t>12/24/18</t>
+  </si>
+  <si>
+    <t>0.7624 (12)</t>
+  </si>
+  <si>
+    <t>baaesh</t>
+  </si>
+  <si>
+    <t>SNU_IDS</t>
+  </si>
+  <si>
+    <t>0.7617 (13)</t>
+  </si>
+  <si>
+    <t>huxiao</t>
+  </si>
+  <si>
+    <t>12/22/18</t>
+  </si>
+  <si>
+    <t>0.7600 (14)</t>
+  </si>
+  <si>
+    <t>gentaiscool</t>
+  </si>
+  <si>
+    <t>Cumi Telur Asin</t>
+  </si>
+  <si>
+    <t>0.7586 (15)</t>
+  </si>
+  <si>
+    <t>ensemble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546949659,m93_cnn_ek_1547039955,m93_cnn_ek_1547040124</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2875,7 +2955,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3072,12 +3152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,9 +3160,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3108,16 +3179,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="90">
     <cellStyle name="百分比" xfId="71" builtinId="5"/>
@@ -3521,24 +3614,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8017,18 +8110,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10403,10 +10496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF115"/>
+  <dimension ref="A1:AG118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10414,592 +10507,637 @@
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
+    <col min="10" max="12" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="F1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="16" t="s">
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="16" t="s">
+        <v>559</v>
+      </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0.65915000000000001</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.89700139983791305</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.87382096868808301</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.917885782692209</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.89287427607326098</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.894824153948241</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.88007471734906395</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.89782725180656497</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.88845174191453802</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>37</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.65915000000000001</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.89700139983791305</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.87382096868808301</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.917885782692209</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.89287427607326098</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.894824153948241</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.88007471734906395</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.89782725180656497</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.88845174191453802</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4">
-        <v>2</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>76</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>566</v>
+      <c r="Q3" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="R3" s="5">
+        <v>51</v>
+      </c>
+      <c r="S3" s="96">
+        <v>36969</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="U3" s="5"/>
+        <v>719</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>720</v>
+      </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>547</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D4" s="6">
+        <v>551</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>0.62456999999999996</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>0.894459588889707</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>0.87110931797201896</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>0.91640708443093799</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>0.89065300247262902</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.88852023888520204</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>0.86518301141326204</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>0.91060751759291103</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>0.88471169744246403</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="4">
+      <c r="O4" s="6"/>
+      <c r="P4" s="4">
         <v>3</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="5">
-        <v>59</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>568</v>
+      <c r="R4" s="5">
+        <v>105</v>
       </c>
       <c r="S4" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="U4" s="5"/>
+      <c r="U4" s="5" t="s">
+        <v>722</v>
+      </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>548</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="6">
+        <v>552</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>0.652416</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>0.884623885655345</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>0.86073867901298495</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>0.90917853764331502</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>0.88140768218314403</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.88586595885865904</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>0.871124079635619</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>0.88791668530756895</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>0.87880236890261099</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5">
+      <c r="O5" s="6"/>
+      <c r="P5" s="5">
         <v>4</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>125</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="U5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="R5" s="5">
+        <v>11</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>535</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>0.60559799999999997</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>0.86775215501363001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>0.84227492482598798</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>0.88945904899422201</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>0.86231870337179595</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.87790311877903104</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>0.85544210021184497</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0.89193486715224601</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>0.87174986605357596</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5">
+      <c r="O6" s="6"/>
+      <c r="P6" s="5">
         <v>5</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>38</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="S6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="R6" s="5">
+        <v>26</v>
+      </c>
+      <c r="S6" s="96">
+        <v>37030</v>
+      </c>
       <c r="T6" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="U6" s="5"/>
+        <v>727</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>728</v>
+      </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D7" s="6">
+        <v>557</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>0.60664300000000004</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>0.86620496574080896</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>0.84037960545785995</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>0.88880942235261495</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>0.86085355880963399</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.876244193762441</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>0.85886663766673699</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>0.88149171005928195</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>0.86876643830693401</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5">
+      <c r="O7" s="6"/>
+      <c r="P7" s="5">
         <v>6</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>48</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="U7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="R7" s="5">
+        <v>94</v>
+      </c>
+      <c r="S7" s="96">
+        <v>41231</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>729</v>
+      </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="N8" s="6"/>
-      <c r="O8" s="5">
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="5">
         <v>7</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>12</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="U8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="R8" s="5">
+        <v>33</v>
+      </c>
+      <c r="S8" s="96">
+        <v>37000</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="s">
+        <v>731</v>
+      </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D9" s="6">
+        <v>565</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>0.624309</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>0.93339718558903695</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0.91637783961090102</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>0.94699125403344497</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>0.93045775532563602</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.88022561380225595</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.86370752458885003</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.88412573133844996</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>0.87329050012571796</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5">
+      <c r="O9" s="6"/>
+      <c r="P9" s="5">
         <v>8</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>59</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="U9" s="5"/>
+      <c r="Q9" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="R9" s="5">
+        <v>134</v>
+      </c>
+      <c r="S9" s="96">
+        <v>41200</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5" t="s">
+        <v>732</v>
+      </c>
       <c r="V9" s="5"/>
-      <c r="W9" s="11"/>
+      <c r="W9" s="5"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>411</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D10" s="6">
+        <v>567</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>0.65654599999999996</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>0.94172253739040701</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>0.92539410856570903</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>0.95457759387776298</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>0.93887480936261603</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.894824153948241</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.87722736448360406</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>0.90307013365634603</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>0.88921177109515603</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="U10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="R10" s="5">
+        <v>35</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>736</v>
+      </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="P11" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="R11" s="5">
+        <v>38</v>
+      </c>
+      <c r="S11" s="96">
+        <v>37153</v>
+      </c>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>738</v>
+      </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -11007,168 +11145,234 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="P12" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="R12" s="5">
+        <v>64</v>
+      </c>
+      <c r="S12" s="96">
+        <v>37153</v>
+      </c>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="U12" s="5" t="s">
+        <v>740</v>
+      </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D13" s="6">
+        <v>568</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>0.65934099999999995</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>0.89272821041774097</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>0.84066797642436097</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>0.93755477651183095</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>0.886471928734203</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.89648307896483004</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>0.86443883984867498</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>0.90197368421052604</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>0.88280746941403698</v>
       </c>
-      <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="P13" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="R13" s="5">
+        <v>103</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>742</v>
+      </c>
       <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>743</v>
+      </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>648</v>
-      </c>
-      <c r="D14" s="6">
+        <v>628</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6">
         <v>0.679245283018867</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>0.89965372430560597</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>0.88139148043682602</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>0.89008179959100198</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.88571532395799202</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.88747731397459095</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>0.57966101694915195</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>0.82014388489208601</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="P14" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="R14" s="5">
+        <v>51</v>
+      </c>
+      <c r="S14" s="96">
+        <v>37000</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>746</v>
+      </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="N15" s="6"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="P15" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="R15" s="5">
+        <v>7</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>748</v>
+      </c>
       <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="U15" s="5" t="s">
+        <v>749</v>
+      </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D16" s="6">
+        <v>634</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>0.70193285859613397</v>
       </c>
-      <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="P16" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="R16" s="5">
+        <v>31</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>752</v>
+      </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D17" s="6">
+        <v>638</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
         <v>0.68611670020120696</v>
       </c>
-      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -11176,7 +11380,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="R17" s="5"/>
+      <c r="M17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -11185,21 +11389,22 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D18" s="6">
+        <v>647</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>0.70600203458799604</v>
       </c>
-      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -11208,21 +11413,22 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="D19" s="6">
+        <v>642</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
         <v>0.67557251908396898</v>
       </c>
-      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -11230,10 +11436,10 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="6"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -11242,21 +11448,22 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D20" s="6">
+        <v>639</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
         <v>0.69192422731804504</v>
       </c>
-      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -11264,10 +11471,10 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="R20" s="5"/>
+      <c r="Q20" s="6"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -11276,21 +11483,22 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D21" s="6">
+        <v>641</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
         <v>0.69362992922143496</v>
       </c>
-      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -11298,10 +11506,10 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="R21" s="5"/>
+      <c r="Q21" s="6"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -11310,21 +11518,22 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D22" s="13">
+        <v>643</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13">
         <v>0.68699186991869898</v>
       </c>
-      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -11332,10 +11541,10 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="13"/>
-      <c r="R22" s="5"/>
+      <c r="M22" s="10"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="13"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -11344,21 +11553,22 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D23" s="6">
+        <v>649</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
         <v>0.69906928645294697</v>
       </c>
-      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -11367,21 +11577,22 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D24" s="6">
+        <v>649</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
         <v>0.65373423860329705</v>
       </c>
-      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -11389,10 +11600,10 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="6"/>
-      <c r="R24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="6"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -11401,21 +11612,22 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D25" s="6">
+        <v>651</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>0.66873706004140698</v>
       </c>
-      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -11423,10 +11635,10 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="M25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="R25" s="5"/>
+      <c r="Q25" s="6"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -11435,21 +11647,22 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D26" s="6">
+        <v>654</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <v>0.71168274383708396</v>
       </c>
-      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -11457,10 +11670,10 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="M26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="R26" s="5"/>
+      <c r="Q26" s="6"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -11469,21 +11682,22 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D27" s="6">
+        <v>656</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
         <v>0.69762641898864797</v>
       </c>
-      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -11491,10 +11705,10 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="M27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="R27" s="5"/>
+      <c r="Q27" s="6"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -11503,21 +11717,22 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D28" s="6">
+        <v>658</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>0.70225872689938396</v>
       </c>
-      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -11525,10 +11740,10 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="R28" s="5"/>
+      <c r="Q28" s="6"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -11537,21 +11752,22 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D29" s="6">
+        <v>666</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <v>0.69269269269269196</v>
       </c>
-      <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -11560,18 +11776,19 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="D30" s="6">
+        <v>675</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
         <v>0.70304302203567604</v>
       </c>
-      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -11579,10 +11796,10 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="M30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="R30" s="5"/>
+      <c r="Q30" s="6"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -11591,9 +11808,10 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E31" s="6"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -11601,10 +11819,10 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="M31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="R31" s="5"/>
+      <c r="Q31" s="6"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -11613,9 +11831,10 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E32" s="6"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -11623,10 +11842,10 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="M32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="R32" s="5"/>
+      <c r="Q32" s="6"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -11635,9 +11854,10 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E33" s="6"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -11645,10 +11865,10 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="M33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="R33" s="5"/>
+      <c r="Q33" s="6"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -11657,9 +11877,10 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="R34" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D34" s="6"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -11668,21 +11889,22 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="D35" s="6">
+        <v>670</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
         <v>0.70698644421272105</v>
       </c>
-      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -11691,15 +11913,16 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="5"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="D36" s="6">
+        <v>673</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
         <v>0.68394815553339905</v>
       </c>
-      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -11707,10 +11930,10 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="M36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="R36" s="5"/>
+      <c r="Q36" s="6"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -11719,13 +11942,14 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="C37" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>674</v>
+      </c>
+      <c r="D37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -11733,10 +11957,10 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="M37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="R37" s="5"/>
+      <c r="Q37" s="6"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -11745,9 +11969,10 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
+      <c r="AA37" s="5"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -11755,10 +11980,10 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="R38" s="5"/>
+      <c r="Q38" s="6"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -11767,21 +11992,22 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="5"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="D39" s="6">
+        <v>668</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
         <v>0.70658682634730496</v>
       </c>
-      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -11789,10 +12015,10 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="M39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="R39" s="5"/>
+      <c r="Q39" s="6"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -11801,21 +12027,22 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D40" s="6">
+        <v>663</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
         <v>0.69183673469387696</v>
       </c>
-      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -11823,10 +12050,10 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="M40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-      <c r="R40" s="5"/>
+      <c r="Q40" s="6"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -11835,9 +12062,10 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="R41" s="5"/>
+      <c r="AA40" s="5"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D41" s="6"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -11846,9 +12074,10 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E42" s="6"/>
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -11856,10 +12085,10 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="M42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="R42" s="5"/>
+      <c r="Q42" s="6"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -11868,9 +12097,10 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E43" s="6"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -11878,10 +12108,10 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="M43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="R43" s="5"/>
+      <c r="Q43" s="6"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -11890,21 +12120,22 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D44" s="6">
+        <v>660</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
         <v>0.68678459937564995</v>
       </c>
-      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -11912,21 +12143,22 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="M44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="R44" s="5"/>
+      <c r="Q44" s="6"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="8"/>
       <c r="Z44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E45" s="6"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -11934,24 +12166,25 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="M45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D46" s="6">
+        <v>676</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
         <v>0.66915191053122003</v>
       </c>
-      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -11959,21 +12192,22 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="M46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D47" s="6">
+        <v>677</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
         <v>0.67109004739336398</v>
       </c>
-      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11981,32 +12215,34 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="M47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="D48" s="6">
+        <v>679</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
         <v>0.71773347324239201</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D49" s="6">
+        <v>685</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
         <v>0.72607260726072598</v>
       </c>
-      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -12014,32 +12250,34 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="N49" s="6"/>
+      <c r="M49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D50" s="6">
+        <v>687</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6">
         <v>0.68426197458455496</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D51" s="6">
+        <v>688</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
         <v>0.71817192600652802</v>
       </c>
-      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -12047,21 +12285,24 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="M51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C52" s="85" t="s">
         <v>712</v>
       </c>
-      <c r="C52" s="91" t="s">
-        <v>709</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="D52" s="13">
+        <v>0.87040253757269004</v>
+      </c>
+      <c r="E52" s="10">
         <v>0.74479737130339496</v>
       </c>
-      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -12069,21 +12310,24 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="M52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="D53" s="6">
+        <v>0.92861631732653105</v>
+      </c>
+      <c r="E53" s="6">
         <v>0.72120559741657697</v>
       </c>
-      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -12091,21 +12335,24 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="M53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D54" s="6">
+        <v>0.87787264452552005</v>
+      </c>
+      <c r="E54" s="6">
         <v>0.72198275862068895</v>
       </c>
-      <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -12113,21 +12360,24 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="M54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="D55" s="6">
+        <v>0.86799727829439699</v>
+      </c>
+      <c r="E55" s="6">
         <v>0.72513368983957205</v>
       </c>
-      <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -12135,12 +12385,34 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="M55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E57" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <v>0.74802259887005595</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6">
+        <v>0.74776785714285698</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -12148,12 +12420,13 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="N57" s="6"/>
+      <c r="M57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E58" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -12161,24 +12434,12 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="N58" s="6"/>
+      <c r="M58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0.71689989235737295</v>
-      </c>
-      <c r="E59" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -12186,21 +12447,12 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="N59" s="6"/>
+      <c r="M59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0.72476089266737498</v>
-      </c>
-      <c r="E60" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -12208,21 +12460,12 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="N60" s="6"/>
+      <c r="M60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0.72167216721672101</v>
-      </c>
-      <c r="E61" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -12230,32 +12473,12 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="N61" s="6"/>
+      <c r="M61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.71063829787234001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.70920502092050197</v>
-      </c>
-      <c r="E63" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -12263,21 +12486,12 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="N63" s="6"/>
+      <c r="M63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0.71445086705202299</v>
-      </c>
-      <c r="E64" s="6"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -12285,21 +12499,12 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="N64" s="6"/>
+      <c r="M64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="D65" s="6">
-        <v>0.70931537598204197</v>
-      </c>
-      <c r="E65" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -12307,12 +12512,13 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="N65" s="6"/>
+      <c r="M65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E66" s="6"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -12320,12 +12526,13 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="N66" s="6"/>
+      <c r="M66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E67" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -12333,12 +12540,30 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="N67" s="6"/>
+      <c r="M67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E69" s="6"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.89588104982540395</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0.71689989235737295</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -12346,12 +12571,62 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="N69" s="6"/>
+      <c r="M69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E73" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.89689907912046596</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.72476089266737498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.82612122645227404</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.72167216721672101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6">
+        <v>0.71063829787234001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6">
+        <v>0.70920502092050197</v>
+      </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -12359,12 +12634,37 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="N73" s="6"/>
+      <c r="M73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E76" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <v>0.71445086705202299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6">
+        <v>0.70931537598204197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -12372,12 +12672,13 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="N76" s="6"/>
+      <c r="M76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E77" s="6"/>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -12385,12 +12686,13 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="N77" s="6"/>
+      <c r="M77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E78" s="6"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -12398,12 +12700,22 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="N78" s="6"/>
+      <c r="M78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E79" s="6"/>
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6">
+        <v>0.75986471251409204</v>
+      </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -12411,12 +12723,16 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="N79" s="6"/>
+      <c r="M79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
-    </row>
-    <row r="81" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E81" s="6"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -12424,12 +12740,12 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="N81" s="6"/>
+      <c r="M81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
-    </row>
-    <row r="82" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E82" s="6"/>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="4:33" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -12437,12 +12753,19 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="N82" s="6"/>
+      <c r="M82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
-    </row>
-    <row r="85" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E85" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -12450,12 +12773,13 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="N85" s="6"/>
+      <c r="M85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="13"/>
-    </row>
-    <row r="86" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E86" s="12"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D86" s="6"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -12463,13 +12787,14 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
-      <c r="N86" s="6"/>
+      <c r="M86" s="12"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
-    </row>
-    <row r="87" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="D87" s="13"/>
-      <c r="E87" s="10"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -12477,12 +12802,13 @@
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="6"/>
+      <c r="M87" s="10"/>
+      <c r="O87" s="10"/>
       <c r="P87" s="6"/>
-    </row>
-    <row r="88" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E88" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -12490,12 +12816,16 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="N88" s="6"/>
+      <c r="M88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
-    </row>
-    <row r="90" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E90" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -12503,12 +12833,13 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="N90" s="6"/>
+      <c r="M90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
-    </row>
-    <row r="91" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E91" s="6"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -12516,12 +12847,13 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="M91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
-    </row>
-    <row r="92" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E92" s="6"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -12529,12 +12861,13 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="N92" s="6"/>
+      <c r="M92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
-    </row>
-    <row r="93" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E93" s="6"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -12542,12 +12875,13 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="N93" s="6"/>
+      <c r="M93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
-    </row>
-    <row r="94" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E94" s="6"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -12555,7 +12889,7 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="N94" s="6"/>
+      <c r="M94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
@@ -12574,9 +12908,13 @@
       <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
       <c r="AF94" s="6"/>
-    </row>
-    <row r="96" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="E96" s="6"/>
+      <c r="AG94" s="6"/>
+    </row>
+    <row r="95" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -12584,12 +12922,13 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="N96" s="6"/>
+      <c r="M96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E97" s="6"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -12597,12 +12936,13 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="N97" s="6"/>
+      <c r="M97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E98" s="6"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -12610,12 +12950,13 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="N98" s="6"/>
+      <c r="M98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E99" s="6"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -12623,12 +12964,13 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="N99" s="6"/>
+      <c r="M99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E100" s="6"/>
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -12636,13 +12978,14 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="N100" s="6"/>
+      <c r="M100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101"/>
-      <c r="E101" s="6"/>
+      <c r="D101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -12650,13 +12993,17 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="N101" s="6"/>
+      <c r="M101" s="6"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="10"/>
-      <c r="E103" s="6"/>
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D103" s="6"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -12664,12 +13011,16 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="N103" s="6"/>
+      <c r="M103" s="6"/>
       <c r="O103" s="6"/>
-      <c r="P103" s="13"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E105" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -12677,12 +13028,16 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="N105" s="6"/>
+      <c r="M105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E107" s="6"/>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -12690,12 +13045,13 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="N107" s="6"/>
+      <c r="M107" s="6"/>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E108" s="6"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -12703,12 +13059,13 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="N108" s="6"/>
+      <c r="M108" s="6"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E109" s="6"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -12716,12 +13073,13 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="N109" s="6"/>
+      <c r="M109" s="6"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E110" s="6"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -12729,25 +13087,27 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="N110" s="6"/>
+      <c r="M110" s="6"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E111" s="15"/>
-      <c r="F111" s="6"/>
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D111" s="6"/>
+      <c r="F111" s="15"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="N111" s="6"/>
+      <c r="M111" s="6"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E112" s="6"/>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -12755,25 +13115,30 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="N112" s="6"/>
+      <c r="M112" s="6"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
-    </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E114" s="15"/>
-      <c r="F114" s="6"/>
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D114" s="6"/>
+      <c r="F114" s="15"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="N114" s="6"/>
+      <c r="M114" s="6"/>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
-    </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E115" s="6"/>
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -12781,14 +13146,24 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="N115" s="6"/>
+      <c r="M115" s="6"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D118" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12800,8 +13175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12815,7 +13190,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -12831,7 +13206,7 @@
       <c r="E2" s="18"/>
       <c r="J2" s="18"/>
       <c r="P2" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="Y2" s="18"/>
       <c r="Z2" s="1"/>
@@ -12841,76 +13216,76 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
+      <c r="F3" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="92"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
-        <v>641</v>
-      </c>
-      <c r="S3" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="T3" s="89"/>
+        <v>621</v>
+      </c>
+      <c r="S3" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="T3" s="88"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="Q4" s="46"/>
       <c r="R4" s="46"/>
       <c r="S4" s="31" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="U4" s="46"/>
       <c r="V4" s="46" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B5" s="24">
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="85" t="s">
-        <v>599</v>
+      <c r="D5" s="89" t="s">
+        <v>579</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F5" s="48">
         <v>13426</v>
@@ -12938,13 +13313,13 @@
       </c>
       <c r="M5" s="18"/>
       <c r="P5" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q5" s="85" t="s">
-        <v>631</v>
+        <v>623</v>
+      </c>
+      <c r="Q5" s="89" t="s">
+        <v>611</v>
       </c>
       <c r="R5" s="56" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S5" s="29">
         <v>12435</v>
@@ -12963,15 +13338,15 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B6" s="24">
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="86"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="21" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F6" s="50">
         <v>98</v>
@@ -12998,9 +13373,9 @@
         <v>0.97317913385826771</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="Q6" s="87"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="57" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="S6" s="30">
         <v>762</v>
@@ -13019,15 +13394,15 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B7" s="24">
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="86"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="21" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="F7" s="50">
         <v>425</v>
@@ -13070,7 +13445,7 @@
       </c>
       <c r="V7" s="47"/>
       <c r="W7" s="46" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="X7" s="47">
         <f>SUM(S5,T6)/U7</f>
@@ -13085,9 +13460,9 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="87"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="22" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F8" s="52">
         <v>599</v>
@@ -13116,7 +13491,7 @@
       <c r="M8" s="18"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="31" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="S8" s="60">
         <f>S5/S7</f>
@@ -13129,7 +13504,7 @@
       <c r="U8" s="46"/>
       <c r="V8" s="47"/>
       <c r="W8" s="46" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="X8" s="70">
         <f>V6</f>
@@ -13163,7 +13538,7 @@
         <v>29760</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N9" s="47">
         <f>SUM(F5,G6,H7,I8 )/J9</f>
@@ -13176,7 +13551,7 @@
       <c r="U9" s="46"/>
       <c r="V9" s="47"/>
       <c r="W9" s="46" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="X9" s="71">
         <f>T8</f>
@@ -13189,7 +13564,7 @@
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="25" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="F10" s="60">
         <f>F5/F9</f>
@@ -13209,7 +13584,7 @@
       </c>
       <c r="J10" s="18"/>
       <c r="M10" s="46" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="N10" s="69">
         <f>(G6+H7+I8)/SUM(J6:J8)</f>
@@ -13220,7 +13595,7 @@
       <c r="U10" s="46"/>
       <c r="V10" s="47"/>
       <c r="W10" s="46" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="X10" s="68">
         <f>2*X8*X9/(X8+X9)</f>
@@ -13239,7 +13614,7 @@
       <c r="I11" s="62"/>
       <c r="J11" s="18"/>
       <c r="M11" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="N11" s="47">
         <f>(G6+H7+I8)/SUM(G9:I9)</f>
@@ -13254,7 +13629,7 @@
       <c r="E12" s="18"/>
       <c r="J12" s="18"/>
       <c r="M12" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="N12" s="68">
         <f>2*N11*N10/(N11+N10)</f>
@@ -13266,84 +13641,84 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="82" t="s">
-        <v>605</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
+      <c r="F13" s="91" t="s">
+        <v>585</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="82" t="s">
-        <v>629</v>
-      </c>
-      <c r="T13" s="84"/>
+      <c r="S13" s="91" t="s">
+        <v>609</v>
+      </c>
+      <c r="T13" s="92"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="40" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="L14" s="66" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="M14" s="44" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
       <c r="S14" s="29" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="T14" s="54" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="U14" s="48"/>
       <c r="V14" s="49" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="B15" s="24">
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="85" t="s">
-        <v>611</v>
+      <c r="D15" s="89" t="s">
+        <v>591</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="F15" s="48">
         <v>2055</v>
@@ -13370,11 +13745,11 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="85" t="s">
-        <v>611</v>
+      <c r="Q15" s="89" t="s">
+        <v>591</v>
       </c>
       <c r="R15" s="29" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S15" s="29">
         <v>2066</v>
@@ -13393,15 +13768,15 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B16" s="24">
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="21" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="F16" s="50">
         <v>75</v>
@@ -13431,9 +13806,9 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="87"/>
+      <c r="Q16" s="90"/>
       <c r="R16" s="30" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="S16" s="30">
         <v>52</v>
@@ -13452,15 +13827,15 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B17" s="24">
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="86"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="21" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="F17" s="50">
         <v>65</v>
@@ -13506,7 +13881,7 @@
       </c>
       <c r="V17" s="46"/>
       <c r="W17" s="46" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="X17" s="47">
         <f>SUM(S15,T16)/U17</f>
@@ -13521,9 +13896,9 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="87"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="22" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="F18" s="52">
         <v>143</v>
@@ -13555,7 +13930,7 @@
       </c>
       <c r="Q18" s="46"/>
       <c r="R18" s="31" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="S18" s="60">
         <f>S15/S17</f>
@@ -13568,7 +13943,7 @@
       <c r="U18" s="46"/>
       <c r="V18" s="46"/>
       <c r="W18" s="46" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="X18" s="70">
         <f>V16</f>
@@ -13602,7 +13977,7 @@
         <v>2755</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N19" s="47">
         <f>SUM(F15,G16,H17,I18 )/J19</f>
@@ -13615,7 +13990,7 @@
       <c r="U19" s="46"/>
       <c r="V19" s="46"/>
       <c r="W19" s="46" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="X19" s="71">
         <f>T18</f>
@@ -13624,7 +13999,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E20" s="35" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F20" s="73">
         <f>F15/F19</f>
@@ -13644,7 +14019,7 @@
       </c>
       <c r="J20" s="18"/>
       <c r="M20" s="46" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="N20" s="69">
         <f>(G16+H17+I18)/SUM(J16:J18)</f>
@@ -13652,7 +14027,7 @@
       </c>
       <c r="O20" s="18"/>
       <c r="W20" s="46" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="X20" s="68">
         <f>2*X18*X19/(X18+X19)</f>
@@ -13661,7 +14036,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M21" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="N21" s="47">
         <f>(G16+H17+I18)/SUM(G19:I19)</f>
@@ -13671,7 +14046,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M22" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="N22" s="68">
         <f>2*N21*N20/(N21+N20)</f>
@@ -13682,8 +14057,8 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
     </row>
@@ -13697,7 +14072,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
@@ -13708,49 +14083,49 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
+      <c r="F26" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K27" s="49" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="L27" s="63" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="M27" s="18"/>
     </row>
@@ -13758,11 +14133,11 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="85" t="s">
-        <v>599</v>
+      <c r="D28" s="89" t="s">
+        <v>579</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F28" s="46">
         <v>13545</v>
@@ -13794,9 +14169,9 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="86"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="21" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F29" s="46">
         <v>95</v>
@@ -13828,9 +14203,9 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="93"/>
       <c r="E30" s="21" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="F30" s="46">
         <v>74</v>
@@ -13862,9 +14237,9 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="87"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="22" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F31" s="46">
         <v>179</v>
@@ -13919,7 +14294,7 @@
         <v>30160</v>
       </c>
       <c r="M32" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N32" s="47">
         <f>SUM(F28,G29,H30,I31 )/J32</f>
@@ -13932,7 +14307,7 @@
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="28" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F33" s="60">
         <f>F28/F32</f>
@@ -13952,7 +14327,7 @@
       </c>
       <c r="J33" s="18"/>
       <c r="M33" s="46" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="N33" s="47">
         <f>(G29+H30+I31)/SUM(J29:J31)</f>
@@ -13967,7 +14342,7 @@
       <c r="E34" s="18"/>
       <c r="J34" s="18"/>
       <c r="M34" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="N34" s="67">
         <f>(G29+H30+I31)/SUM(G32:I32)</f>
@@ -13979,7 +14354,7 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="M35" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="N35" s="68">
         <f>2*N34*N33/(N34+N33)</f>
@@ -13992,12 +14367,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
+      <c r="F36" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="92"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -14006,39 +14381,39 @@
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="40" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="I37" s="55" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="L37" s="66" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="M37" s="44" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="85" t="s">
-        <v>611</v>
+      <c r="D38" s="89" t="s">
+        <v>591</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="F38" s="46">
         <v>2046</v>
@@ -14070,9 +14445,9 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="86"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="21" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="F39" s="46">
         <v>24</v>
@@ -14107,9 +14482,9 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="86"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="21" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="F40" s="46">
         <v>12</v>
@@ -14144,9 +14519,9 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="87"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="22" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F41" s="46">
         <v>9</v>
@@ -14204,7 +14579,7 @@
         <v>2755</v>
       </c>
       <c r="M42" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N42" s="47">
         <f>SUM(F38,G39,H40,I41 )/J42</f>
@@ -14217,7 +14592,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="35" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F43" s="73">
         <f>F38/F42</f>
@@ -14237,7 +14612,7 @@
       </c>
       <c r="J43" s="18"/>
       <c r="M43" s="46" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="N43" s="47">
         <f>(G39+H40+I41)/SUM(J39:J41)</f>
@@ -14252,7 +14627,7 @@
       <c r="E44" s="18"/>
       <c r="J44" s="18"/>
       <c r="M44" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="N44" s="69">
         <f>(G39+H40+I41)/SUM(G42:I42)</f>
@@ -14264,7 +14639,7 @@
       <c r="E45" s="18"/>
       <c r="J45" s="18"/>
       <c r="M45" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="N45" s="68">
         <f>2*N44*N43/(N44+N43)</f>
@@ -14273,18 +14648,18 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
+      <c r="F48" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="92"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -14292,34 +14667,34 @@
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="J49" s="59" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="L49" s="63" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="85" t="s">
-        <v>599</v>
+      <c r="D50" s="89" t="s">
+        <v>579</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F50" s="46">
         <v>12235</v>
@@ -14348,9 +14723,9 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="86"/>
+      <c r="D51" s="93"/>
       <c r="E51" s="21" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F51" s="46">
         <v>415</v>
@@ -14379,9 +14754,9 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="86"/>
+      <c r="D52" s="93"/>
       <c r="E52" s="21" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F52" s="46">
         <v>235</v>
@@ -14410,9 +14785,9 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="87"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="22" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F53" s="46">
         <v>434</v>
@@ -14464,22 +14839,22 @@
         <v>27146</v>
       </c>
       <c r="M54" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N54" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="O54" s="46" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="P54" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D55" s="18"/>
       <c r="E55" s="37" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F55" s="60">
         <f>F50/F54</f>
@@ -14527,47 +14902,47 @@
       <c r="N57" s="68"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="84"/>
+      <c r="F58" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="92"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H59" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="I59" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="K59" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="L59" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="M59" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="I59" s="55" t="s">
-        <v>604</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="K59" s="61" t="s">
-        <v>620</v>
-      </c>
-      <c r="L59" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="M59" s="44" t="s">
-        <v>616</v>
-      </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="85" t="s">
-        <v>611</v>
+      <c r="D60" s="89" t="s">
+        <v>591</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F60" s="46">
         <v>2103</v>
@@ -14596,9 +14971,9 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="86"/>
+      <c r="D61" s="93"/>
       <c r="E61" s="21" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F61" s="46">
         <v>32</v>
@@ -14630,9 +15005,9 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="86"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="21" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F62" s="46">
         <v>18</v>
@@ -14664,9 +15039,9 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="87"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="22" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F63" s="46">
         <v>12</v>
@@ -14721,22 +15096,22 @@
         <v>2755</v>
       </c>
       <c r="M64" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N64" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="O64" s="46" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="P64" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D65" s="18"/>
       <c r="E65" s="35" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F65" s="73">
         <f>F60/F64</f>
@@ -14788,23 +15163,23 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="84"/>
+      <c r="F70" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="92"/>
       <c r="J70" s="46"/>
       <c r="M70" s="18"/>
     </row>
@@ -14812,34 +15187,34 @@
       <c r="D71" s="18"/>
       <c r="E71" s="46"/>
       <c r="F71" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I71" s="55" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="J71" s="38" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K71" s="49" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="L71" s="63" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="85" t="s">
-        <v>599</v>
+      <c r="D72" s="89" t="s">
+        <v>579</v>
       </c>
       <c r="E72" s="56" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F72" s="46">
         <v>12894</v>
@@ -14868,9 +15243,9 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="86"/>
+      <c r="D73" s="93"/>
       <c r="E73" s="74" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F73" s="46">
         <v>190</v>
@@ -14899,9 +15274,9 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="86"/>
+      <c r="D74" s="93"/>
       <c r="E74" s="74" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F74" s="46">
         <v>121</v>
@@ -14930,9 +15305,9 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="87"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="57" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F75" s="46">
         <v>233</v>
@@ -14984,22 +15359,22 @@
         <v>27146</v>
       </c>
       <c r="M76" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N76" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="O76" s="46" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="P76" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D77" s="18"/>
       <c r="E77" s="41" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F77" s="60">
         <f>F72/F76</f>
@@ -15046,48 +15421,48 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="46"/>
-      <c r="F80" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="84"/>
+      <c r="F80" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G80" s="94"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="92"/>
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D81" s="18"/>
       <c r="E81" s="46"/>
       <c r="F81" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G81" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H81" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="I81" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="J81" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="K81" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="L81" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="M81" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="I81" s="55" t="s">
-        <v>604</v>
-      </c>
-      <c r="J81" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="K81" s="61" t="s">
-        <v>620</v>
-      </c>
-      <c r="L81" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="M81" s="44" t="s">
-        <v>616</v>
-      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="85" t="s">
-        <v>611</v>
+      <c r="D82" s="89" t="s">
+        <v>591</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F82" s="46">
         <v>2130</v>
@@ -15116,9 +15491,9 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="86"/>
+      <c r="D83" s="93"/>
       <c r="E83" s="74" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F83" s="46">
         <v>29</v>
@@ -15150,9 +15525,9 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="86"/>
+      <c r="D84" s="93"/>
       <c r="E84" s="74" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F84" s="46">
         <v>16</v>
@@ -15184,9 +15559,9 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="87"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="57" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F85" s="46">
         <v>14</v>
@@ -15241,22 +15616,22 @@
         <v>2755</v>
       </c>
       <c r="M86" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N86" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="O86" s="46" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="P86" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D87" s="18"/>
       <c r="E87" s="66" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F87" s="73">
         <f>F82/F86</f>
@@ -15301,7 +15676,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
@@ -15311,16 +15686,16 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="46"/>
-      <c r="F90" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="84"/>
+      <c r="F90" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G90" s="94"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="92"/>
       <c r="J90" s="46"/>
       <c r="M90" s="18"/>
     </row>
@@ -15328,34 +15703,34 @@
       <c r="D91" s="18"/>
       <c r="E91" s="46"/>
       <c r="F91" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H91" s="52" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I91" s="55" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="J91" s="38" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K91" s="49" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="L91" s="63" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="85" t="s">
-        <v>599</v>
+      <c r="D92" s="89" t="s">
+        <v>579</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F92" s="18">
         <v>12750</v>
@@ -15384,9 +15759,9 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="86"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="74" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F93" s="18">
         <v>355</v>
@@ -15415,9 +15790,9 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="86"/>
+      <c r="D94" s="93"/>
       <c r="E94" s="74" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F94" s="18">
         <v>200</v>
@@ -15446,9 +15821,9 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="87"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="57" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F95" s="18">
         <v>373</v>
@@ -15500,22 +15875,22 @@
         <v>27146</v>
       </c>
       <c r="M96" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N96" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="O96" s="46" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="P96" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D97" s="18"/>
       <c r="E97" s="41" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F97" s="60">
         <f>F92/F96</f>
@@ -15562,48 +15937,48 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="46"/>
-      <c r="F100" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="84"/>
+      <c r="F100" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G100" s="94"/>
+      <c r="H100" s="94"/>
+      <c r="I100" s="92"/>
       <c r="J100" s="46"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D101" s="18"/>
       <c r="E101" s="46"/>
       <c r="F101" s="40" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G101" s="52" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="H101" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="I101" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="J101" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="K101" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="L101" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="M101" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="I101" s="55" t="s">
-        <v>604</v>
-      </c>
-      <c r="J101" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="K101" s="61" t="s">
-        <v>620</v>
-      </c>
-      <c r="L101" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="M101" s="44" t="s">
-        <v>616</v>
-      </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="85" t="s">
-        <v>611</v>
+      <c r="D102" s="89" t="s">
+        <v>591</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="F102" s="18">
         <v>2130</v>
@@ -15632,9 +16007,9 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="86"/>
+      <c r="D103" s="93"/>
       <c r="E103" s="74" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F103" s="18">
         <v>28</v>
@@ -15666,9 +16041,9 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="86"/>
+      <c r="D104" s="93"/>
       <c r="E104" s="74" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F104" s="18">
         <v>16</v>
@@ -15700,9 +16075,9 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="87"/>
+      <c r="D105" s="90"/>
       <c r="E105" s="57" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F105" s="18">
         <v>15</v>
@@ -15757,22 +16132,22 @@
         <v>2755</v>
       </c>
       <c r="M106" s="46" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="N106" s="46" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="O106" s="46" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="P106" s="46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="107" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D107" s="18"/>
       <c r="E107" s="66" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F107" s="73">
         <f>F102/F106</f>
@@ -15810,6 +16185,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -15823,18 +16210,6 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15843,1286 +16218,1582 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:V48"/>
+  <dimension ref="B1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:I18"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="10.83203125" style="18"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
       <c r="I1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-    </row>
-    <row r="2" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
       <c r="I2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-    </row>
-    <row r="3" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D3" s="18"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
+      <c r="J2" s="46"/>
+      <c r="P2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C3" s="46"/>
+      <c r="D3" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D4" s="18"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="80" t="s">
-        <v>594</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>595</v>
-      </c>
-      <c r="H4" s="52" t="s">
+      <c r="K3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="18"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C4" s="46"/>
+      <c r="D4" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>599</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="J4" s="63" t="s">
         <v>596</v>
       </c>
-      <c r="I4" s="55" t="s">
-        <v>597</v>
-      </c>
-      <c r="J4" s="78" t="s">
+      <c r="K4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>599</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="X4" s="63" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y4" s="18"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="18">
+        <v>12647</v>
+      </c>
+      <c r="E5" s="18">
+        <v>317</v>
+      </c>
+      <c r="F5" s="46">
+        <v>207</v>
+      </c>
+      <c r="G5" s="46">
+        <v>283</v>
+      </c>
+      <c r="H5" s="77">
+        <f>SUM(D5:G5)</f>
+        <v>13454</v>
+      </c>
+      <c r="I5" s="51">
+        <f>H5/H9</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="J5" s="64">
+        <f>D5/H5</f>
+        <v>0.94001783856102272</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="P5" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="R5" s="18">
+        <v>12663</v>
+      </c>
+      <c r="S5" s="18">
+        <v>305</v>
+      </c>
+      <c r="T5" s="18">
+        <v>202</v>
+      </c>
+      <c r="U5" s="18">
+        <v>284</v>
+      </c>
+      <c r="V5" s="77">
+        <f>SUM(R5:U5)</f>
+        <v>13454</v>
+      </c>
+      <c r="W5" s="51">
+        <f>V5/V9</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="X5" s="64">
+        <f>R5/V5</f>
+        <v>0.94120707596253905</v>
+      </c>
+      <c r="Y5" s="18"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="93"/>
+      <c r="C6" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" s="18">
+        <v>626</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3159</v>
+      </c>
+      <c r="F6" s="46">
+        <v>17</v>
+      </c>
+      <c r="G6" s="46">
+        <v>17</v>
+      </c>
+      <c r="H6" s="77">
+        <f>SUM(D6:G6)</f>
+        <v>3819</v>
+      </c>
+      <c r="I6" s="51">
+        <f>H6/H9</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="J6" s="64">
+        <f>E6/H6</f>
+        <v>0.8271798900235664</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="R6" s="18">
+        <v>579</v>
+      </c>
+      <c r="S6" s="18">
+        <v>3190</v>
+      </c>
+      <c r="T6" s="18">
+        <v>29</v>
+      </c>
+      <c r="U6" s="18">
+        <v>21</v>
+      </c>
+      <c r="V6" s="77">
+        <f>SUM(R6:U6)</f>
+        <v>3819</v>
+      </c>
+      <c r="W6" s="51">
+        <f>V6/V9</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="X6" s="64">
+        <f>S6/V6</f>
+        <v>0.83529719821942916</v>
+      </c>
+      <c r="Y6" s="18"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B7" s="93"/>
+      <c r="C7" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="D7" s="18">
+        <v>453</v>
+      </c>
+      <c r="E7" s="18">
+        <v>25</v>
+      </c>
+      <c r="F7" s="46">
+        <v>4244</v>
+      </c>
+      <c r="G7" s="46">
+        <v>195</v>
+      </c>
+      <c r="H7" s="77">
+        <f>SUM(D7:G7)</f>
+        <v>4917</v>
+      </c>
+      <c r="I7" s="51">
+        <f>H7/H9</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="J7" s="64">
+        <f>F7/H7</f>
+        <v>0.86312792353060808</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="R7" s="18">
+        <v>442</v>
+      </c>
+      <c r="S7" s="18">
+        <v>29</v>
+      </c>
+      <c r="T7" s="18">
+        <v>4285</v>
+      </c>
+      <c r="U7" s="18">
+        <v>161</v>
+      </c>
+      <c r="V7" s="77">
+        <f>SUM(R7:U7)</f>
+        <v>4917</v>
+      </c>
+      <c r="W7" s="51">
+        <f>V7/V9</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="X7" s="64">
+        <f>T7/V7</f>
+        <v>0.871466341264999</v>
+      </c>
+      <c r="Y7" s="18"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B8" s="90"/>
+      <c r="C8" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="18">
+        <v>630</v>
+      </c>
+      <c r="E8" s="18">
+        <v>28</v>
+      </c>
+      <c r="F8" s="46">
+        <v>176</v>
+      </c>
+      <c r="G8" s="46">
+        <v>4122</v>
+      </c>
+      <c r="H8" s="78">
+        <f>SUM(D8:G8)</f>
+        <v>4956</v>
+      </c>
+      <c r="I8" s="53">
+        <f>H8/H9</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="J8" s="65">
+        <f>G8/H8</f>
+        <v>0.83171912832929784</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="R8" s="18">
+        <v>567</v>
+      </c>
+      <c r="S8" s="18">
+        <v>23</v>
+      </c>
+      <c r="T8" s="18">
+        <v>171</v>
+      </c>
+      <c r="U8" s="18">
+        <v>4195</v>
+      </c>
+      <c r="V8" s="78">
+        <f>SUM(R8:U8)</f>
+        <v>4956</v>
+      </c>
+      <c r="W8" s="53">
+        <f>V8/V9</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="X8" s="65">
+        <f>U8/V8</f>
+        <v>0.84644874899112188</v>
+      </c>
+      <c r="Y8" s="18"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C9" s="46"/>
+      <c r="D9" s="79">
+        <f>SUM(D5:D8)</f>
+        <v>14356</v>
+      </c>
+      <c r="E9" s="80">
+        <f>SUM(E5:E8)</f>
+        <v>3529</v>
+      </c>
+      <c r="F9" s="80">
+        <f>SUM(F5:F8)</f>
+        <v>4644</v>
+      </c>
+      <c r="G9" s="81">
+        <f>SUM(G5:G8)</f>
+        <v>4617</v>
+      </c>
+      <c r="H9" s="57">
+        <f>SUM(H5:H8)</f>
+        <v>27146</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="N9" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="K4" s="49" t="s">
-        <v>620</v>
-      </c>
-      <c r="L4" s="63" t="s">
-        <v>616</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="S4">
-        <v>2118</v>
-      </c>
-      <c r="T4">
-        <v>90</v>
-      </c>
-      <c r="U4" s="46">
-        <v>42</v>
-      </c>
-      <c r="V4" s="46">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D5" s="85" t="s">
-        <v>599</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="F5">
-        <v>13116</v>
-      </c>
-      <c r="G5">
-        <v>141</v>
-      </c>
-      <c r="H5" s="46">
-        <v>72</v>
-      </c>
-      <c r="I5" s="46">
-        <v>125</v>
-      </c>
-      <c r="J5" s="79">
-        <f>SUM(F5:I5)</f>
-        <v>13454</v>
-      </c>
-      <c r="K5" s="51">
-        <f>J5/J9</f>
-        <v>0.49561629706034038</v>
-      </c>
-      <c r="L5" s="64">
-        <f>F5/J5</f>
-        <v>0.97487735989296864</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="S5">
-        <v>27</v>
-      </c>
-      <c r="T5">
-        <v>114</v>
-      </c>
-      <c r="U5" s="46">
-        <v>1</v>
-      </c>
-      <c r="V5" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D6" s="86"/>
-      <c r="E6" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="F6">
-        <v>80</v>
-      </c>
-      <c r="G6">
-        <v>3714</v>
-      </c>
-      <c r="H6" s="46">
-        <v>11</v>
-      </c>
-      <c r="I6" s="46">
-        <v>14</v>
-      </c>
-      <c r="J6" s="79">
-        <f>SUM(F6:I6)</f>
-        <v>3819</v>
-      </c>
-      <c r="K6" s="51">
-        <f>J6/J9</f>
-        <v>0.14068371030722759</v>
-      </c>
-      <c r="L6" s="64">
-        <f>G6/J6</f>
-        <v>0.97250589159465828</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="S6">
-        <v>14</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="46">
-        <v>104</v>
-      </c>
-      <c r="V6" s="46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D7" s="86"/>
-      <c r="E7" s="74" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="79">
+        <f>SUM(R5:R8)</f>
+        <v>14251</v>
+      </c>
+      <c r="S9" s="80">
+        <f>SUM(S5:S8)</f>
+        <v>3547</v>
+      </c>
+      <c r="T9" s="80">
+        <f>SUM(T5:T8)</f>
+        <v>4687</v>
+      </c>
+      <c r="U9" s="81">
+        <f>SUM(U5:U8)</f>
+        <v>4661</v>
+      </c>
+      <c r="V9" s="57">
+        <f>SUM(V5:V8)</f>
+        <v>27146</v>
+      </c>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z9" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA9" s="46" t="s">
         <v>596</v>
       </c>
-      <c r="F7">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="46">
-        <v>4755</v>
-      </c>
-      <c r="I7" s="46">
-        <v>109</v>
-      </c>
-      <c r="J7" s="79">
-        <f>SUM(F7:I7)</f>
-        <v>4917</v>
-      </c>
-      <c r="K7" s="51">
-        <f>J7/J9</f>
-        <v>0.18113165843954909</v>
-      </c>
-      <c r="L7" s="64">
-        <f>H7/J7</f>
-        <v>0.96705308114704092</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="S7">
-        <v>11</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="46">
-        <v>3</v>
-      </c>
-      <c r="V7" s="46">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D8" s="87"/>
-      <c r="E8" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="46">
-        <v>107</v>
-      </c>
-      <c r="I8" s="46">
-        <v>4739</v>
-      </c>
-      <c r="J8" s="80">
-        <f>SUM(F8:I8)</f>
-        <v>4956</v>
-      </c>
-      <c r="K8" s="53">
-        <f>J8/J9</f>
-        <v>0.18256833419288293</v>
-      </c>
-      <c r="L8" s="65">
-        <f>I8/J8</f>
-        <v>0.95621468926553677</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-    </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D9" s="18"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="75">
-        <f>SUM(F5:F8)</f>
-        <v>13344</v>
-      </c>
-      <c r="G9" s="76">
-        <f>SUM(G5:G8)</f>
-        <v>3870</v>
-      </c>
-      <c r="H9" s="76">
-        <f>SUM(H5:H8)</f>
-        <v>4945</v>
-      </c>
-      <c r="I9" s="77">
-        <f>SUM(I5:I8)</f>
-        <v>4987</v>
-      </c>
-      <c r="J9" s="57">
-        <f>SUM(J5:J8)</f>
-        <v>27146</v>
-      </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="P9" s="46" t="s">
-        <v>639</v>
-      </c>
-      <c r="S9">
-        <v>13116</v>
-      </c>
-      <c r="T9">
-        <v>141</v>
-      </c>
-      <c r="U9" s="46">
-        <v>72</v>
-      </c>
-      <c r="V9" s="46">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D10" s="18"/>
-      <c r="E10" s="75" t="s">
-        <v>618</v>
+      <c r="AB9" s="46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C10" s="79" t="s">
+        <v>598</v>
+      </c>
+      <c r="D10" s="60">
+        <f>D5/D9</f>
+        <v>0.88095569796600726</v>
+      </c>
+      <c r="E10" s="60">
+        <f>E6/E9</f>
+        <v>0.89515443468404643</v>
       </c>
       <c r="F10" s="60">
-        <f>F5/F9</f>
-        <v>0.9829136690647482</v>
-      </c>
-      <c r="G10" s="60">
-        <f>G6/G9</f>
-        <v>0.95968992248062013</v>
-      </c>
-      <c r="H10" s="60">
-        <f>H7/H9</f>
-        <v>0.96157735085945395</v>
-      </c>
-      <c r="I10" s="61">
-        <f>I8/I9</f>
-        <v>0.95027070382995793</v>
-      </c>
+        <f>F7/F9</f>
+        <v>0.91386735572782085</v>
+      </c>
+      <c r="G10" s="61">
+        <f>G8/G9</f>
+        <v>0.89278752436647169</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+      <c r="K10" s="47">
+        <f>SUM(D5,E6,F7,G8 )/H9</f>
+        <v>0.89044426434833857</v>
+      </c>
+      <c r="L10" s="67">
+        <f>(E6+F7+G8)/SUM(E9:G9)</f>
+        <v>0.9010946051602815</v>
+      </c>
       <c r="M10" s="47">
-        <f>SUM(F5,G6,H7,I8 )/J9</f>
-        <v>0.96971929566050252</v>
-      </c>
-      <c r="N10" s="67">
-        <f>(G6+H7+I8)/SUM(G9:I9)</f>
-        <v>0.95696275902043182</v>
-      </c>
-      <c r="O10" s="47">
-        <f>(G6+H7+I8)/SUM(J6:J8)</f>
-        <v>0.96465089103125912</v>
-      </c>
-      <c r="P10" s="68">
-        <f>2*N10*O10/(N10+O10)</f>
-        <v>0.96079144540627048</v>
-      </c>
-      <c r="S10">
-        <v>80</v>
-      </c>
-      <c r="T10">
-        <v>3714</v>
-      </c>
-      <c r="U10" s="46">
-        <v>11</v>
-      </c>
-      <c r="V10" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="18"/>
+        <f>(E6+F7+G8)/SUM(H6:H8)</f>
+        <v>0.84173239848086479</v>
+      </c>
+      <c r="N10" s="68">
+        <f>2*L10*M10/(L10+M10)</f>
+        <v>0.87040253757269093</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="79" t="s">
+        <v>598</v>
+      </c>
+      <c r="R10" s="60">
+        <f>R5/R9</f>
+        <v>0.88856922321240617</v>
+      </c>
+      <c r="S10" s="60">
+        <f>S6/S9</f>
+        <v>0.8993515647025655</v>
+      </c>
+      <c r="T10" s="60">
+        <f>T7/T9</f>
+        <v>0.91423085129080439</v>
+      </c>
+      <c r="U10" s="61">
+        <f>U8/U9</f>
+        <v>0.90002145462347138</v>
+      </c>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="47">
+        <f>SUM(R5,S6,T7,U8 )/V9</f>
+        <v>0.89637515656081923</v>
+      </c>
+      <c r="Z10" s="67">
+        <f>(S6+T7+U8)/SUM(S9:U9)</f>
+        <v>0.90500193873594414</v>
+      </c>
+      <c r="AA10" s="47">
+        <f>(S6+T7+U8)/SUM(V6:V8)</f>
+        <v>0.8523225241016652</v>
+      </c>
+      <c r="AB10" s="68">
+        <f>2*Z10*AA10/(Z10+AA10)</f>
+        <v>0.87787264452552005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="S11">
-        <v>48</v>
-      </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
-      <c r="U11" s="46">
-        <v>4755</v>
-      </c>
-      <c r="V11" s="46">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12" s="46">
-        <v>107</v>
-      </c>
-      <c r="V12" s="46">
-        <v>4739</v>
-      </c>
-    </row>
-    <row r="13" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E13" s="46"/>
-      <c r="F13" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C13" s="46"/>
+      <c r="D13" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-    </row>
-    <row r="14" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D14" s="18"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="80" t="s">
-        <v>594</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>595</v>
-      </c>
-      <c r="H14" s="52" t="s">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C14" s="46"/>
+      <c r="D14" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="K14" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="P14" s="18"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="S14" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="T14" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="U14" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="V14" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="W14" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="X14" s="66" t="s">
         <v>597</v>
       </c>
-      <c r="J14" s="75" t="s">
+      <c r="Y14" s="44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2188</v>
+      </c>
+      <c r="E15" s="18">
+        <v>56</v>
+      </c>
+      <c r="F15" s="46">
+        <v>33</v>
+      </c>
+      <c r="G15" s="46">
+        <v>61</v>
+      </c>
+      <c r="H15" s="77">
+        <f>SUM(D15:G15)</f>
+        <v>2338</v>
+      </c>
+      <c r="I15" s="51">
+        <f>H15/H19</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="45">
+        <f>D15/H15</f>
+        <v>0.93584260051325918</v>
+      </c>
+      <c r="P15" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q15" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="R15" s="18">
+        <v>2168</v>
+      </c>
+      <c r="S15" s="18">
+        <v>69</v>
+      </c>
+      <c r="T15" s="18">
+        <v>32</v>
+      </c>
+      <c r="U15" s="18">
+        <v>69</v>
+      </c>
+      <c r="V15" s="77">
+        <f>SUM(R15:U15)</f>
+        <v>2338</v>
+      </c>
+      <c r="W15" s="51">
+        <f>V15/V19</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="45">
+        <f>R15/V15</f>
+        <v>0.92728828058169377</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="93"/>
+      <c r="C16" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" s="18">
+        <v>33</v>
+      </c>
+      <c r="E16" s="18">
+        <v>109</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="46">
+        <v>0</v>
+      </c>
+      <c r="H16" s="77">
+        <f>SUM(D16:G16)</f>
+        <v>142</v>
+      </c>
+      <c r="I16" s="51">
+        <f>H16/H19</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="J16" s="64">
+        <f>D16/H16</f>
+        <v>0.23239436619718309</v>
+      </c>
+      <c r="K16" s="33">
+        <f>E16/H16</f>
+        <v>0.76760563380281688</v>
+      </c>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="R16" s="18">
+        <v>33</v>
+      </c>
+      <c r="S16" s="18">
+        <v>108</v>
+      </c>
+      <c r="T16" s="18">
+        <v>0</v>
+      </c>
+      <c r="U16" s="18">
+        <v>1</v>
+      </c>
+      <c r="V16" s="77">
+        <f>SUM(R16:U16)</f>
+        <v>142</v>
+      </c>
+      <c r="W16" s="51">
+        <f>V16/V19</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="X16" s="64">
+        <f>R16/V16</f>
+        <v>0.23239436619718309</v>
+      </c>
+      <c r="Y16" s="33">
+        <f>S16/V16</f>
+        <v>0.76056338028169013</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="93"/>
+      <c r="C17" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="D17" s="18">
+        <v>22</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="46">
+        <v>97</v>
+      </c>
+      <c r="G17" s="46">
+        <v>5</v>
+      </c>
+      <c r="H17" s="77">
+        <f>SUM(D17:G17)</f>
+        <v>125</v>
+      </c>
+      <c r="I17" s="51">
+        <f>H17/H19</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="J17" s="64">
+        <f>D17/H17</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K17" s="33">
+        <f>F17/H17</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="R17" s="18">
+        <v>27</v>
+      </c>
+      <c r="S17" s="18">
+        <v>1</v>
+      </c>
+      <c r="T17" s="18">
+        <v>93</v>
+      </c>
+      <c r="U17" s="18">
+        <v>4</v>
+      </c>
+      <c r="V17" s="77">
+        <f>SUM(R17:U17)</f>
+        <v>125</v>
+      </c>
+      <c r="W17" s="51">
+        <f>V17/V19</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="X17" s="64">
+        <f>R17/V17</f>
+        <v>0.216</v>
+      </c>
+      <c r="Y17" s="33">
+        <f>T17/V17</f>
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" s="90"/>
+      <c r="C18" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="D18" s="18">
+        <v>16</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0</v>
+      </c>
+      <c r="G18" s="46">
+        <v>134</v>
+      </c>
+      <c r="H18" s="78">
+        <f>SUM(D18:G18)</f>
+        <v>150</v>
+      </c>
+      <c r="I18" s="53">
+        <f>H18/H19</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="J18" s="65">
+        <f>D18/H18</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="K18" s="34">
+        <f>G18/H18</f>
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="R18" s="18">
+        <v>16</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>134</v>
+      </c>
+      <c r="V18" s="78">
+        <f>SUM(R18:U18)</f>
+        <v>150</v>
+      </c>
+      <c r="W18" s="53">
+        <f>V18/V19</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="X18" s="65">
+        <f>R18/V18</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="Y18" s="34">
+        <f>U18/V18</f>
+        <v>0.89333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C19" s="46"/>
+      <c r="D19" s="79">
+        <f>SUM(D15:D18)</f>
+        <v>2259</v>
+      </c>
+      <c r="E19" s="80">
+        <f>SUM(E15:E18)</f>
+        <v>166</v>
+      </c>
+      <c r="F19" s="80">
+        <f>SUM(F15:F18)</f>
+        <v>130</v>
+      </c>
+      <c r="G19" s="81">
+        <f>SUM(G15:G18)</f>
+        <v>200</v>
+      </c>
+      <c r="H19" s="57">
+        <f>SUM(H15:H18)</f>
+        <v>2755</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="N19" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="K14" s="61" t="s">
-        <v>620</v>
-      </c>
-      <c r="L14" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D15" s="85" t="s">
+      <c r="P19" s="18"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="79">
+        <f>SUM(R15:R18)</f>
+        <v>2244</v>
+      </c>
+      <c r="S19" s="80">
+        <f>SUM(S15:S18)</f>
+        <v>178</v>
+      </c>
+      <c r="T19" s="80">
+        <f>SUM(T15:T18)</f>
+        <v>125</v>
+      </c>
+      <c r="U19" s="81">
+        <f>SUM(U15:U18)</f>
+        <v>208</v>
+      </c>
+      <c r="V19" s="57">
+        <f>SUM(V15:V18)</f>
+        <v>2755</v>
+      </c>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z19" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA19" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB19" s="46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C20" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="D20" s="73">
+        <f>D15/D19</f>
+        <v>0.96857016378928729</v>
+      </c>
+      <c r="E20" s="60">
+        <f>E16/E19</f>
+        <v>0.65662650602409633</v>
+      </c>
+      <c r="F20" s="60">
+        <f>F17/F19</f>
+        <v>0.74615384615384617</v>
+      </c>
+      <c r="G20" s="61">
+        <f>G18/G19</f>
+        <v>0.67</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47">
+        <f>SUM(D15,E16,F17,G18 )/H19</f>
+        <v>0.91760435571687837</v>
+      </c>
+      <c r="L20" s="67">
+        <f>(E16+F17+G18)/SUM(E19:G19)</f>
+        <v>0.68548387096774188</v>
+      </c>
+      <c r="M20" s="47">
+        <f>(E16+F17+G18)/SUM(H16:H18)</f>
+        <v>0.815347721822542</v>
+      </c>
+      <c r="N20" s="68">
+        <f>2*L20*M20/(L20+M20)</f>
+        <v>0.74479737130339541</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="R20" s="73">
+        <f>R15/R19</f>
+        <v>0.96613190730837795</v>
+      </c>
+      <c r="S20" s="60">
+        <f>S16/S19</f>
+        <v>0.6067415730337079</v>
+      </c>
+      <c r="T20" s="60">
+        <f>T17/T19</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="U20" s="61">
+        <f>U18/U19</f>
+        <v>0.64423076923076927</v>
+      </c>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="47">
+        <f>SUM(R15,S16,T17,U18 )/V19</f>
+        <v>0.90852994555353905</v>
+      </c>
+      <c r="Z20" s="67">
+        <f>(S16+T17+U18)/SUM(S19:U19)</f>
+        <v>0.65557729941291587</v>
+      </c>
+      <c r="AA20" s="47">
+        <f>(S16+T17+U18)/SUM(V16:V18)</f>
+        <v>0.80335731414868106</v>
+      </c>
+      <c r="AB20" s="68">
+        <f>2*Z20*AA20/(Z20+AA20)</f>
+        <v>0.72198275862068984</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P25" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="18"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="S27" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="T27" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="U27" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="V27" s="82" t="s">
         <v>599</v>
       </c>
-      <c r="E15" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="F15">
-        <v>2107</v>
-      </c>
-      <c r="G15">
-        <v>92</v>
-      </c>
-      <c r="H15" s="46">
-        <v>50</v>
-      </c>
-      <c r="I15" s="46">
-        <v>89</v>
-      </c>
-      <c r="J15" s="79">
-        <f>SUM(F15:I15)</f>
+      <c r="W27" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="X27" s="63" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y27" s="18"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P28" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q28" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="R28" s="18">
+        <v>12628</v>
+      </c>
+      <c r="S28" s="18">
+        <v>344</v>
+      </c>
+      <c r="T28" s="18">
+        <v>200</v>
+      </c>
+      <c r="U28" s="18">
+        <v>282</v>
+      </c>
+      <c r="V28" s="83">
+        <f>SUM(R28:U28)</f>
+        <v>13454</v>
+      </c>
+      <c r="W28" s="51">
+        <f>V28/V32</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="X28" s="64">
+        <f>R28/V28</f>
+        <v>0.93860561914672214</v>
+      </c>
+      <c r="Y28" s="18"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P29" s="93"/>
+      <c r="Q29" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="R29" s="18">
+        <v>655</v>
+      </c>
+      <c r="S29" s="18">
+        <v>3112</v>
+      </c>
+      <c r="T29" s="18">
+        <v>29</v>
+      </c>
+      <c r="U29" s="18">
+        <v>23</v>
+      </c>
+      <c r="V29" s="83">
+        <f>SUM(R29:U29)</f>
+        <v>3819</v>
+      </c>
+      <c r="W29" s="51">
+        <f>V29/V32</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="X29" s="64">
+        <f>S29/V29</f>
+        <v>0.81487300340403246</v>
+      </c>
+      <c r="Y29" s="18"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P30" s="93"/>
+      <c r="Q30" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="R30" s="18">
+        <v>459</v>
+      </c>
+      <c r="S30" s="18">
+        <v>22</v>
+      </c>
+      <c r="T30" s="18">
+        <v>4264</v>
+      </c>
+      <c r="U30" s="18">
+        <v>172</v>
+      </c>
+      <c r="V30" s="83">
+        <f>SUM(R30:U30)</f>
+        <v>4917</v>
+      </c>
+      <c r="W30" s="51">
+        <f>V30/V32</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="X30" s="64">
+        <f>T30/V30</f>
+        <v>0.86719544437665241</v>
+      </c>
+      <c r="Y30" s="18"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P31" s="90"/>
+      <c r="Q31" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="R31" s="18">
+        <v>642</v>
+      </c>
+      <c r="S31" s="18">
+        <v>14</v>
+      </c>
+      <c r="T31" s="18">
+        <v>195</v>
+      </c>
+      <c r="U31" s="18">
+        <v>4105</v>
+      </c>
+      <c r="V31" s="84">
+        <f>SUM(R31:U31)</f>
+        <v>4956</v>
+      </c>
+      <c r="W31" s="53">
+        <f>V31/V32</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="X31" s="65">
+        <f>U31/V31</f>
+        <v>0.8282889426957224</v>
+      </c>
+      <c r="Y31" s="18"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P32" s="18"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="79">
+        <f>SUM(R28:R31)</f>
+        <v>14384</v>
+      </c>
+      <c r="S32" s="80">
+        <f>SUM(S28:S31)</f>
+        <v>3492</v>
+      </c>
+      <c r="T32" s="80">
+        <f>SUM(T28:T31)</f>
+        <v>4688</v>
+      </c>
+      <c r="U32" s="81">
+        <f>SUM(U28:U31)</f>
+        <v>4582</v>
+      </c>
+      <c r="V32" s="57">
+        <f>SUM(V28:V31)</f>
+        <v>27146</v>
+      </c>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z32" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA32" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB32" s="46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P33" s="18"/>
+      <c r="Q33" s="79" t="s">
+        <v>598</v>
+      </c>
+      <c r="R33" s="60">
+        <f>R28/R32</f>
+        <v>0.87791991101223577</v>
+      </c>
+      <c r="S33" s="60">
+        <f>S29/S32</f>
+        <v>0.89117983963344793</v>
+      </c>
+      <c r="T33" s="60">
+        <f>T30/T32</f>
+        <v>0.90955631399317405</v>
+      </c>
+      <c r="U33" s="61">
+        <f>U31/U32</f>
+        <v>0.89589698821475339</v>
+      </c>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="47">
+        <f>SUM(R28,S29,T30,U31 )/V32</f>
+        <v>0.88812348043910705</v>
+      </c>
+      <c r="Z33" s="67">
+        <f>(S29+T30+U31)/SUM(S32:U32)</f>
+        <v>0.89962388340385524</v>
+      </c>
+      <c r="AA33" s="47">
+        <f>(S29+T30+U31)/SUM(V29:V31)</f>
+        <v>0.83851884312007008</v>
+      </c>
+      <c r="AB33" s="68">
+        <f>2*Z33*AA33/(Z33+AA33)</f>
+        <v>0.86799727829439788</v>
+      </c>
+    </row>
+    <row r="34" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P34" s="18"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+    </row>
+    <row r="35" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P35" s="18"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+    </row>
+    <row r="36" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P36" s="18"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+    </row>
+    <row r="37" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="S37" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="T37" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="U37" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="V37" s="79" t="s">
+        <v>599</v>
+      </c>
+      <c r="W37" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="X37" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y37" s="44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="38" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P38" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q38" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="R38" s="18">
+        <v>2165</v>
+      </c>
+      <c r="S38" s="18">
+        <v>63</v>
+      </c>
+      <c r="T38" s="18">
+        <v>38</v>
+      </c>
+      <c r="U38" s="18">
+        <v>72</v>
+      </c>
+      <c r="V38" s="83">
+        <f>SUM(R38:U38)</f>
         <v>2338</v>
       </c>
-      <c r="K15" s="51">
-        <f>J15/J19</f>
+      <c r="W38" s="51">
+        <f>V38/V42</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="45">
-        <f>F15/J15</f>
-        <v>0.90119760479041922</v>
-      </c>
-    </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="86"/>
-      <c r="E16" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="F16">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>104</v>
-      </c>
-      <c r="H16" s="46">
+      <c r="X38" s="64"/>
+      <c r="Y38" s="45">
+        <f>R38/V38</f>
+        <v>0.92600513259195893</v>
+      </c>
+    </row>
+    <row r="39" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P39" s="93"/>
+      <c r="Q39" s="74" t="s">
+        <v>575</v>
+      </c>
+      <c r="R39" s="18">
+        <v>29</v>
+      </c>
+      <c r="S39" s="18">
+        <v>111</v>
+      </c>
+      <c r="T39" s="18">
+        <v>0</v>
+      </c>
+      <c r="U39" s="18">
         <v>2</v>
       </c>
-      <c r="I16" s="46">
-        <v>2</v>
-      </c>
-      <c r="J16" s="79">
-        <f>SUM(F16:I16)</f>
+      <c r="V39" s="83">
+        <f>SUM(R39:U39)</f>
         <v>142</v>
       </c>
-      <c r="K16" s="51">
-        <f>J16/J19</f>
+      <c r="W39" s="51">
+        <f>V39/V42</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="L16" s="64">
-        <f>F16/J16</f>
-        <v>0.23943661971830985</v>
-      </c>
-      <c r="M16" s="33">
-        <f>G16/J16</f>
-        <v>0.73239436619718312</v>
-      </c>
-    </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D17" s="86"/>
-      <c r="E17" s="74" t="s">
+      <c r="X39" s="64">
+        <f>R39/V39</f>
+        <v>0.20422535211267606</v>
+      </c>
+      <c r="Y39" s="33">
+        <f>S39/V39</f>
+        <v>0.78169014084507038</v>
+      </c>
+    </row>
+    <row r="40" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P40" s="93"/>
+      <c r="Q40" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="R40" s="18">
+        <v>25</v>
+      </c>
+      <c r="S40" s="18">
+        <v>0</v>
+      </c>
+      <c r="T40" s="18">
+        <v>97</v>
+      </c>
+      <c r="U40" s="18">
+        <v>3</v>
+      </c>
+      <c r="V40" s="83">
+        <f>SUM(R40:U40)</f>
+        <v>125</v>
+      </c>
+      <c r="W40" s="51">
+        <f>V40/V42</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="X40" s="64">
+        <f>R40/V40</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y40" s="33">
+        <f>T40/V40</f>
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P41" s="90"/>
+      <c r="Q41" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="R41" s="18">
+        <v>18</v>
+      </c>
+      <c r="S41" s="18">
+        <v>0</v>
+      </c>
+      <c r="T41" s="18">
+        <v>1</v>
+      </c>
+      <c r="U41" s="18">
+        <v>131</v>
+      </c>
+      <c r="V41" s="84">
+        <f>SUM(R41:U41)</f>
+        <v>150</v>
+      </c>
+      <c r="W41" s="53">
+        <f>V41/V42</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="X41" s="65">
+        <f>R41/V41</f>
+        <v>0.12</v>
+      </c>
+      <c r="Y41" s="34">
+        <f>U41/V41</f>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P42" s="18"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="79">
+        <f>SUM(R38:R41)</f>
+        <v>2237</v>
+      </c>
+      <c r="S42" s="80">
+        <f>SUM(S38:S41)</f>
+        <v>174</v>
+      </c>
+      <c r="T42" s="80">
+        <f>SUM(T38:T41)</f>
+        <v>136</v>
+      </c>
+      <c r="U42" s="81">
+        <f>SUM(U38:U41)</f>
+        <v>208</v>
+      </c>
+      <c r="V42" s="57">
+        <f>SUM(V38:V41)</f>
+        <v>2755</v>
+      </c>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z42" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA42" s="46" t="s">
         <v>596</v>
       </c>
-      <c r="F17">
-        <v>29</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="46">
-        <v>89</v>
-      </c>
-      <c r="I17" s="46">
-        <v>7</v>
-      </c>
-      <c r="J17" s="79">
-        <f>SUM(F17:I17)</f>
-        <v>125</v>
-      </c>
-      <c r="K17" s="51">
-        <f>J17/J19</f>
-        <v>4.5372050816696916E-2</v>
-      </c>
-      <c r="L17" s="64">
-        <f>F17/J17</f>
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="M17" s="33">
-        <f>H17/J17</f>
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D18" s="87"/>
-      <c r="E18" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="F18">
-        <v>23</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="46">
-        <v>1</v>
-      </c>
-      <c r="I18" s="46">
-        <v>125</v>
-      </c>
-      <c r="J18" s="80">
-        <f>SUM(F18:I18)</f>
-        <v>150</v>
-      </c>
-      <c r="K18" s="53">
-        <f>J18/J19</f>
-        <v>5.4446460980036297E-2</v>
-      </c>
-      <c r="L18" s="65">
-        <f>F18/J18</f>
-        <v>0.15333333333333332</v>
-      </c>
-      <c r="M18" s="34">
-        <f>I18/J18</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D19" s="18"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="75">
-        <f>SUM(F15:F18)</f>
-        <v>2193</v>
-      </c>
-      <c r="G19" s="76">
-        <f>SUM(G15:G18)</f>
-        <v>197</v>
-      </c>
-      <c r="H19" s="76">
-        <f>SUM(H15:H18)</f>
-        <v>142</v>
-      </c>
-      <c r="I19" s="77">
-        <f>SUM(I15:I18)</f>
-        <v>223</v>
-      </c>
-      <c r="J19" s="57">
-        <f>SUM(J15:J18)</f>
-        <v>2755</v>
-      </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="N19" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="O19" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="P19" s="46" t="s">
-        <v>639</v>
-      </c>
-      <c r="S19">
-        <v>13123</v>
-      </c>
-      <c r="T19">
-        <v>133</v>
-      </c>
-      <c r="U19">
-        <v>89</v>
-      </c>
-      <c r="V19">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D20" s="18"/>
-      <c r="E20" s="66" t="s">
-        <v>618</v>
-      </c>
-      <c r="F20" s="73">
-        <f>F15/F19</f>
-        <v>0.96078431372549022</v>
-      </c>
-      <c r="G20" s="60">
-        <f>G16/G19</f>
-        <v>0.52791878172588835</v>
-      </c>
-      <c r="H20" s="60">
-        <f>H17/H19</f>
-        <v>0.62676056338028174</v>
-      </c>
-      <c r="I20" s="61">
-        <f>I18/I19</f>
-        <v>0.5605381165919282</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47">
-        <f>SUM(F15,G16,H17,I18 )/J19</f>
-        <v>0.88021778584392019</v>
-      </c>
-      <c r="N20" s="67">
-        <f>(G16+H17+I18)/SUM(G19:I19)</f>
-        <v>0.5658362989323843</v>
-      </c>
-      <c r="O20" s="47">
-        <f>(G16+H17+I18)/SUM(J16:J18)</f>
-        <v>0.76258992805755399</v>
-      </c>
-      <c r="P20" s="68">
-        <f>2*N20*O20/(N20+O20)</f>
-        <v>0.64964249233912152</v>
-      </c>
-      <c r="S20">
-        <v>146</v>
-      </c>
-      <c r="T20">
-        <v>3663</v>
-      </c>
-      <c r="U20">
-        <v>4</v>
-      </c>
-      <c r="V20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="S21">
-        <v>99</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="U21">
-        <v>4743</v>
-      </c>
-      <c r="V21">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="S22">
-        <v>171</v>
-      </c>
-      <c r="T22">
-        <v>6</v>
-      </c>
-      <c r="U22">
-        <v>80</v>
-      </c>
-      <c r="V22">
-        <v>4699</v>
-      </c>
-    </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="S24">
-        <v>2166</v>
-      </c>
-      <c r="T24">
-        <v>55</v>
-      </c>
-      <c r="U24">
-        <v>39</v>
-      </c>
-      <c r="V24">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="S25">
-        <v>35</v>
-      </c>
-      <c r="T25">
-        <v>106</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="S26">
-        <v>27</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>89</v>
-      </c>
-      <c r="V26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="S27">
-        <v>11</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D31" s="18"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D32" s="18"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="80" t="s">
-        <v>594</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>595</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>596</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>597</v>
-      </c>
-      <c r="J32" s="78" t="s">
+      <c r="AB42" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="K32" s="49" t="s">
-        <v>620</v>
-      </c>
-      <c r="L32" s="63" t="s">
-        <v>616</v>
-      </c>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D33" s="85" t="s">
-        <v>599</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="F33">
-        <v>13123</v>
-      </c>
-      <c r="G33">
-        <v>133</v>
-      </c>
-      <c r="H33">
-        <v>89</v>
-      </c>
-      <c r="I33">
-        <v>109</v>
-      </c>
-      <c r="J33" s="79">
-        <f>SUM(F33:I33)</f>
-        <v>13454</v>
-      </c>
-      <c r="K33" s="51">
-        <f>J33/J37</f>
-        <v>0.49561629706034038</v>
-      </c>
-      <c r="L33" s="64">
-        <f>F33/J33</f>
-        <v>0.97539765125613198</v>
-      </c>
-      <c r="M33" s="18"/>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="86"/>
-      <c r="E34" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="F34">
-        <v>146</v>
-      </c>
-      <c r="G34">
-        <v>3663</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>6</v>
-      </c>
-      <c r="J34" s="79">
-        <f>SUM(F34:I34)</f>
-        <v>3819</v>
-      </c>
-      <c r="K34" s="51">
-        <f>J34/J37</f>
-        <v>0.14068371030722759</v>
-      </c>
-      <c r="L34" s="64">
-        <f>G34/J34</f>
-        <v>0.9591516103692066</v>
-      </c>
-      <c r="M34" s="18"/>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D35" s="86"/>
-      <c r="E35" s="74" t="s">
-        <v>596</v>
-      </c>
-      <c r="F35">
-        <v>99</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>4743</v>
-      </c>
-      <c r="I35">
-        <v>72</v>
-      </c>
-      <c r="J35" s="79">
-        <f>SUM(F35:I35)</f>
-        <v>4917</v>
-      </c>
-      <c r="K35" s="51">
-        <f>J35/J37</f>
-        <v>0.18113165843954909</v>
-      </c>
-      <c r="L35" s="64">
-        <f>H35/J35</f>
-        <v>0.96461256863941425</v>
-      </c>
-      <c r="M35" s="18"/>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="87"/>
-      <c r="E36" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="F36">
-        <v>171</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-      <c r="H36">
-        <v>80</v>
-      </c>
-      <c r="I36">
-        <v>4699</v>
-      </c>
-      <c r="J36" s="80">
-        <f>SUM(F36:I36)</f>
-        <v>4956</v>
-      </c>
-      <c r="K36" s="53">
-        <f>J36/J37</f>
-        <v>0.18256833419288293</v>
-      </c>
-      <c r="L36" s="65">
-        <f>I36/J36</f>
-        <v>0.94814366424535912</v>
-      </c>
-      <c r="M36" s="18"/>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D37" s="18"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="75">
-        <f>SUM(F33:F36)</f>
-        <v>13539</v>
-      </c>
-      <c r="G37" s="76">
-        <f>SUM(G33:G36)</f>
-        <v>3805</v>
-      </c>
-      <c r="H37" s="76">
-        <f>SUM(H33:H36)</f>
-        <v>4916</v>
-      </c>
-      <c r="I37" s="77">
-        <f>SUM(I33:I36)</f>
-        <v>4886</v>
-      </c>
-      <c r="J37" s="57">
-        <f>SUM(J33:J36)</f>
-        <v>27146</v>
-      </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="N37" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="O37" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="P37" s="46" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D38" s="18"/>
-      <c r="E38" s="75" t="s">
-        <v>618</v>
-      </c>
-      <c r="F38" s="60">
-        <f>F33/F37</f>
-        <v>0.96927394933156064</v>
-      </c>
-      <c r="G38" s="60">
-        <f>G34/G37</f>
-        <v>0.96268068331143231</v>
-      </c>
-      <c r="H38" s="60">
-        <f>H35/H37</f>
-        <v>0.96480878763222133</v>
-      </c>
-      <c r="I38" s="61">
-        <f>I36/I37</f>
-        <v>0.96172738436348748</v>
-      </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="47">
-        <f>SUM(F33,G34,H35,I36 )/J37</f>
-        <v>0.96618286303691148</v>
-      </c>
-      <c r="N38" s="67">
-        <f>(G34+H35+I36)/SUM(G37:I37)</f>
-        <v>0.96310722422282646</v>
-      </c>
-      <c r="O38" s="47">
-        <f>(G34+H35+I36)/SUM(J34:J36)</f>
-        <v>0.95712825007303537</v>
-      </c>
-      <c r="P38" s="68">
-        <f>2*N38*O38/(N38+O38)</f>
-        <v>0.96010842888017867</v>
-      </c>
-    </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D39" s="18"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-    </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-    </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E41" s="46"/>
-      <c r="F41" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-    </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D42" s="18"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="80" t="s">
-        <v>594</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>595</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>596</v>
-      </c>
-      <c r="I42" s="55" t="s">
-        <v>597</v>
-      </c>
-      <c r="J42" s="75" t="s">
-        <v>619</v>
-      </c>
-      <c r="K42" s="61" t="s">
-        <v>620</v>
-      </c>
-      <c r="L42" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="M42" s="44" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="85" t="s">
-        <v>599</v>
-      </c>
-      <c r="E43" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="F43">
-        <v>2166</v>
-      </c>
-      <c r="G43">
-        <v>55</v>
-      </c>
-      <c r="H43">
-        <v>39</v>
-      </c>
-      <c r="I43">
-        <v>78</v>
-      </c>
-      <c r="J43" s="79">
-        <f>SUM(F43:I43)</f>
-        <v>2338</v>
-      </c>
-      <c r="K43" s="51">
-        <f>J43/J47</f>
-        <v>0.84863883847549915</v>
-      </c>
-      <c r="L43" s="64"/>
-      <c r="M43" s="45">
-        <f>F43/J43</f>
-        <v>0.92643284858853725</v>
-      </c>
-    </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="86"/>
-      <c r="E44" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="F44">
-        <v>35</v>
-      </c>
-      <c r="G44">
-        <v>106</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" s="79">
-        <f>SUM(F44:I44)</f>
-        <v>142</v>
-      </c>
-      <c r="K44" s="51">
-        <f>J44/J47</f>
-        <v>5.1542649727767696E-2</v>
-      </c>
-      <c r="L44" s="64">
-        <f>F44/J44</f>
-        <v>0.24647887323943662</v>
-      </c>
-      <c r="M44" s="33">
-        <f>G44/J44</f>
-        <v>0.74647887323943662</v>
-      </c>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="86"/>
-      <c r="E45" s="74" t="s">
-        <v>596</v>
-      </c>
-      <c r="F45">
-        <v>27</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>89</v>
-      </c>
-      <c r="I45">
-        <v>8</v>
-      </c>
-      <c r="J45" s="79">
-        <f>SUM(F45:I45)</f>
-        <v>125</v>
-      </c>
-      <c r="K45" s="51">
-        <f>J45/J47</f>
-        <v>4.5372050816696916E-2</v>
-      </c>
-      <c r="L45" s="64">
-        <f>F45/J45</f>
-        <v>0.216</v>
-      </c>
-      <c r="M45" s="33">
-        <f>H45/J45</f>
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="87"/>
-      <c r="E46" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="F46">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>137</v>
-      </c>
-      <c r="J46" s="80">
-        <f>SUM(F46:I46)</f>
-        <v>150</v>
-      </c>
-      <c r="K46" s="53">
-        <f>J46/J47</f>
-        <v>5.4446460980036297E-2</v>
-      </c>
-      <c r="L46" s="65">
-        <f>F46/J46</f>
-        <v>7.3333333333333334E-2</v>
-      </c>
-      <c r="M46" s="34">
-        <f>I46/J46</f>
-        <v>0.91333333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D47" s="18"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="75">
-        <f>SUM(F43:F46)</f>
-        <v>2239</v>
-      </c>
-      <c r="G47" s="76">
-        <f>SUM(G43:G46)</f>
-        <v>162</v>
-      </c>
-      <c r="H47" s="76">
-        <f>SUM(H43:H46)</f>
-        <v>130</v>
-      </c>
-      <c r="I47" s="77">
-        <f>SUM(I43:I46)</f>
-        <v>224</v>
-      </c>
-      <c r="J47" s="57">
-        <f>SUM(J43:J46)</f>
-        <v>2755</v>
-      </c>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="N47" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="O47" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="P47" s="46" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D48" s="18"/>
-      <c r="E48" s="66" t="s">
-        <v>618</v>
-      </c>
-      <c r="F48" s="73">
-        <f>F43/F47</f>
-        <v>0.96739615899955334</v>
-      </c>
-      <c r="G48" s="60">
-        <f>G44/G47</f>
-        <v>0.65432098765432101</v>
-      </c>
-      <c r="H48" s="60">
-        <f>H45/H47</f>
-        <v>0.68461538461538463</v>
-      </c>
-      <c r="I48" s="61">
-        <f>I46/I47</f>
-        <v>0.6116071428571429</v>
-      </c>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47">
-        <f>SUM(F43,G44,H45,I46 )/J47</f>
-        <v>0.90671506352087117</v>
-      </c>
-      <c r="N48" s="67">
-        <f>(G44+H45+I46)/SUM(G47:I47)</f>
-        <v>0.64341085271317833</v>
-      </c>
-      <c r="O48" s="47">
-        <f>(G44+H45+I46)/SUM(J44:J46)</f>
-        <v>0.79616306954436455</v>
-      </c>
-      <c r="P48" s="68">
-        <f>2*N48*O48/(N48+O48)</f>
-        <v>0.71168274383708463</v>
+    </row>
+    <row r="43" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P43" s="18"/>
+      <c r="Q43" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="R43" s="73">
+        <f>R38/R42</f>
+        <v>0.967814036656236</v>
+      </c>
+      <c r="S43" s="60">
+        <f>S39/S42</f>
+        <v>0.63793103448275867</v>
+      </c>
+      <c r="T43" s="60">
+        <f>T40/T42</f>
+        <v>0.71323529411764708</v>
+      </c>
+      <c r="U43" s="61">
+        <f>U41/U42</f>
+        <v>0.62980769230769229</v>
+      </c>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="47">
+        <f>SUM(R38,S39,T40,U41 )/V42</f>
+        <v>0.90889292196007254</v>
+      </c>
+      <c r="Z43" s="67">
+        <f>(S39+T40+U41)/SUM(S42:U42)</f>
+        <v>0.65444015444015446</v>
+      </c>
+      <c r="AA43" s="47">
+        <f>(S39+T40+U41)/SUM(V39:V41)</f>
+        <v>0.81294964028776984</v>
+      </c>
+      <c r="AB43" s="68">
+        <f>2*Z43*AA43/(Z43+AA43)</f>
+        <v>0.72513368983957216</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="D33:D36"/>
+  <mergeCells count="12">
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="P5:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="765">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2409,10 +2409,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn_ek_1546949659</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2420,10 +2416,6 @@
     <t>m93_cnn_ek_1547039955</t>
   </si>
   <si>
-    <t>kernel=3, filter=32, init=0.005, decay=0.95, batch_size=100, dropout=0.5, metric=precision</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnn_ek_1547040124</t>
   </si>
   <si>
@@ -2543,6 +2535,50 @@
   </si>
   <si>
     <t>m93_cnn_ek_1546949659,m93_cnn_ek_1547039955,m93_cnn_ek_1547040124</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547040539</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547041498</t>
+  </si>
+  <si>
+    <t>cnn=[(5, 128)], lr=(0.01, 0.9), batch_size=50, dropout=0.5, metric=precision, valid=0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 128)], lr=(0.01, 0.9), batch_size=50, dropout=0.5, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 32)], lr=(0.005, 0.95), batch_size=100, dropout=0.5, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(5, 64)], lr=(0.01, 0.9), batch_size=50, dropout=0.5, metric=precision, valid=0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547041908</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546949659,m93_cnn_ek_1547039955,m93_cnn_ek_1547040124,m93_cnn_ek_1547041908</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547042515</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547042762</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=0.2, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1546949659,m93_cnn_ek_1547039955,m93_cnn_ek_1547040124,m93_cnn_ek_1547041908,m93_cnn_ek_1547042762</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2553,7 +2589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2671,6 +2707,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2955,7 +2999,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3211,6 +3255,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="90">
     <cellStyle name="百分比" xfId="71" builtinId="5"/>
@@ -10496,85 +10542,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG118"/>
+  <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="3" customWidth="1"/>
-    <col min="10" max="12" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="86"/>
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86" t="s">
+      <c r="I1" s="86" t="s">
         <v>546</v>
       </c>
+      <c r="J1" s="86"/>
       <c r="K1" s="86"/>
       <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="O1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="P1" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="16" t="s">
         <v>559</v>
       </c>
+      <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -10582,57 +10625,54 @@
         <v>710</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>711</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="P2" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q2" s="5">
         <v>2</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="R2" s="5">
-        <v>2</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>550</v>
       </c>
@@ -10642,61 +10682,60 @@
       <c r="C3" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>0.65915000000000001</v>
+      </c>
       <c r="E3" s="6">
-        <v>0.65915000000000001</v>
+        <v>0.89700139983791305</v>
       </c>
       <c r="F3" s="6">
-        <v>0.89700139983791305</v>
+        <v>0.87382096868808301</v>
       </c>
       <c r="G3" s="6">
-        <v>0.87382096868808301</v>
+        <v>0.917885782692209</v>
       </c>
       <c r="H3" s="6">
-        <v>0.917885782692209</v>
+        <v>0.89287427607326098</v>
       </c>
       <c r="I3" s="6">
-        <v>0.89287427607326098</v>
+        <v>0.894824153948241</v>
       </c>
       <c r="J3" s="6">
-        <v>0.894824153948241</v>
+        <v>0.88007471734906395</v>
       </c>
       <c r="K3" s="6">
-        <v>0.88007471734906395</v>
+        <v>0.89782725180656497</v>
       </c>
       <c r="L3" s="6">
-        <v>0.89782725180656497</v>
-      </c>
-      <c r="M3" s="6">
         <v>0.88845174191453802</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="4">
+      <c r="N3" s="6"/>
+      <c r="O3" s="4">
         <v>2</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="R3" s="5">
+      <c r="Q3" s="5">
         <v>51</v>
       </c>
-      <c r="S3" s="96">
+      <c r="R3" s="96">
         <v>36969</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>717</v>
+      </c>
       <c r="T3" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>720</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>547</v>
       </c>
@@ -10706,61 +10745,60 @@
       <c r="C4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6">
+        <v>0.62456999999999996</v>
+      </c>
       <c r="E4" s="6">
-        <v>0.62456999999999996</v>
+        <v>0.894459588889707</v>
       </c>
       <c r="F4" s="6">
-        <v>0.894459588889707</v>
+        <v>0.87110931797201896</v>
       </c>
       <c r="G4" s="6">
-        <v>0.87110931797201896</v>
+        <v>0.91640708443093799</v>
       </c>
       <c r="H4" s="6">
-        <v>0.91640708443093799</v>
+        <v>0.89065300247262902</v>
       </c>
       <c r="I4" s="6">
-        <v>0.89065300247262902</v>
+        <v>0.88852023888520204</v>
       </c>
       <c r="J4" s="6">
-        <v>0.88852023888520204</v>
+        <v>0.86518301141326204</v>
       </c>
       <c r="K4" s="6">
-        <v>0.86518301141326204</v>
+        <v>0.91060751759291103</v>
       </c>
       <c r="L4" s="6">
-        <v>0.91060751759291103</v>
-      </c>
-      <c r="M4" s="6">
         <v>0.88471169744246403</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="4">
+      <c r="N4" s="6"/>
+      <c r="O4" s="4">
         <v>3</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="5">
         <v>105</v>
       </c>
+      <c r="R4" s="5" t="s">
+        <v>719</v>
+      </c>
       <c r="S4" s="5" t="s">
-        <v>721</v>
+        <v>55</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>722</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>548</v>
       </c>
@@ -10770,59 +10808,58 @@
       <c r="C5" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>0.652416</v>
+      </c>
       <c r="E5" s="6">
-        <v>0.652416</v>
+        <v>0.884623885655345</v>
       </c>
       <c r="F5" s="6">
-        <v>0.884623885655345</v>
+        <v>0.86073867901298495</v>
       </c>
       <c r="G5" s="6">
-        <v>0.86073867901298495</v>
+        <v>0.90917853764331502</v>
       </c>
       <c r="H5" s="6">
-        <v>0.90917853764331502</v>
+        <v>0.88140768218314403</v>
       </c>
       <c r="I5" s="6">
-        <v>0.88140768218314403</v>
+        <v>0.88586595885865904</v>
       </c>
       <c r="J5" s="6">
-        <v>0.88586595885865904</v>
+        <v>0.871124079635619</v>
       </c>
       <c r="K5" s="6">
-        <v>0.871124079635619</v>
+        <v>0.88791668530756895</v>
       </c>
       <c r="L5" s="6">
-        <v>0.88791668530756895</v>
-      </c>
-      <c r="M5" s="6">
         <v>0.87880236890261099</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="5">
+      <c r="N5" s="6"/>
+      <c r="O5" s="5">
         <v>4</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="P5" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>11</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="R5" s="5">
-        <v>11</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>535</v>
       </c>
@@ -10832,61 +10869,60 @@
       <c r="C6" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>0.60559799999999997</v>
+      </c>
       <c r="E6" s="6">
-        <v>0.60559799999999997</v>
+        <v>0.86775215501363001</v>
       </c>
       <c r="F6" s="6">
-        <v>0.86775215501363001</v>
+        <v>0.84227492482598798</v>
       </c>
       <c r="G6" s="6">
-        <v>0.84227492482598798</v>
+        <v>0.88945904899422201</v>
       </c>
       <c r="H6" s="6">
-        <v>0.88945904899422201</v>
+        <v>0.86231870337179595</v>
       </c>
       <c r="I6" s="6">
-        <v>0.86231870337179595</v>
+        <v>0.87790311877903104</v>
       </c>
       <c r="J6" s="6">
-        <v>0.87790311877903104</v>
+        <v>0.85544210021184497</v>
       </c>
       <c r="K6" s="6">
-        <v>0.85544210021184497</v>
+        <v>0.89193486715224601</v>
       </c>
       <c r="L6" s="6">
-        <v>0.89193486715224601</v>
-      </c>
-      <c r="M6" s="6">
         <v>0.87174986605357596</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="5">
+      <c r="N6" s="6"/>
+      <c r="O6" s="5">
         <v>5</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="P6" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>26</v>
+      </c>
+      <c r="R6" s="96">
+        <v>37030</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="R6" s="5">
-        <v>26</v>
-      </c>
-      <c r="S6" s="96">
-        <v>37030</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>558</v>
       </c>
@@ -10896,85 +10932,83 @@
       <c r="C7" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>0.60664300000000004</v>
+      </c>
       <c r="E7" s="6">
-        <v>0.60664300000000004</v>
+        <v>0.86620496574080896</v>
       </c>
       <c r="F7" s="6">
-        <v>0.86620496574080896</v>
+        <v>0.84037960545785995</v>
       </c>
       <c r="G7" s="6">
-        <v>0.84037960545785995</v>
+        <v>0.88880942235261495</v>
       </c>
       <c r="H7" s="6">
-        <v>0.88880942235261495</v>
+        <v>0.86085355880963399</v>
       </c>
       <c r="I7" s="6">
-        <v>0.86085355880963399</v>
+        <v>0.876244193762441</v>
       </c>
       <c r="J7" s="6">
-        <v>0.876244193762441</v>
+        <v>0.85886663766673699</v>
       </c>
       <c r="K7" s="6">
-        <v>0.85886663766673699</v>
+        <v>0.88149171005928195</v>
       </c>
       <c r="L7" s="6">
-        <v>0.88149171005928195</v>
-      </c>
-      <c r="M7" s="6">
         <v>0.86876643830693401</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="5">
+      <c r="N7" s="6"/>
+      <c r="O7" s="5">
         <v>6</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="5">
         <v>94</v>
       </c>
-      <c r="S7" s="96">
+      <c r="R7" s="96">
         <v>41231</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
-        <v>729</v>
-      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="5">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="5">
         <v>7</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="P8" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q8" s="5">
         <v>33</v>
       </c>
-      <c r="S8" s="96">
+      <c r="R8" s="96">
         <v>37000</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>563</v>
       </c>
@@ -10984,59 +11018,58 @@
       <c r="C9" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <v>0.624309</v>
+      </c>
       <c r="E9" s="6">
-        <v>0.624309</v>
+        <v>0.93339718558903695</v>
       </c>
       <c r="F9" s="6">
-        <v>0.93339718558903695</v>
+        <v>0.91637783961090102</v>
       </c>
       <c r="G9" s="6">
-        <v>0.91637783961090102</v>
+        <v>0.94699125403344497</v>
       </c>
       <c r="H9" s="6">
-        <v>0.94699125403344497</v>
+        <v>0.93045775532563602</v>
       </c>
       <c r="I9" s="6">
-        <v>0.93045775532563602</v>
+        <v>0.88022561380225595</v>
       </c>
       <c r="J9" s="6">
-        <v>0.88022561380225595</v>
+        <v>0.86370752458885003</v>
       </c>
       <c r="K9" s="6">
-        <v>0.86370752458885003</v>
+        <v>0.88412573133844996</v>
       </c>
       <c r="L9" s="6">
-        <v>0.88412573133844996</v>
-      </c>
-      <c r="M9" s="6">
         <v>0.87329050012571796</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="5">
+      <c r="N9" s="6"/>
+      <c r="O9" s="5">
         <v>8</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="5">
         <v>134</v>
       </c>
-      <c r="S9" s="96">
+      <c r="R9" s="96">
         <v>41200</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
-        <v>732</v>
-      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>411</v>
       </c>
@@ -11046,98 +11079,96 @@
       <c r="C10" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6">
+        <v>0.65654599999999996</v>
+      </c>
       <c r="E10" s="6">
-        <v>0.65654599999999996</v>
+        <v>0.94172253739040701</v>
       </c>
       <c r="F10" s="6">
-        <v>0.94172253739040701</v>
+        <v>0.92539410856570903</v>
       </c>
       <c r="G10" s="6">
-        <v>0.92539410856570903</v>
+        <v>0.95457759387776298</v>
       </c>
       <c r="H10" s="6">
-        <v>0.95457759387776298</v>
+        <v>0.93887480936261603</v>
       </c>
       <c r="I10" s="6">
-        <v>0.93887480936261603</v>
+        <v>0.894824153948241</v>
       </c>
       <c r="J10" s="6">
-        <v>0.894824153948241</v>
+        <v>0.87722736448360406</v>
       </c>
       <c r="K10" s="6">
-        <v>0.87722736448360406</v>
+        <v>0.90307013365634603</v>
       </c>
       <c r="L10" s="6">
-        <v>0.90307013365634603</v>
-      </c>
-      <c r="M10" s="6">
         <v>0.88921177109515603</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="5">
+      <c r="N10" s="6"/>
+      <c r="O10" s="5">
         <v>9</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="P10" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>35</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="R10" s="5">
-        <v>35</v>
-      </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>736</v>
-      </c>
+      <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="5">
+      <c r="N11" s="6"/>
+      <c r="O11" s="5">
         <v>10</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="P11" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q11" s="5">
         <v>38</v>
       </c>
-      <c r="S11" s="96">
+      <c r="R11" s="96">
         <v>37153</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5" t="s">
-        <v>738</v>
-      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>570</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -11145,32 +11176,31 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="5">
+      <c r="N12" s="6"/>
+      <c r="O12" s="5">
         <v>11</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="P12" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q12" s="5">
         <v>64</v>
       </c>
-      <c r="S12" s="96">
+      <c r="R12" s="96">
         <v>37153</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5" t="s">
-        <v>740</v>
-      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>569</v>
       </c>
@@ -11180,59 +11210,58 @@
       <c r="C13" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <v>0.65934099999999995</v>
+      </c>
       <c r="E13" s="6">
-        <v>0.65934099999999995</v>
+        <v>0.89272821041774097</v>
       </c>
       <c r="F13" s="6">
-        <v>0.89272821041774097</v>
+        <v>0.84066797642436097</v>
       </c>
       <c r="G13" s="6">
-        <v>0.84066797642436097</v>
+        <v>0.93755477651183095</v>
       </c>
       <c r="H13" s="6">
-        <v>0.93755477651183095</v>
+        <v>0.886471928734203</v>
       </c>
       <c r="I13" s="6">
-        <v>0.886471928734203</v>
+        <v>0.89648307896483004</v>
       </c>
       <c r="J13" s="6">
-        <v>0.89648307896483004</v>
+        <v>0.86443883984867498</v>
       </c>
       <c r="K13" s="6">
-        <v>0.86443883984867498</v>
+        <v>0.90197368421052604</v>
       </c>
       <c r="L13" s="6">
-        <v>0.90197368421052604</v>
-      </c>
-      <c r="M13" s="6">
         <v>0.88280746941403698</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="5">
+      <c r="N13" s="6"/>
+      <c r="O13" s="5">
         <v>12</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>103</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="R13" s="5">
-        <v>103</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
-        <v>743</v>
-      </c>
+      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>629</v>
       </c>
@@ -11242,84 +11271,82 @@
       <c r="C14" t="s">
         <v>628</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="6">
+        <v>0.679245283018867</v>
+      </c>
       <c r="E14" s="6">
-        <v>0.679245283018867</v>
+        <v>0.89965372430560597</v>
       </c>
       <c r="F14" s="6">
-        <v>0.89965372430560597</v>
+        <v>0.88139148043682602</v>
       </c>
       <c r="G14" s="6">
-        <v>0.88139148043682602</v>
+        <v>0.89008179959100198</v>
       </c>
       <c r="H14" s="6">
-        <v>0.89008179959100198</v>
+        <v>0.88571532395799202</v>
       </c>
       <c r="I14" s="6">
-        <v>0.88571532395799202</v>
+        <v>0.88747731397459095</v>
       </c>
       <c r="J14" s="6">
-        <v>0.88747731397459095</v>
+        <v>0.57966101694915195</v>
       </c>
       <c r="K14" s="6">
-        <v>0.57966101694915195</v>
-      </c>
-      <c r="L14" s="6">
         <v>0.82014388489208601</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="P14" s="5">
+      <c r="L14" s="6"/>
+      <c r="O14" s="5">
         <v>13</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="P14" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>51</v>
+      </c>
+      <c r="R14" s="96">
+        <v>37000</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="R14" s="5">
-        <v>51</v>
-      </c>
-      <c r="S14" s="96">
-        <v>37000</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>746</v>
-      </c>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="5">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N15" s="6"/>
+      <c r="O15" s="5">
         <v>14</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="P15" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>7</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="R15" s="5">
-        <v>7</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
-        <v>749</v>
-      </c>
+      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>633</v>
       </c>
@@ -11329,37 +11356,36 @@
       <c r="C16" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="D16" s="6">
         <v>0.70193285859613397</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="5">
+      <c r="N16" s="6"/>
+      <c r="O16" s="5">
         <v>15</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="P16" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>31</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="R16" s="5">
-        <v>31</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>752</v>
-      </c>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="5"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>632</v>
       </c>
@@ -11369,10 +11395,10 @@
       <c r="C17" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
+      <c r="D17" s="6">
         <v>0.68611670020120696</v>
       </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -11380,7 +11406,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -11389,9 +11415,8 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>632</v>
       </c>
@@ -11401,10 +11426,10 @@
       <c r="C18" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
+      <c r="D18" s="6">
         <v>0.70600203458799604</v>
       </c>
+      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -11413,9 +11438,8 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>632</v>
       </c>
@@ -11425,10 +11449,10 @@
       <c r="C19" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="6">
         <v>0.67557251908396898</v>
       </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -11436,10 +11460,10 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -11448,9 +11472,8 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>632</v>
       </c>
@@ -11460,10 +11483,10 @@
       <c r="C20" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
+      <c r="D20" s="6">
         <v>0.69192422731804504</v>
       </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -11471,10 +11494,10 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -11483,9 +11506,8 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>632</v>
       </c>
@@ -11495,10 +11517,10 @@
       <c r="C21" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
+      <c r="D21" s="6">
         <v>0.69362992922143496</v>
       </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -11506,10 +11528,10 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -11518,9 +11540,8 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>632</v>
       </c>
@@ -11530,10 +11551,10 @@
       <c r="C22" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="13">
+      <c r="D22" s="13">
         <v>0.68699186991869898</v>
       </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -11541,10 +11562,10 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="13"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -11553,9 +11574,8 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>632</v>
       </c>
@@ -11565,10 +11585,10 @@
       <c r="C23" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="D23" s="6">
         <v>0.69906928645294697</v>
       </c>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -11577,9 +11597,8 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>632</v>
       </c>
@@ -11589,10 +11608,10 @@
       <c r="C24" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
+      <c r="D24" s="6">
         <v>0.65373423860329705</v>
       </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -11600,10 +11619,10 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="6"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -11612,9 +11631,8 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>632</v>
       </c>
@@ -11624,10 +11642,10 @@
       <c r="C25" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="D25" s="6">
         <v>0.66873706004140698</v>
       </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -11635,10 +11653,10 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -11647,9 +11665,8 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>632</v>
       </c>
@@ -11659,10 +11676,10 @@
       <c r="C26" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
+      <c r="D26" s="6">
         <v>0.71168274383708396</v>
       </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -11670,10 +11687,10 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -11682,9 +11699,8 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>632</v>
       </c>
@@ -11694,10 +11710,10 @@
       <c r="C27" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
+      <c r="D27" s="6">
         <v>0.69762641898864797</v>
       </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -11705,10 +11721,10 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -11717,9 +11733,8 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>632</v>
       </c>
@@ -11729,10 +11744,10 @@
       <c r="C28" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
+      <c r="D28" s="6">
         <v>0.70225872689938396</v>
       </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -11740,10 +11755,10 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -11752,9 +11767,8 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>632</v>
       </c>
@@ -11764,10 +11778,10 @@
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
+      <c r="D29" s="6">
         <v>0.69269269269269196</v>
       </c>
+      <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -11776,19 +11790,18 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>632</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
+      <c r="D30" s="6">
         <v>0.70304302203567604</v>
       </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -11796,10 +11809,10 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -11808,10 +11821,9 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D31" s="6"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -11819,10 +11831,10 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -11831,10 +11843,9 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D32" s="6"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -11842,10 +11853,10 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -11854,10 +11865,9 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D33" s="6"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -11865,10 +11875,10 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -11877,10 +11887,9 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D34" s="6"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -11889,9 +11898,8 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>671</v>
       </c>
@@ -11901,10 +11909,10 @@
       <c r="C35" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
+      <c r="D35" s="6">
         <v>0.70698644421272105</v>
       </c>
+      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -11913,16 +11921,15 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
+      <c r="D36" s="6">
         <v>0.68394815553339905</v>
       </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -11930,10 +11937,10 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
+      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -11942,14 +11949,13 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="C37" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -11957,10 +11963,10 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -11969,10 +11975,9 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D38" s="6"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -11980,10 +11985,10 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -11992,9 +11997,8 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>665</v>
       </c>
@@ -12004,10 +12008,10 @@
       <c r="C39" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6">
+      <c r="D39" s="6">
         <v>0.70658682634730496</v>
       </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -12015,10 +12019,10 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -12027,9 +12031,8 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>664</v>
       </c>
@@ -12039,10 +12042,10 @@
       <c r="C40" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6">
+      <c r="D40" s="6">
         <v>0.69183673469387696</v>
       </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -12050,10 +12053,10 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -12062,10 +12065,9 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D41" s="6"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -12074,10 +12076,9 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D42" s="6"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -12085,10 +12086,10 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+      <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -12097,10 +12098,9 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D43" s="6"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -12108,10 +12108,10 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
+      <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -12120,9 +12120,8 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>662</v>
       </c>
@@ -12132,10 +12131,10 @@
       <c r="C44" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6">
+      <c r="D44" s="6">
         <v>0.68678459937564995</v>
       </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -12143,22 +12142,21 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D45" s="6"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -12166,12 +12164,11 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>678</v>
       </c>
@@ -12181,10 +12178,10 @@
       <c r="C46" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
+      <c r="D46" s="6">
         <v>0.66915191053122003</v>
       </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -12192,22 +12189,21 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>705</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
+      <c r="D47" s="6">
         <v>0.67109004739336398</v>
       </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -12215,34 +12211,32 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>704</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6">
+      <c r="D48" s="6">
         <v>0.71773347324239201</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>703</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="D49" s="6">
         <v>0.72607260726072598</v>
       </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -12250,34 +12244,32 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>702</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6">
+      <c r="D50" s="6">
         <v>0.68426197458455496</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>701</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6">
+      <c r="D51" s="6">
         <v>0.71817192600652802</v>
       </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -12285,24 +12277,21 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>692</v>
       </c>
       <c r="C52" s="85" t="s">
-        <v>712</v>
-      </c>
-      <c r="D52" s="13">
-        <v>0.87040253757269004</v>
-      </c>
-      <c r="E52" s="10">
+        <v>711</v>
+      </c>
+      <c r="D52" s="10">
         <v>0.74479737130339496</v>
       </c>
+      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -12310,12 +12299,11 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>691</v>
       </c>
@@ -12323,11 +12311,9 @@
         <v>690</v>
       </c>
       <c r="D53" s="6">
-        <v>0.92861631732653105</v>
-      </c>
-      <c r="E53" s="6">
         <v>0.72120559741657697</v>
       </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -12335,12 +12321,11 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>709</v>
       </c>
@@ -12348,11 +12333,9 @@
         <v>693</v>
       </c>
       <c r="D54" s="6">
-        <v>0.87787264452552005</v>
-      </c>
-      <c r="E54" s="6">
         <v>0.72198275862068895</v>
       </c>
+      <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -12360,12 +12343,11 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>709</v>
       </c>
@@ -12373,11 +12355,9 @@
         <v>707</v>
       </c>
       <c r="D55" s="6">
-        <v>0.86799727829439699</v>
-      </c>
-      <c r="E55" s="6">
         <v>0.72513368983957205</v>
       </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -12385,100 +12365,272 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.74802259887005595</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.89195461578132995</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.90244283149925797</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.84450774174700505</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0.87251461988304002</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.92159709618874697</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0.70726495726495697</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0.79376498800959205</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.74802259887005595</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6">
-        <v>0.74802259887005595</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="10">
+        <v>0.74776785714285698</v>
+      </c>
       <c r="E57" s="6">
+        <v>0.888602372356885</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.89921025881617</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.83990651475314004</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.86854726029983698</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.92050816696914695</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0.69937369519832904</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0.80335731414868095</v>
+      </c>
+      <c r="L57" s="6">
         <v>0.74776785714285698</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.72392638036809798</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.89438591321004901</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.90537164272329795</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.84691790826760105</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.875169811320754</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.92014519056261301</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0.74120603015075304</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.70743405275779303</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.72392638036809798</v>
+      </c>
+      <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.73907910271546595</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.891478779840848</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.90365776305588796</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.84288719432027304</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.87221523077446295</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.92196007259528101</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.72790697674418603</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0.75059952038369304</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.73907910271546595</v>
+      </c>
+      <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D60" s="97">
+        <v>0.74402730375426596</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.87771883289124597</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.89248389405869699</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.81961609255850598</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0.85449934891371304</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.92087114337567999</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.70779220779220697</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.78417266187050305</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.74402730375426596</v>
+      </c>
+      <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.76359338061465698</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.89353864289398</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.904296875</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.84538416593631305</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.87384870904423895</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.929219600725952</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.75291375291375295</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.77458033573141405</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.76359338061465698</v>
+      </c>
+      <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.74418604651162801</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.88053488543431802</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.89338496799178002</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.82559158632778196</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.85815145188840303</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.92304900181488203</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0.72234762979683897</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.76738609112709799</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0.74418604651162801</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -12486,12 +12638,12 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -12499,12 +12651,12 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -12512,13 +12664,12 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D66" s="6"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -12526,13 +12677,12 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D67" s="6"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -12540,15 +12690,11 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>681</v>
       </c>
@@ -12559,11 +12705,9 @@
         <v>680</v>
       </c>
       <c r="D69" s="6">
-        <v>0.89588104982540395</v>
-      </c>
-      <c r="E69" s="6">
         <v>0.71689989235737295</v>
       </c>
+      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -12571,12 +12715,11 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>699</v>
       </c>
@@ -12584,13 +12727,10 @@
         <v>682</v>
       </c>
       <c r="D70" s="6">
-        <v>0.89689907912046596</v>
-      </c>
-      <c r="E70" s="6">
         <v>0.72476089266737498</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>696</v>
       </c>
@@ -12598,35 +12738,31 @@
         <v>683</v>
       </c>
       <c r="D71" s="6">
-        <v>0.82612122645227404</v>
-      </c>
-      <c r="E71" s="6">
         <v>0.72167216721672101</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>697</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6">
+      <c r="D72" s="6">
         <v>0.71063829787234001</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6">
+      <c r="D73" s="6">
         <v>0.70920502092050197</v>
       </c>
+      <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -12634,37 +12770,34 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6">
+      <c r="D74" s="6">
         <v>0.71445086705202299</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6">
+      <c r="D75" s="6">
         <v>0.70931537598204197</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D76" s="6"/>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -12672,13 +12805,12 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D77" s="6"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -12686,13 +12818,12 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D78" s="6"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -12700,22 +12831,21 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6">
+        <v>752</v>
+      </c>
+      <c r="D79" s="98">
         <v>0.75986471251409204</v>
       </c>
+      <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -12723,16 +12853,26 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D81" s="6"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0.76179516685845705</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.76396807297605396</v>
+      </c>
+      <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -12740,12 +12880,12 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-    </row>
-    <row r="82" spans="4:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -12753,19 +12893,12 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D85" s="6"/>
+    </row>
+    <row r="85" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -12773,13 +12906,12 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D86" s="6"/>
+      <c r="P85" s="13"/>
+    </row>
+    <row r="86" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -12787,14 +12919,13 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
+      <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-    </row>
-    <row r="87" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D87" s="6"/>
-      <c r="E87" s="13"/>
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D87" s="13"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -12802,13 +12933,12 @@
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="O87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="6"/>
       <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-    </row>
-    <row r="88" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D88" s="6"/>
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -12816,16 +12946,12 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D90" s="6"/>
+    </row>
+    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -12833,13 +12959,12 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D91" s="6"/>
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -12847,13 +12972,12 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-    </row>
-    <row r="92" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D92" s="6"/>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -12861,13 +12985,12 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D93" s="6"/>
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -12875,13 +12998,12 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-    </row>
-    <row r="94" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D94" s="6"/>
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -12889,7 +13011,7 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
@@ -12908,13 +13030,9 @@
       <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
       <c r="AF94" s="6"/>
-      <c r="AG94" s="6"/>
-    </row>
-    <row r="95" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D96" s="6"/>
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -12922,13 +13040,12 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D97" s="6"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -12936,13 +13053,12 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D98" s="6"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -12950,13 +13066,12 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D99" s="6"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -12964,13 +13079,12 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D100" s="6"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -12978,14 +13092,13 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101"/>
-      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -12993,17 +13106,13 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D103" s="6"/>
-      <c r="E103" s="10"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D103" s="10"/>
+      <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -13011,16 +13120,12 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
       <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D105" s="6"/>
+      <c r="P103" s="13"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -13028,16 +13133,12 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D107" s="6"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -13045,13 +13146,12 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D108" s="6"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -13059,13 +13159,12 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D109" s="6"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -13073,13 +13172,12 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D110" s="6"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -13087,27 +13185,25 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D111" s="6"/>
-      <c r="F111" s="15"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E111" s="15"/>
+      <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D112" s="6"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -13115,30 +13211,25 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-    </row>
-    <row r="113" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D114" s="6"/>
-      <c r="F114" s="15"/>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E114" s="15"/>
+      <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-    </row>
-    <row r="115" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D115" s="6"/>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -13146,24 +13237,14 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-    </row>
-    <row r="116" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D118" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="774">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2579,6 +2579,37 @@
   </si>
   <si>
     <t>m93_cnn_ek_1546949659,m93_cnn_ek_1547039955,m93_cnn_ek_1547040124,m93_cnn_ek_1547041908,m93_cnn_ek_1547042762</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547043342</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547043380</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547043418</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547043462</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547043258</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=0.5, batch_size=100, dropout=0.5, metric=precision, valid=0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=1.0, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=1.0, batch_size=100, dropout=0.5, metric=precision, valid=0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=0.5, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10542,10 +10573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF115"/>
+  <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12630,83 +12661,160 @@
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-    </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
+      <c r="B65" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.73535791757049895</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.87446949602122004</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.89029293509477303</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.81514593741782804</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.915426497277677</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0.671287128712871</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.81294964028776895</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0.73535791757049895</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+      <c r="B66" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.72747014115092201</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.850464190981432</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.875093214019388</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.77143044964501695</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.819998602473621</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.911796733212341</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0.66468253968253899</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0.80335731414868095</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0.72747014115092201</v>
+      </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+      <c r="B67" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.74564459930313598</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.87224637147277595</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.88921001926782195</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.80893952673093705</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.84717760440569001</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.92304900181488203</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.72297297297297303</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.76978417266187005</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.74564459930313598</v>
+      </c>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.72815533980582503</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.86616812790097897</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0.88563549355178794</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.79747297692082897</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0.83924522501056797</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.92123411978221403</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0.73710073710073698</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0.71942446043165398</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0.72815533980582503</v>
+      </c>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+    </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0.71689989235737295</v>
-      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -12720,48 +12828,52 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>682</v>
+        <v>769</v>
       </c>
       <c r="D70" s="6">
-        <v>0.72476089266737498</v>
-      </c>
+        <v>0.73991031390134498</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D71" s="6">
-        <v>0.72167216721672101</v>
-      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0.71063829787234001</v>
-      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D73" s="6">
-        <v>0.70920502092050197</v>
-      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -12775,75 +12887,82 @@
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D74" s="6">
-        <v>0.71445086705202299</v>
-      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="B75" s="3" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="D75" s="6">
-        <v>0.70931537598204197</v>
-      </c>
+        <v>0.71689989235737295</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
+      <c r="B76" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.72476089266737498</v>
+      </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0.72167216721672101</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
+      <c r="B78" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0.71063829787234001</v>
+      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>751</v>
-      </c>
       <c r="B79" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="D79" s="98">
-        <v>0.75986471251409204</v>
+        <v>698</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0.70920502092050197</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -12859,32 +12978,27 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>760</v>
+        <v>695</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="D80" s="6">
-        <v>0.76179516685845705</v>
-      </c>
-    </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.2">
+        <v>0.71445086705202299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>764</v>
+        <v>695</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="D81" s="6">
-        <v>0.76396807297605396</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-    </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.2">
+        <v>0.70931537598204197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -12897,7 +13011,42 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D85" s="98">
+        <v>0.75986471251409204</v>
+      </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -12908,36 +13057,36 @@
       <c r="L85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="13"/>
-    </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-    </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D87" s="13"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="N87" s="10"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0.76179516685845705</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.76396807297605396</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -12950,20 +13099,7 @@
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-    </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -12974,35 +13110,36 @@
       <c r="L91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-    </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
+      <c r="P91" s="13"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="N93" s="6"/>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D93" s="13"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="N93" s="10"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -13014,24 +13151,8 @@
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="6"/>
-      <c r="AE94" s="6"/>
-      <c r="AF94" s="6"/>
-    </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -13044,7 +13165,7 @@
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -13057,7 +13178,7 @@
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -13070,7 +13191,7 @@
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -13083,7 +13204,7 @@
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -13095,23 +13216,37 @@
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="10"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+      <c r="AF100" s="6"/>
+    </row>
+    <row r="102" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -13122,9 +13257,22 @@
       <c r="L103" s="6"/>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
-      <c r="P103" s="13"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -13137,7 +13285,21 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B107"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -13150,20 +13312,8 @@
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D109" s="10"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -13174,23 +13324,10 @@
       <c r="L109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E111" s="15"/>
+      <c r="P109" s="13"/>
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -13202,21 +13339,21 @@
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
     </row>
     <row r="114" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E114" s="15"/>
+      <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -13240,6 +13377,71 @@
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E117" s="15"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+    </row>
+    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+    </row>
+    <row r="120" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E120" s="15"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+    </row>
+    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="777">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2594,9 +2594,6 @@
     <t>m93_cnn_ek_1547043462</t>
   </si>
   <si>
-    <t>m93_cnn_ek_1547043258</t>
-  </si>
-  <si>
     <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=0.5, batch_size=100, dropout=0.5, metric=precision, valid=0.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2610,6 +2607,20 @@
   </si>
   <si>
     <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=0.5, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547126826</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.01, 0.9), l2=0.2, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547128197</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2617,10 +2628,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2738,14 +2750,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2938,7 +2942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3029,8 +3033,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3255,22 +3265,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3282,14 +3277,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="96">
     <cellStyle name="百分比" xfId="71" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -3336,6 +3361,9 @@
     <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3380,6 +3408,9 @@
     <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3691,24 +3722,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86" t="s">
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8187,18 +8218,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10575,8 +10606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10610,18 +10641,18 @@
       <c r="D1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
       <c r="N1" s="14"/>
       <c r="O1" s="16" t="s">
         <v>7</v>
@@ -10750,7 +10781,7 @@
       <c r="Q3" s="5">
         <v>51</v>
       </c>
-      <c r="R3" s="96">
+      <c r="R3" s="90">
         <v>36969</v>
       </c>
       <c r="S3" s="5" t="s">
@@ -10937,7 +10968,7 @@
       <c r="Q6" s="5">
         <v>26</v>
       </c>
-      <c r="R6" s="96">
+      <c r="R6" s="90">
         <v>37030</v>
       </c>
       <c r="S6" s="5" t="s">
@@ -11000,7 +11031,7 @@
       <c r="Q7" s="5">
         <v>94</v>
       </c>
-      <c r="R7" s="96">
+      <c r="R7" s="90">
         <v>41231</v>
       </c>
       <c r="S7" s="5"/>
@@ -11025,7 +11056,7 @@
       <c r="Q8" s="5">
         <v>33</v>
       </c>
-      <c r="R8" s="96">
+      <c r="R8" s="90">
         <v>37000</v>
       </c>
       <c r="S8" s="5"/>
@@ -11086,7 +11117,7 @@
       <c r="Q9" s="5">
         <v>134</v>
       </c>
-      <c r="R9" s="96">
+      <c r="R9" s="90">
         <v>41200</v>
       </c>
       <c r="S9" s="5"/>
@@ -11180,7 +11211,7 @@
       <c r="Q11" s="5">
         <v>38</v>
       </c>
-      <c r="R11" s="96">
+      <c r="R11" s="90">
         <v>37153</v>
       </c>
       <c r="S11" s="5"/>
@@ -11217,7 +11248,7 @@
       <c r="Q12" s="5">
         <v>64</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="90">
         <v>37153</v>
       </c>
       <c r="S12" s="5"/>
@@ -11336,7 +11367,7 @@
       <c r="Q14" s="5">
         <v>51</v>
       </c>
-      <c r="R14" s="96">
+      <c r="R14" s="90">
         <v>37000</v>
       </c>
       <c r="S14" s="5" t="s">
@@ -12556,7 +12587,7 @@
       <c r="C60" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D60" s="97">
+      <c r="D60" s="10">
         <v>0.74402730375426596</v>
       </c>
       <c r="E60" s="6">
@@ -12594,7 +12625,7 @@
       <c r="C61" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="10">
         <v>0.76359338061465698</v>
       </c>
       <c r="E61" s="6">
@@ -12667,7 +12698,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>765</v>
@@ -12702,7 +12733,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>766</v>
@@ -12740,7 +12771,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>768</v>
@@ -12778,7 +12809,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>767</v>
@@ -12828,11 +12859,14 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>774</v>
+      </c>
       <c r="C70" s="3" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D70" s="6">
-        <v>0.73991031390134498</v>
+        <v>0.74640088593576903</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -12847,7 +12881,15 @@
       <c r="P70" s="6"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.75278396436525596</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -13044,7 +13086,7 @@
       <c r="B85" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D85" s="98">
+      <c r="D85" s="91">
         <v>0.75986471251409204</v>
       </c>
       <c r="E85" s="6"/>
@@ -13458,8 +13500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13499,20 +13541,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="92"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>621</v>
       </c>
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="99" t="s">
         <v>610</v>
       </c>
-      <c r="T3" s="88"/>
+      <c r="T3" s="100"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -13564,7 +13606,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="96" t="s">
         <v>579</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -13594,11 +13636,14 @@
         <f>F5/J5</f>
         <v>0.96216138741579471</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="N5" s="103">
+        <f>J5/J9</f>
+        <v>0.46888440860215053</v>
+      </c>
       <c r="P5" t="s">
         <v>623</v>
       </c>
-      <c r="Q5" s="89" t="s">
+      <c r="Q5" s="96" t="s">
         <v>611</v>
       </c>
       <c r="R5" s="56" t="s">
@@ -13627,7 +13672,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="93"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="21" t="s">
         <v>581</v>
       </c>
@@ -13655,8 +13700,11 @@
         <f>G6/J6</f>
         <v>0.97317913385826771</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="Q6" s="90"/>
+      <c r="N6" s="103">
+        <f>J6/J9</f>
+        <v>0.13655913978494624</v>
+      </c>
+      <c r="Q6" s="98"/>
       <c r="R6" s="57" t="s">
         <v>606</v>
       </c>
@@ -13683,7 +13731,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="93"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="21" t="s">
         <v>583</v>
       </c>
@@ -13711,7 +13759,10 @@
         <f>H7/J7</f>
         <v>0.90005125576627376</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="N7" s="103">
+        <f>J7/J9</f>
+        <v>0.1966733870967742</v>
+      </c>
       <c r="Q7" s="46"/>
       <c r="R7" s="46"/>
       <c r="S7" s="31">
@@ -13743,7 +13794,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="90"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="22" t="s">
         <v>584</v>
       </c>
@@ -13771,7 +13822,10 @@
         <f>I8/J8</f>
         <v>0.87281372049583972</v>
       </c>
-      <c r="M8" s="18"/>
+      <c r="N8" s="103">
+        <f>J8/J9</f>
+        <v>0.19788306451612903</v>
+      </c>
       <c r="Q8" s="46"/>
       <c r="R8" s="31" t="s">
         <v>615</v>
@@ -13924,12 +13978,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="93" t="s">
         <v>585</v>
       </c>
       <c r="G13" s="94"/>
       <c r="H13" s="94"/>
-      <c r="I13" s="92"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -13937,10 +13991,10 @@
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="91" t="s">
+      <c r="S13" s="93" t="s">
         <v>609</v>
       </c>
-      <c r="T13" s="92"/>
+      <c r="T13" s="95"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
     </row>
@@ -13997,7 +14051,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="96" t="s">
         <v>591</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -14028,7 +14082,11 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="Q15" s="89" t="s">
+      <c r="N15" s="103">
+        <f>J15/J19</f>
+        <v>0.76479128856624323</v>
+      </c>
+      <c r="Q15" s="96" t="s">
         <v>591</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -14057,7 +14115,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="93"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="21" t="s">
         <v>587</v>
       </c>
@@ -14089,7 +14147,11 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="Q16" s="90"/>
+      <c r="N16" s="103">
+        <f>J16/J19</f>
+        <v>6.7150635208711437E-2</v>
+      </c>
+      <c r="Q16" s="98"/>
       <c r="R16" s="30" t="s">
         <v>607</v>
       </c>
@@ -14116,7 +14178,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="93"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="21" t="s">
         <v>588</v>
       </c>
@@ -14147,6 +14209,10 @@
       <c r="M17" s="33">
         <f>H17/J17</f>
         <v>0.5977011494252874</v>
+      </c>
+      <c r="N17" s="103">
+        <f>J17/J19</f>
+        <v>6.3157894736842107E-2</v>
       </c>
       <c r="Q17" s="46"/>
       <c r="R17" s="46"/>
@@ -14179,7 +14245,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="90"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="22" t="s">
         <v>594</v>
       </c>
@@ -14210,6 +14276,10 @@
       <c r="M18" s="34">
         <f>I18/J18</f>
         <v>0.48096885813148788</v>
+      </c>
+      <c r="N18" s="103">
+        <f>J18/J19</f>
+        <v>0.10490018148820326</v>
       </c>
       <c r="Q18" s="46"/>
       <c r="R18" s="31" t="s">
@@ -14340,8 +14410,8 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
     </row>
@@ -14372,12 +14442,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G26" s="94"/>
       <c r="H26" s="94"/>
-      <c r="I26" s="92"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -14416,7 +14486,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="96" t="s">
         <v>579</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -14452,7 +14522,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="93"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="21" t="s">
         <v>581</v>
       </c>
@@ -14486,7 +14556,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="93"/>
+      <c r="D30" s="97"/>
       <c r="E30" s="21" t="s">
         <v>583</v>
       </c>
@@ -14520,7 +14590,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="90"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="22" t="s">
         <v>584</v>
       </c>
@@ -14650,12 +14720,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="91" t="s">
+      <c r="F36" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G36" s="94"/>
       <c r="H36" s="94"/>
-      <c r="I36" s="92"/>
+      <c r="I36" s="95"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -14692,7 +14762,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="89" t="s">
+      <c r="D38" s="96" t="s">
         <v>591</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -14728,7 +14798,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="93"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="21" t="s">
         <v>587</v>
       </c>
@@ -14765,7 +14835,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="93"/>
+      <c r="D40" s="97"/>
       <c r="E40" s="21" t="s">
         <v>583</v>
       </c>
@@ -14802,7 +14872,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="90"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="22" t="s">
         <v>584</v>
       </c>
@@ -14937,12 +15007,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="91" t="s">
+      <c r="F48" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G48" s="94"/>
       <c r="H48" s="94"/>
-      <c r="I48" s="92"/>
+      <c r="I48" s="95"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -14973,7 +15043,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="89" t="s">
+      <c r="D50" s="96" t="s">
         <v>579</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -15006,7 +15076,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="93"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="21" t="s">
         <v>575</v>
       </c>
@@ -15037,7 +15107,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="93"/>
+      <c r="D52" s="97"/>
       <c r="E52" s="21" t="s">
         <v>576</v>
       </c>
@@ -15068,7 +15138,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="90"/>
+      <c r="D53" s="98"/>
       <c r="E53" s="22" t="s">
         <v>584</v>
       </c>
@@ -15185,12 +15255,12 @@
       <c r="N57" s="68"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="91" t="s">
+      <c r="F58" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G58" s="94"/>
       <c r="H58" s="94"/>
-      <c r="I58" s="92"/>
+      <c r="I58" s="95"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -15221,7 +15291,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="89" t="s">
+      <c r="D60" s="96" t="s">
         <v>591</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -15254,7 +15324,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="93"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="21" t="s">
         <v>575</v>
       </c>
@@ -15288,7 +15358,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="93"/>
+      <c r="D62" s="97"/>
       <c r="E62" s="21" t="s">
         <v>576</v>
       </c>
@@ -15322,7 +15392,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="90"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="22" t="s">
         <v>584</v>
       </c>
@@ -15457,12 +15527,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="91" t="s">
+      <c r="F70" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G70" s="94"/>
       <c r="H70" s="94"/>
-      <c r="I70" s="92"/>
+      <c r="I70" s="95"/>
       <c r="J70" s="46"/>
       <c r="M70" s="18"/>
     </row>
@@ -15493,7 +15563,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="89" t="s">
+      <c r="D72" s="96" t="s">
         <v>579</v>
       </c>
       <c r="E72" s="56" t="s">
@@ -15526,7 +15596,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="93"/>
+      <c r="D73" s="97"/>
       <c r="E73" s="74" t="s">
         <v>575</v>
       </c>
@@ -15557,7 +15627,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="93"/>
+      <c r="D74" s="97"/>
       <c r="E74" s="74" t="s">
         <v>576</v>
       </c>
@@ -15588,7 +15658,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="90"/>
+      <c r="D75" s="98"/>
       <c r="E75" s="57" t="s">
         <v>584</v>
       </c>
@@ -15704,12 +15774,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="46"/>
-      <c r="F80" s="91" t="s">
+      <c r="F80" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G80" s="94"/>
       <c r="H80" s="94"/>
-      <c r="I80" s="92"/>
+      <c r="I80" s="95"/>
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -15741,7 +15811,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="89" t="s">
+      <c r="D82" s="96" t="s">
         <v>591</v>
       </c>
       <c r="E82" s="56" t="s">
@@ -15774,7 +15844,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="93"/>
+      <c r="D83" s="97"/>
       <c r="E83" s="74" t="s">
         <v>575</v>
       </c>
@@ -15808,7 +15878,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="93"/>
+      <c r="D84" s="97"/>
       <c r="E84" s="74" t="s">
         <v>576</v>
       </c>
@@ -15842,7 +15912,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="90"/>
+      <c r="D85" s="98"/>
       <c r="E85" s="57" t="s">
         <v>584</v>
       </c>
@@ -15973,12 +16043,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="46"/>
-      <c r="F90" s="91" t="s">
+      <c r="F90" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G90" s="94"/>
       <c r="H90" s="94"/>
-      <c r="I90" s="92"/>
+      <c r="I90" s="95"/>
       <c r="J90" s="46"/>
       <c r="M90" s="18"/>
     </row>
@@ -16009,7 +16079,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="89" t="s">
+      <c r="D92" s="96" t="s">
         <v>579</v>
       </c>
       <c r="E92" s="56" t="s">
@@ -16042,7 +16112,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="93"/>
+      <c r="D93" s="97"/>
       <c r="E93" s="74" t="s">
         <v>575</v>
       </c>
@@ -16073,7 +16143,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="93"/>
+      <c r="D94" s="97"/>
       <c r="E94" s="74" t="s">
         <v>576</v>
       </c>
@@ -16104,7 +16174,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="90"/>
+      <c r="D95" s="98"/>
       <c r="E95" s="57" t="s">
         <v>584</v>
       </c>
@@ -16220,12 +16290,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="46"/>
-      <c r="F100" s="91" t="s">
+      <c r="F100" s="93" t="s">
         <v>573</v>
       </c>
       <c r="G100" s="94"/>
       <c r="H100" s="94"/>
-      <c r="I100" s="92"/>
+      <c r="I100" s="95"/>
       <c r="J100" s="46"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -16257,7 +16327,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="89" t="s">
+      <c r="D102" s="96" t="s">
         <v>591</v>
       </c>
       <c r="E102" s="56" t="s">
@@ -16290,7 +16360,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="93"/>
+      <c r="D103" s="97"/>
       <c r="E103" s="74" t="s">
         <v>575</v>
       </c>
@@ -16324,7 +16394,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="93"/>
+      <c r="D104" s="97"/>
       <c r="E104" s="74" t="s">
         <v>576</v>
       </c>
@@ -16358,7 +16428,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="90"/>
+      <c r="D105" s="98"/>
       <c r="E105" s="57" t="s">
         <v>584</v>
       </c>
@@ -16468,18 +16538,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -16493,6 +16551,18 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16501,10 +16571,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB43"/>
+  <dimension ref="B1:AB50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16540,24 +16610,24 @@
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C3" s="46"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="93" t="s">
         <v>573</v>
       </c>
       <c r="E3" s="94"/>
       <c r="F3" s="94"/>
-      <c r="G3" s="92"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
       <c r="K3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="46"/>
-      <c r="R3" s="91" t="s">
+      <c r="R3" s="93" t="s">
         <v>573</v>
       </c>
       <c r="S3" s="94"/>
       <c r="T3" s="94"/>
-      <c r="U3" s="92"/>
+      <c r="U3" s="95"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
@@ -16613,7 +16683,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="96" t="s">
         <v>579</v>
       </c>
       <c r="C5" s="56" t="s">
@@ -16643,8 +16713,11 @@
         <f>D5/H5</f>
         <v>0.94001783856102272</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="P5" s="89" t="s">
+      <c r="K5" s="24">
+        <f>H5/H9</f>
+        <v>0.49561629706034038</v>
+      </c>
+      <c r="P5" s="96" t="s">
         <v>579</v>
       </c>
       <c r="Q5" s="56" t="s">
@@ -16677,7 +16750,7 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="93"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="74" t="s">
         <v>575</v>
       </c>
@@ -16705,8 +16778,11 @@
         <f>E6/H6</f>
         <v>0.8271798900235664</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="P6" s="93"/>
+      <c r="K6" s="24">
+        <f>H6/H9</f>
+        <v>0.14068371030722759</v>
+      </c>
+      <c r="P6" s="97"/>
       <c r="Q6" s="74" t="s">
         <v>575</v>
       </c>
@@ -16737,7 +16813,7 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="93"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="74" t="s">
         <v>576</v>
       </c>
@@ -16765,8 +16841,11 @@
         <f>F7/H7</f>
         <v>0.86312792353060808</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="P7" s="93"/>
+      <c r="K7" s="24">
+        <f>H7/H9</f>
+        <v>0.18113165843954909</v>
+      </c>
+      <c r="P7" s="97"/>
       <c r="Q7" s="74" t="s">
         <v>576</v>
       </c>
@@ -16797,7 +16876,7 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="90"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="57" t="s">
         <v>577</v>
       </c>
@@ -16825,8 +16904,11 @@
         <f>G8/H8</f>
         <v>0.83171912832929784</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="P8" s="90"/>
+      <c r="K8" s="24">
+        <f>H8/H9</f>
+        <v>0.18256833419288293</v>
+      </c>
+      <c r="P8" s="98"/>
       <c r="Q8" s="57" t="s">
         <v>577</v>
       </c>
@@ -17048,23 +17130,23 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C13" s="46"/>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="93" t="s">
         <v>573</v>
       </c>
       <c r="E13" s="94"/>
       <c r="F13" s="94"/>
-      <c r="G13" s="92"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="46"/>
-      <c r="R13" s="91" t="s">
+      <c r="R13" s="93" t="s">
         <v>573</v>
       </c>
       <c r="S13" s="94"/>
       <c r="T13" s="94"/>
-      <c r="U13" s="92"/>
+      <c r="U13" s="95"/>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
       <c r="X13" s="46"/>
@@ -17123,7 +17205,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="96" t="s">
         <v>579</v>
       </c>
       <c r="C15" s="56" t="s">
@@ -17154,7 +17236,10 @@
         <f>D15/H15</f>
         <v>0.93584260051325918</v>
       </c>
-      <c r="P15" s="89" t="s">
+      <c r="L15" s="102">
+        <v>0.88</v>
+      </c>
+      <c r="P15" s="96" t="s">
         <v>579</v>
       </c>
       <c r="Q15" s="56" t="s">
@@ -17187,7 +17272,7 @@
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="93"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="74" t="s">
         <v>575</v>
       </c>
@@ -17219,7 +17304,10 @@
         <f>E16/H16</f>
         <v>0.76760563380281688</v>
       </c>
-      <c r="P16" s="93"/>
+      <c r="L16" s="102">
+        <v>0.04</v>
+      </c>
+      <c r="P16" s="97"/>
       <c r="Q16" s="74" t="s">
         <v>575</v>
       </c>
@@ -17253,7 +17341,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="93"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="74" t="s">
         <v>576</v>
       </c>
@@ -17285,7 +17373,10 @@
         <f>F17/H17</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="P17" s="93"/>
+      <c r="L17" s="102">
+        <v>0.04</v>
+      </c>
+      <c r="P17" s="97"/>
       <c r="Q17" s="74" t="s">
         <v>576</v>
       </c>
@@ -17319,7 +17410,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="90"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="57" t="s">
         <v>577</v>
       </c>
@@ -17351,7 +17442,10 @@
         <f>G18/H18</f>
         <v>0.89333333333333331</v>
       </c>
-      <c r="P18" s="90"/>
+      <c r="L18" s="102">
+        <v>0.04</v>
+      </c>
+      <c r="P18" s="98"/>
       <c r="Q18" s="57" t="s">
         <v>577</v>
       </c>
@@ -17536,26 +17630,168 @@
         <v>0.72198275862068984</v>
       </c>
     </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="18">
+        <f>L15/K5</f>
+        <v>1.7755671175858481</v>
+      </c>
+      <c r="D22" s="18">
+        <f>D5*B22</f>
+        <v>22455.597336108221</v>
+      </c>
+      <c r="E22" s="18">
+        <f>E5*B22</f>
+        <v>562.8547762747138</v>
+      </c>
+      <c r="F22" s="18">
+        <f>F5*B22</f>
+        <v>367.54239334027056</v>
+      </c>
+      <c r="G22" s="18">
+        <f>G5*B22</f>
+        <v>502.48549427679501</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B23" s="18">
+        <f t="shared" ref="B23:B25" si="0">L16/K6</f>
+        <v>0.28432573972244041</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" ref="D23:D25" si="1">D6*B23</f>
+        <v>177.9879130662477</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" ref="E23:E25" si="2">E6*B23</f>
+        <v>898.18501178318922</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" ref="F23:F25" si="3">F6*B23</f>
+        <v>4.8335375752814871</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" ref="G23:G25" si="4">G6*B23</f>
+        <v>4.8335375752814871</v>
+      </c>
+      <c r="H23" s="88">
+        <f>SUM(D23:G23)</f>
+        <v>1085.8399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" s="18">
+        <f t="shared" si="0"/>
+        <v>0.22083384177343912</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="1"/>
+        <v>100.03773032336792</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="2"/>
+        <v>5.5208460443359781</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="3"/>
+        <v>937.21882448647568</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="4"/>
+        <v>43.062599145820627</v>
+      </c>
+      <c r="H24" s="88">
+        <f>SUM(D24:G24)</f>
+        <v>1085.8400000000001</v>
+      </c>
+    </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" s="18">
+        <f t="shared" si="0"/>
+        <v>0.21909604519774012</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" si="1"/>
+        <v>138.03050847457627</v>
+      </c>
+      <c r="E25" s="18">
+        <f t="shared" si="2"/>
+        <v>6.1346892655367231</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="3"/>
+        <v>38.560903954802264</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="4"/>
+        <v>903.11389830508472</v>
+      </c>
+      <c r="H25" s="86">
+        <f>SUM(D25:G25)</f>
+        <v>1085.8399999999999</v>
+      </c>
       <c r="P25" s="3" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="E26" s="89">
+        <f>SUM(E22:E25)</f>
+        <v>1472.6953233677757</v>
+      </c>
+      <c r="F26" s="89">
+        <f>SUM(F22:F25)</f>
+        <v>1348.15565935683</v>
+      </c>
+      <c r="G26" s="87">
+        <f>SUM(G22:G25)</f>
+        <v>1453.4955293029818</v>
+      </c>
+      <c r="H26">
+        <f>SUM(D22:G25)</f>
+        <v>27146.000000000015</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>619</v>
+      </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="46"/>
-      <c r="R26" s="91" t="s">
+      <c r="R26" s="93" t="s">
         <v>573</v>
       </c>
       <c r="S26" s="94"/>
       <c r="T26" s="94"/>
-      <c r="U26" s="92"/>
+      <c r="U26" s="95"/>
       <c r="V26" s="46"/>
       <c r="W26" s="46"/>
       <c r="X26" s="46"/>
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="K27" s="47">
+        <f>SUM(D22,E23,F24,G25 )/H26</f>
+        <v>0.92809677560903847</v>
+      </c>
+      <c r="L27" s="67">
+        <f>(E23+F24+G25)/SUM(E26:G26)</f>
+        <v>0.64068688087613679</v>
+      </c>
+      <c r="M27" s="47">
+        <f>(E23+F24+G25)/SUM(H23:H25)</f>
+        <v>0.84067564729449074</v>
+      </c>
+      <c r="N27" s="68">
+        <f>2*L27*M27/(L27+M27)</f>
+        <v>0.72718169664893262</v>
+      </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="46"/>
       <c r="R27" s="84" t="s">
@@ -17582,7 +17818,7 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P28" s="89" t="s">
+      <c r="P28" s="96" t="s">
         <v>579</v>
       </c>
       <c r="Q28" s="56" t="s">
@@ -17612,10 +17848,13 @@
         <f>R28/V28</f>
         <v>0.93860561914672214</v>
       </c>
-      <c r="Y28" s="18"/>
+      <c r="Y28" s="24">
+        <f>V28/V32</f>
+        <v>0.49561629706034038</v>
+      </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P29" s="93"/>
+      <c r="P29" s="97"/>
       <c r="Q29" s="74" t="s">
         <v>575</v>
       </c>
@@ -17643,10 +17882,13 @@
         <f>S29/V29</f>
         <v>0.81487300340403246</v>
       </c>
-      <c r="Y29" s="18"/>
+      <c r="Y29" s="24">
+        <f>V29/V32</f>
+        <v>0.14068371030722759</v>
+      </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P30" s="93"/>
+      <c r="P30" s="97"/>
       <c r="Q30" s="74" t="s">
         <v>576</v>
       </c>
@@ -17674,10 +17916,13 @@
         <f>T30/V30</f>
         <v>0.86719544437665241</v>
       </c>
-      <c r="Y30" s="18"/>
+      <c r="Y30" s="24">
+        <f>V30/V32</f>
+        <v>0.18113165843954909</v>
+      </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P31" s="90"/>
+      <c r="P31" s="98"/>
       <c r="Q31" s="57" t="s">
         <v>577</v>
       </c>
@@ -17705,7 +17950,10 @@
         <f>U31/V31</f>
         <v>0.8282889426957224</v>
       </c>
-      <c r="Y31" s="18"/>
+      <c r="Y31" s="24">
+        <f>V31/V32</f>
+        <v>0.18256833419288293</v>
+      </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P32" s="18"/>
@@ -17811,12 +18059,12 @@
     <row r="36" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P36" s="18"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="91" t="s">
+      <c r="R36" s="93" t="s">
         <v>573</v>
       </c>
       <c r="S36" s="94"/>
       <c r="T36" s="94"/>
-      <c r="U36" s="92"/>
+      <c r="U36" s="95"/>
       <c r="V36" s="46"/>
       <c r="W36" s="46"/>
       <c r="X36" s="46"/>
@@ -17850,7 +18098,7 @@
       </c>
     </row>
     <row r="38" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P38" s="89" t="s">
+      <c r="P38" s="96" t="s">
         <v>579</v>
       </c>
       <c r="Q38" s="56" t="s">
@@ -17881,9 +18129,12 @@
         <f>R38/V38</f>
         <v>0.92600513259195893</v>
       </c>
+      <c r="Z38" s="102">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="39" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P39" s="93"/>
+      <c r="P39" s="97"/>
       <c r="Q39" s="74" t="s">
         <v>575</v>
       </c>
@@ -17915,9 +18166,12 @@
         <f>S39/V39</f>
         <v>0.78169014084507038</v>
       </c>
+      <c r="Z39" s="102">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="40" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P40" s="93"/>
+      <c r="P40" s="97"/>
       <c r="Q40" s="74" t="s">
         <v>576</v>
       </c>
@@ -17949,9 +18203,12 @@
         <f>T40/V40</f>
         <v>0.77600000000000002</v>
       </c>
+      <c r="Z40" s="102">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="41" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P41" s="90"/>
+      <c r="P41" s="98"/>
       <c r="Q41" s="57" t="s">
         <v>577</v>
       </c>
@@ -17982,6 +18239,9 @@
       <c r="Y41" s="34">
         <f>U41/V41</f>
         <v>0.87333333333333329</v>
+      </c>
+      <c r="Z41" s="102">
+        <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="16:28" x14ac:dyDescent="0.2">
@@ -18063,22 +18323,184 @@
         <v>0.72513368983957216</v>
       </c>
     </row>
+    <row r="45" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P45" s="18">
+        <f>Z38/Y28</f>
+        <v>1.7755671175858481</v>
+      </c>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18">
+        <f>R28*P45</f>
+        <v>22421.861560874091</v>
+      </c>
+      <c r="S45" s="18">
+        <f>S28*P45</f>
+        <v>610.7950884495317</v>
+      </c>
+      <c r="T45" s="18">
+        <f>T28*P45</f>
+        <v>355.11342351716962</v>
+      </c>
+      <c r="U45" s="18">
+        <f>U28*P45</f>
+        <v>500.70992715920914</v>
+      </c>
+    </row>
+    <row r="46" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P46" s="18">
+        <f t="shared" ref="P46:P48" si="5">Z39/Y29</f>
+        <v>0.28432573972244041</v>
+      </c>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18">
+        <f t="shared" ref="R46:R48" si="6">R29*P46</f>
+        <v>186.23335951819845</v>
+      </c>
+      <c r="S46" s="18">
+        <f t="shared" ref="S46:S48" si="7">S29*P46</f>
+        <v>884.82170201623455</v>
+      </c>
+      <c r="T46" s="18">
+        <f t="shared" ref="T46:T48" si="8">T29*P46</f>
+        <v>8.2454464519507713</v>
+      </c>
+      <c r="U46" s="18">
+        <f t="shared" ref="U46:U48" si="9">U29*P46</f>
+        <v>6.5394920136161296</v>
+      </c>
+      <c r="V46" s="88">
+        <f>SUM(R46:U46)</f>
+        <v>1085.8399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P47" s="18">
+        <f t="shared" si="5"/>
+        <v>0.22083384177343912</v>
+      </c>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18">
+        <f t="shared" si="6"/>
+        <v>101.36273337400856</v>
+      </c>
+      <c r="S47" s="18">
+        <f t="shared" si="7"/>
+        <v>4.8583445190156604</v>
+      </c>
+      <c r="T47" s="18">
+        <f t="shared" si="8"/>
+        <v>941.63550132194439</v>
+      </c>
+      <c r="U47" s="18">
+        <f t="shared" si="9"/>
+        <v>37.983420785031527</v>
+      </c>
+      <c r="V47" s="88">
+        <f>SUM(R47:U47)</f>
+        <v>1085.8400000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P48" s="18">
+        <f t="shared" si="5"/>
+        <v>0.21909604519774012</v>
+      </c>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18">
+        <f t="shared" si="6"/>
+        <v>140.65966101694914</v>
+      </c>
+      <c r="S48" s="18">
+        <f t="shared" si="7"/>
+        <v>3.0673446327683616</v>
+      </c>
+      <c r="T48" s="18">
+        <f t="shared" si="8"/>
+        <v>42.723728813559326</v>
+      </c>
+      <c r="U48" s="18">
+        <f t="shared" si="9"/>
+        <v>899.3892655367232</v>
+      </c>
+      <c r="V48" s="86">
+        <f>SUM(R48:U48)</f>
+        <v>1085.8400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="89">
+        <f>SUM(S45:S48)</f>
+        <v>1503.5424796175503</v>
+      </c>
+      <c r="T49" s="89">
+        <f>SUM(T45:T48)</f>
+        <v>1347.7181001046242</v>
+      </c>
+      <c r="U49" s="87">
+        <f>SUM(U45:U48)</f>
+        <v>1444.62210549458</v>
+      </c>
+      <c r="V49">
+        <f>SUM(R45:U48)</f>
+        <v>27146.000000000004</v>
+      </c>
+      <c r="Y49" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z49" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA49" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB49" s="46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="50" spans="16:28" x14ac:dyDescent="0.2">
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="Y50" s="47">
+        <f>SUM(R45,S46,T47,U48 )/V49</f>
+        <v>0.92638724046817167</v>
+      </c>
+      <c r="Z50" s="67">
+        <f>(S46+T47+U48)/SUM(S49:U49)</f>
+        <v>0.6345253510425799</v>
+      </c>
+      <c r="AA50" s="47">
+        <f>(S46+T47+U48)/SUM(V46:V48)</f>
+        <v>0.83678579682546905</v>
+      </c>
+      <c r="AB50" s="68">
+        <f>2*Z50*AA50/(Z50+AA50)</f>
+        <v>0.72175325015038039</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="P5:P8"/>
     <mergeCell ref="R26:U26"/>
     <mergeCell ref="P28:P31"/>
     <mergeCell ref="R36:U36"/>
     <mergeCell ref="P38:P41"/>
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="P15:P18"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="P5:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="24240" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2740" yWindow="720" windowWidth="24240" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="779">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2622,6 +2622,12 @@
   <si>
     <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547139890</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547140112</t>
   </si>
 </sst>
 </file>
@@ -10606,8 +10612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12903,6 +12909,15 @@
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.72025723472668801</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -12916,6 +12931,15 @@
       <c r="P72" s="6"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.75196408529741798</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="791">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2628,6 +2628,49 @@
   </si>
   <si>
     <t>m93_cnn_ek_1547140112</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=test_score, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547140718</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547141181</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547141228</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547141108</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547141078</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.0025, 0.95), l2=0.4, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.4, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 128)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=precision, valid=0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>best_test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3046,7 +3089,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3123,9 +3166,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3271,6 +3311,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3284,7 +3327,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3318,6 +3360,24 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -3728,24 +3788,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92" t="s">
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8224,18 +8284,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10610,10 +10670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AG121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10621,126 +10681,134 @@
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="12.6640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="85" customWidth="1"/>
+    <col min="6" max="8" width="13.5" style="103" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="103" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="103" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="103" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="103" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="18"/>
+    <col min="15" max="15" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="85" t="s">
+        <v>789</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92" t="s">
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="16" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="85" t="s">
         <v>710</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="85" t="s">
+        <v>790</v>
+      </c>
+      <c r="F2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="85" t="s">
         <v>549</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="85" t="s">
         <v>549</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4">
+      <c r="O2" s="6"/>
+      <c r="P2" s="4">
         <v>1</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>2</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="9"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>550</v>
       </c>
@@ -10750,60 +10818,60 @@
       <c r="C3" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="85">
         <v>0.65915000000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="85">
         <v>0.89700139983791305</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="85">
         <v>0.87382096868808301</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="85">
         <v>0.917885782692209</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="85">
         <v>0.89287427607326098</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="85">
         <v>0.894824153948241</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="85">
         <v>0.88007471734906395</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="85">
         <v>0.89782725180656497</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="85">
         <v>0.88845174191453802</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4">
+      <c r="O3" s="6"/>
+      <c r="P3" s="4">
         <v>2</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>51</v>
       </c>
-      <c r="R3" s="90">
+      <c r="S3" s="90">
         <v>36969</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>547</v>
       </c>
@@ -10813,60 +10881,60 @@
       <c r="C4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="85">
         <v>0.62456999999999996</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="85">
         <v>0.894459588889707</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="85">
         <v>0.87110931797201896</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="85">
         <v>0.91640708443093799</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="85">
         <v>0.89065300247262902</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="85">
         <v>0.88852023888520204</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="85">
         <v>0.86518301141326204</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="85">
         <v>0.91060751759291103</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="85">
         <v>0.88471169744246403</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="4">
+      <c r="O4" s="6"/>
+      <c r="P4" s="4">
         <v>3</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>105</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>548</v>
       </c>
@@ -10876,58 +10944,58 @@
       <c r="C5" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="85">
         <v>0.652416</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="85">
         <v>0.884623885655345</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="85">
         <v>0.86073867901298495</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="85">
         <v>0.90917853764331502</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="85">
         <v>0.88140768218314403</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="85">
         <v>0.88586595885865904</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="85">
         <v>0.871124079635619</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="85">
         <v>0.88791668530756895</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="85">
         <v>0.87880236890261099</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5">
+      <c r="O5" s="6"/>
+      <c r="P5" s="5">
         <v>4</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>11</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>535</v>
       </c>
@@ -10937,60 +11005,60 @@
       <c r="C6" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="85">
         <v>0.60559799999999997</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="85">
         <v>0.86775215501363001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="85">
         <v>0.84227492482598798</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="85">
         <v>0.88945904899422201</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="85">
         <v>0.86231870337179595</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="85">
         <v>0.87790311877903104</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="85">
         <v>0.85544210021184497</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="85">
         <v>0.89193486715224601</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="85">
         <v>0.87174986605357596</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5">
+      <c r="O6" s="6"/>
+      <c r="P6" s="5">
         <v>5</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>26</v>
       </c>
-      <c r="R6" s="90">
+      <c r="S6" s="90">
         <v>37030</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>558</v>
       </c>
@@ -11000,83 +11068,83 @@
       <c r="C7" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="85">
         <v>0.60664300000000004</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="85">
         <v>0.86620496574080896</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="85">
         <v>0.84037960545785995</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="85">
         <v>0.88880942235261495</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="85">
         <v>0.86085355880963399</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="85">
         <v>0.876244193762441</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="85">
         <v>0.85886663766673699</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="85">
         <v>0.88149171005928195</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="85">
         <v>0.86876643830693401</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5">
+      <c r="O7" s="6"/>
+      <c r="P7" s="5">
         <v>6</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>94</v>
       </c>
-      <c r="R7" s="90">
+      <c r="S7" s="90">
         <v>41231</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="N8" s="6"/>
-      <c r="O8" s="5">
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O8" s="6"/>
+      <c r="P8" s="5">
         <v>7</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>33</v>
       </c>
-      <c r="R8" s="90">
+      <c r="S8" s="90">
         <v>37000</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>563</v>
       </c>
@@ -11086,58 +11154,58 @@
       <c r="C9" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="85">
         <v>0.624309</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="85">
         <v>0.93339718558903695</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="85">
         <v>0.91637783961090102</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="85">
         <v>0.94699125403344497</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="85">
         <v>0.93045775532563602</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="85">
         <v>0.88022561380225595</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="85">
         <v>0.86370752458885003</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="85">
         <v>0.88412573133844996</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="85">
         <v>0.87329050012571796</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5">
+      <c r="O9" s="6"/>
+      <c r="P9" s="5">
         <v>8</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>134</v>
       </c>
-      <c r="R9" s="90">
+      <c r="S9" s="90">
         <v>41200</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="11"/>
+      <c r="W9" s="5"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>411</v>
       </c>
@@ -11147,128 +11215,128 @@
       <c r="C10" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="85">
         <v>0.65654599999999996</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="85">
         <v>0.94172253739040701</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="85">
         <v>0.92539410856570903</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="85">
         <v>0.95457759387776298</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="85">
         <v>0.93887480936261603</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="85">
         <v>0.894824153948241</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="85">
         <v>0.87722736448360406</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="85">
         <v>0.90307013365634603</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="85">
         <v>0.88921177109515603</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5">
+      <c r="O10" s="6"/>
+      <c r="P10" s="5">
         <v>9</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>35</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5">
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="5">
         <v>10</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>38</v>
       </c>
-      <c r="R11" s="90">
+      <c r="S11" s="90">
         <v>37153</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>570</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5">
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="5">
         <v>11</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>64</v>
       </c>
-      <c r="R12" s="90">
+      <c r="S12" s="90">
         <v>37153</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>569</v>
       </c>
@@ -11278,58 +11346,58 @@
       <c r="C13" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="85">
         <v>0.65934099999999995</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="85">
         <v>0.89272821041774097</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="85">
         <v>0.84066797642436097</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="85">
         <v>0.93755477651183095</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="85">
         <v>0.886471928734203</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="85">
         <v>0.89648307896483004</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="85">
         <v>0.86443883984867498</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="85">
         <v>0.90197368421052604</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="85">
         <v>0.88280746941403698</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5">
+      <c r="O13" s="6"/>
+      <c r="P13" s="5">
         <v>12</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>103</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>629</v>
       </c>
@@ -11339,82 +11407,82 @@
       <c r="C14" t="s">
         <v>628</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="85">
         <v>0.679245283018867</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="85">
         <v>0.89965372430560597</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="85">
         <v>0.88139148043682602</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="85">
         <v>0.89008179959100198</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="85">
         <v>0.88571532395799202</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="85">
         <v>0.88747731397459095</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="85">
         <v>0.57966101694915195</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="85">
         <v>0.82014388489208601</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="O14" s="5">
+      <c r="M14" s="85"/>
+      <c r="P14" s="5">
         <v>13</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="Q14" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>51</v>
       </c>
-      <c r="R14" s="90">
+      <c r="S14" s="90">
         <v>37000</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="N15" s="6"/>
-      <c r="O15" s="5">
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O15" s="6"/>
+      <c r="P15" s="5">
         <v>14</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>7</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="S15" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>633</v>
       </c>
@@ -11424,36 +11492,36 @@
       <c r="C16" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="85">
         <v>0.70193285859613397</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5">
+      <c r="O16" s="6"/>
+      <c r="P16" s="5">
         <v>15</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>31</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="S16" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>632</v>
       </c>
@@ -11463,18 +11531,17 @@
       <c r="C17" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="85">
         <v>0.68611670020120696</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="R17" s="5"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -11483,8 +11550,9 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>632</v>
       </c>
@@ -11494,10 +11562,9 @@
       <c r="C18" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="85">
         <v>0.70600203458799604</v>
       </c>
-      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -11506,8 +11573,9 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>632</v>
       </c>
@@ -11517,21 +11585,20 @@
       <c r="C19" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="85">
         <v>0.67557251908396898</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="6"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -11540,8 +11607,9 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>632</v>
       </c>
@@ -11551,21 +11619,20 @@
       <c r="C20" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="85">
         <v>0.69192422731804504</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="R20" s="5"/>
+      <c r="Q20" s="6"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -11574,8 +11641,9 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>632</v>
       </c>
@@ -11585,21 +11653,20 @@
       <c r="C21" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="85">
         <v>0.69362992922143496</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="R21" s="5"/>
+      <c r="Q21" s="6"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -11608,8 +11675,9 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>632</v>
       </c>
@@ -11619,21 +11687,21 @@
       <c r="C22" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="104">
         <v>0.68699186991869898</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="13"/>
-      <c r="R22" s="5"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="13"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -11642,8 +11710,9 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>632</v>
       </c>
@@ -11653,10 +11722,9 @@
       <c r="C23" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="85">
         <v>0.69906928645294697</v>
       </c>
-      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -11665,8 +11733,9 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>632</v>
       </c>
@@ -11676,21 +11745,20 @@
       <c r="C24" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="85">
         <v>0.65373423860329705</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="6"/>
-      <c r="R24" s="5"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="6"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -11699,8 +11767,9 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>632</v>
       </c>
@@ -11710,21 +11779,20 @@
       <c r="C25" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="85">
         <v>0.66873706004140698</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="R25" s="5"/>
+      <c r="Q25" s="6"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -11733,8 +11801,9 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>632</v>
       </c>
@@ -11744,21 +11813,20 @@
       <c r="C26" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="85">
         <v>0.71168274383708396</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="R26" s="5"/>
+      <c r="Q26" s="6"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -11767,8 +11835,9 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>632</v>
       </c>
@@ -11778,21 +11847,20 @@
       <c r="C27" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="85">
         <v>0.69762641898864797</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="R27" s="5"/>
+      <c r="Q27" s="6"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -11801,8 +11869,9 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>632</v>
       </c>
@@ -11812,21 +11881,20 @@
       <c r="C28" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="85">
         <v>0.70225872689938396</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="R28" s="5"/>
+      <c r="Q28" s="6"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -11835,8 +11903,9 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>632</v>
       </c>
@@ -11846,10 +11915,9 @@
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="85">
         <v>0.69269269269269196</v>
       </c>
-      <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -11858,29 +11926,29 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>632</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="85">
         <v>0.70304302203567604</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="R30" s="5"/>
+      <c r="Q30" s="6"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -11889,20 +11957,20 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="R31" s="5"/>
+      <c r="Q31" s="6"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -11911,20 +11979,20 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="R32" s="5"/>
+      <c r="Q32" s="6"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -11933,20 +12001,20 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="R33" s="5"/>
+      <c r="Q33" s="6"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -11955,9 +12023,9 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="R34" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -11966,8 +12034,9 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>671</v>
       </c>
@@ -11977,10 +12046,9 @@
       <c r="C35" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="85">
         <v>0.70698644421272105</v>
       </c>
-      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -11989,26 +12057,26 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="5"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="85">
         <v>0.68394815553339905</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="R36" s="5"/>
+      <c r="Q36" s="6"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -12017,24 +12085,24 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="C37" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="R37" s="5"/>
+      <c r="Q37" s="6"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -12043,20 +12111,20 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="AA37" s="5"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="R38" s="5"/>
+      <c r="Q38" s="6"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -12065,8 +12133,9 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="5"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>665</v>
       </c>
@@ -12076,21 +12145,20 @@
       <c r="C39" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="85">
         <v>0.70658682634730496</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="R39" s="5"/>
+      <c r="Q39" s="6"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -12099,8 +12167,9 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>664</v>
       </c>
@@ -12110,21 +12179,20 @@
       <c r="C40" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="85">
         <v>0.69183673469387696</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-      <c r="R40" s="5"/>
+      <c r="Q40" s="6"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -12133,9 +12201,9 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="R41" s="5"/>
+      <c r="AA40" s="5"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -12144,20 +12212,20 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="R42" s="5"/>
+      <c r="Q42" s="6"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -12166,20 +12234,20 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="R43" s="5"/>
+      <c r="Q43" s="6"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -12188,8 +12256,9 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>662</v>
       </c>
@@ -12199,44 +12268,44 @@
       <c r="C44" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="85">
         <v>0.68678459937564995</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="R44" s="5"/>
+      <c r="Q44" s="6"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="8"/>
       <c r="Z44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>678</v>
       </c>
@@ -12246,1040 +12315,1092 @@
       <c r="C46" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="85">
         <v>0.66915191053122003</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>705</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="85">
         <v>0.67109004739336398</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>704</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="85">
         <v>0.71773347324239201</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>703</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="85">
         <v>0.72607260726072598</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="N49" s="6"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>702</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="85">
         <v>0.68426197458455496</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>701</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="85">
         <v>0.71817192600652802</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="105">
         <v>0.74479737130339496</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>691</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="85">
         <v>0.72120559741657697</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="85">
         <v>0.72198275862068895</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="85">
         <v>0.72513368983957205</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>757</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="105">
         <v>0.74802259887005595</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="105"/>
+      <c r="F56" s="85">
         <v>0.89195461578132995</v>
       </c>
-      <c r="F56" s="6">
+      <c r="G56" s="85">
         <v>0.90244283149925797</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="85">
         <v>0.84450774174700505</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="85">
         <v>0.87251461988304002</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="85">
         <v>0.92159709618874697</v>
       </c>
-      <c r="J56" s="6">
+      <c r="K56" s="85">
         <v>0.70726495726495697</v>
       </c>
-      <c r="K56" s="6">
+      <c r="L56" s="85">
         <v>0.79376498800959205</v>
       </c>
-      <c r="L56" s="6">
+      <c r="M56" s="85">
         <v>0.74802259887005595</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>757</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="105">
         <v>0.74776785714285698</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="105"/>
+      <c r="F57" s="85">
         <v>0.888602372356885</v>
       </c>
-      <c r="F57" s="6">
+      <c r="G57" s="85">
         <v>0.89921025881617</v>
       </c>
-      <c r="G57" s="6">
+      <c r="H57" s="85">
         <v>0.83990651475314004</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="85">
         <v>0.86854726029983698</v>
       </c>
-      <c r="I57" s="6">
+      <c r="J57" s="85">
         <v>0.92050816696914695</v>
       </c>
-      <c r="J57" s="6">
+      <c r="K57" s="85">
         <v>0.69937369519832904</v>
       </c>
-      <c r="K57" s="6">
+      <c r="L57" s="85">
         <v>0.80335731414868095</v>
       </c>
-      <c r="L57" s="6">
+      <c r="M57" s="85">
         <v>0.74776785714285698</v>
       </c>
-      <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>756</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="85">
         <v>0.72392638036809798</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F58" s="85">
         <v>0.89438591321004901</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G58" s="85">
         <v>0.90537164272329795</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H58" s="85">
         <v>0.84691790826760105</v>
       </c>
-      <c r="H58" s="6">
+      <c r="I58" s="85">
         <v>0.875169811320754</v>
       </c>
-      <c r="I58" s="6">
+      <c r="J58" s="85">
         <v>0.92014519056261301</v>
       </c>
-      <c r="J58" s="6">
+      <c r="K58" s="85">
         <v>0.74120603015075304</v>
       </c>
-      <c r="K58" s="6">
+      <c r="L58" s="85">
         <v>0.70743405275779303</v>
       </c>
-      <c r="L58" s="6">
+      <c r="M58" s="85">
         <v>0.72392638036809798</v>
       </c>
-      <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>755</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="85">
         <v>0.73907910271546595</v>
       </c>
-      <c r="E59" s="6">
+      <c r="F59" s="85">
         <v>0.891478779840848</v>
       </c>
-      <c r="F59" s="6">
+      <c r="G59" s="85">
         <v>0.90365776305588796</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="85">
         <v>0.84288719432027304</v>
       </c>
-      <c r="H59" s="6">
+      <c r="I59" s="85">
         <v>0.87221523077446295</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="85">
         <v>0.92196007259528101</v>
       </c>
-      <c r="J59" s="6">
+      <c r="K59" s="85">
         <v>0.72790697674418603</v>
       </c>
-      <c r="K59" s="6">
+      <c r="L59" s="85">
         <v>0.75059952038369304</v>
       </c>
-      <c r="L59" s="6">
+      <c r="M59" s="85">
         <v>0.73907910271546595</v>
       </c>
-      <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>758</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="105">
         <v>0.74402730375426596</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="105"/>
+      <c r="F60" s="85">
         <v>0.87771883289124597</v>
       </c>
-      <c r="F60" s="6">
+      <c r="G60" s="85">
         <v>0.89248389405869699</v>
       </c>
-      <c r="G60" s="6">
+      <c r="H60" s="85">
         <v>0.81961609255850598</v>
       </c>
-      <c r="H60" s="6">
+      <c r="I60" s="85">
         <v>0.85449934891371304</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="85">
         <v>0.92087114337567999</v>
       </c>
-      <c r="J60" s="6">
+      <c r="K60" s="85">
         <v>0.70779220779220697</v>
       </c>
-      <c r="K60" s="6">
+      <c r="L60" s="85">
         <v>0.78417266187050305</v>
       </c>
-      <c r="L60" s="6">
+      <c r="M60" s="85">
         <v>0.74402730375426596</v>
       </c>
-      <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>763</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="105">
         <v>0.76359338061465698</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="105"/>
+      <c r="F61" s="85">
         <v>0.89353864289398</v>
       </c>
-      <c r="F61" s="6">
+      <c r="G61" s="85">
         <v>0.904296875</v>
       </c>
-      <c r="G61" s="6">
+      <c r="H61" s="85">
         <v>0.84538416593631305</v>
       </c>
-      <c r="H61" s="6">
+      <c r="I61" s="85">
         <v>0.87384870904423895</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="85">
         <v>0.929219600725952</v>
       </c>
-      <c r="J61" s="6">
+      <c r="K61" s="85">
         <v>0.75291375291375295</v>
       </c>
-      <c r="K61" s="6">
+      <c r="L61" s="85">
         <v>0.77458033573141405</v>
       </c>
-      <c r="L61" s="6">
+      <c r="M61" s="85">
         <v>0.76359338061465698</v>
       </c>
-      <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>763</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="85">
         <v>0.74418604651162801</v>
       </c>
-      <c r="E62" s="6">
+      <c r="F62" s="85">
         <v>0.88053488543431802</v>
       </c>
-      <c r="F62" s="6">
+      <c r="G62" s="85">
         <v>0.89338496799178002</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="85">
         <v>0.82559158632778196</v>
       </c>
-      <c r="H62" s="6">
+      <c r="I62" s="85">
         <v>0.85815145188840303</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="85">
         <v>0.92304900181488203</v>
       </c>
-      <c r="J62" s="6">
+      <c r="K62" s="85">
         <v>0.72234762979683897</v>
       </c>
-      <c r="K62" s="6">
+      <c r="L62" s="85">
         <v>0.76738609112709799</v>
       </c>
-      <c r="L62" s="6">
+      <c r="M62" s="85">
         <v>0.74418604651162801</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="N63" s="6"/>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>769</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="85">
         <v>0.73535791757049895</v>
       </c>
-      <c r="E65" s="6">
+      <c r="F65" s="85">
         <v>0.87446949602122004</v>
       </c>
-      <c r="F65" s="6">
+      <c r="G65" s="85">
         <v>0.89029293509477303</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="85">
         <v>0.81514593741782804</v>
       </c>
-      <c r="H65" s="6">
+      <c r="I65" s="85">
         <v>0.85106382978723405</v>
       </c>
-      <c r="I65" s="6">
+      <c r="J65" s="85">
         <v>0.915426497277677</v>
       </c>
-      <c r="J65" s="6">
+      <c r="K65" s="85">
         <v>0.671287128712871</v>
       </c>
-      <c r="K65" s="6">
+      <c r="L65" s="85">
         <v>0.81294964028776895</v>
       </c>
-      <c r="L65" s="6">
+      <c r="M65" s="85">
         <v>0.73535791757049895</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>771</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="85">
         <v>0.72747014115092201</v>
       </c>
-      <c r="E66" s="6">
+      <c r="F66" s="85">
         <v>0.850464190981432</v>
       </c>
-      <c r="F66" s="6">
+      <c r="G66" s="85">
         <v>0.875093214019388</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="85">
         <v>0.77143044964501695</v>
       </c>
-      <c r="H66" s="6">
+      <c r="I66" s="85">
         <v>0.819998602473621</v>
       </c>
-      <c r="I66" s="6">
+      <c r="J66" s="85">
         <v>0.911796733212341</v>
       </c>
-      <c r="J66" s="6">
+      <c r="K66" s="85">
         <v>0.66468253968253899</v>
       </c>
-      <c r="K66" s="6">
+      <c r="L66" s="85">
         <v>0.80335731414868095</v>
       </c>
-      <c r="L66" s="6">
+      <c r="M66" s="85">
         <v>0.72747014115092201</v>
       </c>
-      <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>772</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="85">
         <v>0.74564459930313598</v>
       </c>
-      <c r="E67" s="6">
+      <c r="F67" s="85">
         <v>0.87224637147277595</v>
       </c>
-      <c r="F67" s="6">
+      <c r="G67" s="85">
         <v>0.88921001926782195</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="85">
         <v>0.80893952673093705</v>
       </c>
-      <c r="H67" s="6">
+      <c r="I67" s="85">
         <v>0.84717760440569001</v>
       </c>
-      <c r="I67" s="6">
+      <c r="J67" s="85">
         <v>0.92304900181488203</v>
       </c>
-      <c r="J67" s="6">
+      <c r="K67" s="85">
         <v>0.72297297297297303</v>
       </c>
-      <c r="K67" s="6">
+      <c r="L67" s="85">
         <v>0.76978417266187005</v>
       </c>
-      <c r="L67" s="6">
+      <c r="M67" s="85">
         <v>0.74564459930313598</v>
       </c>
-      <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>770</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="85">
         <v>0.72815533980582503</v>
       </c>
-      <c r="E68" s="6">
+      <c r="F68" s="85">
         <v>0.86616812790097897</v>
       </c>
-      <c r="F68" s="6">
+      <c r="G68" s="85">
         <v>0.88563549355178794</v>
       </c>
-      <c r="G68" s="6">
+      <c r="H68" s="85">
         <v>0.79747297692082897</v>
       </c>
-      <c r="H68" s="6">
+      <c r="I68" s="85">
         <v>0.83924522501056797</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="85">
         <v>0.92123411978221403</v>
       </c>
-      <c r="J68" s="6">
+      <c r="K68" s="85">
         <v>0.73710073710073698</v>
       </c>
-      <c r="K68" s="6">
+      <c r="L68" s="85">
         <v>0.71942446043165398</v>
       </c>
-      <c r="L68" s="6">
+      <c r="M68" s="85">
         <v>0.72815533980582503</v>
       </c>
-      <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="N69" s="6"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>774</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="85">
         <v>0.74640088593576903</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="N70" s="6"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>776</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="85">
         <v>0.75278396436525596</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="N71" s="6"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="85"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="85">
         <v>0.72025723472668801</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="N72" s="6"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="85"/>
+      <c r="M72" s="85"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="85">
         <v>0.75196408529741798</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="N73" s="6"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0.71689989235737295</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="N75" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C74" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D74" s="85">
+        <v>0.74238875878220101</v>
+      </c>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>699</v>
+        <v>788</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D76" s="6">
-        <v>0.72476089266737498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="D76" s="85">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="E76" s="85">
+        <v>0.74617067833698003</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D77" s="6">
-        <v>0.72167216721672101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+      <c r="D77" s="85">
+        <v>0.73765093304061402</v>
+      </c>
+      <c r="E77" s="85">
+        <v>0.74672489082969395</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D78" s="6">
-        <v>0.71063829787234001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+      <c r="D78" s="85">
+        <v>0.74944071588366901</v>
+      </c>
+      <c r="E78" s="85">
+        <v>0.75027502750274999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D79" s="6">
-        <v>0.70920502092050197</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="N79" s="6"/>
+        <v>783</v>
+      </c>
+      <c r="D79" s="85">
+        <v>0.75084554678692195</v>
+      </c>
+      <c r="E79" s="85">
+        <v>0.75084554678692195</v>
+      </c>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
+      <c r="M79" s="85"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D80" s="6">
-        <v>0.71445086705202299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0.70931537598204197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="N82" s="6"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="N83" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="85"/>
+      <c r="M83" s="85"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="N84" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
+      <c r="M84" s="85"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="D85" s="91">
-        <v>0.75986471251409204</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="N85" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="85"/>
+      <c r="M85" s="85"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="D86" s="6">
-        <v>0.76179516685845705</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="D87" s="6">
-        <v>0.76396807297605396</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="N87" s="6"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="N88" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D89" s="85">
+        <v>0.71689989235737295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D90" s="85">
+        <v>0.72476089266737498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="85">
+        <v>0.72167216721672101</v>
+      </c>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
+      <c r="I91" s="85"/>
+      <c r="J91" s="85"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="85"/>
+      <c r="M91" s="85"/>
       <c r="O91" s="6"/>
-      <c r="P91" s="13"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="N92" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D92" s="85">
+        <v>0.71063829787234001</v>
+      </c>
+      <c r="F92" s="106"/>
+      <c r="G92" s="106"/>
+      <c r="H92" s="106"/>
+      <c r="I92" s="106"/>
+      <c r="J92" s="106"/>
+      <c r="K92" s="106"/>
+      <c r="L92" s="106"/>
+      <c r="M92" s="106"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="13"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="6"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D93" s="85">
+        <v>0.70920502092050197</v>
+      </c>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
+      <c r="M93" s="105"/>
+      <c r="O93" s="10"/>
       <c r="P93" s="6"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="N94" s="6"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D94" s="85">
+        <v>0.71445086705202299</v>
+      </c>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="N96" s="6"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D95" s="85">
+        <v>0.70931537598204197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85"/>
+      <c r="L96" s="85"/>
+      <c r="M96" s="85"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
-    </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="N97" s="6"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="85"/>
+      <c r="L97" s="85"/>
+      <c r="M97" s="85"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
-    </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="N98" s="6"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
+      <c r="I98" s="85"/>
+      <c r="J98" s="85"/>
+      <c r="K98" s="85"/>
+      <c r="L98" s="85"/>
+      <c r="M98" s="85"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
-    </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="N99" s="6"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D99" s="107">
+        <v>0.75986471251409204</v>
+      </c>
+      <c r="E99" s="107"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
-    </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="N100" s="6"/>
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D100" s="85">
+        <v>0.76179516685845705</v>
+      </c>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
+      <c r="M100" s="85"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
@@ -13298,221 +13419,231 @@
       <c r="AD100" s="6"/>
       <c r="AE100" s="6"/>
       <c r="AF100" s="6"/>
-    </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="N102" s="6"/>
+      <c r="AG100" s="6"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D101" s="85">
+        <v>0.76396807297605396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="85"/>
+      <c r="J102" s="85"/>
+      <c r="K102" s="85"/>
+      <c r="L102" s="85"/>
+      <c r="M102" s="85"/>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
-    </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="N103" s="6"/>
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
-    </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="N104" s="6"/>
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="85"/>
+      <c r="L104" s="85"/>
+      <c r="M104" s="85"/>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
-    </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="N105" s="6"/>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="85"/>
+      <c r="L105" s="85"/>
+      <c r="M105" s="85"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
-    </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="N106" s="6"/>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="85"/>
+      <c r="L106" s="85"/>
+      <c r="M106" s="85"/>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
-    </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B107"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="N107" s="6"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="85"/>
+      <c r="I107" s="85"/>
+      <c r="J107" s="85"/>
+      <c r="K107" s="85"/>
+      <c r="L107" s="85"/>
+      <c r="M107" s="85"/>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
-    </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D109" s="10"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="N109" s="6"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="85"/>
+      <c r="J109" s="85"/>
+      <c r="K109" s="85"/>
+      <c r="L109" s="85"/>
+      <c r="M109" s="85"/>
       <c r="O109" s="6"/>
-      <c r="P109" s="13"/>
-    </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="N111" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+      <c r="I111" s="85"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="85"/>
+      <c r="L111" s="85"/>
+      <c r="M111" s="85"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
-    </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="N113" s="6"/>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="113" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="85"/>
+      <c r="K113" s="85"/>
+      <c r="L113" s="85"/>
+      <c r="M113" s="85"/>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
-    </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="N114" s="6"/>
+      <c r="Q113" s="6"/>
+    </row>
+    <row r="114" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F114" s="85"/>
+      <c r="G114" s="85"/>
+      <c r="H114" s="85"/>
+      <c r="I114" s="85"/>
+      <c r="J114" s="85"/>
+      <c r="K114" s="85"/>
+      <c r="L114" s="85"/>
+      <c r="M114" s="85"/>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
-    </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="N115" s="6"/>
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
-    </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="N116" s="6"/>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
-    </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E117" s="15"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="N117" s="6"/>
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F117" s="108"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
-    </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="N118" s="6"/>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
-    </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E120" s="15"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="N120" s="6"/>
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="120" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F120" s="108"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="85"/>
+      <c r="K120" s="85"/>
+      <c r="L120" s="85"/>
+      <c r="M120" s="85"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
-    </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="N121" s="6"/>
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
+      <c r="K121" s="85"/>
+      <c r="L121" s="85"/>
+      <c r="M121" s="85"/>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13530,11 +13661,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="9" width="10.83203125" style="46"/>
+    <col min="6" max="9" width="10.83203125" style="45"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="46"/>
-    <col min="12" max="12" width="13.1640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.83203125" style="46"/>
+    <col min="11" max="11" width="10.83203125" style="45"/>
+    <col min="12" max="12" width="13.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -13565,20 +13696,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>621</v>
       </c>
-      <c r="S3" s="99" t="s">
+      <c r="S3" s="98" t="s">
         <v>610</v>
       </c>
-      <c r="T3" s="100"/>
+      <c r="T3" s="99"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -13588,37 +13719,37 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="54" t="s">
         <v>577</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="62" t="s">
         <v>602</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
       <c r="S4" s="31" t="s">
         <v>603</v>
       </c>
       <c r="T4" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46" t="s">
+      <c r="U4" s="45"/>
+      <c r="V4" s="45" t="s">
         <v>612</v>
       </c>
     </row>
@@ -13630,60 +13761,60 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="95" t="s">
         <v>579</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="47">
         <v>13426</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <v>252</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="47">
         <v>63</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="53">
         <v>213</v>
       </c>
       <c r="J5" s="27">
         <f>SUM(F5:I5)</f>
         <v>13954</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="50">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="63">
         <f>F5/J5</f>
         <v>0.96216138741579471</v>
       </c>
-      <c r="N5" s="103">
+      <c r="N5" s="102">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
       <c r="P5" t="s">
         <v>623</v>
       </c>
-      <c r="Q5" s="96" t="s">
+      <c r="Q5" s="95" t="s">
         <v>611</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="55" t="s">
         <v>605</v>
       </c>
       <c r="S5" s="29">
         <v>12435</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="53">
         <v>1019</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="47">
         <f>SUM(S5:T5)</f>
         <v>13454</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="48">
         <f>S5/U5</f>
         <v>0.92426044299093202</v>
       </c>
@@ -13696,53 +13827,53 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="97"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="49">
         <v>98</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="49">
         <v>3955</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="49">
         <v>6</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="71">
         <v>5</v>
       </c>
       <c r="J6" s="27">
         <f>SUM(F6:I6)</f>
         <v>4064</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="50">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="63">
         <f>G6/J6</f>
         <v>0.97317913385826771</v>
       </c>
-      <c r="N6" s="103">
+      <c r="N6" s="102">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="57" t="s">
+      <c r="Q6" s="97"/>
+      <c r="R6" s="56" t="s">
         <v>606</v>
       </c>
       <c r="S6" s="30">
         <v>762</v>
       </c>
-      <c r="T6" s="55">
+      <c r="T6" s="54">
         <v>12929</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="51">
         <f>SUM(S6:T6)</f>
         <v>13691</v>
       </c>
-      <c r="V6" s="53">
+      <c r="V6" s="52">
         <f>T6/U6</f>
         <v>0.94434299905047114</v>
       </c>
@@ -13755,40 +13886,40 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="97"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="49">
         <v>425</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="49">
         <v>12</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <v>5268</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="71">
         <v>148</v>
       </c>
       <c r="J7" s="27">
         <f>SUM(F7:I7)</f>
         <v>5853</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="50">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="63">
         <f>H7/J7</f>
         <v>0.90005125576627376</v>
       </c>
-      <c r="N7" s="103">
+      <c r="N7" s="102">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
       <c r="S7" s="31">
         <f>SUM(S5:S6)</f>
         <v>13197</v>
@@ -13797,15 +13928,15 @@
         <f>SUM(T5:T6)</f>
         <v>13948</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7" s="45">
         <f>SUM(U5:U6)</f>
         <v>27145</v>
       </c>
-      <c r="V7" s="47"/>
-      <c r="W7" s="46" t="s">
+      <c r="V7" s="46"/>
+      <c r="W7" s="45" t="s">
         <v>627</v>
       </c>
-      <c r="X7" s="47">
+      <c r="X7" s="46">
         <f>SUM(S5,T6)/U7</f>
         <v>0.9343893903112912</v>
       </c>
@@ -13818,56 +13949,56 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <v>599</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <v>24</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <v>126</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="54">
         <v>5140</v>
       </c>
       <c r="J8" s="23">
         <f>SUM(F8:I8)</f>
         <v>5889</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="52">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="64">
         <f>I8/J8</f>
         <v>0.87281372049583972</v>
       </c>
-      <c r="N8" s="103">
+      <c r="N8" s="102">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
-      <c r="Q8" s="46"/>
+      <c r="Q8" s="45"/>
       <c r="R8" s="31" t="s">
         <v>615</v>
       </c>
-      <c r="S8" s="60">
+      <c r="S8" s="59">
         <f>S5/S7</f>
         <v>0.94225960445555812</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="60">
         <f>T6/T7</f>
         <v>0.92694293088614854</v>
       </c>
-      <c r="U8" s="46"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="46" t="s">
+      <c r="U8" s="45"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="45" t="s">
         <v>617</v>
       </c>
-      <c r="X8" s="70">
+      <c r="X8" s="69">
         <f>V6</f>
         <v>0.94434299905047114</v>
       </c>
@@ -13878,19 +14009,19 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <f>SUM(F5:F8)</f>
         <v>14548</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <f>SUM(G5:G8)</f>
         <v>4243</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <f>SUM(H5:H8)</f>
         <v>5463</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="42">
         <f>SUM(I5:I8)</f>
         <v>5506</v>
       </c>
@@ -13898,23 +14029,23 @@
         <f>SUM(J5:J8)</f>
         <v>29760</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="46">
         <f>SUM(F5,G6,H7,I8 )/J9</f>
         <v>0.93377016129032253</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="46" t="s">
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="45" t="s">
         <v>618</v>
       </c>
-      <c r="X9" s="71">
+      <c r="X9" s="70">
         <f>T8</f>
         <v>0.92694293088614854</v>
       </c>
@@ -13927,38 +14058,38 @@
       <c r="E10" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f>F5/F9</f>
         <v>0.92287599670057741</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="59">
         <f>G6/G9</f>
         <v>0.93212349752533585</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <f>H7/H9</f>
         <v>0.96430532674354752</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="60">
         <f>I8/I9</f>
         <v>0.93352706138757724</v>
       </c>
       <c r="J10" s="18"/>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="45" t="s">
         <v>616</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="68">
         <f>(G6+H7+I8)/SUM(J6:J8)</f>
         <v>0.90870555485258764</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="46" t="s">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="45" t="s">
         <v>620</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="67">
         <f>2*X8*X9/(X8+X9)</f>
         <v>0.93556206809218867</v>
       </c>
@@ -13969,15 +14100,15 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="18"/>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="46">
         <f>(G6+H7+I8)/SUM(G9:I9)</f>
         <v>0.94418879831711811</v>
       </c>
@@ -13989,10 +14120,10 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="67">
         <f>2*N11*N10/(N11+N10)</f>
         <v>0.92610742149719516</v>
       </c>
@@ -14002,25 +14133,25 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="92" t="s">
         <v>585</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
         <v>626</v>
       </c>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="93" t="s">
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="T13" s="95"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="46"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
@@ -14030,40 +14161,40 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="54" t="s">
         <v>589</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="43" t="s">
         <v>596</v>
       </c>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
       <c r="S14" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="T14" s="54" t="s">
+      <c r="T14" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="U14" s="48"/>
-      <c r="V14" s="49" t="s">
+      <c r="U14" s="47"/>
+      <c r="V14" s="48" t="s">
         <v>614</v>
       </c>
     </row>
@@ -14075,42 +14206,42 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="95" t="s">
         <v>591</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="47">
         <v>2055</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="47">
         <v>32</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="47">
         <v>13</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="53">
         <v>7</v>
       </c>
       <c r="J15" s="27">
         <f>SUM(F15:I15)</f>
         <v>2107</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="50">
         <f>J15/J19</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="45">
+      <c r="L15" s="63"/>
+      <c r="M15" s="44">
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="N15" s="103">
+      <c r="N15" s="102">
         <f>J15/J19</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="Q15" s="96" t="s">
+      <c r="Q15" s="95" t="s">
         <v>591</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -14119,14 +14250,14 @@
       <c r="S15" s="29">
         <v>2066</v>
       </c>
-      <c r="T15" s="54">
+      <c r="T15" s="53">
         <v>272</v>
       </c>
-      <c r="U15" s="48">
+      <c r="U15" s="47">
         <f>SUM(S15:T15)</f>
         <v>2338</v>
       </c>
-      <c r="V15" s="49">
+      <c r="V15" s="48">
         <f>S15/U15</f>
         <v>0.88366124893070996</v>
       </c>
@@ -14139,31 +14270,31 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="49">
         <v>75</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="49">
         <v>108</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>2</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="71">
         <v>0</v>
       </c>
       <c r="J16" s="27">
         <f>SUM(F16:I16)</f>
         <v>185</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="50">
         <f>J16/J19</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="63">
         <f>F16/J16</f>
         <v>0.40540540540540543</v>
       </c>
@@ -14171,25 +14302,25 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="N16" s="103">
+      <c r="N16" s="102">
         <f>J16/J19</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="Q16" s="98"/>
+      <c r="Q16" s="97"/>
       <c r="R16" s="30" t="s">
         <v>607</v>
       </c>
       <c r="S16" s="30">
         <v>52</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="54">
         <v>365</v>
       </c>
-      <c r="U16" s="52">
+      <c r="U16" s="51">
         <f>SUM(S16:T16)</f>
         <v>417</v>
       </c>
-      <c r="V16" s="53">
+      <c r="V16" s="52">
         <f>T16/U16</f>
         <v>0.87529976019184652</v>
       </c>
@@ -14202,31 +14333,31 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="49">
         <v>65</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="49">
         <v>1</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <v>104</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="71">
         <v>4</v>
       </c>
       <c r="J17" s="27">
         <f>SUM(F17:I17)</f>
         <v>174</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="50">
         <f>J17/J19</f>
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="63">
         <f>F17/J17</f>
         <v>0.37356321839080459</v>
       </c>
@@ -14234,29 +14365,29 @@
         <f>H17/J17</f>
         <v>0.5977011494252874</v>
       </c>
-      <c r="N17" s="103">
+      <c r="N17" s="102">
         <f>J17/J19</f>
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
       <c r="S17" s="30">
         <f>SUM(S15:S16)</f>
         <v>2118</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="54">
         <f>SUM(T15:T16)</f>
         <v>637</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="45">
         <f>SUM(U15:U16)</f>
         <v>2755</v>
       </c>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46" t="s">
+      <c r="V17" s="45"/>
+      <c r="W17" s="45" t="s">
         <v>627</v>
       </c>
-      <c r="X17" s="47">
+      <c r="X17" s="46">
         <f>SUM(S15,T16)/U17</f>
         <v>0.88239564428312156</v>
       </c>
@@ -14269,31 +14400,31 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="51">
         <v>143</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="51">
         <v>1</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="51">
         <v>6</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="54">
         <v>139</v>
       </c>
       <c r="J18" s="23">
         <f>SUM(F18:I18)</f>
         <v>289</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="52">
         <f>J18/J19</f>
         <v>0.10490018148820326</v>
       </c>
-      <c r="L18" s="65">
+      <c r="L18" s="64">
         <f>F18/J18</f>
         <v>0.49480968858131485</v>
       </c>
@@ -14301,28 +14432,28 @@
         <f>I18/J18</f>
         <v>0.48096885813148788</v>
       </c>
-      <c r="N18" s="103">
+      <c r="N18" s="102">
         <f>J18/J19</f>
         <v>0.10490018148820326</v>
       </c>
-      <c r="Q18" s="46"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="31" t="s">
         <v>613</v>
       </c>
-      <c r="S18" s="60">
+      <c r="S18" s="59">
         <f>S15/S17</f>
         <v>0.97544853635505191</v>
       </c>
-      <c r="T18" s="61">
+      <c r="T18" s="60">
         <f>T16/T17</f>
         <v>0.57299843014128726</v>
       </c>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46" t="s">
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45" t="s">
         <v>617</v>
       </c>
-      <c r="X18" s="70">
+      <c r="X18" s="69">
         <f>V16</f>
         <v>0.87529976019184652</v>
       </c>
@@ -14333,19 +14464,19 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <f>SUM(F15:F18)</f>
         <v>2338</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="41">
         <f>SUM(G15:G18)</f>
         <v>142</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <f>SUM(H15:H18)</f>
         <v>125</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="42">
         <f>SUM(I15:I18)</f>
         <v>150</v>
       </c>
@@ -14353,23 +14484,23 @@
         <f>SUM(J15:J18)</f>
         <v>2755</v>
       </c>
-      <c r="M19" s="46" t="s">
+      <c r="M19" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="46">
         <f>SUM(F15,G16,H17,I18 )/J19</f>
         <v>0.87332123411978224</v>
       </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46" t="s">
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45" t="s">
         <v>618</v>
       </c>
-      <c r="X19" s="71">
+      <c r="X19" s="70">
         <f>T18</f>
         <v>0.57299843014128726</v>
       </c>
@@ -14378,85 +14509,85 @@
       <c r="E20" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="72">
         <f>F15/F19</f>
         <v>0.87895637296834905</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="59">
         <f>G16/G19</f>
         <v>0.76056338028169013</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="59">
         <f>H17/H19</f>
         <v>0.83199999999999996</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="60">
         <f>I18/I19</f>
         <v>0.92666666666666664</v>
       </c>
       <c r="J20" s="18"/>
-      <c r="M20" s="46" t="s">
+      <c r="M20" s="45" t="s">
         <v>616</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="68">
         <f>(G16+H17+I18)/SUM(J16:J18)</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="O20" s="18"/>
-      <c r="W20" s="46" t="s">
+      <c r="W20" s="45" t="s">
         <v>620</v>
       </c>
-      <c r="X20" s="68">
+      <c r="X20" s="67">
         <f>2*X18*X19/(X18+X19)</f>
         <v>0.69259962049335866</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="M21" s="46" t="s">
+      <c r="M21" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="46">
         <f>(G16+H17+I18)/SUM(G19:I19)</f>
         <v>0.84172661870503596</v>
       </c>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="N22" s="68">
+      <c r="N22" s="67">
         <f>2*N21*N20/(N21+N20)</f>
         <v>0.65915492957746469</v>
       </c>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>624</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="62"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
@@ -14466,12 +14597,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -14483,25 +14614,25 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="54" t="s">
         <v>577</v>
       </c>
       <c r="J27" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="K27" s="49" t="s">
+      <c r="K27" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="62" t="s">
         <v>602</v>
       </c>
       <c r="M27" s="18"/>
@@ -14510,33 +14641,33 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="95" t="s">
         <v>579</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="45">
         <v>13545</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="45">
         <v>616</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="45">
         <v>273</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="45">
         <v>514</v>
       </c>
       <c r="J28" s="27">
         <f>SUM(F28:I28)</f>
         <v>14948</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="50">
         <f>J28/J32</f>
         <v>0.49562334217506632</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="63">
         <f>F28/J28</f>
         <v>0.90614128980465614</v>
       </c>
@@ -14546,31 +14677,31 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="97"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="45">
         <v>95</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="45">
         <v>4114</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="45">
         <v>16</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="45">
         <v>18</v>
       </c>
       <c r="J29" s="27">
         <f>SUM(F29:I29)</f>
         <v>4243</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="50">
         <f>J29/J32</f>
         <v>0.14068302387267906</v>
       </c>
-      <c r="L29" s="64">
+      <c r="L29" s="63">
         <f>G29/J29</f>
         <v>0.96959698326655663</v>
       </c>
@@ -14580,31 +14711,31 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="97"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="45">
         <v>74</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="45">
         <v>10</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="45">
         <v>5212</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="45">
         <v>167</v>
       </c>
       <c r="J30" s="27">
         <f>SUM(F30:I30)</f>
         <v>5463</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="50">
         <f>J30/J32</f>
         <v>0.18113395225464191</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="63">
         <f>H30/J30</f>
         <v>0.95405454878272011</v>
       </c>
@@ -14614,31 +14745,31 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="98"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="45">
         <v>179</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="45">
         <v>17</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="45">
         <v>179</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="45">
         <v>5131</v>
       </c>
       <c r="J31" s="23">
         <f>SUM(F31:I31)</f>
         <v>5506</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="52">
         <f>J31/J32</f>
         <v>0.18255968169761272</v>
       </c>
-      <c r="L31" s="65">
+      <c r="L31" s="64">
         <f>I31/J31</f>
         <v>0.93189248092989463</v>
       </c>
@@ -14650,19 +14781,19 @@
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <f>SUM(F28:F31)</f>
         <v>13893</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <f>SUM(G28:G31)</f>
         <v>4757</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <f>SUM(H28:H31)</f>
         <v>5680</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="42">
         <f>SUM(I28:I31)</f>
         <v>5830</v>
       </c>
@@ -14670,10 +14801,10 @@
         <f>SUM(J28:J31)</f>
         <v>30160</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N32" s="47">
+      <c r="N32" s="46">
         <f>SUM(F28,G29,H30,I31 )/J32</f>
         <v>0.92844827586206902</v>
       </c>
@@ -14686,27 +14817,27 @@
       <c r="E33" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="59">
         <f>F28/F32</f>
         <v>0.97495141438134314</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="59">
         <f>G29/G32</f>
         <v>0.86483077569896993</v>
       </c>
-      <c r="H33" s="60">
+      <c r="H33" s="59">
         <f>H30/H32</f>
         <v>0.9176056338028169</v>
       </c>
-      <c r="I33" s="61">
+      <c r="I33" s="60">
         <f>I31/I32</f>
         <v>0.88010291595197254</v>
       </c>
       <c r="J33" s="18"/>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="45" t="s">
         <v>616</v>
       </c>
-      <c r="N33" s="47">
+      <c r="N33" s="46">
         <f>(G29+H30+I31)/SUM(J29:J31)</f>
         <v>0.95036813042335</v>
       </c>
@@ -14718,10 +14849,10 @@
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="N34" s="67">
+      <c r="N34" s="66">
         <f>(G29+H30+I31)/SUM(G32:I32)</f>
         <v>0.88873178828302701</v>
       </c>
@@ -14730,10 +14861,10 @@
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="M35" s="46" t="s">
+      <c r="M35" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="N35" s="68">
+      <c r="N35" s="67">
         <f>2*N34*N33/(N34+N33)</f>
         <v>0.91851710664252362</v>
       </c>
@@ -14744,12 +14875,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="93" t="s">
+      <c r="F36" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="94"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -14757,28 +14888,28 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="I37" s="55" t="s">
+      <c r="I37" s="54" t="s">
         <v>584</v>
       </c>
       <c r="J37" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="K37" s="61" t="s">
+      <c r="K37" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="L37" s="66" t="s">
+      <c r="L37" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="M37" s="44" t="s">
+      <c r="M37" s="43" t="s">
         <v>596</v>
       </c>
     </row>
@@ -14786,34 +14917,34 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="95" t="s">
         <v>591</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="45">
         <v>2046</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="45">
         <v>118</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="45">
         <v>55</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="45">
         <v>119</v>
       </c>
       <c r="J38" s="27">
         <f>SUM(F38:I38)</f>
         <v>2338</v>
       </c>
-      <c r="K38" s="51">
+      <c r="K38" s="50">
         <f>J38/J42</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="45">
+      <c r="L38" s="63"/>
+      <c r="M38" s="44">
         <f>F38/J38</f>
         <v>0.87510692899914455</v>
       </c>
@@ -14822,31 +14953,31 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="97"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="45">
         <v>24</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="45">
         <v>117</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="45">
         <v>0</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="45">
         <v>1</v>
       </c>
       <c r="J39" s="27">
         <f>SUM(F39:I39)</f>
         <v>142</v>
       </c>
-      <c r="K39" s="51">
+      <c r="K39" s="50">
         <f>J39/J42</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="L39" s="64">
+      <c r="L39" s="63">
         <f>F39/J39</f>
         <v>0.16901408450704225</v>
       </c>
@@ -14859,31 +14990,31 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="97"/>
+      <c r="D40" s="96"/>
       <c r="E40" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="45">
         <v>12</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="45">
         <v>2</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="45">
         <v>103</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="45">
         <v>8</v>
       </c>
       <c r="J40" s="27">
         <f>SUM(F40:I40)</f>
         <v>125</v>
       </c>
-      <c r="K40" s="51">
+      <c r="K40" s="50">
         <f>J40/J42</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="L40" s="64">
+      <c r="L40" s="63">
         <f>F40/J40</f>
         <v>9.6000000000000002E-2</v>
       </c>
@@ -14896,31 +15027,31 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="98"/>
+      <c r="D41" s="97"/>
       <c r="E41" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="45">
         <v>9</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="45">
         <v>0</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="45">
         <v>5</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="45">
         <v>136</v>
       </c>
       <c r="J41" s="23">
         <f>SUM(F41:I41)</f>
         <v>150</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K41" s="52">
         <f>J41/J42</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="L41" s="65">
+      <c r="L41" s="64">
         <f>F41/J41</f>
         <v>0.06</v>
       </c>
@@ -14935,19 +15066,19 @@
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="41">
+      <c r="F42" s="40">
         <f>SUM(F38:F41)</f>
         <v>2091</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="41">
         <f>SUM(G38:G41)</f>
         <v>237</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="41">
         <f>SUM(H38:H41)</f>
         <v>163</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="42">
         <f>SUM(I38:I41)</f>
         <v>264</v>
       </c>
@@ -14955,10 +15086,10 @@
         <f>SUM(J38:J41)</f>
         <v>2755</v>
       </c>
-      <c r="M42" s="46" t="s">
+      <c r="M42" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N42" s="47">
+      <c r="N42" s="46">
         <f>SUM(F38,G39,H40,I41 )/J42</f>
         <v>0.87186932849364795</v>
       </c>
@@ -14971,27 +15102,27 @@
       <c r="E43" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="F43" s="73">
+      <c r="F43" s="72">
         <f>F38/F42</f>
         <v>0.97847919655667148</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="59">
         <f>G39/G42</f>
         <v>0.49367088607594939</v>
       </c>
-      <c r="H43" s="60">
+      <c r="H43" s="59">
         <f>H40/H42</f>
         <v>0.63190184049079756</v>
       </c>
-      <c r="I43" s="61">
+      <c r="I43" s="60">
         <f>I41/I42</f>
         <v>0.51515151515151514</v>
       </c>
       <c r="J43" s="18"/>
-      <c r="M43" s="46" t="s">
+      <c r="M43" s="45" t="s">
         <v>616</v>
       </c>
-      <c r="N43" s="47">
+      <c r="N43" s="46">
         <f>(G39+H40+I41)/SUM(J39:J41)</f>
         <v>0.8537170263788969</v>
       </c>
@@ -15003,10 +15134,10 @@
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="M44" s="46" t="s">
+      <c r="M44" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="N44" s="69">
+      <c r="N44" s="68">
         <f>(G39+H40+I41)/SUM(G42:I42)</f>
         <v>0.53614457831325302</v>
       </c>
@@ -15015,10 +15146,10 @@
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="M45" s="46" t="s">
+      <c r="M45" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="N45" s="68">
+      <c r="N45" s="67">
         <f>2*N44*N43/(N44+N43)</f>
         <v>0.65864939870490291</v>
       </c>
@@ -15031,162 +15162,162 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="93" t="s">
+      <c r="F48" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="95"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="94"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H49" s="52" t="s">
+      <c r="H49" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I49" s="55" t="s">
+      <c r="I49" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="J49" s="59" t="s">
+      <c r="J49" s="58" t="s">
         <v>599</v>
       </c>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="L49" s="63" t="s">
+      <c r="L49" s="62" t="s">
         <v>602</v>
       </c>
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="96" t="s">
+      <c r="D50" s="95" t="s">
         <v>579</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="45">
         <v>12235</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="45">
         <v>478</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="45">
         <v>299</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="45">
         <v>442</v>
       </c>
       <c r="J50" s="27">
         <f>SUM(F50:I50)</f>
         <v>13454</v>
       </c>
-      <c r="K50" s="51">
+      <c r="K50" s="50">
         <f>J50/J54</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="L50" s="64">
+      <c r="L50" s="63">
         <f>F50/J50</f>
         <v>0.90939497547197856</v>
       </c>
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="97"/>
+      <c r="D51" s="96"/>
       <c r="E51" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="45">
         <v>415</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="45">
         <v>3379</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="45">
         <v>10</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51" s="45">
         <v>15</v>
       </c>
       <c r="J51" s="27">
         <f>SUM(F51:I51)</f>
         <v>3819</v>
       </c>
-      <c r="K51" s="51">
+      <c r="K51" s="50">
         <f>J51/J54</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="L51" s="64">
+      <c r="L51" s="63">
         <f>G51/J51</f>
         <v>0.8847865933490443</v>
       </c>
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="97"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="F52" s="46">
+      <c r="F52" s="45">
         <v>235</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="45">
         <v>14</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="45">
         <v>4484</v>
       </c>
-      <c r="I52" s="46">
+      <c r="I52" s="45">
         <v>184</v>
       </c>
       <c r="J52" s="27">
         <f>SUM(F52:I52)</f>
         <v>4917</v>
       </c>
-      <c r="K52" s="51">
+      <c r="K52" s="50">
         <f>J52/J54</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="L52" s="64">
+      <c r="L52" s="63">
         <f>H52/J52</f>
         <v>0.91193817368314012</v>
       </c>
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="98"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="45">
         <v>434</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="45">
         <v>22</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="45">
         <v>176</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="45">
         <v>4324</v>
       </c>
       <c r="J53" s="23">
         <f>SUM(F53:I53)</f>
         <v>4956</v>
       </c>
-      <c r="K53" s="53">
+      <c r="K53" s="52">
         <f>J53/J54</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="L53" s="65">
+      <c r="L53" s="64">
         <f>I53/J53</f>
         <v>0.87247780468119451</v>
       </c>
@@ -15195,19 +15326,19 @@
     <row r="54" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="41">
+      <c r="F54" s="40">
         <f>SUM(F50:F53)</f>
         <v>13319</v>
       </c>
-      <c r="G54" s="42">
+      <c r="G54" s="41">
         <f>SUM(G50:G53)</f>
         <v>3893</v>
       </c>
-      <c r="H54" s="42">
+      <c r="H54" s="41">
         <f>SUM(H50:H53)</f>
         <v>4969</v>
       </c>
-      <c r="I54" s="43">
+      <c r="I54" s="42">
         <f>SUM(I50:I53)</f>
         <v>4965</v>
       </c>
@@ -15215,54 +15346,54 @@
         <f>SUM(J50:J53)</f>
         <v>27146</v>
       </c>
-      <c r="M54" s="46" t="s">
+      <c r="M54" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N54" s="46" t="s">
+      <c r="N54" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="O54" s="46" t="s">
+      <c r="O54" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="P54" s="46" t="s">
+      <c r="P54" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D55" s="18"/>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="F55" s="60">
+      <c r="F55" s="59">
         <f>F50/F54</f>
         <v>0.91861250844658004</v>
       </c>
-      <c r="G55" s="60">
+      <c r="G55" s="59">
         <f>G51/G54</f>
         <v>0.86796814795787314</v>
       </c>
-      <c r="H55" s="60">
+      <c r="H55" s="59">
         <f>H52/H54</f>
         <v>0.90239484805795933</v>
       </c>
-      <c r="I55" s="61">
+      <c r="I55" s="60">
         <f>I53/I54</f>
         <v>0.87089627391742197</v>
       </c>
       <c r="J55" s="18"/>
-      <c r="M55" s="47">
+      <c r="M55" s="46">
         <f>SUM(F50,G51,H52,I53 )/J54</f>
         <v>0.89965372430560675</v>
       </c>
-      <c r="N55" s="67">
+      <c r="N55" s="66">
         <f>(G51+H52+I53)/SUM(G54:I54)</f>
         <v>0.88139148043682647</v>
       </c>
-      <c r="O55" s="47">
+      <c r="O55" s="46">
         <f>(G51+H52+I53)/SUM(J51:J53)</f>
         <v>0.89008179959100209</v>
       </c>
-      <c r="P55" s="68">
+      <c r="P55" s="67">
         <f>2*N55*O55/(N55+O55)</f>
         <v>0.88571532395799268</v>
       </c>
@@ -15271,108 +15402,108 @@
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="J56" s="18"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="67"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="66"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="M57" s="46"/>
-      <c r="N57" s="68"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="67"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="93" t="s">
+      <c r="F58" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="95"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="94"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H59" s="52" t="s">
+      <c r="H59" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I59" s="55" t="s">
+      <c r="I59" s="54" t="s">
         <v>584</v>
       </c>
-      <c r="J59" s="37" t="s">
+      <c r="J59" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="K59" s="61" t="s">
+      <c r="K59" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="L59" s="66" t="s">
+      <c r="L59" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="M59" s="44" t="s">
+      <c r="M59" s="43" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="96" t="s">
+      <c r="D60" s="95" t="s">
         <v>591</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="F60" s="46">
+      <c r="F60" s="45">
         <v>2103</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="45">
         <v>78</v>
       </c>
-      <c r="H60" s="46">
+      <c r="H60" s="45">
         <v>52</v>
       </c>
-      <c r="I60" s="46">
+      <c r="I60" s="45">
         <v>105</v>
       </c>
       <c r="J60" s="27">
         <f>SUM(F60:I60)</f>
         <v>2338</v>
       </c>
-      <c r="K60" s="51">
+      <c r="K60" s="50">
         <f>J60/J64</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="L60" s="64"/>
-      <c r="M60" s="45">
+      <c r="L60" s="63"/>
+      <c r="M60" s="44">
         <f>F60/J60</f>
         <v>0.89948674080410607</v>
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="97"/>
+      <c r="D61" s="96"/>
       <c r="E61" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="F61" s="46">
+      <c r="F61" s="45">
         <v>32</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="45">
         <v>109</v>
       </c>
-      <c r="H61" s="46">
+      <c r="H61" s="45">
         <v>0</v>
       </c>
-      <c r="I61" s="46">
+      <c r="I61" s="45">
         <v>1</v>
       </c>
       <c r="J61" s="27">
         <f>SUM(F61:I61)</f>
         <v>142</v>
       </c>
-      <c r="K61" s="51">
+      <c r="K61" s="50">
         <f>J61/J64</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="L61" s="64">
+      <c r="L61" s="63">
         <f>F61/J61</f>
         <v>0.22535211267605634</v>
       </c>
@@ -15382,31 +15513,31 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="97"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="F62" s="46">
+      <c r="F62" s="45">
         <v>18</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="45">
         <v>1</v>
       </c>
-      <c r="H62" s="46">
+      <c r="H62" s="45">
         <v>100</v>
       </c>
-      <c r="I62" s="46">
+      <c r="I62" s="45">
         <v>6</v>
       </c>
       <c r="J62" s="27">
         <f>SUM(F62:I62)</f>
         <v>125</v>
       </c>
-      <c r="K62" s="51">
+      <c r="K62" s="50">
         <f>J62/J64</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="L62" s="64">
+      <c r="L62" s="63">
         <f>F62/J62</f>
         <v>0.14399999999999999</v>
       </c>
@@ -15416,31 +15547,31 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="98"/>
+      <c r="D63" s="97"/>
       <c r="E63" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="F63" s="46">
+      <c r="F63" s="45">
         <v>12</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="45">
         <v>0</v>
       </c>
-      <c r="H63" s="46">
+      <c r="H63" s="45">
         <v>5</v>
       </c>
-      <c r="I63" s="46">
+      <c r="I63" s="45">
         <v>133</v>
       </c>
       <c r="J63" s="23">
         <f>SUM(F63:I63)</f>
         <v>150</v>
       </c>
-      <c r="K63" s="53">
+      <c r="K63" s="52">
         <f>J63/J64</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="L63" s="65">
+      <c r="L63" s="64">
         <f>F63/J63</f>
         <v>0.08</v>
       </c>
@@ -15452,19 +15583,19 @@
     <row r="64" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="41">
+      <c r="F64" s="40">
         <f>SUM(F60:F63)</f>
         <v>2165</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="41">
         <f>SUM(G60:G63)</f>
         <v>188</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="41">
         <f>SUM(H60:H63)</f>
         <v>157</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="42">
         <f>SUM(I60:I63)</f>
         <v>245</v>
       </c>
@@ -15472,16 +15603,16 @@
         <f>SUM(J60:J63)</f>
         <v>2755</v>
       </c>
-      <c r="M64" s="46" t="s">
+      <c r="M64" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N64" s="46" t="s">
+      <c r="N64" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="O64" s="46" t="s">
+      <c r="O64" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="P64" s="46" t="s">
+      <c r="P64" s="45" t="s">
         <v>619</v>
       </c>
     </row>
@@ -15490,36 +15621,36 @@
       <c r="E65" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="F65" s="73">
+      <c r="F65" s="72">
         <f>F60/F64</f>
         <v>0.97136258660508079</v>
       </c>
-      <c r="G65" s="60">
+      <c r="G65" s="59">
         <f>G61/G64</f>
         <v>0.57978723404255317</v>
       </c>
-      <c r="H65" s="60">
+      <c r="H65" s="59">
         <f>H62/H64</f>
         <v>0.63694267515923564</v>
       </c>
-      <c r="I65" s="61">
+      <c r="I65" s="60">
         <f>I63/I64</f>
         <v>0.54285714285714282</v>
       </c>
       <c r="J65" s="18"/>
-      <c r="M65" s="47">
+      <c r="M65" s="46">
         <f>SUM(F60,G61,H62,I63 )/J64</f>
         <v>0.88747731397459162</v>
       </c>
-      <c r="N65" s="67">
+      <c r="N65" s="66">
         <f>(G61+H62+I63)/SUM(G64:I64)</f>
         <v>0.57966101694915251</v>
       </c>
-      <c r="O65" s="47">
+      <c r="O65" s="46">
         <f>(G61+H62+I63)/SUM(J61:J63)</f>
         <v>0.82014388489208634</v>
       </c>
-      <c r="P65" s="68">
+      <c r="P65" s="67">
         <f>2*N65*O65/(N65+O65)</f>
         <v>0.67924528301886788</v>
       </c>
@@ -15528,15 +15659,15 @@
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="J66" s="18"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="69"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="68"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="J67" s="18"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="68"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="67"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -15550,163 +15681,163 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="93" t="s">
+      <c r="E70" s="45"/>
+      <c r="F70" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="46"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="45"/>
       <c r="M70" s="18"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D71" s="18"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="40" t="s">
+      <c r="E71" s="45"/>
+      <c r="F71" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G71" s="52" t="s">
+      <c r="G71" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H71" s="52" t="s">
+      <c r="H71" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I71" s="55" t="s">
+      <c r="I71" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="J71" s="38" t="s">
+      <c r="J71" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="K71" s="49" t="s">
+      <c r="K71" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="L71" s="63" t="s">
+      <c r="L71" s="62" t="s">
         <v>602</v>
       </c>
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="96" t="s">
+      <c r="D72" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="E72" s="56" t="s">
+      <c r="E72" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="F72" s="46">
+      <c r="F72" s="45">
         <v>12894</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="45">
         <v>228</v>
       </c>
-      <c r="H72" s="46">
+      <c r="H72" s="45">
         <v>122</v>
       </c>
-      <c r="I72" s="46">
+      <c r="I72" s="45">
         <v>210</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="38">
         <f>SUM(F72:I72)</f>
         <v>13454</v>
       </c>
-      <c r="K72" s="51">
+      <c r="K72" s="50">
         <f>J72/J76</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="L72" s="64">
+      <c r="L72" s="63">
         <f>F72/J72</f>
         <v>0.95837669094693023</v>
       </c>
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="97"/>
-      <c r="E73" s="74" t="s">
+      <c r="D73" s="96"/>
+      <c r="E73" s="73" t="s">
         <v>575</v>
       </c>
-      <c r="F73" s="46">
+      <c r="F73" s="45">
         <v>190</v>
       </c>
-      <c r="G73" s="46">
+      <c r="G73" s="45">
         <v>3619</v>
       </c>
-      <c r="H73" s="46">
+      <c r="H73" s="45">
         <v>4</v>
       </c>
-      <c r="I73" s="46">
+      <c r="I73" s="45">
         <v>6</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="38">
         <f>SUM(F73:I73)</f>
         <v>3819</v>
       </c>
-      <c r="K73" s="51">
+      <c r="K73" s="50">
         <f>J73/J76</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="L73" s="64">
+      <c r="L73" s="63">
         <f>G73/J73</f>
         <v>0.94763026970411102</v>
       </c>
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="97"/>
-      <c r="E74" s="74" t="s">
+      <c r="D74" s="96"/>
+      <c r="E74" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="F74" s="46">
+      <c r="F74" s="45">
         <v>121</v>
       </c>
-      <c r="G74" s="46">
+      <c r="G74" s="45">
         <v>8</v>
       </c>
-      <c r="H74" s="46">
+      <c r="H74" s="45">
         <v>4681</v>
       </c>
-      <c r="I74" s="46">
+      <c r="I74" s="45">
         <v>107</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="38">
         <f>SUM(F74:I74)</f>
         <v>4917</v>
       </c>
-      <c r="K74" s="51">
+      <c r="K74" s="50">
         <f>J74/J76</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="L74" s="64">
+      <c r="L74" s="63">
         <f>H74/J74</f>
         <v>0.95200325401667685</v>
       </c>
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="98"/>
-      <c r="E75" s="57" t="s">
+      <c r="D75" s="97"/>
+      <c r="E75" s="56" t="s">
         <v>584</v>
       </c>
-      <c r="F75" s="46">
+      <c r="F75" s="45">
         <v>233</v>
       </c>
-      <c r="G75" s="46">
+      <c r="G75" s="45">
         <v>7</v>
       </c>
-      <c r="H75" s="46">
+      <c r="H75" s="45">
         <v>116</v>
       </c>
-      <c r="I75" s="46">
+      <c r="I75" s="45">
         <v>4600</v>
       </c>
-      <c r="J75" s="40">
+      <c r="J75" s="39">
         <f>SUM(F75:I75)</f>
         <v>4956</v>
       </c>
-      <c r="K75" s="53">
+      <c r="K75" s="52">
         <f>J75/J76</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="L75" s="65">
+      <c r="L75" s="64">
         <f>I75/J75</f>
         <v>0.92816787732041972</v>
       </c>
@@ -15714,185 +15845,185 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D76" s="18"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="41">
+      <c r="E76" s="45"/>
+      <c r="F76" s="40">
         <f>SUM(F72:F75)</f>
         <v>13438</v>
       </c>
-      <c r="G76" s="42">
+      <c r="G76" s="41">
         <f>SUM(G72:G75)</f>
         <v>3862</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="41">
         <f>SUM(H72:H75)</f>
         <v>4923</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="42">
         <f>SUM(I72:I75)</f>
         <v>4923</v>
       </c>
-      <c r="J76" s="57">
+      <c r="J76" s="56">
         <f>SUM(J72:J75)</f>
         <v>27146</v>
       </c>
-      <c r="M76" s="46" t="s">
+      <c r="M76" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N76" s="46" t="s">
+      <c r="N76" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="O76" s="46" t="s">
+      <c r="O76" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="P76" s="46" t="s">
+      <c r="P76" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D77" s="18"/>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="F77" s="60">
+      <c r="F77" s="59">
         <f>F72/F76</f>
         <v>0.95951778538472987</v>
       </c>
-      <c r="G77" s="60">
+      <c r="G77" s="59">
         <f>G73/G76</f>
         <v>0.93707923355774214</v>
       </c>
-      <c r="H77" s="60">
+      <c r="H77" s="59">
         <f>H74/H76</f>
         <v>0.95084298192159256</v>
       </c>
-      <c r="I77" s="61">
+      <c r="I77" s="60">
         <f>I75/I76</f>
         <v>0.93438959983749748</v>
       </c>
-      <c r="J77" s="46"/>
-      <c r="M77" s="47">
+      <c r="J77" s="45"/>
+      <c r="M77" s="46">
         <f>SUM(F72,G73,H74,I75 )/J76</f>
         <v>0.95019524055109406</v>
       </c>
-      <c r="N77" s="67">
+      <c r="N77" s="66">
         <f>(G73+H74+I75)/SUM(G76:I76)</f>
         <v>0.94105631747884444</v>
       </c>
-      <c r="O77" s="47">
+      <c r="O77" s="46">
         <f>(G73+H74+I75)/SUM(J73:J75)</f>
         <v>0.94215600350569673</v>
       </c>
-      <c r="P77" s="68">
+      <c r="P77" s="67">
         <f>2*N77*O77/(N77+O77)</f>
         <v>0.94160583941605835</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D78" s="18"/>
-      <c r="E78" s="46"/>
-      <c r="J78" s="46"/>
+      <c r="E78" s="45"/>
+      <c r="J78" s="45"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E79" s="46"/>
-      <c r="J79" s="46"/>
+      <c r="E79" s="45"/>
+      <c r="J79" s="45"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E80" s="46"/>
-      <c r="F80" s="93" t="s">
+      <c r="E80" s="45"/>
+      <c r="F80" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G80" s="94"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="46"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="45"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D81" s="18"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="40" t="s">
+      <c r="E81" s="45"/>
+      <c r="F81" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G81" s="52" t="s">
+      <c r="G81" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H81" s="52" t="s">
+      <c r="H81" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I81" s="55" t="s">
+      <c r="I81" s="54" t="s">
         <v>584</v>
       </c>
-      <c r="J81" s="41" t="s">
+      <c r="J81" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="K81" s="61" t="s">
+      <c r="K81" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="L81" s="66" t="s">
+      <c r="L81" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="M81" s="44" t="s">
+      <c r="M81" s="43" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="96" t="s">
+      <c r="D82" s="95" t="s">
         <v>591</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="F82" s="46">
+      <c r="F82" s="45">
         <v>2130</v>
       </c>
-      <c r="G82" s="46">
+      <c r="G82" s="45">
         <v>89</v>
       </c>
-      <c r="H82" s="46">
+      <c r="H82" s="45">
         <v>40</v>
       </c>
-      <c r="I82" s="46">
+      <c r="I82" s="45">
         <v>79</v>
       </c>
-      <c r="J82" s="39">
+      <c r="J82" s="38">
         <f>SUM(F82:I82)</f>
         <v>2338</v>
       </c>
-      <c r="K82" s="51">
+      <c r="K82" s="50">
         <f>J82/J86</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="L82" s="64"/>
-      <c r="M82" s="45">
+      <c r="L82" s="63"/>
+      <c r="M82" s="44">
         <f>F82/J82</f>
         <v>0.91103507271171946</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="97"/>
-      <c r="E83" s="74" t="s">
+      <c r="D83" s="96"/>
+      <c r="E83" s="73" t="s">
         <v>575</v>
       </c>
-      <c r="F83" s="46">
+      <c r="F83" s="45">
         <v>29</v>
       </c>
-      <c r="G83" s="46">
+      <c r="G83" s="45">
         <v>112</v>
       </c>
-      <c r="H83" s="46">
+      <c r="H83" s="45">
         <v>1</v>
       </c>
-      <c r="I83" s="46">
+      <c r="I83" s="45">
         <v>0</v>
       </c>
-      <c r="J83" s="39">
+      <c r="J83" s="38">
         <f>SUM(F83:I83)</f>
         <v>142</v>
       </c>
-      <c r="K83" s="51">
+      <c r="K83" s="50">
         <f>J83/J86</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="L83" s="64">
+      <c r="L83" s="63">
         <f>F83/J83</f>
         <v>0.20422535211267606</v>
       </c>
@@ -15902,31 +16033,31 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="97"/>
-      <c r="E84" s="74" t="s">
+      <c r="D84" s="96"/>
+      <c r="E84" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="F84" s="46">
+      <c r="F84" s="45">
         <v>16</v>
       </c>
-      <c r="G84" s="46">
+      <c r="G84" s="45">
         <v>2</v>
       </c>
-      <c r="H84" s="46">
+      <c r="H84" s="45">
         <v>98</v>
       </c>
-      <c r="I84" s="46">
+      <c r="I84" s="45">
         <v>9</v>
       </c>
-      <c r="J84" s="39">
+      <c r="J84" s="38">
         <f>SUM(F84:I84)</f>
         <v>125</v>
       </c>
-      <c r="K84" s="51">
+      <c r="K84" s="50">
         <f>J84/J86</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="L84" s="64">
+      <c r="L84" s="63">
         <f>F84/J84</f>
         <v>0.128</v>
       </c>
@@ -15936,31 +16067,31 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="98"/>
-      <c r="E85" s="57" t="s">
+      <c r="D85" s="97"/>
+      <c r="E85" s="56" t="s">
         <v>584</v>
       </c>
-      <c r="F85" s="46">
+      <c r="F85" s="45">
         <v>14</v>
       </c>
-      <c r="G85" s="46">
+      <c r="G85" s="45">
         <v>0</v>
       </c>
-      <c r="H85" s="46">
+      <c r="H85" s="45">
         <v>1</v>
       </c>
-      <c r="I85" s="46">
+      <c r="I85" s="45">
         <v>135</v>
       </c>
-      <c r="J85" s="40">
+      <c r="J85" s="39">
         <f>SUM(F85:I85)</f>
         <v>150</v>
       </c>
-      <c r="K85" s="53">
+      <c r="K85" s="52">
         <f>J85/J86</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="L85" s="65">
+      <c r="L85" s="64">
         <f>F85/J85</f>
         <v>9.3333333333333338E-2</v>
       </c>
@@ -15971,75 +16102,75 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D86" s="18"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="41">
+      <c r="E86" s="45"/>
+      <c r="F86" s="40">
         <f>SUM(F82:F85)</f>
         <v>2189</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="41">
         <f>SUM(G82:G85)</f>
         <v>203</v>
       </c>
-      <c r="H86" s="42">
+      <c r="H86" s="41">
         <f>SUM(H82:H85)</f>
         <v>140</v>
       </c>
-      <c r="I86" s="43">
+      <c r="I86" s="42">
         <f>SUM(I82:I85)</f>
         <v>223</v>
       </c>
-      <c r="J86" s="57">
+      <c r="J86" s="56">
         <f>SUM(J82:J85)</f>
         <v>2755</v>
       </c>
-      <c r="M86" s="46" t="s">
+      <c r="M86" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N86" s="46" t="s">
+      <c r="N86" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="O86" s="46" t="s">
+      <c r="O86" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="P86" s="46" t="s">
+      <c r="P86" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D87" s="18"/>
-      <c r="E87" s="66" t="s">
+      <c r="E87" s="65" t="s">
         <v>598</v>
       </c>
-      <c r="F87" s="73">
+      <c r="F87" s="72">
         <f>F82/F86</f>
         <v>0.9730470534490635</v>
       </c>
-      <c r="G87" s="60">
+      <c r="G87" s="59">
         <f>G83/G86</f>
         <v>0.55172413793103448</v>
       </c>
-      <c r="H87" s="60">
+      <c r="H87" s="59">
         <f>H84/H86</f>
         <v>0.7</v>
       </c>
-      <c r="I87" s="61">
+      <c r="I87" s="60">
         <f>I85/I86</f>
         <v>0.60538116591928248</v>
       </c>
-      <c r="J87" s="46"/>
-      <c r="M87" s="47">
+      <c r="J87" s="45"/>
+      <c r="M87" s="46">
         <f>SUM(F82,G83,H84,I85 )/J86</f>
         <v>0.89836660617059894</v>
       </c>
-      <c r="N87" s="67">
+      <c r="N87" s="66">
         <f>(G83+H84+I85)/SUM(G86:I86)</f>
         <v>0.60954063604240283</v>
       </c>
-      <c r="O87" s="47">
+      <c r="O87" s="46">
         <f>(G83+H84+I85)/SUM(J83:J85)</f>
         <v>0.82733812949640284</v>
       </c>
-      <c r="P87" s="68">
+      <c r="P87" s="67">
         <f>2*N87*O87/(N87+O87)</f>
         <v>0.7019328585961343</v>
       </c>
@@ -16048,8 +16179,8 @@
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
       <c r="J88" s="18"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="69"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="68"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -16058,55 +16189,55 @@
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
       <c r="J89" s="18"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="68"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="67"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>634</v>
       </c>
       <c r="D90" s="18"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="93" t="s">
+      <c r="E90" s="45"/>
+      <c r="F90" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G90" s="94"/>
-      <c r="H90" s="94"/>
-      <c r="I90" s="95"/>
-      <c r="J90" s="46"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="45"/>
       <c r="M90" s="18"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D91" s="18"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="40" t="s">
+      <c r="E91" s="45"/>
+      <c r="F91" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G91" s="52" t="s">
+      <c r="G91" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H91" s="52" t="s">
+      <c r="H91" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I91" s="55" t="s">
+      <c r="I91" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="J91" s="38" t="s">
+      <c r="J91" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="K91" s="49" t="s">
+      <c r="K91" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="L91" s="63" t="s">
+      <c r="L91" s="62" t="s">
         <v>602</v>
       </c>
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="96" t="s">
+      <c r="D92" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="55" t="s">
         <v>574</v>
       </c>
       <c r="F92" s="18">
@@ -16121,23 +16252,23 @@
       <c r="I92" s="18">
         <v>256</v>
       </c>
-      <c r="J92" s="39">
+      <c r="J92" s="38">
         <f>SUM(F92:I92)</f>
         <v>13454</v>
       </c>
-      <c r="K92" s="51">
+      <c r="K92" s="50">
         <f>J92/J96</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="L92" s="64">
+      <c r="L92" s="63">
         <f>F92/J92</f>
         <v>0.94767355433328382</v>
       </c>
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="97"/>
-      <c r="E93" s="74" t="s">
+      <c r="D93" s="96"/>
+      <c r="E93" s="73" t="s">
         <v>575</v>
       </c>
       <c r="F93" s="18">
@@ -16152,23 +16283,23 @@
       <c r="I93" s="18">
         <v>9</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="38">
         <f>SUM(F93:I93)</f>
         <v>3819</v>
       </c>
-      <c r="K93" s="51">
+      <c r="K93" s="50">
         <f>J93/J96</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="L93" s="64">
+      <c r="L93" s="63">
         <f>G93/J93</f>
         <v>0.90180675569520818</v>
       </c>
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="97"/>
-      <c r="E94" s="74" t="s">
+      <c r="D94" s="96"/>
+      <c r="E94" s="73" t="s">
         <v>576</v>
       </c>
       <c r="F94" s="18">
@@ -16183,23 +16314,23 @@
       <c r="I94" s="18">
         <v>147</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="38">
         <f>SUM(F94:I94)</f>
         <v>4917</v>
       </c>
-      <c r="K94" s="51">
+      <c r="K94" s="50">
         <f>J94/J96</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="L94" s="64">
+      <c r="L94" s="63">
         <f>H94/J94</f>
         <v>0.92820825706731747</v>
       </c>
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="98"/>
-      <c r="E95" s="57" t="s">
+      <c r="D95" s="97"/>
+      <c r="E95" s="56" t="s">
         <v>584</v>
       </c>
       <c r="F95" s="18">
@@ -16214,15 +16345,15 @@
       <c r="I95" s="18">
         <v>4435</v>
       </c>
-      <c r="J95" s="40">
+      <c r="J95" s="39">
         <f>SUM(F95:I95)</f>
         <v>4956</v>
       </c>
-      <c r="K95" s="53">
+      <c r="K95" s="52">
         <f>J95/J96</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="L95" s="65">
+      <c r="L95" s="64">
         <f>I95/J95</f>
         <v>0.89487489911218721</v>
       </c>
@@ -16230,131 +16361,131 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D96" s="18"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="41">
+      <c r="E96" s="45"/>
+      <c r="F96" s="40">
         <f>SUM(F92:F95)</f>
         <v>13678</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="41">
         <f>SUM(G92:G95)</f>
         <v>3748</v>
       </c>
-      <c r="H96" s="42">
+      <c r="H96" s="41">
         <f>SUM(H92:H95)</f>
         <v>4873</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="42">
         <f>SUM(I92:I95)</f>
         <v>4847</v>
       </c>
-      <c r="J96" s="57">
+      <c r="J96" s="56">
         <f>SUM(J92:J95)</f>
         <v>27146</v>
       </c>
-      <c r="M96" s="46" t="s">
+      <c r="M96" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N96" s="46" t="s">
+      <c r="N96" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="O96" s="46" t="s">
+      <c r="O96" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="P96" s="46" t="s">
+      <c r="P96" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="97" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D97" s="18"/>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="F97" s="60">
+      <c r="F97" s="59">
         <f>F92/F96</f>
         <v>0.93215382365842958</v>
       </c>
-      <c r="G97" s="60">
+      <c r="G97" s="59">
         <f>G93/G96</f>
         <v>0.91889007470651018</v>
       </c>
-      <c r="H97" s="60">
+      <c r="H97" s="59">
         <f>H94/H96</f>
         <v>0.93658936999794784</v>
       </c>
-      <c r="I97" s="61">
+      <c r="I97" s="60">
         <f>I95/I96</f>
         <v>0.9149989684340829</v>
       </c>
-      <c r="J97" s="46"/>
-      <c r="M97" s="47">
+      <c r="J97" s="45"/>
+      <c r="M97" s="46">
         <f>SUM(F92,G93,H94,I95 )/J96</f>
         <v>0.92805569881382155</v>
       </c>
-      <c r="N97" s="67">
+      <c r="N97" s="66">
         <f>(G93+H94+I95)/SUM(G96:I96)</f>
         <v>0.92389367389367394</v>
       </c>
-      <c r="O97" s="47">
+      <c r="O97" s="46">
         <f>(G93+H94+I95)/SUM(J93:J95)</f>
         <v>0.90877884896289807</v>
       </c>
-      <c r="P97" s="68">
+      <c r="P97" s="67">
         <f>2*N97*O97/(N97+O97)</f>
         <v>0.91627393225331377</v>
       </c>
     </row>
     <row r="98" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D98" s="18"/>
-      <c r="E98" s="46"/>
-      <c r="J98" s="46"/>
+      <c r="E98" s="45"/>
+      <c r="J98" s="45"/>
     </row>
     <row r="99" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E99" s="46"/>
-      <c r="J99" s="46"/>
+      <c r="E99" s="45"/>
+      <c r="J99" s="45"/>
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E100" s="46"/>
-      <c r="F100" s="93" t="s">
+      <c r="E100" s="45"/>
+      <c r="F100" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="G100" s="94"/>
-      <c r="H100" s="94"/>
-      <c r="I100" s="95"/>
-      <c r="J100" s="46"/>
+      <c r="G100" s="93"/>
+      <c r="H100" s="93"/>
+      <c r="I100" s="94"/>
+      <c r="J100" s="45"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D101" s="18"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="40" t="s">
+      <c r="E101" s="45"/>
+      <c r="F101" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="G101" s="52" t="s">
+      <c r="G101" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="H101" s="52" t="s">
+      <c r="H101" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="I101" s="55" t="s">
+      <c r="I101" s="54" t="s">
         <v>584</v>
       </c>
-      <c r="J101" s="41" t="s">
+      <c r="J101" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="K101" s="61" t="s">
+      <c r="K101" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="L101" s="66" t="s">
+      <c r="L101" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="M101" s="44" t="s">
+      <c r="M101" s="43" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="96" t="s">
+      <c r="D102" s="95" t="s">
         <v>591</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E102" s="55" t="s">
         <v>574</v>
       </c>
       <c r="F102" s="18">
@@ -16369,23 +16500,23 @@
       <c r="I102" s="18">
         <v>88</v>
       </c>
-      <c r="J102" s="39">
+      <c r="J102" s="38">
         <f>SUM(F102:I102)</f>
         <v>2338</v>
       </c>
-      <c r="K102" s="51">
+      <c r="K102" s="50">
         <f>J102/J106</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="L102" s="64"/>
-      <c r="M102" s="45">
+      <c r="L102" s="63"/>
+      <c r="M102" s="44">
         <f>F102/J102</f>
         <v>0.91103507271171946</v>
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="97"/>
-      <c r="E103" s="74" t="s">
+      <c r="D103" s="96"/>
+      <c r="E103" s="73" t="s">
         <v>575</v>
       </c>
       <c r="F103" s="18">
@@ -16400,15 +16531,15 @@
       <c r="I103" s="18">
         <v>1</v>
       </c>
-      <c r="J103" s="39">
+      <c r="J103" s="38">
         <f>SUM(F103:I103)</f>
         <v>142</v>
       </c>
-      <c r="K103" s="51">
+      <c r="K103" s="50">
         <f>J103/J106</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="L103" s="64">
+      <c r="L103" s="63">
         <f>F103/J103</f>
         <v>0.19718309859154928</v>
       </c>
@@ -16418,8 +16549,8 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="97"/>
-      <c r="E104" s="74" t="s">
+      <c r="D104" s="96"/>
+      <c r="E104" s="73" t="s">
         <v>576</v>
       </c>
       <c r="F104" s="18">
@@ -16434,15 +16565,15 @@
       <c r="I104" s="18">
         <v>8</v>
       </c>
-      <c r="J104" s="39">
+      <c r="J104" s="38">
         <f>SUM(F104:I104)</f>
         <v>125</v>
       </c>
-      <c r="K104" s="51">
+      <c r="K104" s="50">
         <f>J104/J106</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="L104" s="64">
+      <c r="L104" s="63">
         <f>F104/J104</f>
         <v>0.128</v>
       </c>
@@ -16452,8 +16583,8 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="98"/>
-      <c r="E105" s="57" t="s">
+      <c r="D105" s="97"/>
+      <c r="E105" s="56" t="s">
         <v>584</v>
       </c>
       <c r="F105" s="18">
@@ -16468,15 +16599,15 @@
       <c r="I105" s="18">
         <v>134</v>
       </c>
-      <c r="J105" s="40">
+      <c r="J105" s="39">
         <f>SUM(F105:I105)</f>
         <v>150</v>
       </c>
-      <c r="K105" s="53">
+      <c r="K105" s="52">
         <f>J105/J106</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="L105" s="65">
+      <c r="L105" s="64">
         <f>F105/J105</f>
         <v>0.1</v>
       </c>
@@ -16487,75 +16618,75 @@
     </row>
     <row r="106" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D106" s="18"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="41">
+      <c r="E106" s="45"/>
+      <c r="F106" s="40">
         <f>SUM(F102:F105)</f>
         <v>2189</v>
       </c>
-      <c r="G106" s="42">
+      <c r="G106" s="41">
         <f>SUM(G102:G105)</f>
         <v>193</v>
       </c>
-      <c r="H106" s="42">
+      <c r="H106" s="41">
         <f>SUM(H102:H105)</f>
         <v>142</v>
       </c>
-      <c r="I106" s="43">
+      <c r="I106" s="42">
         <f>SUM(I102:I105)</f>
         <v>231</v>
       </c>
-      <c r="J106" s="57">
+      <c r="J106" s="56">
         <f>SUM(J102:J105)</f>
         <v>2755</v>
       </c>
-      <c r="M106" s="46" t="s">
+      <c r="M106" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="N106" s="46" t="s">
+      <c r="N106" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="O106" s="46" t="s">
+      <c r="O106" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="P106" s="46" t="s">
+      <c r="P106" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="107" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D107" s="18"/>
-      <c r="E107" s="66" t="s">
+      <c r="E107" s="65" t="s">
         <v>598</v>
       </c>
-      <c r="F107" s="73">
+      <c r="F107" s="72">
         <f>F102/F106</f>
         <v>0.9730470534490635</v>
       </c>
-      <c r="G107" s="60">
+      <c r="G107" s="59">
         <f>G103/G106</f>
         <v>0.58549222797927458</v>
       </c>
-      <c r="H107" s="60">
+      <c r="H107" s="59">
         <f>H104/H106</f>
         <v>0.70422535211267601</v>
       </c>
-      <c r="I107" s="61">
+      <c r="I107" s="60">
         <f>I105/I106</f>
         <v>0.58008658008658009</v>
       </c>
-      <c r="J107" s="46"/>
-      <c r="M107" s="47">
+      <c r="J107" s="45"/>
+      <c r="M107" s="46">
         <f>SUM(F102,G103,H104,I105 )/J106</f>
         <v>0.89909255898366602</v>
       </c>
-      <c r="N107" s="67">
+      <c r="N107" s="66">
         <f>(G103+H104+I105)/SUM(G106:I106)</f>
         <v>0.61307420494699649</v>
       </c>
-      <c r="O107" s="47">
+      <c r="O107" s="46">
         <f>(G103+H104+I105)/SUM(J103:J105)</f>
         <v>0.83213429256594729</v>
       </c>
-      <c r="P107" s="68">
+      <c r="P107" s="67">
         <f>2*N107*O107/(N107+O107)</f>
         <v>0.70600203458799604</v>
       </c>
@@ -16611,106 +16742,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
       <c r="P2" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C3" s="46"/>
-      <c r="D3" s="93" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="18"/>
       <c r="P3" s="18"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="93" t="s">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C4" s="46"/>
-      <c r="D4" s="84" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="75" t="s">
         <v>599</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="62" t="s">
         <v>596</v>
       </c>
       <c r="K4" s="18"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="84" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="75" t="s">
         <v>599</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="W4" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="X4" s="63" t="s">
+      <c r="X4" s="62" t="s">
         <v>596</v>
       </c>
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>574</v>
       </c>
       <c r="D5" s="18">
@@ -16719,21 +16850,21 @@
       <c r="E5" s="18">
         <v>317</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>207</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>283</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="76">
         <f>SUM(D5:G5)</f>
         <v>13454</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <f>H5/H9</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="63">
         <f>D5/H5</f>
         <v>0.94001783856102272</v>
       </c>
@@ -16741,10 +16872,10 @@
         <f>H5/H9</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="P5" s="96" t="s">
+      <c r="P5" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="55" t="s">
         <v>574</v>
       </c>
       <c r="R5" s="18">
@@ -16759,23 +16890,23 @@
       <c r="U5" s="18">
         <v>284</v>
       </c>
-      <c r="V5" s="77">
+      <c r="V5" s="76">
         <f>SUM(R5:U5)</f>
         <v>13454</v>
       </c>
-      <c r="W5" s="51">
+      <c r="W5" s="50">
         <f>V5/V9</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="63">
         <f>R5/V5</f>
         <v>0.94120707596253905</v>
       </c>
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="97"/>
-      <c r="C6" s="74" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="73" t="s">
         <v>575</v>
       </c>
       <c r="D6" s="18">
@@ -16784,21 +16915,21 @@
       <c r="E6" s="18">
         <v>3159</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>17</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>17</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="76">
         <f>SUM(D6:G6)</f>
         <v>3819</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="50">
         <f>H6/H9</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="63">
         <f>E6/H6</f>
         <v>0.8271798900235664</v>
       </c>
@@ -16806,8 +16937,8 @@
         <f>H6/H9</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="74" t="s">
+      <c r="P6" s="96"/>
+      <c r="Q6" s="73" t="s">
         <v>575</v>
       </c>
       <c r="R6" s="18">
@@ -16822,23 +16953,23 @@
       <c r="U6" s="18">
         <v>21</v>
       </c>
-      <c r="V6" s="77">
+      <c r="V6" s="76">
         <f>SUM(R6:U6)</f>
         <v>3819</v>
       </c>
-      <c r="W6" s="51">
+      <c r="W6" s="50">
         <f>V6/V9</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="X6" s="64">
+      <c r="X6" s="63">
         <f>S6/V6</f>
         <v>0.83529719821942916</v>
       </c>
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="97"/>
-      <c r="C7" s="74" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="73" t="s">
         <v>576</v>
       </c>
       <c r="D7" s="18">
@@ -16847,21 +16978,21 @@
       <c r="E7" s="18">
         <v>25</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>4244</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>195</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="76">
         <f>SUM(D7:G7)</f>
         <v>4917</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="50">
         <f>H7/H9</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="63">
         <f>F7/H7</f>
         <v>0.86312792353060808</v>
       </c>
@@ -16869,8 +17000,8 @@
         <f>H7/H9</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="74" t="s">
+      <c r="P7" s="96"/>
+      <c r="Q7" s="73" t="s">
         <v>576</v>
       </c>
       <c r="R7" s="18">
@@ -16885,23 +17016,23 @@
       <c r="U7" s="18">
         <v>161</v>
       </c>
-      <c r="V7" s="77">
+      <c r="V7" s="76">
         <f>SUM(R7:U7)</f>
         <v>4917</v>
       </c>
-      <c r="W7" s="51">
+      <c r="W7" s="50">
         <f>V7/V9</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="X7" s="64">
+      <c r="X7" s="63">
         <f>T7/V7</f>
         <v>0.871466341264999</v>
       </c>
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="56" t="s">
         <v>577</v>
       </c>
       <c r="D8" s="18">
@@ -16910,21 +17041,21 @@
       <c r="E8" s="18">
         <v>28</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>176</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>4122</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="77">
         <f>SUM(D8:G8)</f>
         <v>4956</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="52">
         <f>H8/H9</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="64">
         <f>G8/H8</f>
         <v>0.83171912832929784</v>
       </c>
@@ -16932,8 +17063,8 @@
         <f>H8/H9</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="57" t="s">
+      <c r="P8" s="97"/>
+      <c r="Q8" s="56" t="s">
         <v>577</v>
       </c>
       <c r="R8" s="18">
@@ -16948,291 +17079,291 @@
       <c r="U8" s="18">
         <v>4195</v>
       </c>
-      <c r="V8" s="78">
+      <c r="V8" s="77">
         <f>SUM(R8:U8)</f>
         <v>4956</v>
       </c>
-      <c r="W8" s="53">
+      <c r="W8" s="52">
         <f>V8/V9</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="X8" s="65">
+      <c r="X8" s="64">
         <f>U8/V8</f>
         <v>0.84644874899112188</v>
       </c>
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C9" s="46"/>
-      <c r="D9" s="79">
+      <c r="C9" s="45"/>
+      <c r="D9" s="78">
         <f>SUM(D5:D8)</f>
         <v>14356</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="79">
         <f>SUM(E5:E8)</f>
         <v>3529</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="79">
         <f>SUM(F5:F8)</f>
         <v>4644</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="80">
         <f>SUM(G5:G8)</f>
         <v>4617</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <f>SUM(H5:H8)</f>
         <v>27146</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="45" t="s">
         <v>619</v>
       </c>
       <c r="P9" s="18"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="79">
+      <c r="Q9" s="45"/>
+      <c r="R9" s="78">
         <f>SUM(R5:R8)</f>
         <v>14251</v>
       </c>
-      <c r="S9" s="80">
+      <c r="S9" s="79">
         <f>SUM(S5:S8)</f>
         <v>3547</v>
       </c>
-      <c r="T9" s="80">
+      <c r="T9" s="79">
         <f>SUM(T5:T8)</f>
         <v>4687</v>
       </c>
-      <c r="U9" s="81">
+      <c r="U9" s="80">
         <f>SUM(U5:U8)</f>
         <v>4661</v>
       </c>
-      <c r="V9" s="57">
+      <c r="V9" s="56">
         <f>SUM(V5:V8)</f>
         <v>27146</v>
       </c>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46" t="s">
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="Z9" s="46" t="s">
+      <c r="Z9" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="AA9" s="46" t="s">
+      <c r="AA9" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="AB9" s="46" t="s">
+      <c r="AB9" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="59">
         <f>D5/D9</f>
         <v>0.88095569796600726</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <f>E6/E9</f>
         <v>0.89515443468404643</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f>F7/F9</f>
         <v>0.91386735572782085</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="60">
         <f>G8/G9</f>
         <v>0.89278752436647169</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47">
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46">
         <f>SUM(D5,E6,F7,G8 )/H9</f>
         <v>0.89044426434833857</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="66">
         <f>(E6+F7+G8)/SUM(E9:G9)</f>
         <v>0.9010946051602815</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="46">
         <f>(E6+F7+G8)/SUM(H6:H8)</f>
         <v>0.84173239848086479</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="67">
         <f>2*L10*M10/(L10+M10)</f>
         <v>0.87040253757269093</v>
       </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="79" t="s">
+      <c r="Q10" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="R10" s="60">
+      <c r="R10" s="59">
         <f>R5/R9</f>
         <v>0.88856922321240617</v>
       </c>
-      <c r="S10" s="60">
+      <c r="S10" s="59">
         <f>S6/S9</f>
         <v>0.8993515647025655</v>
       </c>
-      <c r="T10" s="60">
+      <c r="T10" s="59">
         <f>T7/T9</f>
         <v>0.91423085129080439</v>
       </c>
-      <c r="U10" s="61">
+      <c r="U10" s="60">
         <f>U8/U9</f>
         <v>0.90002145462347138</v>
       </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="47">
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="46">
         <f>SUM(R5,S6,T7,U8 )/V9</f>
         <v>0.89637515656081923</v>
       </c>
-      <c r="Z10" s="67">
+      <c r="Z10" s="66">
         <f>(S6+T7+U8)/SUM(S9:U9)</f>
         <v>0.90500193873594414</v>
       </c>
-      <c r="AA10" s="47">
+      <c r="AA10" s="46">
         <f>(S6+T7+U8)/SUM(V6:V8)</f>
         <v>0.8523225241016652</v>
       </c>
-      <c r="AB10" s="68">
+      <c r="AB10" s="67">
         <f>2*Z10*AA10/(Z10+AA10)</f>
         <v>0.87787264452552005</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C13" s="46"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="93" t="s">
+      <c r="Q13" s="45"/>
+      <c r="R13" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C14" s="46"/>
-      <c r="D14" s="84" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="43" t="s">
         <v>596</v>
       </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="84" t="s">
+      <c r="Q14" s="45"/>
+      <c r="R14" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="T14" s="52" t="s">
+      <c r="T14" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="U14" s="55" t="s">
+      <c r="U14" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="V14" s="75" t="s">
+      <c r="V14" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="W14" s="61" t="s">
+      <c r="W14" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="X14" s="66" t="s">
+      <c r="X14" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="Y14" s="44" t="s">
+      <c r="Y14" s="43" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="55" t="s">
         <v>574</v>
       </c>
       <c r="D15" s="18">
@@ -17241,32 +17372,32 @@
       <c r="E15" s="18">
         <v>56</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <v>33</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <v>61</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="76">
         <f>SUM(D15:G15)</f>
         <v>2338</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <f>H15/H19</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="45">
+      <c r="J15" s="63"/>
+      <c r="K15" s="44">
         <f>D15/H15</f>
         <v>0.93584260051325918</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="101">
         <v>0.88</v>
       </c>
-      <c r="P15" s="96" t="s">
+      <c r="P15" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" s="55" t="s">
         <v>574</v>
       </c>
       <c r="R15" s="18">
@@ -17281,23 +17412,23 @@
       <c r="U15" s="18">
         <v>69</v>
       </c>
-      <c r="V15" s="77">
+      <c r="V15" s="76">
         <f>SUM(R15:U15)</f>
         <v>2338</v>
       </c>
-      <c r="W15" s="51">
+      <c r="W15" s="50">
         <f>V15/V19</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="45">
+      <c r="X15" s="63"/>
+      <c r="Y15" s="44">
         <f>R15/V15</f>
         <v>0.92728828058169377</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="97"/>
-      <c r="C16" s="74" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="73" t="s">
         <v>575</v>
       </c>
       <c r="D16" s="18">
@@ -17306,21 +17437,21 @@
       <c r="E16" s="18">
         <v>109</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="45">
         <v>0</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="45">
         <v>0</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="76">
         <f>SUM(D16:G16)</f>
         <v>142</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="50">
         <f>H16/H19</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="63">
         <f>D16/H16</f>
         <v>0.23239436619718309</v>
       </c>
@@ -17328,11 +17459,11 @@
         <f>E16/H16</f>
         <v>0.76760563380281688</v>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="101">
         <v>0.04</v>
       </c>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="74" t="s">
+      <c r="P16" s="96"/>
+      <c r="Q16" s="73" t="s">
         <v>575</v>
       </c>
       <c r="R16" s="18">
@@ -17347,15 +17478,15 @@
       <c r="U16" s="18">
         <v>1</v>
       </c>
-      <c r="V16" s="77">
+      <c r="V16" s="76">
         <f>SUM(R16:U16)</f>
         <v>142</v>
       </c>
-      <c r="W16" s="51">
+      <c r="W16" s="50">
         <f>V16/V19</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="X16" s="64">
+      <c r="X16" s="63">
         <f>R16/V16</f>
         <v>0.23239436619718309</v>
       </c>
@@ -17365,8 +17496,8 @@
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="97"/>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="73" t="s">
         <v>576</v>
       </c>
       <c r="D17" s="18">
@@ -17375,21 +17506,21 @@
       <c r="E17" s="18">
         <v>1</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <v>97</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="45">
         <v>5</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <f>SUM(D17:G17)</f>
         <v>125</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <f>H17/H19</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="63">
         <f>D17/H17</f>
         <v>0.17599999999999999</v>
       </c>
@@ -17397,11 +17528,11 @@
         <f>F17/H17</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="L17" s="102">
+      <c r="L17" s="101">
         <v>0.04</v>
       </c>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="74" t="s">
+      <c r="P17" s="96"/>
+      <c r="Q17" s="73" t="s">
         <v>576</v>
       </c>
       <c r="R17" s="18">
@@ -17416,15 +17547,15 @@
       <c r="U17" s="18">
         <v>4</v>
       </c>
-      <c r="V17" s="77">
+      <c r="V17" s="76">
         <f>SUM(R17:U17)</f>
         <v>125</v>
       </c>
-      <c r="W17" s="51">
+      <c r="W17" s="50">
         <f>V17/V19</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="X17" s="64">
+      <c r="X17" s="63">
         <f>R17/V17</f>
         <v>0.216</v>
       </c>
@@ -17434,8 +17565,8 @@
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="98"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="97"/>
+      <c r="C18" s="56" t="s">
         <v>577</v>
       </c>
       <c r="D18" s="18">
@@ -17444,21 +17575,21 @@
       <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="45">
         <v>0</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="45">
         <v>134</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="77">
         <f>SUM(D18:G18)</f>
         <v>150</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="52">
         <f>H18/H19</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="64">
         <f>D18/H18</f>
         <v>0.10666666666666667</v>
       </c>
@@ -17466,11 +17597,11 @@
         <f>G18/H18</f>
         <v>0.89333333333333331</v>
       </c>
-      <c r="L18" s="102">
+      <c r="L18" s="101">
         <v>0.04</v>
       </c>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="57" t="s">
+      <c r="P18" s="97"/>
+      <c r="Q18" s="56" t="s">
         <v>577</v>
       </c>
       <c r="R18" s="18">
@@ -17485,15 +17616,15 @@
       <c r="U18" s="18">
         <v>134</v>
       </c>
-      <c r="V18" s="78">
+      <c r="V18" s="77">
         <f>SUM(R18:U18)</f>
         <v>150</v>
       </c>
-      <c r="W18" s="53">
+      <c r="W18" s="52">
         <f>V18/V19</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="X18" s="65">
+      <c r="X18" s="64">
         <f>R18/V18</f>
         <v>0.10666666666666667</v>
       </c>
@@ -17503,153 +17634,153 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C19" s="46"/>
-      <c r="D19" s="79">
+      <c r="C19" s="45"/>
+      <c r="D19" s="78">
         <f>SUM(D15:D18)</f>
         <v>2259</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="79">
         <f>SUM(E15:E18)</f>
         <v>166</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="79">
         <f>SUM(F15:F18)</f>
         <v>130</v>
       </c>
-      <c r="G19" s="81">
+      <c r="G19" s="80">
         <f>SUM(G15:G18)</f>
         <v>200</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="56">
         <f>SUM(H15:H18)</f>
         <v>2755</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46" t="s">
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="M19" s="46" t="s">
+      <c r="M19" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="N19" s="46" t="s">
+      <c r="N19" s="45" t="s">
         <v>619</v>
       </c>
       <c r="P19" s="18"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="79">
+      <c r="Q19" s="45"/>
+      <c r="R19" s="78">
         <f>SUM(R15:R18)</f>
         <v>2244</v>
       </c>
-      <c r="S19" s="80">
+      <c r="S19" s="79">
         <f>SUM(S15:S18)</f>
         <v>178</v>
       </c>
-      <c r="T19" s="80">
+      <c r="T19" s="79">
         <f>SUM(T15:T18)</f>
         <v>125</v>
       </c>
-      <c r="U19" s="81">
+      <c r="U19" s="80">
         <f>SUM(U15:U18)</f>
         <v>208</v>
       </c>
-      <c r="V19" s="57">
+      <c r="V19" s="56">
         <f>SUM(V15:V18)</f>
         <v>2755</v>
       </c>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46" t="s">
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="Z19" s="46" t="s">
+      <c r="Z19" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="AA19" s="46" t="s">
+      <c r="AA19" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="AB19" s="46" t="s">
+      <c r="AB19" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="65" t="s">
         <v>598</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <f>D15/D19</f>
         <v>0.96857016378928729</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="59">
         <f>E16/E19</f>
         <v>0.65662650602409633</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="59">
         <f>F17/F19</f>
         <v>0.74615384615384617</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="60">
         <f>G18/G19</f>
         <v>0.67</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47">
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46">
         <f>SUM(D15,E16,F17,G18 )/H19</f>
         <v>0.91760435571687837</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="66">
         <f>(E16+F17+G18)/SUM(E19:G19)</f>
         <v>0.68548387096774188</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <f>(E16+F17+G18)/SUM(H16:H18)</f>
         <v>0.815347721822542</v>
       </c>
-      <c r="N20" s="68">
+      <c r="N20" s="67">
         <f>2*L20*M20/(L20+M20)</f>
         <v>0.74479737130339541</v>
       </c>
       <c r="P20" s="18"/>
-      <c r="Q20" s="66" t="s">
+      <c r="Q20" s="65" t="s">
         <v>598</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="72">
         <f>R15/R19</f>
         <v>0.96613190730837795</v>
       </c>
-      <c r="S20" s="60">
+      <c r="S20" s="59">
         <f>S16/S19</f>
         <v>0.6067415730337079</v>
       </c>
-      <c r="T20" s="60">
+      <c r="T20" s="59">
         <f>T17/T19</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="U20" s="61">
+      <c r="U20" s="60">
         <f>U18/U19</f>
         <v>0.64423076923076927</v>
       </c>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="47">
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="46">
         <f>SUM(R15,S16,T17,U18 )/V19</f>
         <v>0.90852994555353905</v>
       </c>
-      <c r="Z20" s="67">
+      <c r="Z20" s="66">
         <f>(S16+T17+U18)/SUM(S19:U19)</f>
         <v>0.65557729941291587</v>
       </c>
-      <c r="AA20" s="47">
+      <c r="AA20" s="46">
         <f>(S16+T17+U18)/SUM(V16:V18)</f>
         <v>0.80335731414868106</v>
       </c>
-      <c r="AB20" s="68">
+      <c r="AB20" s="67">
         <f>2*Z20*AA20/(Z20+AA20)</f>
         <v>0.72198275862068984</v>
       </c>
@@ -17774,78 +17905,78 @@
         <f>SUM(D22:G25)</f>
         <v>27146.000000000015</v>
       </c>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="M26" s="46" t="s">
+      <c r="M26" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="N26" s="46" t="s">
+      <c r="N26" s="45" t="s">
         <v>619</v>
       </c>
       <c r="P26" s="18"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="93" t="s">
+      <c r="Q26" s="45"/>
+      <c r="R26" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="K27" s="47">
+      <c r="K27" s="46">
         <f>SUM(D22,E23,F24,G25 )/H26</f>
         <v>0.92809677560903847</v>
       </c>
-      <c r="L27" s="67">
+      <c r="L27" s="66">
         <f>(E23+F24+G25)/SUM(E26:G26)</f>
         <v>0.64068688087613679</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="46">
         <f>(E23+F24+G25)/SUM(H23:H25)</f>
         <v>0.84067564729449074</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="67">
         <f>2*L27*M27/(L27+M27)</f>
         <v>0.72718169664893262</v>
       </c>
       <c r="P27" s="18"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="84" t="s">
+      <c r="Q27" s="45"/>
+      <c r="R27" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="S27" s="52" t="s">
+      <c r="S27" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="T27" s="52" t="s">
+      <c r="T27" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="U27" s="55" t="s">
+      <c r="U27" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="V27" s="82" t="s">
+      <c r="V27" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="W27" s="49" t="s">
+      <c r="W27" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="X27" s="63" t="s">
+      <c r="X27" s="62" t="s">
         <v>596</v>
       </c>
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P28" s="96" t="s">
+      <c r="P28" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="Q28" s="56" t="s">
+      <c r="Q28" s="55" t="s">
         <v>574</v>
       </c>
       <c r="R28" s="18">
@@ -17860,15 +17991,15 @@
       <c r="U28" s="18">
         <v>282</v>
       </c>
-      <c r="V28" s="83">
+      <c r="V28" s="82">
         <f>SUM(R28:U28)</f>
         <v>13454</v>
       </c>
-      <c r="W28" s="51">
+      <c r="W28" s="50">
         <f>V28/V32</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="X28" s="64">
+      <c r="X28" s="63">
         <f>R28/V28</f>
         <v>0.93860561914672214</v>
       </c>
@@ -17878,8 +18009,8 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P29" s="97"/>
-      <c r="Q29" s="74" t="s">
+      <c r="P29" s="96"/>
+      <c r="Q29" s="73" t="s">
         <v>575</v>
       </c>
       <c r="R29" s="18">
@@ -17894,15 +18025,15 @@
       <c r="U29" s="18">
         <v>23</v>
       </c>
-      <c r="V29" s="83">
+      <c r="V29" s="82">
         <f>SUM(R29:U29)</f>
         <v>3819</v>
       </c>
-      <c r="W29" s="51">
+      <c r="W29" s="50">
         <f>V29/V32</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="X29" s="64">
+      <c r="X29" s="63">
         <f>S29/V29</f>
         <v>0.81487300340403246</v>
       </c>
@@ -17912,8 +18043,8 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P30" s="97"/>
-      <c r="Q30" s="74" t="s">
+      <c r="P30" s="96"/>
+      <c r="Q30" s="73" t="s">
         <v>576</v>
       </c>
       <c r="R30" s="18">
@@ -17928,15 +18059,15 @@
       <c r="U30" s="18">
         <v>172</v>
       </c>
-      <c r="V30" s="83">
+      <c r="V30" s="82">
         <f>SUM(R30:U30)</f>
         <v>4917</v>
       </c>
-      <c r="W30" s="51">
+      <c r="W30" s="50">
         <f>V30/V32</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="X30" s="64">
+      <c r="X30" s="63">
         <f>T30/V30</f>
         <v>0.86719544437665241</v>
       </c>
@@ -17946,8 +18077,8 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P31" s="98"/>
-      <c r="Q31" s="57" t="s">
+      <c r="P31" s="97"/>
+      <c r="Q31" s="56" t="s">
         <v>577</v>
       </c>
       <c r="R31" s="18">
@@ -17962,15 +18093,15 @@
       <c r="U31" s="18">
         <v>4105</v>
       </c>
-      <c r="V31" s="84">
+      <c r="V31" s="83">
         <f>SUM(R31:U31)</f>
         <v>4956</v>
       </c>
-      <c r="W31" s="53">
+      <c r="W31" s="52">
         <f>V31/V32</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="X31" s="65">
+      <c r="X31" s="64">
         <f>U31/V31</f>
         <v>0.8282889426957224</v>
       </c>
@@ -17981,151 +18112,151 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P32" s="18"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="79">
+      <c r="Q32" s="45"/>
+      <c r="R32" s="78">
         <f>SUM(R28:R31)</f>
         <v>14384</v>
       </c>
-      <c r="S32" s="80">
+      <c r="S32" s="79">
         <f>SUM(S28:S31)</f>
         <v>3492</v>
       </c>
-      <c r="T32" s="80">
+      <c r="T32" s="79">
         <f>SUM(T28:T31)</f>
         <v>4688</v>
       </c>
-      <c r="U32" s="81">
+      <c r="U32" s="80">
         <f>SUM(U28:U31)</f>
         <v>4582</v>
       </c>
-      <c r="V32" s="57">
+      <c r="V32" s="56">
         <f>SUM(V28:V31)</f>
         <v>27146</v>
       </c>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46" t="s">
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="Z32" s="46" t="s">
+      <c r="Z32" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="AA32" s="46" t="s">
+      <c r="AA32" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="AB32" s="46" t="s">
+      <c r="AB32" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="33" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P33" s="18"/>
-      <c r="Q33" s="79" t="s">
+      <c r="Q33" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="R33" s="60">
+      <c r="R33" s="59">
         <f>R28/R32</f>
         <v>0.87791991101223577</v>
       </c>
-      <c r="S33" s="60">
+      <c r="S33" s="59">
         <f>S29/S32</f>
         <v>0.89117983963344793</v>
       </c>
-      <c r="T33" s="60">
+      <c r="T33" s="59">
         <f>T30/T32</f>
         <v>0.90955631399317405</v>
       </c>
-      <c r="U33" s="61">
+      <c r="U33" s="60">
         <f>U31/U32</f>
         <v>0.89589698821475339</v>
       </c>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="47">
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="46">
         <f>SUM(R28,S29,T30,U31 )/V32</f>
         <v>0.88812348043910705</v>
       </c>
-      <c r="Z33" s="67">
+      <c r="Z33" s="66">
         <f>(S29+T30+U31)/SUM(S32:U32)</f>
         <v>0.89962388340385524</v>
       </c>
-      <c r="AA33" s="47">
+      <c r="AA33" s="46">
         <f>(S29+T30+U31)/SUM(V29:V31)</f>
         <v>0.83851884312007008</v>
       </c>
-      <c r="AB33" s="68">
+      <c r="AB33" s="67">
         <f>2*Z33*AA33/(Z33+AA33)</f>
         <v>0.86799727829439788</v>
       </c>
     </row>
     <row r="34" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P34" s="18"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
     </row>
     <row r="35" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P35" s="18"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
     </row>
     <row r="36" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P36" s="18"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="93" t="s">
+      <c r="Q36" s="45"/>
+      <c r="R36" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
     </row>
     <row r="37" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P37" s="18"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="84" t="s">
+      <c r="Q37" s="45"/>
+      <c r="R37" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="S37" s="52" t="s">
+      <c r="S37" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="T37" s="52" t="s">
+      <c r="T37" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="U37" s="55" t="s">
+      <c r="U37" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="V37" s="79" t="s">
+      <c r="V37" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="W37" s="61" t="s">
+      <c r="W37" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="X37" s="66" t="s">
+      <c r="X37" s="65" t="s">
         <v>597</v>
       </c>
-      <c r="Y37" s="44" t="s">
+      <c r="Y37" s="43" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="38" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P38" s="96" t="s">
+      <c r="P38" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="Q38" s="56" t="s">
+      <c r="Q38" s="55" t="s">
         <v>574</v>
       </c>
       <c r="R38" s="18">
@@ -18140,26 +18271,26 @@
       <c r="U38" s="18">
         <v>72</v>
       </c>
-      <c r="V38" s="83">
+      <c r="V38" s="82">
         <f>SUM(R38:U38)</f>
         <v>2338</v>
       </c>
-      <c r="W38" s="51">
+      <c r="W38" s="50">
         <f>V38/V42</f>
         <v>0.84863883847549915</v>
       </c>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="45">
+      <c r="X38" s="63"/>
+      <c r="Y38" s="44">
         <f>R38/V38</f>
         <v>0.92600513259195893</v>
       </c>
-      <c r="Z38" s="102">
+      <c r="Z38" s="101">
         <v>0.88</v>
       </c>
     </row>
     <row r="39" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P39" s="97"/>
-      <c r="Q39" s="74" t="s">
+      <c r="P39" s="96"/>
+      <c r="Q39" s="73" t="s">
         <v>575</v>
       </c>
       <c r="R39" s="18">
@@ -18174,15 +18305,15 @@
       <c r="U39" s="18">
         <v>2</v>
       </c>
-      <c r="V39" s="83">
+      <c r="V39" s="82">
         <f>SUM(R39:U39)</f>
         <v>142</v>
       </c>
-      <c r="W39" s="51">
+      <c r="W39" s="50">
         <f>V39/V42</f>
         <v>5.1542649727767696E-2</v>
       </c>
-      <c r="X39" s="64">
+      <c r="X39" s="63">
         <f>R39/V39</f>
         <v>0.20422535211267606</v>
       </c>
@@ -18190,13 +18321,13 @@
         <f>S39/V39</f>
         <v>0.78169014084507038</v>
       </c>
-      <c r="Z39" s="102">
+      <c r="Z39" s="101">
         <v>0.04</v>
       </c>
     </row>
     <row r="40" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P40" s="97"/>
-      <c r="Q40" s="74" t="s">
+      <c r="P40" s="96"/>
+      <c r="Q40" s="73" t="s">
         <v>576</v>
       </c>
       <c r="R40" s="18">
@@ -18211,15 +18342,15 @@
       <c r="U40" s="18">
         <v>3</v>
       </c>
-      <c r="V40" s="83">
+      <c r="V40" s="82">
         <f>SUM(R40:U40)</f>
         <v>125</v>
       </c>
-      <c r="W40" s="51">
+      <c r="W40" s="50">
         <f>V40/V42</f>
         <v>4.5372050816696916E-2</v>
       </c>
-      <c r="X40" s="64">
+      <c r="X40" s="63">
         <f>R40/V40</f>
         <v>0.2</v>
       </c>
@@ -18227,13 +18358,13 @@
         <f>T40/V40</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="Z40" s="102">
+      <c r="Z40" s="101">
         <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P41" s="98"/>
-      <c r="Q41" s="57" t="s">
+      <c r="P41" s="97"/>
+      <c r="Q41" s="56" t="s">
         <v>577</v>
       </c>
       <c r="R41" s="18">
@@ -18248,15 +18379,15 @@
       <c r="U41" s="18">
         <v>131</v>
       </c>
-      <c r="V41" s="84">
+      <c r="V41" s="83">
         <f>SUM(R41:U41)</f>
         <v>150</v>
       </c>
-      <c r="W41" s="53">
+      <c r="W41" s="52">
         <f>V41/V42</f>
         <v>5.4446460980036297E-2</v>
       </c>
-      <c r="X41" s="65">
+      <c r="X41" s="64">
         <f>R41/V41</f>
         <v>0.12</v>
       </c>
@@ -18264,85 +18395,85 @@
         <f>U41/V41</f>
         <v>0.87333333333333329</v>
       </c>
-      <c r="Z41" s="102">
+      <c r="Z41" s="101">
         <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P42" s="18"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="79">
+      <c r="Q42" s="45"/>
+      <c r="R42" s="78">
         <f>SUM(R38:R41)</f>
         <v>2237</v>
       </c>
-      <c r="S42" s="80">
+      <c r="S42" s="79">
         <f>SUM(S38:S41)</f>
         <v>174</v>
       </c>
-      <c r="T42" s="80">
+      <c r="T42" s="79">
         <f>SUM(T38:T41)</f>
         <v>136</v>
       </c>
-      <c r="U42" s="81">
+      <c r="U42" s="80">
         <f>SUM(U38:U41)</f>
         <v>208</v>
       </c>
-      <c r="V42" s="57">
+      <c r="V42" s="56">
         <f>SUM(V38:V41)</f>
         <v>2755</v>
       </c>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46" t="s">
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="Z42" s="46" t="s">
+      <c r="Z42" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="AA42" s="46" t="s">
+      <c r="AA42" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="AB42" s="46" t="s">
+      <c r="AB42" s="45" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="43" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P43" s="18"/>
-      <c r="Q43" s="66" t="s">
+      <c r="Q43" s="65" t="s">
         <v>598</v>
       </c>
-      <c r="R43" s="73">
+      <c r="R43" s="72">
         <f>R38/R42</f>
         <v>0.967814036656236</v>
       </c>
-      <c r="S43" s="60">
+      <c r="S43" s="59">
         <f>S39/S42</f>
         <v>0.63793103448275867</v>
       </c>
-      <c r="T43" s="60">
+      <c r="T43" s="59">
         <f>T40/T42</f>
         <v>0.71323529411764708</v>
       </c>
-      <c r="U43" s="61">
+      <c r="U43" s="60">
         <f>U41/U42</f>
         <v>0.62980769230769229</v>
       </c>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="47">
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="46">
         <f>SUM(R38,S39,T40,U41 )/V42</f>
         <v>0.90889292196007254</v>
       </c>
-      <c r="Z43" s="67">
+      <c r="Z43" s="66">
         <f>(S39+T40+U41)/SUM(S42:U42)</f>
         <v>0.65444015444015446</v>
       </c>
-      <c r="AA43" s="47">
+      <c r="AA43" s="46">
         <f>(S39+T40+U41)/SUM(V39:V41)</f>
         <v>0.81294964028776984</v>
       </c>
-      <c r="AB43" s="68">
+      <c r="AB43" s="67">
         <f>2*Z43*AA43/(Z43+AA43)</f>
         <v>0.72513368983957216</v>
       </c>
@@ -18471,16 +18602,16 @@
         <f>SUM(R45:U48)</f>
         <v>27146.000000000004</v>
       </c>
-      <c r="Y49" s="46" t="s">
+      <c r="Y49" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="Z49" s="46" t="s">
+      <c r="Z49" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="AA49" s="46" t="s">
+      <c r="AA49" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="AB49" s="46" t="s">
+      <c r="AB49" s="45" t="s">
         <v>619</v>
       </c>
     </row>
@@ -18491,19 +18622,19 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
       <c r="U50" s="18"/>
-      <c r="Y50" s="47">
+      <c r="Y50" s="46">
         <f>SUM(R45,S46,T47,U48 )/V49</f>
         <v>0.92638724046817167</v>
       </c>
-      <c r="Z50" s="67">
+      <c r="Z50" s="66">
         <f>(S46+T47+U48)/SUM(S49:U49)</f>
         <v>0.6345253510425799</v>
       </c>
-      <c r="AA50" s="47">
+      <c r="AA50" s="46">
         <f>(S46+T47+U48)/SUM(V46:V48)</f>
         <v>0.83678579682546905</v>
       </c>
-      <c r="AB50" s="68">
+      <c r="AB50" s="67">
         <f>2*Z50*AA50/(Z50+AA50)</f>
         <v>0.72175325015038039</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="720" windowWidth="24240" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="789">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2239,16 +2239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>main93_v3_ek_1546866416</t>
-  </si>
-  <si>
-    <t>3-way GRU</t>
-  </si>
-  <si>
-    <t>3-way GRU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main93_v2_ek_1546866423</t>
   </si>
   <si>
@@ -2256,32 +2246,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>main93_v3_ek_1546863364</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lr_init=0.005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m93_v2b_ek_1546868669</t>
-  </si>
-  <si>
-    <t>3-way GRU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO_VEC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m93_v2b_ek_1546868715</t>
-  </si>
-  <si>
-    <t>m93_v2b_ek_1546870332</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main93_v2_ek_1546869816</t>
   </si>
   <si>
@@ -2670,6 +2634,33 @@
   </si>
   <si>
     <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547365453</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547365269</t>
+  </si>
+  <si>
+    <t>m93_gru2_ek_1547365768</t>
+  </si>
+  <si>
+    <t>m93_gru_ek_1547367650</t>
+  </si>
+  <si>
+    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.95, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_gru_ek_1547368928</t>
+  </si>
+  <si>
+    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=1., metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.9, metric=precision</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2679,7 +2670,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -3089,7 +3080,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3330,34 +3321,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3378,6 +3342,36 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -3788,24 +3782,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91" t="s">
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8284,18 +8278,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10672,8 +10666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10683,11 +10677,11 @@
     <col min="3" max="3" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="85" customWidth="1"/>
-    <col min="6" max="8" width="13.5" style="103" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="103" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="103" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="103" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="103" customWidth="1"/>
+    <col min="6" max="8" width="13.5" style="94" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="94" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="94" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="94" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="94" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="18"/>
     <col min="15" max="15" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -10710,20 +10704,20 @@
         <v>4</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>789</v>
-      </c>
-      <c r="F1" s="91" t="s">
+        <v>779</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100" t="s">
         <v>546</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
       <c r="O1" s="14"/>
       <c r="P1" s="16" t="s">
         <v>7</v>
@@ -10755,10 +10749,10 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="85" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F2" s="85" t="s">
         <v>1</v>
@@ -10789,17 +10783,17 @@
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="R2" s="5">
         <v>2</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -10859,10 +10853,10 @@
         <v>36969</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -10919,13 +10913,13 @@
         <v>105</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -10976,17 +10970,17 @@
         <v>4</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R5" s="5">
         <v>11</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -11037,7 +11031,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="R6" s="5">
         <v>26</v>
@@ -11046,10 +11040,10 @@
         <v>37030</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -11110,7 +11104,7 @@
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -11125,7 +11119,7 @@
         <v>7</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="R8" s="5">
         <v>33</v>
@@ -11135,7 +11129,7 @@
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -11196,7 +11190,7 @@
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -11247,19 +11241,19 @@
         <v>9</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="R10" s="5">
         <v>35</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -11280,7 +11274,7 @@
         <v>10</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="R11" s="5">
         <v>38</v>
@@ -11290,7 +11284,7 @@
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -11317,7 +11311,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="R12" s="5">
         <v>64</v>
@@ -11327,7 +11321,7 @@
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -11378,17 +11372,17 @@
         <v>12</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="R13" s="5">
         <v>103</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
@@ -11436,7 +11430,7 @@
         <v>13</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="R14" s="5">
         <v>51</v>
@@ -11445,10 +11439,10 @@
         <v>37000</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
@@ -11463,17 +11457,17 @@
         <v>14</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="R15" s="5">
         <v>7</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
@@ -11500,19 +11494,19 @@
         <v>15</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="R16" s="5">
         <v>31</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -11687,18 +11681,18 @@
       <c r="C22" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="95">
         <v>0.68699186991869898</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
       <c r="O22" s="13"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="13"/>
@@ -11910,10 +11904,10 @@
         <v>632</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D29" s="85">
         <v>0.69269269269269196</v>
@@ -11933,7 +11927,7 @@
         <v>632</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D30" s="85">
         <v>0.70304302203567604</v>
@@ -11982,6 +11976,18 @@
       <c r="AA31" s="5"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D32" s="91">
+        <v>0.72340425531914898</v>
+      </c>
       <c r="F32" s="85"/>
       <c r="G32" s="85"/>
       <c r="H32" s="85"/>
@@ -12004,6 +12010,15 @@
       <c r="AA32" s="5"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D33" s="91">
+        <v>0.72307692307692295</v>
+      </c>
       <c r="F33" s="85"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
@@ -12026,6 +12041,15 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D34" s="91">
+        <v>0.72766884531590403</v>
+      </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -12037,18 +12061,7 @@
       <c r="AA34" s="5"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="D35" s="85">
-        <v>0.70698644421272105</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -12060,12 +12073,6 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D36" s="85">
-        <v>0.68394815553339905</v>
-      </c>
       <c r="F36" s="85"/>
       <c r="G36" s="85"/>
       <c r="H36" s="85"/>
@@ -12089,9 +12096,6 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
-      <c r="C37" s="3" t="s">
-        <v>674</v>
-      </c>
       <c r="F37" s="85"/>
       <c r="G37" s="85"/>
       <c r="H37" s="85"/>
@@ -12136,18 +12140,7 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D39" s="85">
-        <v>0.70658682634730496</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="F39" s="85"/>
       <c r="G39" s="85"/>
       <c r="H39" s="85"/>
@@ -12170,18 +12163,6 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D40" s="85">
-        <v>0.69183673469387696</v>
-      </c>
       <c r="F40" s="85"/>
       <c r="G40" s="85"/>
       <c r="H40" s="85"/>
@@ -12307,13 +12288,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="D46" s="85">
         <v>0.66915191053122003</v>
@@ -12332,10 +12313,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="D47" s="85">
         <v>0.67109004739336398</v>
@@ -12354,10 +12335,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D48" s="85">
         <v>0.71773347324239201</v>
@@ -12365,10 +12346,10 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="D49" s="85">
         <v>0.72607260726072598</v>
@@ -12387,10 +12368,10 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D50" s="85">
         <v>0.68426197458455496</v>
@@ -12398,10 +12379,10 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="D51" s="85">
         <v>0.71817192600652802</v>
@@ -12420,15 +12401,15 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="D52" s="105">
+        <v>701</v>
+      </c>
+      <c r="D52" s="96">
         <v>0.74479737130339496</v>
       </c>
-      <c r="E52" s="105"/>
+      <c r="E52" s="96"/>
       <c r="F52" s="85"/>
       <c r="G52" s="85"/>
       <c r="H52" s="85"/>
@@ -12443,10 +12424,10 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D53" s="85">
         <v>0.72120559741657697</v>
@@ -12465,10 +12446,10 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D54" s="85">
         <v>0.72198275862068895</v>
@@ -12487,10 +12468,10 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D55" s="85">
         <v>0.72513368983957205</v>
@@ -12509,15 +12490,15 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D56" s="105">
+        <v>702</v>
+      </c>
+      <c r="D56" s="96">
         <v>0.74802259887005595</v>
       </c>
-      <c r="E56" s="105"/>
+      <c r="E56" s="96"/>
       <c r="F56" s="85">
         <v>0.89195461578132995</v>
       </c>
@@ -12545,15 +12526,15 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D57" s="105">
+        <v>703</v>
+      </c>
+      <c r="D57" s="96">
         <v>0.74776785714285698</v>
       </c>
-      <c r="E57" s="105"/>
+      <c r="E57" s="96"/>
       <c r="F57" s="85">
         <v>0.888602372356885</v>
       </c>
@@ -12584,10 +12565,10 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="D58" s="85">
         <v>0.72392638036809798</v>
@@ -12622,10 +12603,10 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D59" s="85">
         <v>0.73907910271546595</v>
@@ -12660,15 +12641,15 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="D60" s="105">
+        <v>749</v>
+      </c>
+      <c r="D60" s="96">
         <v>0.74402730375426596</v>
       </c>
-      <c r="E60" s="105"/>
+      <c r="E60" s="96"/>
       <c r="F60" s="85">
         <v>0.87771883289124597</v>
       </c>
@@ -12699,15 +12680,15 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="D61" s="105">
+        <v>751</v>
+      </c>
+      <c r="D61" s="96">
         <v>0.76359338061465698</v>
       </c>
-      <c r="E61" s="105"/>
+      <c r="E61" s="96"/>
       <c r="F61" s="85">
         <v>0.89353864289398</v>
       </c>
@@ -12738,10 +12719,10 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D62" s="85">
         <v>0.74418604651162801</v>
@@ -12778,10 +12759,10 @@
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D65" s="85">
         <v>0.73535791757049895</v>
@@ -12813,10 +12794,10 @@
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D66" s="85">
         <v>0.72747014115092201</v>
@@ -12851,10 +12832,10 @@
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D67" s="85">
         <v>0.74564459930313598</v>
@@ -12889,10 +12870,10 @@
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D68" s="85">
         <v>0.72815533980582503</v>
@@ -12940,10 +12921,10 @@
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D70" s="85">
         <v>0.74640088593576903</v>
@@ -12962,10 +12943,10 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D71" s="85">
         <v>0.75278396436525596</v>
@@ -12984,10 +12965,10 @@
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="D72" s="85">
         <v>0.72025723472668801</v>
@@ -13006,10 +12987,10 @@
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="D73" s="85">
         <v>0.75196408529741798</v>
@@ -13028,7 +13009,7 @@
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="3" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D74" s="85">
         <v>0.74238875878220101</v>
@@ -13057,10 +13038,10 @@
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D76" s="85">
         <v>0.73913043478260798</v>
@@ -13071,10 +13052,10 @@
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="D77" s="85">
         <v>0.73765093304061402</v>
@@ -13085,10 +13066,10 @@
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D78" s="85">
         <v>0.74944071588366901</v>
@@ -13099,10 +13080,10 @@
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="D79" s="85">
         <v>0.75084554678692195</v>
@@ -13121,6 +13102,22 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C80" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D80" s="91">
+        <v>0.74350282485875696</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C81" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D81" s="91">
+        <v>0.74643249176728799</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F82" s="85"/>
@@ -13202,13 +13199,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D89" s="85">
         <v>0.71689989235737295</v>
@@ -13216,10 +13213,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D90" s="85">
         <v>0.72476089266737498</v>
@@ -13227,10 +13224,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="D91" s="85">
         <v>0.72167216721672101</v>
@@ -13249,54 +13246,54 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="D92" s="85">
         <v>0.71063829787234001</v>
       </c>
-      <c r="F92" s="106"/>
-      <c r="G92" s="106"/>
-      <c r="H92" s="106"/>
-      <c r="I92" s="106"/>
-      <c r="J92" s="106"/>
-      <c r="K92" s="106"/>
-      <c r="L92" s="106"/>
-      <c r="M92" s="106"/>
+      <c r="F92" s="97"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="97"/>
+      <c r="I92" s="97"/>
+      <c r="J92" s="97"/>
+      <c r="K92" s="97"/>
+      <c r="L92" s="97"/>
+      <c r="M92" s="97"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D93" s="85">
         <v>0.70920502092050197</v>
       </c>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105"/>
+      <c r="F93" s="96"/>
+      <c r="G93" s="96"/>
+      <c r="H93" s="96"/>
+      <c r="I93" s="96"/>
+      <c r="J93" s="96"/>
+      <c r="K93" s="96"/>
+      <c r="L93" s="96"/>
+      <c r="M93" s="96"/>
       <c r="O93" s="10"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D94" s="85">
         <v>0.71445086705202299</v>
@@ -13315,10 +13312,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D95" s="85">
         <v>0.70931537598204197</v>
@@ -13365,15 +13362,15 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="D99" s="107">
+        <v>742</v>
+      </c>
+      <c r="D99" s="98">
         <v>0.75986471251409204</v>
       </c>
-      <c r="E99" s="107"/>
+      <c r="E99" s="98"/>
       <c r="F99" s="85"/>
       <c r="G99" s="85"/>
       <c r="H99" s="85"/>
@@ -13388,7 +13385,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D100" s="85">
         <v>0.76179516685845705</v>
@@ -13423,7 +13420,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D101" s="85">
         <v>0.76396807297605396</v>
@@ -13509,8 +13506,8 @@
       <c r="Q107" s="6"/>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D109" s="105"/>
-      <c r="E109" s="105"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
       <c r="F109" s="85"/>
       <c r="G109" s="85"/>
       <c r="H109" s="85"/>
@@ -13589,7 +13586,7 @@
       <c r="Q116" s="6"/>
     </row>
     <row r="117" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F117" s="108"/>
+      <c r="F117" s="99"/>
       <c r="G117" s="85"/>
       <c r="H117" s="85"/>
       <c r="I117" s="85"/>
@@ -13615,7 +13612,7 @@
       <c r="Q118" s="6"/>
     </row>
     <row r="120" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F120" s="108"/>
+      <c r="F120" s="99"/>
       <c r="G120" s="85"/>
       <c r="H120" s="85"/>
       <c r="I120" s="85"/>
@@ -13696,20 +13693,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>621</v>
       </c>
-      <c r="S3" s="98" t="s">
+      <c r="S3" s="101" t="s">
         <v>610</v>
       </c>
-      <c r="T3" s="99"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -13761,7 +13758,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="103" t="s">
         <v>579</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -13791,14 +13788,14 @@
         <f>F5/J5</f>
         <v>0.96216138741579471</v>
       </c>
-      <c r="N5" s="102">
+      <c r="N5" s="93">
         <f>J5/J9</f>
         <v>0.46888440860215053</v>
       </c>
       <c r="P5" t="s">
         <v>623</v>
       </c>
-      <c r="Q5" s="95" t="s">
+      <c r="Q5" s="103" t="s">
         <v>611</v>
       </c>
       <c r="R5" s="55" t="s">
@@ -13827,7 +13824,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="96"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="21" t="s">
         <v>581</v>
       </c>
@@ -13855,11 +13852,11 @@
         <f>G6/J6</f>
         <v>0.97317913385826771</v>
       </c>
-      <c r="N6" s="102">
+      <c r="N6" s="93">
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
-      <c r="Q6" s="97"/>
+      <c r="Q6" s="104"/>
       <c r="R6" s="56" t="s">
         <v>606</v>
       </c>
@@ -13886,7 +13883,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="96"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="21" t="s">
         <v>583</v>
       </c>
@@ -13914,7 +13911,7 @@
         <f>H7/J7</f>
         <v>0.90005125576627376</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="93">
         <f>J7/J9</f>
         <v>0.1966733870967742</v>
       </c>
@@ -13949,7 +13946,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="97"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="22" t="s">
         <v>584</v>
       </c>
@@ -13977,7 +13974,7 @@
         <f>I8/J8</f>
         <v>0.87281372049583972</v>
       </c>
-      <c r="N8" s="102">
+      <c r="N8" s="93">
         <f>J8/J9</f>
         <v>0.19788306451612903</v>
       </c>
@@ -14133,12 +14130,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -14146,10 +14143,10 @@
       </c>
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
-      <c r="S13" s="92" t="s">
+      <c r="S13" s="105" t="s">
         <v>609</v>
       </c>
-      <c r="T13" s="94"/>
+      <c r="T13" s="106"/>
       <c r="U13" s="45"/>
       <c r="V13" s="46"/>
     </row>
@@ -14206,7 +14203,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="103" t="s">
         <v>591</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -14237,11 +14234,11 @@
         <f>F15/J15</f>
         <v>0.97532036070242045</v>
       </c>
-      <c r="N15" s="102">
+      <c r="N15" s="93">
         <f>J15/J19</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="Q15" s="95" t="s">
+      <c r="Q15" s="103" t="s">
         <v>591</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -14270,7 +14267,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="96"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="21" t="s">
         <v>587</v>
       </c>
@@ -14302,11 +14299,11 @@
         <f>G16/J16</f>
         <v>0.58378378378378382</v>
       </c>
-      <c r="N16" s="102">
+      <c r="N16" s="93">
         <f>J16/J19</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="Q16" s="97"/>
+      <c r="Q16" s="104"/>
       <c r="R16" s="30" t="s">
         <v>607</v>
       </c>
@@ -14333,7 +14330,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="96"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="21" t="s">
         <v>588</v>
       </c>
@@ -14365,7 +14362,7 @@
         <f>H17/J17</f>
         <v>0.5977011494252874</v>
       </c>
-      <c r="N17" s="102">
+      <c r="N17" s="93">
         <f>J17/J19</f>
         <v>6.3157894736842107E-2</v>
       </c>
@@ -14400,7 +14397,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="97"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="22" t="s">
         <v>594</v>
       </c>
@@ -14432,7 +14429,7 @@
         <f>I18/J18</f>
         <v>0.48096885813148788</v>
       </c>
-      <c r="N18" s="102">
+      <c r="N18" s="93">
         <f>J18/J19</f>
         <v>0.10490018148820326</v>
       </c>
@@ -14565,8 +14562,8 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
     </row>
@@ -14597,12 +14594,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -14641,7 +14638,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="103" t="s">
         <v>579</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -14677,7 +14674,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="96"/>
+      <c r="D29" s="107"/>
       <c r="E29" s="21" t="s">
         <v>581</v>
       </c>
@@ -14711,7 +14708,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="96"/>
+      <c r="D30" s="107"/>
       <c r="E30" s="21" t="s">
         <v>583</v>
       </c>
@@ -14745,7 +14742,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="97"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="22" t="s">
         <v>584</v>
       </c>
@@ -14875,12 +14872,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="106"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -14917,7 +14914,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="103" t="s">
         <v>591</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -14953,7 +14950,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="96"/>
+      <c r="D39" s="107"/>
       <c r="E39" s="21" t="s">
         <v>587</v>
       </c>
@@ -14990,7 +14987,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="96"/>
+      <c r="D40" s="107"/>
       <c r="E40" s="21" t="s">
         <v>583</v>
       </c>
@@ -15027,7 +15024,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="97"/>
+      <c r="D41" s="104"/>
       <c r="E41" s="22" t="s">
         <v>584</v>
       </c>
@@ -15162,12 +15159,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="92" t="s">
+      <c r="F48" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="94"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="106"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -15198,7 +15195,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="95" t="s">
+      <c r="D50" s="103" t="s">
         <v>579</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -15231,7 +15228,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="96"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="21" t="s">
         <v>575</v>
       </c>
@@ -15262,7 +15259,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="96"/>
+      <c r="D52" s="107"/>
       <c r="E52" s="21" t="s">
         <v>576</v>
       </c>
@@ -15293,7 +15290,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="97"/>
+      <c r="D53" s="104"/>
       <c r="E53" s="22" t="s">
         <v>584</v>
       </c>
@@ -15410,12 +15407,12 @@
       <c r="N57" s="67"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="92" t="s">
+      <c r="F58" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="94"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="106"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -15446,7 +15443,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="103" t="s">
         <v>591</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -15479,7 +15476,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="96"/>
+      <c r="D61" s="107"/>
       <c r="E61" s="21" t="s">
         <v>575</v>
       </c>
@@ -15513,7 +15510,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="96"/>
+      <c r="D62" s="107"/>
       <c r="E62" s="21" t="s">
         <v>576</v>
       </c>
@@ -15547,7 +15544,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="97"/>
+      <c r="D63" s="104"/>
       <c r="E63" s="22" t="s">
         <v>584</v>
       </c>
@@ -15682,12 +15679,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="45"/>
-      <c r="F70" s="92" t="s">
+      <c r="F70" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G70" s="93"/>
-      <c r="H70" s="93"/>
-      <c r="I70" s="94"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="106"/>
       <c r="J70" s="45"/>
       <c r="M70" s="18"/>
     </row>
@@ -15718,7 +15715,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="95" t="s">
+      <c r="D72" s="103" t="s">
         <v>579</v>
       </c>
       <c r="E72" s="55" t="s">
@@ -15751,7 +15748,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="96"/>
+      <c r="D73" s="107"/>
       <c r="E73" s="73" t="s">
         <v>575</v>
       </c>
@@ -15782,7 +15779,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="96"/>
+      <c r="D74" s="107"/>
       <c r="E74" s="73" t="s">
         <v>576</v>
       </c>
@@ -15813,7 +15810,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="97"/>
+      <c r="D75" s="104"/>
       <c r="E75" s="56" t="s">
         <v>584</v>
       </c>
@@ -15929,12 +15926,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="45"/>
-      <c r="F80" s="92" t="s">
+      <c r="F80" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="94"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="106"/>
       <c r="J80" s="45"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -15966,7 +15963,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="95" t="s">
+      <c r="D82" s="103" t="s">
         <v>591</v>
       </c>
       <c r="E82" s="55" t="s">
@@ -15999,7 +15996,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="96"/>
+      <c r="D83" s="107"/>
       <c r="E83" s="73" t="s">
         <v>575</v>
       </c>
@@ -16033,7 +16030,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="96"/>
+      <c r="D84" s="107"/>
       <c r="E84" s="73" t="s">
         <v>576</v>
       </c>
@@ -16067,7 +16064,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="97"/>
+      <c r="D85" s="104"/>
       <c r="E85" s="56" t="s">
         <v>584</v>
       </c>
@@ -16198,12 +16195,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="45"/>
-      <c r="F90" s="92" t="s">
+      <c r="F90" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G90" s="93"/>
-      <c r="H90" s="93"/>
-      <c r="I90" s="94"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="108"/>
+      <c r="I90" s="106"/>
       <c r="J90" s="45"/>
       <c r="M90" s="18"/>
     </row>
@@ -16234,7 +16231,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="95" t="s">
+      <c r="D92" s="103" t="s">
         <v>579</v>
       </c>
       <c r="E92" s="55" t="s">
@@ -16267,7 +16264,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="96"/>
+      <c r="D93" s="107"/>
       <c r="E93" s="73" t="s">
         <v>575</v>
       </c>
@@ -16298,7 +16295,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="96"/>
+      <c r="D94" s="107"/>
       <c r="E94" s="73" t="s">
         <v>576</v>
       </c>
@@ -16329,7 +16326,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="97"/>
+      <c r="D95" s="104"/>
       <c r="E95" s="56" t="s">
         <v>584</v>
       </c>
@@ -16445,12 +16442,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="45"/>
-      <c r="F100" s="92" t="s">
+      <c r="F100" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="G100" s="93"/>
-      <c r="H100" s="93"/>
-      <c r="I100" s="94"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="106"/>
       <c r="J100" s="45"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -16482,7 +16479,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="95" t="s">
+      <c r="D102" s="103" t="s">
         <v>591</v>
       </c>
       <c r="E102" s="55" t="s">
@@ -16515,7 +16512,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="96"/>
+      <c r="D103" s="107"/>
       <c r="E103" s="73" t="s">
         <v>575</v>
       </c>
@@ -16549,7 +16546,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="96"/>
+      <c r="D104" s="107"/>
       <c r="E104" s="73" t="s">
         <v>576</v>
       </c>
@@ -16583,7 +16580,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="97"/>
+      <c r="D105" s="104"/>
       <c r="E105" s="56" t="s">
         <v>584</v>
       </c>
@@ -16693,6 +16690,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -16706,18 +16715,6 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16751,7 +16748,7 @@
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -16760,29 +16757,29 @@
       <c r="I2" s="45"/>
       <c r="J2" s="45"/>
       <c r="P2" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C3" s="45"/>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
       <c r="K3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="92" t="s">
+      <c r="R3" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="94"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="106"/>
       <c r="V3" s="45"/>
       <c r="W3" s="45"/>
       <c r="X3" s="45"/>
@@ -16838,7 +16835,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="103" t="s">
         <v>579</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -16872,7 +16869,7 @@
         <f>H5/H9</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="P5" s="95" t="s">
+      <c r="P5" s="103" t="s">
         <v>579</v>
       </c>
       <c r="Q5" s="55" t="s">
@@ -16905,7 +16902,7 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="96"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="73" t="s">
         <v>575</v>
       </c>
@@ -16937,7 +16934,7 @@
         <f>H6/H9</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="P6" s="96"/>
+      <c r="P6" s="107"/>
       <c r="Q6" s="73" t="s">
         <v>575</v>
       </c>
@@ -16968,7 +16965,7 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="96"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="73" t="s">
         <v>576</v>
       </c>
@@ -17000,7 +16997,7 @@
         <f>H7/H9</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="P7" s="96"/>
+      <c r="P7" s="107"/>
       <c r="Q7" s="73" t="s">
         <v>576</v>
       </c>
@@ -17031,7 +17028,7 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="97"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="56" t="s">
         <v>577</v>
       </c>
@@ -17063,7 +17060,7 @@
         <f>H8/H9</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="P8" s="97"/>
+      <c r="P8" s="104"/>
       <c r="Q8" s="56" t="s">
         <v>577</v>
       </c>
@@ -17285,23 +17282,23 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C13" s="45"/>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="45"/>
-      <c r="R13" s="92" t="s">
+      <c r="R13" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="94"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="106"/>
       <c r="V13" s="45"/>
       <c r="W13" s="45"/>
       <c r="X13" s="45"/>
@@ -17360,7 +17357,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="103" t="s">
         <v>579</v>
       </c>
       <c r="C15" s="55" t="s">
@@ -17391,10 +17388,10 @@
         <f>D15/H15</f>
         <v>0.93584260051325918</v>
       </c>
-      <c r="L15" s="101">
+      <c r="L15" s="92">
         <v>0.88</v>
       </c>
-      <c r="P15" s="95" t="s">
+      <c r="P15" s="103" t="s">
         <v>579</v>
       </c>
       <c r="Q15" s="55" t="s">
@@ -17427,7 +17424,7 @@
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="96"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="73" t="s">
         <v>575</v>
       </c>
@@ -17459,10 +17456,10 @@
         <f>E16/H16</f>
         <v>0.76760563380281688</v>
       </c>
-      <c r="L16" s="101">
+      <c r="L16" s="92">
         <v>0.04</v>
       </c>
-      <c r="P16" s="96"/>
+      <c r="P16" s="107"/>
       <c r="Q16" s="73" t="s">
         <v>575</v>
       </c>
@@ -17496,7 +17493,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="96"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="73" t="s">
         <v>576</v>
       </c>
@@ -17528,10 +17525,10 @@
         <f>F17/H17</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="L17" s="101">
+      <c r="L17" s="92">
         <v>0.04</v>
       </c>
-      <c r="P17" s="96"/>
+      <c r="P17" s="107"/>
       <c r="Q17" s="73" t="s">
         <v>576</v>
       </c>
@@ -17565,7 +17562,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="97"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="56" t="s">
         <v>577</v>
       </c>
@@ -17597,10 +17594,10 @@
         <f>G18/H18</f>
         <v>0.89333333333333331</v>
       </c>
-      <c r="L18" s="101">
+      <c r="L18" s="92">
         <v>0.04</v>
       </c>
-      <c r="P18" s="97"/>
+      <c r="P18" s="104"/>
       <c r="Q18" s="56" t="s">
         <v>577</v>
       </c>
@@ -17885,7 +17882,7 @@
         <v>1085.8399999999999</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
@@ -17919,12 +17916,12 @@
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="92" t="s">
+      <c r="R26" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="94"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="106"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
       <c r="X26" s="45"/>
@@ -17973,7 +17970,7 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="103" t="s">
         <v>579</v>
       </c>
       <c r="Q28" s="55" t="s">
@@ -18009,7 +18006,7 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P29" s="96"/>
+      <c r="P29" s="107"/>
       <c r="Q29" s="73" t="s">
         <v>575</v>
       </c>
@@ -18043,7 +18040,7 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P30" s="96"/>
+      <c r="P30" s="107"/>
       <c r="Q30" s="73" t="s">
         <v>576</v>
       </c>
@@ -18077,7 +18074,7 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P31" s="97"/>
+      <c r="P31" s="104"/>
       <c r="Q31" s="56" t="s">
         <v>577</v>
       </c>
@@ -18214,12 +18211,12 @@
     <row r="36" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P36" s="18"/>
       <c r="Q36" s="45"/>
-      <c r="R36" s="92" t="s">
+      <c r="R36" s="105" t="s">
         <v>573</v>
       </c>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="94"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="106"/>
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
       <c r="X36" s="45"/>
@@ -18253,7 +18250,7 @@
       </c>
     </row>
     <row r="38" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P38" s="95" t="s">
+      <c r="P38" s="103" t="s">
         <v>579</v>
       </c>
       <c r="Q38" s="55" t="s">
@@ -18284,12 +18281,12 @@
         <f>R38/V38</f>
         <v>0.92600513259195893</v>
       </c>
-      <c r="Z38" s="101">
+      <c r="Z38" s="92">
         <v>0.88</v>
       </c>
     </row>
     <row r="39" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P39" s="96"/>
+      <c r="P39" s="107"/>
       <c r="Q39" s="73" t="s">
         <v>575</v>
       </c>
@@ -18321,12 +18318,12 @@
         <f>S39/V39</f>
         <v>0.78169014084507038</v>
       </c>
-      <c r="Z39" s="101">
+      <c r="Z39" s="92">
         <v>0.04</v>
       </c>
     </row>
     <row r="40" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P40" s="96"/>
+      <c r="P40" s="107"/>
       <c r="Q40" s="73" t="s">
         <v>576</v>
       </c>
@@ -18358,12 +18355,12 @@
         <f>T40/V40</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="Z40" s="101">
+      <c r="Z40" s="92">
         <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P41" s="97"/>
+      <c r="P41" s="104"/>
       <c r="Q41" s="56" t="s">
         <v>577</v>
       </c>
@@ -18395,7 +18392,7 @@
         <f>U41/V41</f>
         <v>0.87333333333333329</v>
       </c>
-      <c r="Z41" s="101">
+      <c r="Z41" s="92">
         <v>0.04</v>
       </c>
     </row>
@@ -18641,18 +18638,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="P15:P18"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="P5:P8"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="P38:P41"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="P15:P18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="793">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2661,6 +2661,20 @@
   </si>
   <si>
     <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.9, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnna_ek_1547369719</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=prec, tid_keep=0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnna_ek_1547371151</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=prec, tid_keep=1.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10666,8 +10680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13146,6 +13160,18 @@
       <c r="Q83" s="6"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D84" s="91">
+        <v>0.73144104803493404</v>
+      </c>
+      <c r="E84" s="91">
+        <v>0.74754098360655696</v>
+      </c>
       <c r="F84" s="85"/>
       <c r="G84" s="85"/>
       <c r="H84" s="85"/>
@@ -13159,6 +13185,18 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D85" s="91">
+        <v>0.740245261984392</v>
+      </c>
+      <c r="E85" s="91">
+        <v>0.75609756097560898</v>
+      </c>
       <c r="F85" s="85"/>
       <c r="G85" s="85"/>
       <c r="H85" s="85"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="795">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2675,6 +2675,13 @@
   </si>
   <si>
     <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=prec, tid_keep=1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_gru_ek_1547371075</t>
+  </si>
+  <si>
+    <t>rnn=64, attention=32, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.9, metric=precision</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10680,8 +10687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12002,6 +12009,9 @@
       <c r="D32" s="91">
         <v>0.72340425531914898</v>
       </c>
+      <c r="E32" s="91">
+        <v>0.72358591248665904</v>
+      </c>
       <c r="F32" s="85"/>
       <c r="G32" s="85"/>
       <c r="H32" s="85"/>
@@ -12064,6 +12074,9 @@
       <c r="D34" s="91">
         <v>0.72766884531590403</v>
       </c>
+      <c r="E34" s="91">
+        <v>0.72766884531590403</v>
+      </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -12076,6 +12089,18 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D35" s="91">
+        <v>0.72312703583061799</v>
+      </c>
+      <c r="E35" s="91">
+        <v>0.72844827586206895</v>
+      </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1100" yWindow="520" windowWidth="24240" windowHeight="13860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="801">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2683,6 +2683,25 @@
   <si>
     <t>rnn=64, attention=32, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.9, metric=precision</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnnatt_ek_1547373762</t>
+  </si>
+  <si>
+    <t>CNN+attention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnna_ek_1547372843</t>
+  </si>
+  <si>
+    <t>m93_cnnatt_ek_1547372654</t>
+  </si>
+  <si>
+    <t>m93_cnn2_ek_1547371518</t>
+  </si>
+  <si>
+    <t>m93_cnnatt0_ek_1547375343</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3120,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3360,9 +3379,6 @@
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3803,24 +3819,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8299,18 +8315,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10685,10 +10701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG121"/>
+  <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10727,18 +10743,18 @@
       <c r="E1" s="85" t="s">
         <v>779</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100" t="s">
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99" t="s">
         <v>546</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
       <c r="O1" s="14"/>
       <c r="P1" s="16" t="s">
         <v>7</v>
@@ -12134,7 +12150,6 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
       <c r="F37" s="85"/>
       <c r="G37" s="85"/>
       <c r="H37" s="85"/>
@@ -12157,6 +12172,18 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D38" s="85">
+        <v>0.68678459937564995</v>
+      </c>
       <c r="F38" s="85"/>
       <c r="G38" s="85"/>
       <c r="H38" s="85"/>
@@ -12174,12 +12201,11 @@
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
+      <c r="Y38" s="8"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
       <c r="F39" s="85"/>
       <c r="G39" s="85"/>
       <c r="H39" s="85"/>
@@ -12191,17 +12217,20 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D40" s="85">
+        <v>0.66915191053122003</v>
+      </c>
       <c r="F40" s="85"/>
       <c r="G40" s="85"/>
       <c r="H40" s="85"/>
@@ -12213,50 +12242,50 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D41" s="85">
+        <v>0.67109004739336398</v>
+      </c>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
+      <c r="B42" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D42" s="85">
+        <v>0.71773347324239201</v>
+      </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D43" s="85">
+        <v>0.72607260726072598</v>
+      </c>
       <c r="F43" s="85"/>
       <c r="G43" s="85"/>
       <c r="H43" s="85"/>
@@ -12268,51 +12297,28 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>661</v>
+      <c r="B44" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="D44" s="85">
-        <v>0.68678459937564995</v>
-      </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
+        <v>0.68426197458455496</v>
+      </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D45" s="85">
+        <v>0.71817192600652802</v>
+      </c>
       <c r="F45" s="85"/>
       <c r="G45" s="85"/>
       <c r="H45" s="85"/>
@@ -12326,18 +12332,16 @@
       <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>668</v>
-      </c>
       <c r="B46" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D46" s="85">
-        <v>0.66915191053122003</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>701</v>
+      </c>
+      <c r="D46" s="96">
+        <v>0.74479737130339496</v>
+      </c>
+      <c r="E46" s="96"/>
       <c r="F46" s="85"/>
       <c r="G46" s="85"/>
       <c r="H46" s="85"/>
@@ -12352,13 +12356,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="D47" s="85">
-        <v>0.67109004739336398</v>
+        <v>0.72120559741657697</v>
       </c>
       <c r="F47" s="85"/>
       <c r="G47" s="85"/>
@@ -12374,24 +12378,35 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="D48" s="85">
-        <v>0.71773347324239201</v>
-      </c>
+        <v>0.72198275862068895</v>
+      </c>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="D49" s="85">
-        <v>0.72607260726072598</v>
+        <v>0.72513368983957205</v>
       </c>
       <c r="F49" s="85"/>
       <c r="G49" s="85"/>
@@ -12407,311 +12422,341 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D50" s="85">
-        <v>0.68426197458455496</v>
+        <v>702</v>
+      </c>
+      <c r="D50" s="96">
+        <v>0.74802259887005595</v>
+      </c>
+      <c r="E50" s="96"/>
+      <c r="F50" s="85">
+        <v>0.89195461578132995</v>
+      </c>
+      <c r="G50" s="85">
+        <v>0.90244283149925797</v>
+      </c>
+      <c r="H50" s="85">
+        <v>0.84450774174700505</v>
+      </c>
+      <c r="I50" s="85">
+        <v>0.87251461988304002</v>
+      </c>
+      <c r="J50" s="85">
+        <v>0.92159709618874697</v>
+      </c>
+      <c r="K50" s="85">
+        <v>0.70726495726495697</v>
+      </c>
+      <c r="L50" s="85">
+        <v>0.79376498800959205</v>
+      </c>
+      <c r="M50" s="85">
+        <v>0.74802259887005595</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>691</v>
+        <v>747</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D51" s="85">
-        <v>0.71817192600652802</v>
-      </c>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
+        <v>703</v>
+      </c>
+      <c r="D51" s="96">
+        <v>0.74776785714285698</v>
+      </c>
+      <c r="E51" s="96"/>
+      <c r="F51" s="85">
+        <v>0.888602372356885</v>
+      </c>
+      <c r="G51" s="85">
+        <v>0.89921025881617</v>
+      </c>
+      <c r="H51" s="85">
+        <v>0.83990651475314004</v>
+      </c>
+      <c r="I51" s="85">
+        <v>0.86854726029983698</v>
+      </c>
+      <c r="J51" s="85">
+        <v>0.92050816696914695</v>
+      </c>
+      <c r="K51" s="85">
+        <v>0.69937369519832904</v>
+      </c>
+      <c r="L51" s="85">
+        <v>0.80335731414868095</v>
+      </c>
+      <c r="M51" s="85">
+        <v>0.74776785714285698</v>
+      </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>701</v>
-      </c>
-      <c r="D52" s="96">
-        <v>0.74479737130339496</v>
-      </c>
-      <c r="E52" s="96"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
+        <v>746</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D52" s="85">
+        <v>0.72392638036809798</v>
+      </c>
+      <c r="F52" s="85">
+        <v>0.89438591321004901</v>
+      </c>
+      <c r="G52" s="85">
+        <v>0.90537164272329795</v>
+      </c>
+      <c r="H52" s="85">
+        <v>0.84691790826760105</v>
+      </c>
+      <c r="I52" s="85">
+        <v>0.875169811320754</v>
+      </c>
+      <c r="J52" s="85">
+        <v>0.92014519056261301</v>
+      </c>
+      <c r="K52" s="85">
+        <v>0.74120603015075304</v>
+      </c>
+      <c r="L52" s="85">
+        <v>0.70743405275779303</v>
+      </c>
+      <c r="M52" s="85">
+        <v>0.72392638036809798</v>
+      </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>681</v>
+        <v>745</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="D53" s="85">
-        <v>0.72120559741657697</v>
-      </c>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
+        <v>0.73907910271546595</v>
+      </c>
+      <c r="F53" s="85">
+        <v>0.891478779840848</v>
+      </c>
+      <c r="G53" s="85">
+        <v>0.90365776305588796</v>
+      </c>
+      <c r="H53" s="85">
+        <v>0.84288719432027304</v>
+      </c>
+      <c r="I53" s="85">
+        <v>0.87221523077446295</v>
+      </c>
+      <c r="J53" s="85">
+        <v>0.92196007259528101</v>
+      </c>
+      <c r="K53" s="85">
+        <v>0.72790697674418603</v>
+      </c>
+      <c r="L53" s="85">
+        <v>0.75059952038369304</v>
+      </c>
+      <c r="M53" s="85">
+        <v>0.73907910271546595</v>
+      </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D54" s="85">
-        <v>0.72198275862068895</v>
-      </c>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
+        <v>749</v>
+      </c>
+      <c r="D54" s="96">
+        <v>0.74402730375426596</v>
+      </c>
+      <c r="E54" s="96"/>
+      <c r="F54" s="85">
+        <v>0.87771883289124597</v>
+      </c>
+      <c r="G54" s="85">
+        <v>0.89248389405869699</v>
+      </c>
+      <c r="H54" s="85">
+        <v>0.81961609255850598</v>
+      </c>
+      <c r="I54" s="85">
+        <v>0.85449934891371304</v>
+      </c>
+      <c r="J54" s="85">
+        <v>0.92087114337567999</v>
+      </c>
+      <c r="K54" s="85">
+        <v>0.70779220779220697</v>
+      </c>
+      <c r="L54" s="85">
+        <v>0.78417266187050305</v>
+      </c>
+      <c r="M54" s="85">
+        <v>0.74402730375426596</v>
+      </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>699</v>
+        <v>753</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D55" s="85">
-        <v>0.72513368983957205</v>
-      </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
+        <v>751</v>
+      </c>
+      <c r="D55" s="96">
+        <v>0.76359338061465698</v>
+      </c>
+      <c r="E55" s="96"/>
+      <c r="F55" s="85">
+        <v>0.89353864289398</v>
+      </c>
+      <c r="G55" s="85">
+        <v>0.904296875</v>
+      </c>
+      <c r="H55" s="85">
+        <v>0.84538416593631305</v>
+      </c>
+      <c r="I55" s="85">
+        <v>0.87384870904423895</v>
+      </c>
+      <c r="J55" s="85">
+        <v>0.929219600725952</v>
+      </c>
+      <c r="K55" s="85">
+        <v>0.75291375291375295</v>
+      </c>
+      <c r="L55" s="85">
+        <v>0.77458033573141405</v>
+      </c>
+      <c r="M55" s="85">
+        <v>0.76359338061465698</v>
+      </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D56" s="96">
-        <v>0.74802259887005595</v>
-      </c>
-      <c r="E56" s="96"/>
+        <v>752</v>
+      </c>
+      <c r="D56" s="85">
+        <v>0.74418604651162801</v>
+      </c>
       <c r="F56" s="85">
-        <v>0.89195461578132995</v>
+        <v>0.88053488543431802</v>
       </c>
       <c r="G56" s="85">
-        <v>0.90244283149925797</v>
+        <v>0.89338496799178002</v>
       </c>
       <c r="H56" s="85">
-        <v>0.84450774174700505</v>
+        <v>0.82559158632778196</v>
       </c>
       <c r="I56" s="85">
-        <v>0.87251461988304002</v>
+        <v>0.85815145188840303</v>
       </c>
       <c r="J56" s="85">
-        <v>0.92159709618874697</v>
+        <v>0.92304900181488203</v>
       </c>
       <c r="K56" s="85">
-        <v>0.70726495726495697</v>
+        <v>0.72234762979683897</v>
       </c>
       <c r="L56" s="85">
-        <v>0.79376498800959205</v>
+        <v>0.76738609112709799</v>
       </c>
       <c r="M56" s="85">
-        <v>0.74802259887005595</v>
+        <v>0.74418604651162801</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D57" s="96">
-        <v>0.74776785714285698</v>
-      </c>
-      <c r="E57" s="96"/>
-      <c r="F57" s="85">
-        <v>0.888602372356885</v>
-      </c>
-      <c r="G57" s="85">
-        <v>0.89921025881617</v>
-      </c>
-      <c r="H57" s="85">
-        <v>0.83990651475314004</v>
-      </c>
-      <c r="I57" s="85">
-        <v>0.86854726029983698</v>
-      </c>
-      <c r="J57" s="85">
-        <v>0.92050816696914695</v>
-      </c>
-      <c r="K57" s="85">
-        <v>0.69937369519832904</v>
-      </c>
-      <c r="L57" s="85">
-        <v>0.80335731414868095</v>
-      </c>
-      <c r="M57" s="85">
-        <v>0.74776785714285698</v>
-      </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D58" s="85">
-        <v>0.72392638036809798</v>
-      </c>
-      <c r="F58" s="85">
-        <v>0.89438591321004901</v>
-      </c>
-      <c r="G58" s="85">
-        <v>0.90537164272329795</v>
-      </c>
-      <c r="H58" s="85">
-        <v>0.84691790826760105</v>
-      </c>
-      <c r="I58" s="85">
-        <v>0.875169811320754</v>
-      </c>
-      <c r="J58" s="85">
-        <v>0.92014519056261301</v>
-      </c>
-      <c r="K58" s="85">
-        <v>0.74120603015075304</v>
-      </c>
-      <c r="L58" s="85">
-        <v>0.70743405275779303</v>
-      </c>
-      <c r="M58" s="85">
-        <v>0.72392638036809798</v>
-      </c>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-    </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="D59" s="85">
-        <v>0.73907910271546595</v>
+        <v>0.73535791757049895</v>
       </c>
       <c r="F59" s="85">
-        <v>0.891478779840848</v>
+        <v>0.87446949602122004</v>
       </c>
       <c r="G59" s="85">
-        <v>0.90365776305588796</v>
+        <v>0.89029293509477303</v>
       </c>
       <c r="H59" s="85">
-        <v>0.84288719432027304</v>
+        <v>0.81514593741782804</v>
       </c>
       <c r="I59" s="85">
-        <v>0.87221523077446295</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="J59" s="85">
-        <v>0.92196007259528101</v>
+        <v>0.915426497277677</v>
       </c>
       <c r="K59" s="85">
-        <v>0.72790697674418603</v>
+        <v>0.671287128712871</v>
       </c>
       <c r="L59" s="85">
-        <v>0.75059952038369304</v>
+        <v>0.81294964028776895</v>
       </c>
       <c r="M59" s="85">
-        <v>0.73907910271546595</v>
-      </c>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
+        <v>0.73535791757049895</v>
+      </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="D60" s="96">
-        <v>0.74402730375426596</v>
-      </c>
-      <c r="E60" s="96"/>
+        <v>756</v>
+      </c>
+      <c r="D60" s="85">
+        <v>0.72747014115092201</v>
+      </c>
       <c r="F60" s="85">
-        <v>0.87771883289124597</v>
+        <v>0.850464190981432</v>
       </c>
       <c r="G60" s="85">
-        <v>0.89248389405869699</v>
+        <v>0.875093214019388</v>
       </c>
       <c r="H60" s="85">
-        <v>0.81961609255850598</v>
+        <v>0.77143044964501695</v>
       </c>
       <c r="I60" s="85">
-        <v>0.85449934891371304</v>
+        <v>0.819998602473621</v>
       </c>
       <c r="J60" s="85">
-        <v>0.92087114337567999</v>
+        <v>0.911796733212341</v>
       </c>
       <c r="K60" s="85">
-        <v>0.70779220779220697</v>
+        <v>0.66468253968253899</v>
       </c>
       <c r="L60" s="85">
-        <v>0.78417266187050305</v>
+        <v>0.80335731414868095</v>
       </c>
       <c r="M60" s="85">
-        <v>0.74402730375426596</v>
+        <v>0.72747014115092201</v>
       </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
@@ -12719,38 +12764,37 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D61" s="96">
-        <v>0.76359338061465698</v>
-      </c>
-      <c r="E61" s="96"/>
+        <v>758</v>
+      </c>
+      <c r="D61" s="85">
+        <v>0.74564459930313598</v>
+      </c>
       <c r="F61" s="85">
-        <v>0.89353864289398</v>
+        <v>0.87224637147277595</v>
       </c>
       <c r="G61" s="85">
-        <v>0.904296875</v>
+        <v>0.88921001926782195</v>
       </c>
       <c r="H61" s="85">
-        <v>0.84538416593631305</v>
+        <v>0.80893952673093705</v>
       </c>
       <c r="I61" s="85">
-        <v>0.87384870904423895</v>
+        <v>0.84717760440569001</v>
       </c>
       <c r="J61" s="85">
-        <v>0.929219600725952</v>
+        <v>0.92304900181488203</v>
       </c>
       <c r="K61" s="85">
-        <v>0.75291375291375295</v>
+        <v>0.72297297297297303</v>
       </c>
       <c r="L61" s="85">
-        <v>0.77458033573141405</v>
+        <v>0.76978417266187005</v>
       </c>
       <c r="M61" s="85">
-        <v>0.76359338061465698</v>
+        <v>0.74564459930313598</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -12758,192 +12802,158 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D62" s="85">
-        <v>0.74418604651162801</v>
+        <v>0.72815533980582503</v>
       </c>
       <c r="F62" s="85">
-        <v>0.88053488543431802</v>
+        <v>0.86616812790097897</v>
       </c>
       <c r="G62" s="85">
-        <v>0.89338496799178002</v>
+        <v>0.88563549355178794</v>
       </c>
       <c r="H62" s="85">
-        <v>0.82559158632778196</v>
+        <v>0.79747297692082897</v>
       </c>
       <c r="I62" s="85">
-        <v>0.85815145188840303</v>
+        <v>0.83924522501056797</v>
       </c>
       <c r="J62" s="85">
-        <v>0.92304900181488203</v>
+        <v>0.92123411978221403</v>
       </c>
       <c r="K62" s="85">
-        <v>0.72234762979683897</v>
+        <v>0.73710073710073698</v>
       </c>
       <c r="L62" s="85">
-        <v>0.76738609112709799</v>
+        <v>0.71942446043165398</v>
       </c>
       <c r="M62" s="85">
-        <v>0.74418604651162801</v>
-      </c>
+        <v>0.72815533980582503</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="85"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
     </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D64" s="85">
+        <v>0.74640088593576903</v>
+      </c>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="D65" s="85">
-        <v>0.73535791757049895</v>
-      </c>
-      <c r="F65" s="85">
-        <v>0.87446949602122004</v>
-      </c>
-      <c r="G65" s="85">
-        <v>0.89029293509477303</v>
-      </c>
-      <c r="H65" s="85">
-        <v>0.81514593741782804</v>
-      </c>
-      <c r="I65" s="85">
-        <v>0.85106382978723405</v>
-      </c>
-      <c r="J65" s="85">
-        <v>0.915426497277677</v>
-      </c>
-      <c r="K65" s="85">
-        <v>0.671287128712871</v>
-      </c>
-      <c r="L65" s="85">
-        <v>0.81294964028776895</v>
-      </c>
-      <c r="M65" s="85">
-        <v>0.73535791757049895</v>
-      </c>
+        <v>0.75278396436525596</v>
+      </c>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="85"/>
+      <c r="M65" s="85"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="D66" s="85">
-        <v>0.72747014115092201</v>
-      </c>
-      <c r="F66" s="85">
-        <v>0.850464190981432</v>
-      </c>
-      <c r="G66" s="85">
-        <v>0.875093214019388</v>
-      </c>
-      <c r="H66" s="85">
-        <v>0.77143044964501695</v>
-      </c>
-      <c r="I66" s="85">
-        <v>0.819998602473621</v>
-      </c>
-      <c r="J66" s="85">
-        <v>0.911796733212341</v>
-      </c>
-      <c r="K66" s="85">
-        <v>0.66468253968253899</v>
-      </c>
-      <c r="L66" s="85">
-        <v>0.80335731414868095</v>
-      </c>
-      <c r="M66" s="85">
-        <v>0.72747014115092201</v>
-      </c>
+        <v>0.72025723472668801</v>
+      </c>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="85"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="D67" s="85">
-        <v>0.74564459930313598</v>
-      </c>
-      <c r="F67" s="85">
-        <v>0.87224637147277595</v>
-      </c>
-      <c r="G67" s="85">
-        <v>0.88921001926782195</v>
-      </c>
-      <c r="H67" s="85">
-        <v>0.80893952673093705</v>
-      </c>
-      <c r="I67" s="85">
-        <v>0.84717760440569001</v>
-      </c>
-      <c r="J67" s="85">
-        <v>0.92304900181488203</v>
-      </c>
-      <c r="K67" s="85">
-        <v>0.72297297297297303</v>
-      </c>
-      <c r="L67" s="85">
-        <v>0.76978417266187005</v>
-      </c>
-      <c r="M67" s="85">
-        <v>0.74564459930313598</v>
-      </c>
+        <v>0.75196408529741798</v>
+      </c>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="85"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
-        <v>760</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="D68" s="85">
-        <v>0.72815533980582503</v>
-      </c>
-      <c r="F68" s="85">
-        <v>0.86616812790097897</v>
-      </c>
-      <c r="G68" s="85">
-        <v>0.88563549355178794</v>
-      </c>
-      <c r="H68" s="85">
-        <v>0.79747297692082897</v>
-      </c>
-      <c r="I68" s="85">
-        <v>0.83924522501056797</v>
-      </c>
-      <c r="J68" s="85">
-        <v>0.92123411978221403</v>
-      </c>
-      <c r="K68" s="85">
-        <v>0.73710073710073698</v>
-      </c>
-      <c r="L68" s="85">
-        <v>0.71942446043165398</v>
-      </c>
-      <c r="M68" s="85">
-        <v>0.72815533980582503</v>
-      </c>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
+        <v>0.74238875878220101</v>
+      </c>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="85"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="85"/>
+      <c r="M68" s="85"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F69" s="85"/>
@@ -12960,79 +12970,58 @@
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="D70" s="85">
-        <v>0.74640088593576903</v>
-      </c>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="E70" s="85">
+        <v>0.74617067833698003</v>
+      </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="D71" s="85">
-        <v>0.75278396436525596</v>
-      </c>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
+        <v>0.73765093304061402</v>
+      </c>
+      <c r="E71" s="85">
+        <v>0.74672489082969395</v>
+      </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D72" s="85">
-        <v>0.72025723472668801</v>
-      </c>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
+        <v>0.74944071588366901</v>
+      </c>
+      <c r="E72" s="85">
+        <v>0.75027502750274999</v>
+      </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D73" s="85">
-        <v>0.75196408529741798</v>
+        <v>0.75084554678692195</v>
+      </c>
+      <c r="E73" s="85">
+        <v>0.75084554678692195</v>
       </c>
       <c r="F73" s="85"/>
       <c r="G73" s="85"/>
@@ -13048,87 +13037,83 @@
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="D74" s="85">
-        <v>0.74238875878220101</v>
-      </c>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
+        <v>781</v>
+      </c>
+      <c r="D74" s="91">
+        <v>0.74350282485875696</v>
+      </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
+      <c r="C75" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D75" s="91">
+        <v>0.74643249176728799</v>
+      </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D76" s="85">
-        <v>0.73913043478260798</v>
-      </c>
-      <c r="E76" s="85">
-        <v>0.74617067833698003</v>
-      </c>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85"/>
+      <c r="M76" s="85"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D77" s="85">
-        <v>0.73765093304061402</v>
-      </c>
-      <c r="E77" s="85">
-        <v>0.74672489082969395</v>
-      </c>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85"/>
+      <c r="M77" s="85"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="D78" s="85">
-        <v>0.74944071588366901</v>
-      </c>
-      <c r="E78" s="85">
-        <v>0.75027502750274999</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="D78" s="91">
+        <v>0.73144104803493404</v>
+      </c>
+      <c r="E78" s="91">
+        <v>0.74754098360655696</v>
+      </c>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="85"/>
+      <c r="L78" s="85"/>
+      <c r="M78" s="85"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D79" s="85">
-        <v>0.75084554678692195</v>
-      </c>
-      <c r="E79" s="85">
-        <v>0.75084554678692195</v>
+        <v>791</v>
+      </c>
+      <c r="D79" s="91">
+        <v>0.740245261984392</v>
+      </c>
+      <c r="E79" s="91">
+        <v>0.75609756097560898</v>
       </c>
       <c r="F79" s="85"/>
       <c r="G79" s="85"/>
@@ -13143,20 +13128,33 @@
       <c r="Q79" s="6"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>792</v>
+      </c>
       <c r="C80" s="3" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="D80" s="91">
-        <v>0.74350282485875696</v>
+        <v>0.73720930232558102</v>
+      </c>
+      <c r="E80" s="91">
+        <v>0.74915635545556802</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C81" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D81" s="91">
-        <v>0.74643249176728799</v>
-      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
+      <c r="M81" s="85"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F82" s="85"/>
@@ -13172,67 +13170,8 @@
       <c r="Q82" s="6"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85"/>
-      <c r="M83" s="85"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="D84" s="91">
-        <v>0.73144104803493404</v>
-      </c>
-      <c r="E84" s="91">
-        <v>0.74754098360655696</v>
-      </c>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="85"/>
-      <c r="M84" s="85"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D85" s="91">
-        <v>0.740245261984392</v>
-      </c>
-      <c r="E85" s="91">
-        <v>0.75609756097560898</v>
-      </c>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="85"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="85"/>
-      <c r="M85" s="85"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F87" s="85"/>
@@ -13261,40 +13200,22 @@
       <c r="Q88" s="6"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="D89" s="85">
-        <v>0.71689989235737295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D90" s="85">
-        <v>0.72476089266737498</v>
-      </c>
+      <c r="B89"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D91" s="85">
-        <v>0.72167216721672101</v>
-      </c>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
       <c r="F91" s="85"/>
       <c r="G91" s="85"/>
       <c r="H91" s="85"/>
@@ -13308,58 +13229,39 @@
       <c r="Q91" s="13"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>671</v>
+      </c>
       <c r="B92" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D92" s="85">
-        <v>0.71063829787234001</v>
-      </c>
-      <c r="F92" s="97"/>
-      <c r="G92" s="97"/>
-      <c r="H92" s="97"/>
-      <c r="I92" s="97"/>
-      <c r="J92" s="97"/>
-      <c r="K92" s="97"/>
-      <c r="L92" s="97"/>
-      <c r="M92" s="97"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
+        <v>0.71689989235737295</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D93" s="85">
-        <v>0.70920502092050197</v>
-      </c>
-      <c r="F93" s="96"/>
-      <c r="G93" s="96"/>
-      <c r="H93" s="96"/>
-      <c r="I93" s="96"/>
-      <c r="J93" s="96"/>
-      <c r="K93" s="96"/>
-      <c r="L93" s="96"/>
-      <c r="M93" s="96"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
+        <v>0.72476089266737498</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D94" s="85">
-        <v>0.71445086705202299</v>
+        <v>0.72167216721672101</v>
       </c>
       <c r="F94" s="85"/>
       <c r="G94" s="85"/>
@@ -13371,33 +13273,62 @@
       <c r="M94" s="85"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
+      <c r="Q94" s="13"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="D95" s="85">
-        <v>0.70931537598204197</v>
-      </c>
+        <v>0.71063829787234001</v>
+      </c>
+      <c r="F95" s="97"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="97"/>
+      <c r="I95" s="97"/>
+      <c r="J95" s="97"/>
+      <c r="K95" s="97"/>
+      <c r="L95" s="97"/>
+      <c r="M95" s="97"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
-      <c r="J96" s="85"/>
-      <c r="K96" s="85"/>
-      <c r="L96" s="85"/>
-      <c r="M96" s="85"/>
-      <c r="O96" s="6"/>
+      <c r="B96" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D96" s="85">
+        <v>0.70920502092050197</v>
+      </c>
+      <c r="F96" s="96"/>
+      <c r="G96" s="96"/>
+      <c r="H96" s="96"/>
+      <c r="I96" s="96"/>
+      <c r="J96" s="96"/>
+      <c r="K96" s="96"/>
+      <c r="L96" s="96"/>
+      <c r="M96" s="96"/>
+      <c r="O96" s="10"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D97" s="85">
+        <v>0.71445086705202299</v>
+      </c>
       <c r="F97" s="85"/>
       <c r="G97" s="85"/>
       <c r="H97" s="85"/>
@@ -13411,29 +13342,26 @@
       <c r="Q97" s="6"/>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
-      <c r="I98" s="85"/>
-      <c r="J98" s="85"/>
-      <c r="K98" s="85"/>
-      <c r="L98" s="85"/>
-      <c r="M98" s="85"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
+      <c r="B98" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D98" s="85">
+        <v>0.70931537598204197</v>
+      </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D99" s="98">
-        <v>0.75986471251409204</v>
-      </c>
-      <c r="E99" s="98"/>
+      <c r="C99" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D99" s="91">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="E99" s="85">
+        <v>0.74518686296715697</v>
+      </c>
       <c r="F99" s="85"/>
       <c r="G99" s="85"/>
       <c r="H99" s="85"/>
@@ -13447,12 +13375,6 @@
       <c r="Q99" s="6"/>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D100" s="85">
-        <v>0.76179516685845705</v>
-      </c>
       <c r="F100" s="85"/>
       <c r="G100" s="85"/>
       <c r="H100" s="85"/>
@@ -13464,32 +13386,31 @@
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
-      <c r="AA100" s="6"/>
-      <c r="AB100" s="6"/>
-      <c r="AC100" s="6"/>
-      <c r="AD100" s="6"/>
-      <c r="AE100" s="6"/>
-      <c r="AF100" s="6"/>
-      <c r="AG100" s="6"/>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D101" s="85">
-        <v>0.76396807297605396</v>
-      </c>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="85"/>
+      <c r="M101" s="85"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D102" s="98">
+        <v>0.75986471251409204</v>
+      </c>
+      <c r="E102" s="98"/>
       <c r="F102" s="85"/>
       <c r="G102" s="85"/>
       <c r="H102" s="85"/>
@@ -13503,6 +13424,12 @@
       <c r="Q102" s="6"/>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D103" s="85">
+        <v>0.76179516685845705</v>
+      </c>
       <c r="F103" s="85"/>
       <c r="G103" s="85"/>
       <c r="H103" s="85"/>
@@ -13514,19 +13441,30 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
+      <c r="AF103" s="6"/>
+      <c r="AG103" s="6"/>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85"/>
-      <c r="K104" s="85"/>
-      <c r="L104" s="85"/>
-      <c r="M104" s="85"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
+      <c r="B104" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D104" s="85">
+        <v>0.76396807297605396</v>
+      </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F105" s="85"/>
@@ -13555,7 +13493,18 @@
       <c r="Q106" s="6"/>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B107"/>
+      <c r="A107" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D107" s="91">
+        <v>0.74082313681868694</v>
+      </c>
+      <c r="E107" s="91">
+        <v>0.74082313681868694</v>
+      </c>
       <c r="F107" s="85"/>
       <c r="G107" s="85"/>
       <c r="H107" s="85"/>
@@ -13568,137 +13517,27 @@
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
     </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C108" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D108" s="91">
+        <v>0.72553191489361701</v>
+      </c>
+      <c r="E108" s="91">
+        <v>0.73196986006458498</v>
+      </c>
+    </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D109" s="96"/>
-      <c r="E109" s="96"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="85"/>
-      <c r="I109" s="85"/>
-      <c r="J109" s="85"/>
-      <c r="K109" s="85"/>
-      <c r="L109" s="85"/>
-      <c r="M109" s="85"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F111" s="85"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="85"/>
-      <c r="I111" s="85"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="85"/>
-      <c r="M111" s="85"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-    </row>
-    <row r="113" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="85"/>
-      <c r="K113" s="85"/>
-      <c r="L113" s="85"/>
-      <c r="M113" s="85"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-    </row>
-    <row r="114" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F114" s="85"/>
-      <c r="G114" s="85"/>
-      <c r="H114" s="85"/>
-      <c r="I114" s="85"/>
-      <c r="J114" s="85"/>
-      <c r="K114" s="85"/>
-      <c r="L114" s="85"/>
-      <c r="M114" s="85"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-    </row>
-    <row r="115" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
-      <c r="M115" s="85"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-    </row>
-    <row r="116" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
-      <c r="M116" s="85"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-    </row>
-    <row r="117" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F117" s="99"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
-      <c r="M117" s="85"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-    </row>
-    <row r="118" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
-      <c r="M118" s="85"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-    </row>
-    <row r="120" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F120" s="99"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="85"/>
-      <c r="I120" s="85"/>
-      <c r="J120" s="85"/>
-      <c r="K120" s="85"/>
-      <c r="L120" s="85"/>
-      <c r="M120" s="85"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-    </row>
-    <row r="121" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
-      <c r="K121" s="85"/>
-      <c r="L121" s="85"/>
-      <c r="M121" s="85"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
+      <c r="C109" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D109" s="91">
+        <v>0.70253807106598898</v>
+      </c>
+      <c r="E109" s="91">
+        <v>0.72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13756,20 +13595,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>621</v>
       </c>
-      <c r="S3" s="101" t="s">
+      <c r="S3" s="100" t="s">
         <v>610</v>
       </c>
-      <c r="T3" s="102"/>
+      <c r="T3" s="101"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -13821,7 +13660,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="102" t="s">
         <v>579</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -13858,7 +13697,7 @@
       <c r="P5" t="s">
         <v>623</v>
       </c>
-      <c r="Q5" s="103" t="s">
+      <c r="Q5" s="102" t="s">
         <v>611</v>
       </c>
       <c r="R5" s="55" t="s">
@@ -13887,7 +13726,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="107"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="21" t="s">
         <v>581</v>
       </c>
@@ -13919,7 +13758,7 @@
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
-      <c r="Q6" s="104"/>
+      <c r="Q6" s="103"/>
       <c r="R6" s="56" t="s">
         <v>606</v>
       </c>
@@ -13946,7 +13785,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="107"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="21" t="s">
         <v>583</v>
       </c>
@@ -14009,7 +13848,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="104"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="22" t="s">
         <v>584</v>
       </c>
@@ -14193,12 +14032,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -14206,10 +14045,10 @@
       </c>
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
-      <c r="S13" s="105" t="s">
+      <c r="S13" s="104" t="s">
         <v>609</v>
       </c>
-      <c r="T13" s="106"/>
+      <c r="T13" s="105"/>
       <c r="U13" s="45"/>
       <c r="V13" s="46"/>
     </row>
@@ -14266,7 +14105,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="102" t="s">
         <v>591</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -14301,7 +14140,7 @@
         <f>J15/J19</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="Q15" s="103" t="s">
+      <c r="Q15" s="102" t="s">
         <v>591</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -14330,7 +14169,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="107"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="21" t="s">
         <v>587</v>
       </c>
@@ -14366,7 +14205,7 @@
         <f>J16/J19</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="Q16" s="104"/>
+      <c r="Q16" s="103"/>
       <c r="R16" s="30" t="s">
         <v>607</v>
       </c>
@@ -14393,7 +14232,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="107"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="21" t="s">
         <v>588</v>
       </c>
@@ -14460,7 +14299,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="104"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="22" t="s">
         <v>594</v>
       </c>
@@ -14625,8 +14464,8 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
     </row>
@@ -14657,12 +14496,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -14701,7 +14540,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="102" t="s">
         <v>579</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -14737,7 +14576,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="107"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="21" t="s">
         <v>581</v>
       </c>
@@ -14771,7 +14610,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="107"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="21" t="s">
         <v>583</v>
       </c>
@@ -14805,7 +14644,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="104"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="22" t="s">
         <v>584</v>
       </c>
@@ -14935,12 +14774,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="105" t="s">
+      <c r="F36" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -14977,7 +14816,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="102" t="s">
         <v>591</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -15013,7 +14852,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="107"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="21" t="s">
         <v>587</v>
       </c>
@@ -15050,7 +14889,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="107"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="21" t="s">
         <v>583</v>
       </c>
@@ -15087,7 +14926,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="104"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="22" t="s">
         <v>584</v>
       </c>
@@ -15222,12 +15061,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="105" t="s">
+      <c r="F48" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="106"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="105"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -15258,7 +15097,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="103" t="s">
+      <c r="D50" s="102" t="s">
         <v>579</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -15291,7 +15130,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="107"/>
+      <c r="D51" s="106"/>
       <c r="E51" s="21" t="s">
         <v>575</v>
       </c>
@@ -15322,7 +15161,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="107"/>
+      <c r="D52" s="106"/>
       <c r="E52" s="21" t="s">
         <v>576</v>
       </c>
@@ -15353,7 +15192,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="104"/>
+      <c r="D53" s="103"/>
       <c r="E53" s="22" t="s">
         <v>584</v>
       </c>
@@ -15470,12 +15309,12 @@
       <c r="N57" s="67"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="105" t="s">
+      <c r="F58" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="106"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="105"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -15506,7 +15345,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="103" t="s">
+      <c r="D60" s="102" t="s">
         <v>591</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -15539,7 +15378,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="107"/>
+      <c r="D61" s="106"/>
       <c r="E61" s="21" t="s">
         <v>575</v>
       </c>
@@ -15573,7 +15412,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="107"/>
+      <c r="D62" s="106"/>
       <c r="E62" s="21" t="s">
         <v>576</v>
       </c>
@@ -15607,7 +15446,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="104"/>
+      <c r="D63" s="103"/>
       <c r="E63" s="22" t="s">
         <v>584</v>
       </c>
@@ -15742,12 +15581,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="45"/>
-      <c r="F70" s="105" t="s">
+      <c r="F70" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G70" s="108"/>
-      <c r="H70" s="108"/>
-      <c r="I70" s="106"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="105"/>
       <c r="J70" s="45"/>
       <c r="M70" s="18"/>
     </row>
@@ -15778,7 +15617,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="103" t="s">
+      <c r="D72" s="102" t="s">
         <v>579</v>
       </c>
       <c r="E72" s="55" t="s">
@@ -15811,7 +15650,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="107"/>
+      <c r="D73" s="106"/>
       <c r="E73" s="73" t="s">
         <v>575</v>
       </c>
@@ -15842,7 +15681,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="107"/>
+      <c r="D74" s="106"/>
       <c r="E74" s="73" t="s">
         <v>576</v>
       </c>
@@ -15873,7 +15712,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="104"/>
+      <c r="D75" s="103"/>
       <c r="E75" s="56" t="s">
         <v>584</v>
       </c>
@@ -15989,12 +15828,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="45"/>
-      <c r="F80" s="105" t="s">
+      <c r="F80" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G80" s="108"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="106"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="105"/>
       <c r="J80" s="45"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -16026,7 +15865,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="103" t="s">
+      <c r="D82" s="102" t="s">
         <v>591</v>
       </c>
       <c r="E82" s="55" t="s">
@@ -16059,7 +15898,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="107"/>
+      <c r="D83" s="106"/>
       <c r="E83" s="73" t="s">
         <v>575</v>
       </c>
@@ -16093,7 +15932,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="107"/>
+      <c r="D84" s="106"/>
       <c r="E84" s="73" t="s">
         <v>576</v>
       </c>
@@ -16127,7 +15966,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="104"/>
+      <c r="D85" s="103"/>
       <c r="E85" s="56" t="s">
         <v>584</v>
       </c>
@@ -16258,12 +16097,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="45"/>
-      <c r="F90" s="105" t="s">
+      <c r="F90" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G90" s="108"/>
-      <c r="H90" s="108"/>
-      <c r="I90" s="106"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="107"/>
+      <c r="I90" s="105"/>
       <c r="J90" s="45"/>
       <c r="M90" s="18"/>
     </row>
@@ -16294,7 +16133,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="103" t="s">
+      <c r="D92" s="102" t="s">
         <v>579</v>
       </c>
       <c r="E92" s="55" t="s">
@@ -16327,7 +16166,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="107"/>
+      <c r="D93" s="106"/>
       <c r="E93" s="73" t="s">
         <v>575</v>
       </c>
@@ -16358,7 +16197,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="107"/>
+      <c r="D94" s="106"/>
       <c r="E94" s="73" t="s">
         <v>576</v>
       </c>
@@ -16389,7 +16228,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="104"/>
+      <c r="D95" s="103"/>
       <c r="E95" s="56" t="s">
         <v>584</v>
       </c>
@@ -16505,12 +16344,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="45"/>
-      <c r="F100" s="105" t="s">
+      <c r="F100" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G100" s="108"/>
-      <c r="H100" s="108"/>
-      <c r="I100" s="106"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="105"/>
       <c r="J100" s="45"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -16542,7 +16381,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="103" t="s">
+      <c r="D102" s="102" t="s">
         <v>591</v>
       </c>
       <c r="E102" s="55" t="s">
@@ -16575,7 +16414,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="107"/>
+      <c r="D103" s="106"/>
       <c r="E103" s="73" t="s">
         <v>575</v>
       </c>
@@ -16609,7 +16448,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="107"/>
+      <c r="D104" s="106"/>
       <c r="E104" s="73" t="s">
         <v>576</v>
       </c>
@@ -16643,7 +16482,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="104"/>
+      <c r="D105" s="103"/>
       <c r="E105" s="56" t="s">
         <v>584</v>
       </c>
@@ -16825,24 +16664,24 @@
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C3" s="45"/>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
       <c r="K3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="105" t="s">
+      <c r="R3" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="106"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="105"/>
       <c r="V3" s="45"/>
       <c r="W3" s="45"/>
       <c r="X3" s="45"/>
@@ -16898,7 +16737,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>579</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -16932,7 +16771,7 @@
         <f>H5/H9</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="P5" s="103" t="s">
+      <c r="P5" s="102" t="s">
         <v>579</v>
       </c>
       <c r="Q5" s="55" t="s">
@@ -16965,7 +16804,7 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="107"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="73" t="s">
         <v>575</v>
       </c>
@@ -16997,7 +16836,7 @@
         <f>H6/H9</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="P6" s="107"/>
+      <c r="P6" s="106"/>
       <c r="Q6" s="73" t="s">
         <v>575</v>
       </c>
@@ -17028,7 +16867,7 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="107"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="73" t="s">
         <v>576</v>
       </c>
@@ -17060,7 +16899,7 @@
         <f>H7/H9</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="P7" s="107"/>
+      <c r="P7" s="106"/>
       <c r="Q7" s="73" t="s">
         <v>576</v>
       </c>
@@ -17091,7 +16930,7 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="104"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="56" t="s">
         <v>577</v>
       </c>
@@ -17123,7 +16962,7 @@
         <f>H8/H9</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="P8" s="104"/>
+      <c r="P8" s="103"/>
       <c r="Q8" s="56" t="s">
         <v>577</v>
       </c>
@@ -17345,23 +17184,23 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C13" s="45"/>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="45"/>
-      <c r="R13" s="105" t="s">
+      <c r="R13" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="106"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="105"/>
       <c r="V13" s="45"/>
       <c r="W13" s="45"/>
       <c r="X13" s="45"/>
@@ -17420,7 +17259,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="102" t="s">
         <v>579</v>
       </c>
       <c r="C15" s="55" t="s">
@@ -17454,7 +17293,7 @@
       <c r="L15" s="92">
         <v>0.88</v>
       </c>
-      <c r="P15" s="103" t="s">
+      <c r="P15" s="102" t="s">
         <v>579</v>
       </c>
       <c r="Q15" s="55" t="s">
@@ -17487,7 +17326,7 @@
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="107"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="73" t="s">
         <v>575</v>
       </c>
@@ -17522,7 +17361,7 @@
       <c r="L16" s="92">
         <v>0.04</v>
       </c>
-      <c r="P16" s="107"/>
+      <c r="P16" s="106"/>
       <c r="Q16" s="73" t="s">
         <v>575</v>
       </c>
@@ -17556,7 +17395,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="107"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="73" t="s">
         <v>576</v>
       </c>
@@ -17591,7 +17430,7 @@
       <c r="L17" s="92">
         <v>0.04</v>
       </c>
-      <c r="P17" s="107"/>
+      <c r="P17" s="106"/>
       <c r="Q17" s="73" t="s">
         <v>576</v>
       </c>
@@ -17625,7 +17464,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="104"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="56" t="s">
         <v>577</v>
       </c>
@@ -17660,7 +17499,7 @@
       <c r="L18" s="92">
         <v>0.04</v>
       </c>
-      <c r="P18" s="104"/>
+      <c r="P18" s="103"/>
       <c r="Q18" s="56" t="s">
         <v>577</v>
       </c>
@@ -17979,12 +17818,12 @@
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="105" t="s">
+      <c r="R26" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="106"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="105"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
       <c r="X26" s="45"/>
@@ -18033,7 +17872,7 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P28" s="103" t="s">
+      <c r="P28" s="102" t="s">
         <v>579</v>
       </c>
       <c r="Q28" s="55" t="s">
@@ -18069,7 +17908,7 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P29" s="107"/>
+      <c r="P29" s="106"/>
       <c r="Q29" s="73" t="s">
         <v>575</v>
       </c>
@@ -18103,7 +17942,7 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P30" s="107"/>
+      <c r="P30" s="106"/>
       <c r="Q30" s="73" t="s">
         <v>576</v>
       </c>
@@ -18137,7 +17976,7 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P31" s="104"/>
+      <c r="P31" s="103"/>
       <c r="Q31" s="56" t="s">
         <v>577</v>
       </c>
@@ -18274,12 +18113,12 @@
     <row r="36" spans="16:28" x14ac:dyDescent="0.2">
       <c r="P36" s="18"/>
       <c r="Q36" s="45"/>
-      <c r="R36" s="105" t="s">
+      <c r="R36" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="S36" s="108"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="106"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="105"/>
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
       <c r="X36" s="45"/>
@@ -18313,7 +18152,7 @@
       </c>
     </row>
     <row r="38" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P38" s="103" t="s">
+      <c r="P38" s="102" t="s">
         <v>579</v>
       </c>
       <c r="Q38" s="55" t="s">
@@ -18349,7 +18188,7 @@
       </c>
     </row>
     <row r="39" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P39" s="107"/>
+      <c r="P39" s="106"/>
       <c r="Q39" s="73" t="s">
         <v>575</v>
       </c>
@@ -18386,7 +18225,7 @@
       </c>
     </row>
     <row r="40" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P40" s="107"/>
+      <c r="P40" s="106"/>
       <c r="Q40" s="73" t="s">
         <v>576</v>
       </c>
@@ -18423,7 +18262,7 @@
       </c>
     </row>
     <row r="41" spans="16:28" x14ac:dyDescent="0.2">
-      <c r="P41" s="104"/>
+      <c r="P41" s="103"/>
       <c r="Q41" s="56" t="s">
         <v>577</v>
       </c>

--- a/experiment_record.xlsx
+++ b/experiment_record.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="520" windowWidth="24240" windowHeight="13860" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1140" yWindow="1100" windowWidth="24240" windowHeight="13860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SemEval2018_Task3_A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="818">
   <si>
     <t>f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2228,17 +2228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>main93_onlya_ek_1546866827</t>
-  </si>
-  <si>
-    <t>ONLY A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-way GRU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main93_v2_ek_1546866423</t>
   </si>
   <si>
@@ -2649,21 +2638,9 @@
     <t>m93_gru_ek_1547367650</t>
   </si>
   <si>
-    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.95, metric=precision</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_gru_ek_1547368928</t>
   </si>
   <si>
-    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=1., metric=precision</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.9, metric=precision</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnna_ek_1547369719</t>
   </si>
   <si>
@@ -2681,10 +2658,6 @@
     <t>m93_gru_ek_1547371075</t>
   </si>
   <si>
-    <t>rnn=64, attention=32, dropout=0.5, batch_size=100, lr=(0.05, 0.95), input_keep=0.9, metric=precision</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m93_cnnatt_ek_1547373762</t>
   </si>
   <si>
@@ -2702,6 +2675,92 @@
   </si>
   <si>
     <t>m93_cnnatt0_ek_1547375343</t>
+  </si>
+  <si>
+    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), tid_keep=1., metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), tid_keep=0.95, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnn=50, attention=50, dropout=0.5, batch_size=100, lr=(0.05, 0.95), tid_keep=0.9, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnn=64, attention=32, dropout=0.5, batch_size=100, lr=(0.05, 0.95), tid_keep=0.9, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547455845</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.4, batch_size=100, dropout=0.5, metric=precision, tid_keep=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.2, batch_size=100, dropout=0.5, metric=precision, tid_keep=0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547456098</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547456275</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.95), l2=0.4, batch_size=100, dropout=0.5, metric=precision, tid_keep=0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547456761</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.001, 0.95), l2=0.4, batch_size=100, dropout=0.5, metric=precision, no grad_clip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547457088</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.001, 0.95), l2=0.4, batch_size=100, dropout=0.5, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.005, 0.9, 2), l2=0.4, batch_size=100, dropout=0.5, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547457539</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547457758</t>
+  </si>
+  <si>
+    <t>cnn=[(3, 64)], lr=(0.001, 0.9, 4), l2=0.4, batch_size=100, dropout=0.5, metric=precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547458058</t>
+  </si>
+  <si>
+    <t>m93_cnn_ek_1547457293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_crnn_ek_1547472065</t>
+  </si>
+  <si>
+    <t>CNN-&gt;RNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m93_gru_ek_1547472338</t>
+  </si>
+  <si>
+    <t>dropout added at last</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2712,7 +2771,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2830,6 +2889,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3120,7 +3188,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3383,15 +3451,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3409,6 +3468,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -3819,24 +3911,24 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99" t="s">
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106" t="s">
         <v>546</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99" t="s">
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8315,18 +8407,18 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99" t="s">
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
       <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
@@ -10701,10 +10793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG109"/>
+  <dimension ref="A1:AG115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10741,20 +10833,20 @@
         <v>4</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>779</v>
-      </c>
-      <c r="F1" s="99" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99" t="s">
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106" t="s">
         <v>546</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
       <c r="O1" s="14"/>
       <c r="P1" s="16" t="s">
         <v>7</v>
@@ -10786,10 +10878,10 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="85" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F2" s="85" t="s">
         <v>1</v>
@@ -10820,17 +10912,17 @@
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="R2" s="5">
         <v>2</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -10890,10 +10982,10 @@
         <v>36969</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -10950,13 +11042,13 @@
         <v>105</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -11007,17 +11099,17 @@
         <v>4</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="R5" s="5">
         <v>11</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -11068,7 +11160,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="R6" s="5">
         <v>26</v>
@@ -11077,10 +11169,10 @@
         <v>37030</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -11141,7 +11233,7 @@
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -11156,7 +11248,7 @@
         <v>7</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="R8" s="5">
         <v>33</v>
@@ -11166,7 +11258,7 @@
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -11227,7 +11319,7 @@
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -11278,19 +11370,19 @@
         <v>9</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="R10" s="5">
         <v>35</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -11311,7 +11403,7 @@
         <v>10</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="R11" s="5">
         <v>38</v>
@@ -11321,7 +11413,7 @@
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -11348,7 +11440,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="R12" s="5">
         <v>64</v>
@@ -11358,7 +11450,7 @@
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -11409,17 +11501,17 @@
         <v>12</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="R13" s="5">
         <v>103</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
@@ -11467,7 +11559,7 @@
         <v>13</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="R14" s="5">
         <v>51</v>
@@ -11476,10 +11568,10 @@
         <v>37000</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
@@ -11494,17 +11586,17 @@
         <v>14</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="R15" s="5">
         <v>7</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
@@ -11531,19 +11623,19 @@
         <v>15</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="R16" s="5">
         <v>31</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -11941,10 +12033,10 @@
         <v>632</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D29" s="85">
         <v>0.69269269269269196</v>
@@ -11964,7 +12056,7 @@
         <v>632</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D30" s="85">
         <v>0.70304302203567604</v>
@@ -12017,10 +12109,10 @@
         <v>632</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D32" s="91">
         <v>0.72340425531914898</v>
@@ -12051,10 +12143,10 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D33" s="91">
         <v>0.72307692307692295</v>
@@ -12082,10 +12174,10 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D34" s="91">
         <v>0.72766884531590403</v>
@@ -12106,10 +12198,10 @@
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D35" s="91">
         <v>0.72312703583061799</v>
@@ -12128,6 +12220,18 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D36" s="99">
+        <v>0.72604284103720396</v>
+      </c>
+      <c r="E36" s="99">
+        <v>0.72604284103720396</v>
+      </c>
       <c r="F36" s="85"/>
       <c r="G36" s="85"/>
       <c r="H36" s="85"/>
@@ -12172,18 +12276,8 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D38" s="85">
-        <v>0.68678459937564995</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
       <c r="F38" s="85"/>
       <c r="G38" s="85"/>
       <c r="H38" s="85"/>
@@ -12220,13 +12314,13 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D40" s="85">
         <v>0.66915191053122003</v>
@@ -12245,10 +12339,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D41" s="85">
         <v>0.67109004739336398</v>
@@ -12267,10 +12361,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D42" s="85">
         <v>0.71773347324239201</v>
@@ -12278,10 +12372,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D43" s="85">
         <v>0.72607260726072598</v>
@@ -12300,10 +12394,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D44" s="85">
         <v>0.68426197458455496</v>
@@ -12311,10 +12405,10 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D45" s="85">
         <v>0.71817192600652802</v>
@@ -12333,10 +12427,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D46" s="96">
         <v>0.74479737130339496</v>
@@ -12356,10 +12450,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D47" s="85">
         <v>0.72120559741657697</v>
@@ -12378,10 +12472,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D48" s="85">
         <v>0.72198275862068895</v>
@@ -12400,10 +12494,10 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D49" s="85">
         <v>0.72513368983957205</v>
@@ -12422,10 +12516,10 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D50" s="96">
         <v>0.74802259887005595</v>
@@ -12458,10 +12552,10 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D51" s="96">
         <v>0.74776785714285698</v>
@@ -12497,10 +12591,10 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D52" s="85">
         <v>0.72392638036809798</v>
@@ -12535,10 +12629,10 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D53" s="85">
         <v>0.73907910271546595</v>
@@ -12573,10 +12667,10 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D54" s="96">
         <v>0.74402730375426596</v>
@@ -12612,10 +12706,10 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D55" s="96">
         <v>0.76359338061465698</v>
@@ -12651,10 +12745,10 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D56" s="85">
         <v>0.74418604651162801</v>
@@ -12691,10 +12785,10 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D59" s="85">
         <v>0.73535791757049895</v>
@@ -12726,10 +12820,10 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D60" s="85">
         <v>0.72747014115092201</v>
@@ -12764,10 +12858,10 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D61" s="85">
         <v>0.74564459930313598</v>
@@ -12802,10 +12896,10 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D62" s="85">
         <v>0.72815533980582503</v>
@@ -12853,10 +12947,10 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D64" s="85">
         <v>0.74640088593576903</v>
@@ -12875,10 +12969,10 @@
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D65" s="85">
         <v>0.75278396436525596</v>
@@ -12897,10 +12991,10 @@
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D66" s="85">
         <v>0.72025723472668801</v>
@@ -12919,10 +13013,10 @@
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D67" s="85">
         <v>0.75196408529741798</v>
@@ -12941,7 +13035,7 @@
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D68" s="85">
         <v>0.74238875878220101</v>
@@ -12970,10 +13064,10 @@
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D70" s="85">
         <v>0.73913043478260798</v>
@@ -12984,10 +13078,10 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D71" s="85">
         <v>0.73765093304061402</v>
@@ -12998,10 +13092,10 @@
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D72" s="85">
         <v>0.74944071588366901</v>
@@ -13012,10 +13106,10 @@
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D73" s="85">
         <v>0.75084554678692195</v>
@@ -13037,7 +13131,7 @@
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D74" s="91">
         <v>0.74350282485875696</v>
@@ -13045,50 +13139,52 @@
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D75" s="91">
         <v>0.74643249176728799</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
-      <c r="M76" s="85"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
+      <c r="B76" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D76" s="99">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="E76" s="99">
+        <v>0.74865156418554402</v>
+      </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
-      <c r="M77" s="85"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D77" s="99">
+        <v>0.74398249452954002</v>
+      </c>
+      <c r="E77" s="99">
+        <v>0.74535519125683003</v>
+      </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="D78" s="91">
-        <v>0.73144104803493404</v>
-      </c>
-      <c r="E78" s="91">
-        <v>0.74754098360655696</v>
+        <v>802</v>
+      </c>
+      <c r="D78" s="99">
+        <v>0.72502805836139095</v>
+      </c>
+      <c r="E78" s="99">
+        <v>0.74152542372881303</v>
       </c>
       <c r="F78" s="85"/>
       <c r="G78" s="85"/>
@@ -13103,18 +13199,8 @@
       <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D79" s="91">
-        <v>0.740245261984392</v>
-      </c>
-      <c r="E79" s="91">
-        <v>0.75609756097560898</v>
-      </c>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
       <c r="F79" s="85"/>
       <c r="G79" s="85"/>
       <c r="H79" s="85"/>
@@ -13129,21 +13215,42 @@
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="D80" s="91">
-        <v>0.73720930232558102</v>
-      </c>
-      <c r="E80" s="91">
-        <v>0.74915635545556802</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="D80" s="99">
+        <v>0.736275565123789</v>
+      </c>
+      <c r="E80" s="99">
+        <v>0.73672806067172203</v>
+      </c>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="85"/>
+      <c r="K80" s="85"/>
+      <c r="L80" s="85"/>
+      <c r="M80" s="85"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D81" s="99">
+        <v>0.73456121343445202</v>
+      </c>
+      <c r="E81" s="99">
+        <v>0.73456121343445202</v>
+      </c>
       <c r="F81" s="85"/>
       <c r="G81" s="85"/>
       <c r="H81" s="85"/>
@@ -13157,50 +13264,98 @@
       <c r="Q81" s="6"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
+      <c r="B82" s="84" t="s">
+        <v>808</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D82" s="99">
+        <v>0.75083798882681496</v>
+      </c>
+      <c r="E82" s="99">
+        <v>0.75555555555555498</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D83" s="99">
+        <v>0.75198187995469901</v>
+      </c>
+      <c r="E83" s="99">
+        <v>0.75545350172215797</v>
+      </c>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="85"/>
+      <c r="M83" s="85"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D84" s="99">
+        <v>0.74423710208561999</v>
+      </c>
+      <c r="E84" s="99">
+        <v>0.74423710208561999</v>
+      </c>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
+      <c r="M84" s="85"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D85" s="99">
+        <v>0.74800456100342005</v>
+      </c>
+      <c r="E85" s="99">
+        <v>0.75115207373271797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B89"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
       <c r="F89" s="85"/>
       <c r="G89" s="85"/>
       <c r="H89" s="85"/>
@@ -13213,9 +13368,44 @@
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
     </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D90" s="99">
+        <v>0.73144104803493404</v>
+      </c>
+      <c r="E90" s="99">
+        <v>0.74754098360655696</v>
+      </c>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+    </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D91" s="96"/>
-      <c r="E91" s="96"/>
+      <c r="B91" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D91" s="99">
+        <v>0.740245261984392</v>
+      </c>
+      <c r="E91" s="99">
+        <v>0.75609756097560898</v>
+      </c>
       <c r="F91" s="85"/>
       <c r="G91" s="85"/>
       <c r="H91" s="85"/>
@@ -13226,117 +13416,102 @@
       <c r="M91" s="85"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
-      <c r="Q91" s="13"/>
+      <c r="Q91" s="6"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>671</v>
-      </c>
       <c r="B92" s="3" t="s">
-        <v>690</v>
+        <v>786</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="D92" s="85">
+        <v>790</v>
+      </c>
+      <c r="D92" s="99">
+        <v>0.73720930232558102</v>
+      </c>
+      <c r="E92" s="99">
+        <v>0.74915635545556802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D93" s="96"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D94" s="85">
         <v>0.71689989235737295</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D93" s="85">
-        <v>0.72476089266737498</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B94" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D94" s="85">
-        <v>0.72167216721672101</v>
-      </c>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="13"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D95" s="85">
-        <v>0.71063829787234001</v>
-      </c>
-      <c r="F95" s="97"/>
-      <c r="G95" s="97"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="97"/>
-      <c r="J95" s="97"/>
-      <c r="K95" s="97"/>
-      <c r="L95" s="97"/>
-      <c r="M95" s="97"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
+        <v>0.72476089266737498</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D96" s="85">
-        <v>0.70920502092050197</v>
-      </c>
-      <c r="F96" s="96"/>
-      <c r="G96" s="96"/>
-      <c r="H96" s="96"/>
-      <c r="I96" s="96"/>
-      <c r="J96" s="96"/>
-      <c r="K96" s="96"/>
-      <c r="L96" s="96"/>
-      <c r="M96" s="96"/>
-      <c r="O96" s="10"/>
+        <v>0.72167216721672101</v>
+      </c>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85"/>
+      <c r="L96" s="85"/>
+      <c r="M96" s="85"/>
+      <c r="O96" s="6"/>
       <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
+      <c r="Q96" s="13"/>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D97" s="85">
-        <v>0.71445086705202299</v>
-      </c>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="85"/>
-      <c r="K97" s="85"/>
-      <c r="L97" s="85"/>
-      <c r="M97" s="85"/>
+        <v>0.71063829787234001</v>
+      </c>
+      <c r="F97" s="97"/>
+      <c r="G97" s="97"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="97"/>
+      <c r="J97" s="97"/>
+      <c r="K97" s="97"/>
+      <c r="L97" s="97"/>
+      <c r="M97" s="97"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -13346,21 +13521,32 @@
         <v>685</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="D98" s="85">
-        <v>0.70931537598204197</v>
-      </c>
+        <v>0.70920502092050197</v>
+      </c>
+      <c r="F98" s="96"/>
+      <c r="G98" s="96"/>
+      <c r="H98" s="96"/>
+      <c r="I98" s="96"/>
+      <c r="J98" s="96"/>
+      <c r="K98" s="96"/>
+      <c r="L98" s="96"/>
+      <c r="M98" s="96"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="C99" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="D99" s="91">
-        <v>0.72916666666666596</v>
-      </c>
-      <c r="E99" s="85">
-        <v>0.74518686296715697</v>
+        <v>681</v>
+      </c>
+      <c r="D99" s="85">
+        <v>0.71445086705202299</v>
       </c>
       <c r="F99" s="85"/>
       <c r="G99" s="85"/>
@@ -13375,19 +13561,26 @@
       <c r="Q99" s="6"/>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
+      <c r="B100" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D100" s="85">
+        <v>0.70931537598204197</v>
+      </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C101" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D101" s="91">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="E101" s="85">
+        <v>0.74518686296715697</v>
+      </c>
       <c r="F101" s="85"/>
       <c r="G101" s="85"/>
       <c r="H101" s="85"/>
@@ -13401,16 +13594,6 @@
       <c r="Q101" s="6"/>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D102" s="98">
-        <v>0.75986471251409204</v>
-      </c>
-      <c r="E102" s="98"/>
       <c r="F102" s="85"/>
       <c r="G102" s="85"/>
       <c r="H102" s="85"/>
@@ -13424,12 +13607,6 @@
       <c r="Q102" s="6"/>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D103" s="85">
-        <v>0.76179516685845705</v>
-      </c>
       <c r="F103" s="85"/>
       <c r="G103" s="85"/>
       <c r="H103" s="85"/>
@@ -13441,32 +13618,37 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
-      <c r="X103" s="6"/>
-      <c r="Y103" s="6"/>
-      <c r="Z103" s="6"/>
-      <c r="AA103" s="6"/>
-      <c r="AB103" s="6"/>
-      <c r="AC103" s="6"/>
-      <c r="AD103" s="6"/>
-      <c r="AE103" s="6"/>
-      <c r="AF103" s="6"/>
-      <c r="AG103" s="6"/>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>738</v>
+      </c>
       <c r="B104" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D104" s="85">
-        <v>0.76396807297605396</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="D104" s="98">
+        <v>0.75986471251409204</v>
+      </c>
+      <c r="E104" s="98"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="85"/>
+      <c r="L104" s="85"/>
+      <c r="M104" s="85"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D105" s="85">
+        <v>0.76179516685845705</v>
+      </c>
       <c r="F105" s="85"/>
       <c r="G105" s="85"/>
       <c r="H105" s="85"/>
@@ -13478,33 +13660,32 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="6"/>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="K106" s="85"/>
-      <c r="L106" s="85"/>
-      <c r="M106" s="85"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
+      <c r="B106" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D106" s="85">
+        <v>0.76396807297605396</v>
+      </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="D107" s="91">
-        <v>0.74082313681868694</v>
-      </c>
-      <c r="E107" s="91">
-        <v>0.74082313681868694</v>
-      </c>
       <c r="F107" s="85"/>
       <c r="G107" s="85"/>
       <c r="H107" s="85"/>
@@ -13518,25 +13699,77 @@
       <c r="Q107" s="6"/>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="C108" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D108" s="91">
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D109" s="91">
+        <v>0.74082313681868694</v>
+      </c>
+      <c r="E109" s="91">
+        <v>0.74082313681868694</v>
+      </c>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="85"/>
+      <c r="J109" s="85"/>
+      <c r="K109" s="85"/>
+      <c r="L109" s="85"/>
+      <c r="M109" s="85"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D110" s="91">
         <v>0.72553191489361701</v>
       </c>
-      <c r="E108" s="91">
+      <c r="E110" s="91">
         <v>0.73196986006458498</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="C109" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="D109" s="91">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C111" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D111" s="91">
         <v>0.70253807106598898</v>
       </c>
-      <c r="E109" s="91">
+      <c r="E111" s="91">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D115" s="99">
+        <v>0.55238095238095197</v>
+      </c>
+      <c r="E115" s="99">
+        <v>0.56603773584905603</v>
       </c>
     </row>
   </sheetData>
@@ -13554,8 +13787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13595,20 +13828,20 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="105"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="18"/>
       <c r="P3" t="s">
         <v>621</v>
       </c>
-      <c r="S3" s="100" t="s">
+      <c r="S3" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="T3" s="101"/>
+      <c r="T3" s="114"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
@@ -13660,7 +13893,7 @@
         <v>0.921385941644562</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -13697,7 +13930,7 @@
       <c r="P5" t="s">
         <v>623</v>
       </c>
-      <c r="Q5" s="102" t="s">
+      <c r="Q5" s="110" t="s">
         <v>611</v>
       </c>
       <c r="R5" s="55" t="s">
@@ -13726,7 +13959,7 @@
         <v>0.94418879831711799</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="106"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="21" t="s">
         <v>581</v>
       </c>
@@ -13758,7 +13991,7 @@
         <f>J6/J9</f>
         <v>0.13655913978494624</v>
       </c>
-      <c r="Q6" s="103"/>
+      <c r="Q6" s="112"/>
       <c r="R6" s="56" t="s">
         <v>606</v>
       </c>
@@ -13785,7 +14018,7 @@
         <v>0.88627668764654999</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="106"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="21" t="s">
         <v>583</v>
       </c>
@@ -13848,7 +14081,7 @@
         <v>0.91431663377681505</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="103"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="22" t="s">
         <v>584</v>
       </c>
@@ -14032,12 +14265,12 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="107" t="s">
         <v>585</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="105"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
       <c r="P13" t="s">
@@ -14045,10 +14278,10 @@
       </c>
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
-      <c r="S13" s="104" t="s">
+      <c r="S13" s="107" t="s">
         <v>609</v>
       </c>
-      <c r="T13" s="105"/>
+      <c r="T13" s="109"/>
       <c r="U13" s="45"/>
       <c r="V13" s="46"/>
     </row>
@@ -14105,7 +14338,7 @@
         <v>0.87332123411978202</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="110" t="s">
         <v>591</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -14140,7 +14373,7 @@
         <f>J15/J19</f>
         <v>0.76479128856624323</v>
       </c>
-      <c r="Q15" s="102" t="s">
+      <c r="Q15" s="110" t="s">
         <v>591</v>
       </c>
       <c r="R15" s="29" t="s">
@@ -14169,7 +14402,7 @@
         <v>0.84172661870503596</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="106"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="21" t="s">
         <v>587</v>
       </c>
@@ -14205,7 +14438,7 @@
         <f>J16/J19</f>
         <v>6.7150635208711437E-2</v>
       </c>
-      <c r="Q16" s="103"/>
+      <c r="Q16" s="112"/>
       <c r="R16" s="30" t="s">
         <v>607</v>
       </c>
@@ -14232,7 +14465,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="106"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="21" t="s">
         <v>588</v>
       </c>
@@ -14299,7 +14532,7 @@
         <v>0.65915492957746402</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="103"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="22" t="s">
         <v>594</v>
       </c>
@@ -14464,8 +14697,8 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
     </row>
@@ -14496,12 +14729,12 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="105"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
       <c r="J26" s="18"/>
       <c r="M26" s="18"/>
     </row>
@@ -14540,7 +14773,7 @@
       <c r="A28" s="17"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E28" s="20" t="s">
@@ -14576,7 +14809,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="24"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="106"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="21" t="s">
         <v>581</v>
       </c>
@@ -14610,7 +14843,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="106"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="21" t="s">
         <v>583</v>
       </c>
@@ -14644,7 +14877,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="103"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="22" t="s">
         <v>584</v>
       </c>
@@ -14774,12 +15007,12 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="F36" s="104" t="s">
+      <c r="F36" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="105"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
@@ -14816,7 +15049,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="102" t="s">
+      <c r="D38" s="110" t="s">
         <v>591</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -14852,7 +15085,7 @@
       <c r="A39" s="17"/>
       <c r="B39" s="24"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="106"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="21" t="s">
         <v>587</v>
       </c>
@@ -14889,7 +15122,7 @@
       <c r="A40" s="17"/>
       <c r="B40" s="24"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="106"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="21" t="s">
         <v>583</v>
       </c>
@@ -14926,7 +15159,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="103"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="22" t="s">
         <v>584</v>
       </c>
@@ -15061,12 +15294,12 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="104" t="s">
+      <c r="F48" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="105"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="109"/>
       <c r="J48" s="18"/>
       <c r="M48" s="18"/>
     </row>
@@ -15097,7 +15330,7 @@
       <c r="M49" s="18"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -15130,7 +15363,7 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="106"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="21" t="s">
         <v>575</v>
       </c>
@@ -15161,7 +15394,7 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="106"/>
+      <c r="D52" s="111"/>
       <c r="E52" s="21" t="s">
         <v>576</v>
       </c>
@@ -15192,7 +15425,7 @@
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="103"/>
+      <c r="D53" s="112"/>
       <c r="E53" s="22" t="s">
         <v>584</v>
       </c>
@@ -15309,12 +15542,12 @@
       <c r="N57" s="67"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F58" s="104" t="s">
+      <c r="F58" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="105"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="109"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D59" s="18"/>
@@ -15345,7 +15578,7 @@
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D60" s="102" t="s">
+      <c r="D60" s="110" t="s">
         <v>591</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -15378,7 +15611,7 @@
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D61" s="106"/>
+      <c r="D61" s="111"/>
       <c r="E61" s="21" t="s">
         <v>575</v>
       </c>
@@ -15412,7 +15645,7 @@
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D62" s="106"/>
+      <c r="D62" s="111"/>
       <c r="E62" s="21" t="s">
         <v>576</v>
       </c>
@@ -15446,7 +15679,7 @@
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D63" s="103"/>
+      <c r="D63" s="112"/>
       <c r="E63" s="22" t="s">
         <v>584</v>
       </c>
@@ -15581,12 +15814,12 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D70" s="18"/>
       <c r="E70" s="45"/>
-      <c r="F70" s="104" t="s">
+      <c r="F70" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G70" s="107"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="105"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="109"/>
       <c r="J70" s="45"/>
       <c r="M70" s="18"/>
     </row>
@@ -15617,7 +15850,7 @@
       <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="102" t="s">
+      <c r="D72" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E72" s="55" t="s">
@@ -15650,7 +15883,7 @@
       <c r="M72" s="18"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D73" s="106"/>
+      <c r="D73" s="111"/>
       <c r="E73" s="73" t="s">
         <v>575</v>
       </c>
@@ -15681,7 +15914,7 @@
       <c r="M73" s="18"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D74" s="106"/>
+      <c r="D74" s="111"/>
       <c r="E74" s="73" t="s">
         <v>576</v>
       </c>
@@ -15712,7 +15945,7 @@
       <c r="M74" s="18"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D75" s="103"/>
+      <c r="D75" s="112"/>
       <c r="E75" s="56" t="s">
         <v>584</v>
       </c>
@@ -15828,12 +16061,12 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E80" s="45"/>
-      <c r="F80" s="104" t="s">
+      <c r="F80" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="105"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="109"/>
       <c r="J80" s="45"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -15865,7 +16098,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D82" s="102" t="s">
+      <c r="D82" s="110" t="s">
         <v>591</v>
       </c>
       <c r="E82" s="55" t="s">
@@ -15898,7 +16131,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D83" s="106"/>
+      <c r="D83" s="111"/>
       <c r="E83" s="73" t="s">
         <v>575</v>
       </c>
@@ -15932,7 +16165,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D84" s="106"/>
+      <c r="D84" s="111"/>
       <c r="E84" s="73" t="s">
         <v>576</v>
       </c>
@@ -15966,7 +16199,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D85" s="103"/>
+      <c r="D85" s="112"/>
       <c r="E85" s="56" t="s">
         <v>584</v>
       </c>
@@ -16097,12 +16330,12 @@
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="45"/>
-      <c r="F90" s="104" t="s">
+      <c r="F90" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G90" s="107"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="105"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="108"/>
+      <c r="I90" s="109"/>
       <c r="J90" s="45"/>
       <c r="M90" s="18"/>
     </row>
@@ -16133,7 +16366,7 @@
       <c r="M91" s="18"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D92" s="102" t="s">
+      <c r="D92" s="110" t="s">
         <v>579</v>
       </c>
       <c r="E92" s="55" t="s">
@@ -16166,7 +16399,7 @@
       <c r="M92" s="18"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D93" s="106"/>
+      <c r="D93" s="111"/>
       <c r="E93" s="73" t="s">
         <v>575</v>
       </c>
@@ -16197,7 +16430,7 @@
       <c r="M93" s="18"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D94" s="106"/>
+      <c r="D94" s="111"/>
       <c r="E94" s="73" t="s">
         <v>576</v>
       </c>
@@ -16228,7 +16461,7 @@
       <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D95" s="103"/>
+      <c r="D95" s="112"/>
       <c r="E95" s="56" t="s">
         <v>584</v>
       </c>
@@ -16344,12 +16577,12 @@
     </row>
     <row r="100" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E100" s="45"/>
-      <c r="F100" s="104" t="s">
+      <c r="F100" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="G100" s="107"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="105"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="109"/>
       <c r="J100" s="45"/>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.2">
@@ -16381,7 +16614,7 @@
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D102" s="102" t="s">
+      <c r="D102" s="110" t="s">
         <v>591</v>
       </c>
       <c r="E102" s="55" t="s">
@@ -16414,7 +16647,7 @@
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D103" s="106"/>
+      <c r="D103" s="111"/>
       <c r="E103" s="73" t="s">
         <v>575</v>
       </c>
@@ -16448,7 +16681,7 @@
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D104" s="106"/>
+      <c r="D104" s="111"/>
       <c r="E104" s="73" t="s">
         <v>576</v>
       </c>
@@ -16482,7 +16715,7 @@
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D105" s="103"/>
+      <c r="D105" s="112"/>
       <c r="E105" s="56" t="s">
         <v>584</v>
       </c>
@@ -16592,18 +16825,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F70:I70"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="S13:T13"/>
@@ -16617,6 +16838,18 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="D92:D95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16627,8 +16860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="L25" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28:U31"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16650,7 +16883,7 @@
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -16659,29 +16892,29 @@
       <c r="I2" s="45"/>
       <c r="J2" s="45"/>
       <c r="P2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C3" s="45"/>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="105"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
       <c r="K3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="45"/>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="105"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="109"/>
       <c r="V3" s="45"/>
       <c r="W3" s="45"/>
       <c r="X3" s="45"/>
@@ -16737,7 +16970,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="110" t="s">
         <v>579</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -16771,7 +17004,7 @@
         <f>H5/H9</f>
         <v>0.49561629706034038</v>
       </c>
-      <c r="P5" s="102" t="s">
+      <c r="P5" s="110" t="s">
         <v>579</v>
       </c>
       <c r="Q5" s="55" t="s">
@@ -16804,7 +17037,7 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="106"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="73" t="s">
         <v>575</v>
       </c>
@@ -16836,7 +17069,7 @@
         <f>H6/H9</f>
         <v>0.14068371030722759</v>
       </c>
-      <c r="P6" s="106"/>
+      <c r="P6" s="111"/>
       <c r="Q6" s="73" t="s">
         <v>575</v>
       </c>
@@ -16867,7 +17100,7 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="73" t="s">
         <v>576</v>
       </c>
@@ -16899,7 +17132,7 @@
         <f>H7/H9</f>
         <v>0.18113165843954909</v>
       </c>
-      <c r="P7" s="106"/>
+      <c r="P7" s="111"/>
       <c r="Q7" s="73" t="s">
         <v>576</v>
       </c>
@@ -16930,7 +17163,7 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="56" t="s">
         <v>577</v>
       </c>
@@ -16962,7 +17195,7 @@
         <f>H8/H9</f>
         <v>0.18256833419288293</v>
       </c>
-      <c r="P8" s="103"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="56" t="s">
         <v>577</v>
       </c>
@@ -17184,23 +17417,23 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C13" s="45"/>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="105"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="45"/>
-      <c r="R13" s="104" t="s">
+      <c r="R13" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="105"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="109"/>
       <c r="V13" s="45"/>
       <c r="W13" s="45"/>
       <c r="X13" s="45"/>
@@ -17259,7 +17492,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="110" t="s">
         <v>579</v>
       </c>
       <c r="C15" s="55" t="s">
@@ -17293,7 +17526,7 @@
       <c r="L15" s="92">
         <v>0.88</v>
       </c>
-      <c r="P15" s="102" t="s">
+      <c r="P15" s="110" t="s">
         <v>579</v>
       </c>
       <c r="Q15" s="55" t="s">
@@ -17326,7 +17559,7 @@
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="73" t="s">
         <v>575</v>
       </c>
@@ -17361,7 +17594,7 @@
       <c r="L16" s="92">
         <v>0.04</v>
       </c>
-      <c r="P16" s="106"/>
+      <c r="P16" s="111"/>
       <c r="Q16" s="73" t="s">
         <v>575</v>
       </c>
@@ -17395,7 +17628,7 @@
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="73" t="s">
         <v>576</v>
       </c>
@@ -17430,7 +17663,7 @@
       <c r="L17" s="92">
         <v>0.04</v>
       </c>
-      <c r="P17" s="106"/>
+      <c r="P17" s="111"/>
       <c r="Q17" s="73" t="s">
         <v>576</v>
       </c>
@@ -17464,7 +17697,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="56" t="s">
         <v>577</v>
       </c>
@@ -17499,7 +17732,7 @@
       <c r="L18" s="92">
         <v>0.04</v>
       </c>
-      <c r="P18" s="103"/>
+      <c r="P18" s="112"/>
       <c r="Q18" s="56" t="s">
         <v>577</v>
       </c>
@@ -17685,166 +17918,138 @@
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="18">
-        <f>L15/K5</f>
-        <v>1.7755671175858481</v>
-      </c>
-      <c r="D22" s="18">
-        <f>D5*B22</f>
-        <v>22455.597336108221</v>
-      </c>
-      <c r="E22" s="18">
-        <f>E5*B22</f>
-        <v>562.8547762747138</v>
-      </c>
-      <c r="F22" s="18">
-        <f>F5*B22</f>
-        <v>367.54239334027056</v>
-      </c>
-      <c r="G22" s="18">
-        <f>G5*B22</f>
-        <v>502.48549427679501</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="18">
-        <f t="shared" ref="B23:B25" si="0">L16/K6</f>
-        <v>0.28432573972244041</v>
-      </c>
-      <c r="D23" s="18">
-        <f t="shared" ref="D23:D25" si="1">D6*B23</f>
-        <v>177.9879130662477</v>
-      </c>
-      <c r="E23" s="18">
-        <f t="shared" ref="E23:E25" si="2">E6*B23</f>
-        <v>898.18501178318922</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" ref="F23:F25" si="3">F6*B23</f>
-        <v>4.8335375752814871</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" ref="G23:G25" si="4">G6*B23</f>
-        <v>4.8335375752814871</v>
-      </c>
-      <c r="H23" s="88">
-        <f>SUM(D23:G23)</f>
-        <v>1085.8399999999999</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="18">
-        <f t="shared" si="0"/>
-        <v>0.22083384177343912</v>
-      </c>
-      <c r="D24" s="18">
-        <f t="shared" si="1"/>
-        <v>100.03773032336792</v>
-      </c>
-      <c r="E24" s="18">
-        <f t="shared" si="2"/>
-        <v>5.5208460443359781</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="3"/>
-        <v>937.21882448647568</v>
-      </c>
-      <c r="G24" s="18">
-        <f t="shared" si="4"/>
-        <v>43.062599145820627</v>
-      </c>
-      <c r="H24" s="88">
-        <f>SUM(D24:G24)</f>
-        <v>1085.8400000000001</v>
-      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="18">
-        <f t="shared" si="0"/>
-        <v>0.21909604519774012</v>
-      </c>
-      <c r="D25" s="18">
-        <f t="shared" si="1"/>
-        <v>138.03050847457627</v>
-      </c>
-      <c r="E25" s="18">
-        <f t="shared" si="2"/>
-        <v>6.1346892655367231</v>
-      </c>
-      <c r="F25" s="18">
-        <f t="shared" si="3"/>
-        <v>38.560903954802264</v>
-      </c>
-      <c r="G25" s="18">
-        <f t="shared" si="4"/>
-        <v>903.11389830508472</v>
-      </c>
-      <c r="H25" s="86">
-        <f>SUM(D25:G25)</f>
-        <v>1085.8399999999999</v>
-      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="107" t="s">
+        <v>573</v>
+      </c>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
       <c r="P25" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="E26" s="89">
-        <f>SUM(E22:E25)</f>
-        <v>1472.6953233677757</v>
-      </c>
-      <c r="F26" s="89">
-        <f>SUM(F22:F25)</f>
-        <v>1348.15565935683</v>
-      </c>
-      <c r="G26" s="87">
-        <f>SUM(G22:G25)</f>
-        <v>1453.4955293029818</v>
-      </c>
-      <c r="H26">
-        <f>SUM(D22:G25)</f>
-        <v>27146.000000000015</v>
-      </c>
-      <c r="K26" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="L26" s="45" t="s">
-        <v>598</v>
-      </c>
-      <c r="M26" s="45" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="100" t="s">
+        <v>574</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="H26" s="101" t="s">
+        <v>599</v>
+      </c>
+      <c r="I26" s="60" t="s">
+        <v>600</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="K26" s="43" t="s">
         <v>596</v>
-      </c>
-      <c r="N26" s="45" t="s">
-        <v>619</v>
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="104" t="s">
+      <c r="R26" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="105"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="109"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
       <c r="X26" s="45"/>
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="K27" s="46">
-        <f>SUM(D22,E23,F24,G25 )/H26</f>
-        <v>0.92809677560903847</v>
-      </c>
-      <c r="L27" s="66">
-        <f>(E23+F24+G25)/SUM(E26:G26)</f>
-        <v>0.64068688087613679</v>
-      </c>
-      <c r="M27" s="46">
-        <f>(E23+F24+G25)/SUM(H23:H25)</f>
-        <v>0.84067564729449074</v>
-      </c>
-      <c r="N27" s="67">
-        <f>2*L27*M27/(L27+M27)</f>
-        <v>0.72718169664893262</v>
+      <c r="B27" s="110" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2237</v>
+      </c>
+      <c r="E27" s="18">
+        <v>35</v>
+      </c>
+      <c r="F27" s="45">
+        <v>28</v>
+      </c>
+      <c r="G27" s="45">
+        <v>38</v>
+      </c>
+      <c r="H27" s="103">
+        <f>SUM(D27:G27)</f>
+        <v>2338</v>
+      </c>
+      <c r="I27" s="50">
+        <f>H27/H31</f>
+        <v>0.84863883847549915</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="44">
+        <f>D27/H27</f>
+        <v>0.95680068434559451</v>
+      </c>
+      <c r="L27" s="92">
+        <v>0.88</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="45"/>
@@ -17872,22 +18077,57 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P28" s="102" t="s">
+      <c r="B28" s="111"/>
+      <c r="C28" s="73" t="s">
+        <v>575</v>
+      </c>
+      <c r="D28" s="18">
+        <v>41</v>
+      </c>
+      <c r="E28" s="18">
+        <v>100</v>
+      </c>
+      <c r="F28" s="45">
+        <v>0</v>
+      </c>
+      <c r="G28" s="45">
+        <v>1</v>
+      </c>
+      <c r="H28" s="103">
+        <f>SUM(D28:G28)</f>
+        <v>142</v>
+      </c>
+      <c r="I28" s="50">
+        <f>H28/H31</f>
+        <v>5.1542649727767696E-2</v>
+      </c>
+      <c r="J28" s="63">
+        <f>D28/H28</f>
+        <v>0.28873239436619719</v>
+      </c>
+      <c r="K28" s="33">
+        <f>E28/H28</f>
+        <v>0.70422535211267601</v>
+      </c>
+      <c r="L28" s="92">
+        <v>0.04</v>
+      </c>
+      <c r="P28" s="110" t="s">
         <v>579</v>
       </c>
       <c r="Q28" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R28" s="116">
         <v>12628</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="116">
         <v>344</v>
       </c>
-      <c r="T28" s="18">
+      <c r="T28" s="116">
         <v>200</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="116">
         <v>282</v>
       </c>
       <c r="V28" s="82">
@@ -17908,20 +18148,55 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P29" s="106"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="73" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" s="18">
+        <v>23</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="45">
+        <v>99</v>
+      </c>
+      <c r="G29" s="45">
+        <v>2</v>
+      </c>
+      <c r="H29" s="103">
+        <f>SUM(D29:G29)</f>
+        <v>125</v>
+      </c>
+      <c r="I29" s="50">
+        <f>H29/H31</f>
+        <v>4.5372050816696916E-2</v>
+      </c>
+      <c r="J29" s="63">
+        <f>D29/H29</f>
+        <v>0.184</v>
+      </c>
+      <c r="K29" s="33">
+        <f>F29/H29</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L29" s="92">
+        <v>0.04</v>
+      </c>
+      <c r="P29" s="111"/>
       <c r="Q29" s="73" t="s">
         <v>575</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="116">
         <v>655</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="116">
         <v>3112</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="116">
         <v>29</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="116">
         <v>23</v>
       </c>
       <c r="V29" s="82">
@@ -17942,20 +18217,55 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P30" s="106"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" s="18">
+        <v>25</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="45">
+        <v>1</v>
+      </c>
+      <c r="G30" s="45">
+        <v>124</v>
+      </c>
+      <c r="H30" s="100">
+        <f>SUM(D30:G30)</f>
+        <v>150</v>
+      </c>
+      <c r="I30" s="52">
+        <f>H30/H31</f>
+        <v>5.4446460980036297E-2</v>
+      </c>
+      <c r="J30" s="64">
+        <f>D30/H30</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K30" s="34">
+        <f>G30/H30</f>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="L30" s="92">
+        <v>0.04</v>
+      </c>
+      <c r="P30" s="111"/>
       <c r="Q30" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R30" s="116">
         <v>459</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30" s="116">
         <v>22</v>
       </c>
-      <c r="T30" s="18">
+      <c r="T30" s="116">
         <v>4264</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="116">
         <v>172</v>
       </c>
       <c r="V30" s="82">
@@ -17976,20 +18286,55 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="P31" s="103"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="101">
+        <f>SUM(D27:D30)</f>
+        <v>2326</v>
+      </c>
+      <c r="E31" s="104">
+        <f>SUM(E27:E30)</f>
+        <v>136</v>
+      </c>
+      <c r="F31" s="104">
+        <f>SUM(F27:F30)</f>
+        <v>128</v>
+      </c>
+      <c r="G31" s="102">
+        <f>SUM(G27:G30)</f>
+        <v>165</v>
+      </c>
+      <c r="H31" s="56">
+        <f>SUM(H27:H30)</f>
+        <v>2755</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="P31" s="112"/>
       <c r="Q31" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="116">
         <v>642</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="116">
         <v>14</v>
       </c>
-      <c r="T31" s="18">
+      <c r="T31" s="116">
         <v>195</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="116">
         <v>4105</v>
       </c>
       <c r="V31" s="83">
@@ -18010,6 +18355,44 @@
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C32" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="D32" s="72">
+        <f>D27/D31</f>
+        <v>0.96173688736027518</v>
+      </c>
+      <c r="E32" s="59">
+        <f>E28/E31</f>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="F32" s="59">
+        <f>F29/F31</f>
+        <v>0.7734375</v>
+      </c>
+      <c r="G32" s="60">
+        <f>G30/G31</f>
+        <v>0.75151515151515147</v>
+      </c>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46">
+        <f>SUM(D27,E28,F29,G30 )/H31</f>
+        <v>0.92921960072595278</v>
+      </c>
+      <c r="L32" s="66">
+        <f>(E28+F29+G30)/SUM(E31:G31)</f>
+        <v>0.75291375291375295</v>
+      </c>
+      <c r="M32" s="46">
+        <f>(E28+F29+G30)/SUM(H28:H30)</f>
+        <v>0.77458033573141483</v>
+      </c>
+      <c r="N32" s="67">
+        <f>2*L32*M32/(L32+M32)</f>
+        <v>0.7635933806146572</v>
+      </c>
       <c r="P32" s="18"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="78">
@@ -18047,7 +18430,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="33" spans="16:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P33" s="18"/>
       <c r="Q33" s="78" t="s">
         <v>598</v>
@@ -18088,7 +18471,7 @@
         <v>0.86799727829439788</v>
       </c>
     </row>
-    <row r="34" spans="16:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="P34" s="18"/>
       <c r="Q34" s="45"/>
       <c r="R34" s="45"/>
@@ -18099,7 +18482,17 @@
       <c r="W34" s="45"/>
       <c r="X34" s="45"/>
     </row>
-    <row r="35" spans="16:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C35" s="45"/>
+      <c r="D35" s="107" t="s">
+        <v>573</v>
+      </c>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="45"/>
       <c r="R35" s="45"/>
@@ -18110,20 +18503,79 @@
       <c r="W35" s="45"/>
       <c r="X35" s="45"/>
     </row>
-    <row r="36" spans="16:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C36" s="45"/>
+      <c r="D36" s="100" t="s">
+        <v>574</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="H36" s="101" t="s">
+        <v>599</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>600</v>
+      </c>
+      <c r="J36" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>596</v>
+      </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="45"/>
-      <c r="R36" s="104" t="s">
+      <c r="R36" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="105"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="109"/>
       <c r="V36" s="45"/>
       <c r="W36" s="45"/>
       <c r="X36" s="45"/>
     </row>
-    <row r="37" spans="16:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B37" s="110" t="s">
+        <v>579</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="D37" s="18">
+        <v>2177</v>
+      </c>
+      <c r="E37" s="18">
+        <v>53</v>
+      </c>
+      <c r="F37" s="45">
+        <v>31</v>
+      </c>
+      <c r="G37" s="45">
+        <v>77</v>
+      </c>
+      <c r="H37" s="103">
+        <f>SUM(D37:G37)</f>
+        <v>2338</v>
+      </c>
+      <c r="I37" s="50">
+        <f>H37/H41</f>
+        <v>0.84863883847